--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B046B0-1892-4C77-9E61-0BE22F988D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B6F4EB-AA36-44B6-9049-B68ADECBFCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -333,12 +333,1117 @@
     <t>有機エレクトロルミネッセンス(有機EL：ゆうきイーエル）とは発光を伴う物理現象であり、その現象を利用した有機発光ダイオードや発光ポリマーとも呼ばれる製品一般も指します</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>DRAM  Dynamic Random Access Memory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　データを残しておくために、一定間隔で抜けてしまった電気を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再充電</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（リフレッシュ処理）をしてあげる必要があります</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・DRAMはコンデンサ（蓄電器）にデータを記憶しています。このコンデンサは、電気がたまっているかどうかでデータを記憶していますが、放置しておくと自然に電気が抜けて、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>データが飛んで（動いて）しまいます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・DRAMは記憶が抜けてしまう欠点がありますが、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仕組みが単純で比較的安く</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作ることができます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　また、メモリの大きさに対して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>データを記憶できる量が多い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（密度が高い）ので、SRAMより多くのデータを処理することができます。こういった理由で「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主記憶装置（メインメモリ）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」に使用されています。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・SRAMはコンデンサでなくて、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>フリップフロップ回路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>というものが使用されています。電気は自然と抜けず（動かない（静的）ので）、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>電源を切らない限りはデータを記憶してくれます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>・SRAMは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>キャッシュメモリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で使用</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在最も普及している周辺機器接続のためのインタフェース。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホットプラグ・プラグアンドプレイが可能、バスパワー方式に対応しており小電力のデバイスならコードを介して電源供給が可能なことなどが挙げられる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>シリアルバス規格のひとつであり、主な特徴として、ハブを使うことで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最大127台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>まで接続可能、</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ転送速度は、USB1.0が12Mbps, USB2.0で480Mbps, 最新のUSB3.0では5Gbpsとなり給電能力も強化されている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IEEE1394</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FireWireとも呼ばれるAV機器やコンピュータを接続する高速シリアルインタフェース規格。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>同時に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を接続可能で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最大800Mbps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の速度で通信を行うことができるほか、プラグアンドプレイやホットプラグなどに対応している。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリッピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終的な表示画面の範囲外（視点からみて可視できない部分）にあるデータを、CGの描画対象から除外する処理です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終的な仕上りに影響を与えない余分なデータをカットすることで、後工程で必要となる計算量を減らし、作業効率を高めるために行われます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンダリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CG映像作成における最終段階として，物体のデータをディスプレイに描画できるように映像化する処理である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンチエイリアシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクリーンの画素数が有限であるために図形の境界近くに生じる，階段状のギザギザを目立たなくする処理である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェーディング(陰影処理)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立体感を生じさせるために，物体の表面に陰影を付ける処理である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール結合度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール同士の関連性の強さを示す概念です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール同士の結合度合いが強ければ、関連するモジュールに変更があった場合の影響は大きく、反対に結合度が弱ければ影響を受けにくくなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独立性と保守性の観点から、モジュール分割の際にはモジュール結合度が低くなるように設計することが望まれます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ結合（弱い↑）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理に必要なデータだけを単一のパラメータとして受け渡している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタンプ結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理に必要なデータだけをレコードや構造体などのデータ構造として受け渡している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュールの動作を制御するための要素を受け渡している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大域宣言された単一のデータを、複数のモジュールが参照している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大域宣言されたレコードや構造体などのデータ構造を、複数のモジュールが参照している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容結合（強い↓）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュールの内部を直接参照・使用している</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合分配の法則</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A∪(B∩C)＝(A∪B)∩(A∪C)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A∩(B∪C)＝(A∩B)∪(A∩C)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェア管理ガイドライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェアの違法複製を防止するため，法人，団体などを対象として，ソフトウェアを使用するに当たって実行されるべき事項をとりまとめたものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェア管理責任者、ソフトウェアユーザーといった対象ユーザーごとに実施すべき事項を、管理方法や管理体制といった点から具体的に取りまとめています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムテストの監査</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタイムOS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(RTOS)は、リアルタイム制御が必要とされるシステム用に特化したOSです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタイム制御とは、ジョブの実行が命令された時、限られた資源を使用して、その処理を決められた時刻(デッドライン)までに終了させること目的とする制御方式をいいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタイム処理では目標時間内に処理を完了させることが最重要です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>そのため</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重要度が高い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、あるいはデッドラインが近いタスクに、より</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高い優先度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を与えることで、実行するタスクの順序を強制的に入れ替えることのできる優先度制御方式が適しています。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Network Attached Storage)は、TCP/IPのコンピュータネットワークに直接接続して使用するファイルサーバで、コントローラーとハードディスクから構成されています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルサービス専用のコンピュータなので、専用化や用途に合うようにチューニングされたOSなどにより、高速なファイルサービスと容易な管理機能が実現されています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のプロトコルに対応しているので，異なるOSのサーバ間でもファイル共有が可能である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分岐網羅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボックステストにおける網羅性のレベルである「分岐網羅」は、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>プログラム中の判定条件で結果が真となる場合、偽となる場合を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>少なくとも1回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は実行するようにテストケースを設計する手法です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令網羅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すべての命令（処理）を1回以上通す。最も粒度が粗い.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件網羅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件分岐のすべての組み合わせを1回以上実行する。最も粒度が細かい。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保守性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ITサービスその他の構成アイテムをどの程度迅速かつ効果的に通常の稼働状態に戻せるかを表す指標です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ダウン状態から早く回復できる構成要素ほど、保守性が高いと表現します。簡単に言うと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ダウンタイムがどれだけ短い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>かということです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ITサービスマネジメントでは、通常、システムが停止してからユーザーが利用できるようになるまでの平均時間である「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>平均サービス回復時間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」が保守性を測る指標として使用されます</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>表の中から特定の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を選択する演算</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>表の中から特定の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を選択する演算</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射影</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2つ以上の表を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>共通の列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で関連つけて結合し、新たな表とする演算</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>いずれかに属する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を合わせて新しい表を作る演算</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>表Aに存在し、表Bに存在しない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみで新しい表を作る演算</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナレッジマネジメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業内に散在している知識を共有化し，全体の問題解決力を高める経営を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラット型組織</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迅速な意思決定のために，組織の階層をできるだけ少なくした平型の組織構造によって経営を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベンチマーキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優れた業績を上げている企業との比較分析から，自社の経営革新を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コアコンピタンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他社にはまねのできない，企業独自のノウハウや技術などの強みを核とした経営を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CGI  Common Gateway Interface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの入力した情報によって表示するWebページを変化させるなど、動的なWebページを作成するための仕組みです。CGIはどのプログラム言語を用いても作成できますが、実際にはPHPやPerlが多用されているようです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIME   Multipurpose Internet Mail Extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ASCII文字しか使用できないSMTPを利用したメールで、日本語の２バイトコードや画像データを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>送信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>するための仕組みです</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磁気ディスクのアクセス時間は、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均シーク時間＋平均回転待ち時間＋データ転送時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均シーク時間(シークタイム)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>磁気ディスクのヘッドが、目的のデータが保存されている位置まで移動するのにかかる時間の平均</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均回転待ち時間(サーチタイム)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ転送時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的のデータを読み出すのに要する時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ヘッドの移動が完了した後、読み出すレコードの先頭が磁気ヘッドの位置まで磁気ディスクが回転してくるのを待つ時間の平均。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ディスクが1回転するのにかかる時間の半分が平均回転待ち時間となる。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ転送時間＝（1ブロック容量/1ブロック記憶容量）*ディスク1回転かかる時間</t>
+    <rPh sb="14" eb="16">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均回転待ち時間(サーチタイム)＝ディスク1回転かかる時間/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ管理の固定長方式</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主記憶をいくつかの固定長の区画に分割しておき、タスクが実行されるときにそれぞれのタスクが必要とする区画数を割り当てる方式。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>区画のサイズが同じなので、使用されない空き領域が生じる一方、アドレス計算やサイズ計算などのオーバーヘッドが減り、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>読み書き速度は安定化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>する。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ管理の可変長方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクが実行されるときに、主記憶をそのタスクが必要とする大きさに区切って割り当てる方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>。固定長方式と比較して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メモリの使用効率はよい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が、アドレス計算やサイズ計算などのオーバーヘッドは増加する。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>リアルタイムシステム</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>では速度が要求されるので、メモリ領域の有効活用よりも読み書き速度を優先した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固定長方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のメモリ管理が採用されます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードバック制御</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御対象の現在の状態を定期的に測定し、その測定値を目標値に近づけるように動作する自動制御方式です。室内の温度を一定に保つなどの自動制御システムで多く用いられています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードバック制御では、外乱を検知せず、その修正動作は目標値と測定値の差異によってのみ決定されます。したがって外乱が生じてもそれに対する修正動作は測定値に影響が現れてからになります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードフォワード制御</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外乱自体を検知し、前もって出力への影響を打ち消すように動作します。一般的に、フィードフォワード制御はフィードバック制御と組み合わせて使用されます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サブネットワーク求める方法</t>
+    <rPh sb="8" eb="9">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>あるIPアドレス同士が同じサブネットワークに属しているかは、I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pアドレスとサブネットマスク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND演算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>した結果が、同じであるかどうかで判断します。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +1461,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -391,9 +1518,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -449,6 +1578,104 @@
         <a:xfrm>
           <a:off x="591671" y="7700683"/>
           <a:ext cx="5067739" cy="1493649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>543747</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>128041</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1883045A-0A58-5A76-F10E-5CA77BA2EA3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555812" y="17714259"/>
+          <a:ext cx="5608806" cy="3391194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146156</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>112800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D65FA45D-7B85-C369-6F06-E6D081483AD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6293224" y="17714259"/>
+          <a:ext cx="5524979" cy="3375953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -728,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D68"/>
+  <dimension ref="A2:D197"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1052,24 +2279,651 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="1:3">
       <c r="B65" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="1:3">
       <c r="C66" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="1:3">
       <c r="B67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="1:3">
       <c r="C68" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="C71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="C73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="B74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="C75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="C76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="C94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="C95" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="C96" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="B97" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="C98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="C99" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>15</v>
+      </c>
+      <c r="B100" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="C101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="C102" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="B103" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="C104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="B105" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="C106" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="B107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="C108" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>16</v>
+      </c>
+      <c r="B109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="C110" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="C111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="C112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="C113" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="D114" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="C115" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="D116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="C117" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="D118" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="C119" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="D120" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="C121" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="D122" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="C123" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="D124" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
+        <v>17</v>
+      </c>
+      <c r="B125" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="C126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="C127" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
+        <v>18</v>
+      </c>
+      <c r="B128" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="C129" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="C130" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>19</v>
+      </c>
+      <c r="B131" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>20</v>
+      </c>
+      <c r="B132" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="C133" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="C134" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="C135" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="C136" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>21</v>
+      </c>
+      <c r="B137" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="C138" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="C139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="C140" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>22</v>
+      </c>
+      <c r="B141" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="C142" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="C143" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="B144" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="C145" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="B146" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="C147" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>23</v>
+      </c>
+      <c r="B148" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="C149" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="C150" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="C151" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>24</v>
+      </c>
+      <c r="B152" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="C153" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="B154" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="C155" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="B156" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="C157" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="B158" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="C159" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="B160" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="C161" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>25</v>
+      </c>
+      <c r="B162" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="C163" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="B164" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="C165" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="B166" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="C167" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="B168" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="C169" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>26</v>
+      </c>
+      <c r="B170" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="C171" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>27</v>
+      </c>
+      <c r="B172" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="C173" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>28</v>
+      </c>
+      <c r="B174" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="C175" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="B176" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="C177" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="B178" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="C179" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="C180" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="B181" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="C182" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="C183" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>29</v>
+      </c>
+      <c r="B184" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="C185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="C186" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="B187" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="C188" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="C189" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="C190" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1">
+        <v>30</v>
+      </c>
+      <c r="B191" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="C192" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="C193" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="B194" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="C195" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>31</v>
+      </c>
+      <c r="B196" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="C197" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B6F4EB-AA36-44B6-9049-B68ADECBFCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9642E5-1FD0-4E72-8CEA-AA31152741F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="310">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -1436,6 +1436,581 @@
       </rPr>
       <t>した結果が、同じであるかどうかで判断します。</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2分探索木</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれの要素の枝分かれが2つまでしかない枝分かれして広がっていく構造（二分木）になっていて、すべての要素で値の大小関係が「左≦自分＜右（もしくは、左＜自分≦右）」になっているやつのこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回帰テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(リグレッションテスト)は、保守作業等によりシステムに変更を加えた場合に、それによって以前まで正常に機能していた部分に不具合や影響が出ていないかどうかを検証するテストです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発段階で実施したテストケースをすべて再実施して検証するほか、影響を与え得る部分に限定してテストを再実施するなどの方法があります。退行テストともいいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S/MIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Secure/Multipurpose Internet Mail Extensions)は、電子メールを盗聴や改ざんなどから守るために米国RSA Data Security社によって開発された技術で、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号技術を使用して「認証」「改ざん検出」「暗号化」などの機能を電子メールソフトに提供するものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BASE64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BASE64は、日本語の"2バイトコード"やバイナリデータを64個の英数字の組合せにエンコードする方式です。本来日本語が使用できないSMTPにおいて日本語や添付ファイルを送信する際に利用されています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプティマイザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Optimizer)は、直訳すると「最適化するもの」という意味で、SQL文の処理を最適化する機能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQL文に対する結果は1つでも、RDBMSの内部ではインデックスの使用有無、結合の順番などからいくつかの実行方法が考えられます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプティマイザは、SQL文を処理するために考えられる実行計画を全て検証し、最も効率が良いと予想される実行計画の決定を行います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール強度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モジュール内部の関連性の強さを表し、暗合的強度から機能的強度までの7種類があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗合的強度(低)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関係のない機能をまとめたモジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理的強度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連する複数の機能をまとめたモジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間的強度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムの開始時など、ある特定の時期に実行する機能をまとめたモジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順的強度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連ある逐次的な機能をまとめたモジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡的強度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関連ある逐次的な機能で要素が連絡し合うものをまとめたモジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報的強度</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じデータ構造や資源を扱う機能を一つにまとめたモジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能的強度(高)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一つの機能を実現するためだけのモジュール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MIPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Million Instructions Per Second)は、1秒間に実行可能な命令数を百万単位で表したものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1秒／平均実行時間（ナノ秒）＝回数</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1秒＝１０億ナノ秒</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャマッピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャマッピングは、3DCG表面に模様のついた壁紙のようなものを貼り付けることで質感を向上させる技法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンプマッピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリゴンで表現された3DCGモデルの表面に、揺らぎによる凹凸情報を加えることでより自然な細やかさを表現する技法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラッシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、プロジェクトのスコープを変更せずにコストを追加投入することでプロジェクト全体のスケジュールを短縮させる方法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監査調書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、監査手続の実施内容や発見した問題点、収集した情報およびそれらの分析結果、監査人の結論などを文書化したものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監査調書は、監査報告書に記載される監査結果、監査意見、改善勧告などの根拠となります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Unified Modeling Language)は、オブジェクト指向開発で用いられる標準表記法群です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト間のメッセージ交換を時系列で示します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクティビティ図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムの作業プロセスを示します。いわばUMLのフローチャートであり、各ステップや分岐、並行処理などのプロセスの流れを明確にします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユースケース図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムの機能要件をユーザーの視点から視覚化します。アクター（ユーザーや他のシステム）とユースケース（システムが提供する機能）との関係を示し、システムの利用方法を明確にします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント図はソフトウェアや組み込みコントローラなどのシステムを構成する部品の構造を表現します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンポーネント図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貸借対照表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(たいしゃくたいしょうひょう)は、企業のある一定時点における資産、負債、純資産の額とそれらの比率を表す財務諸表で、バランスシート(B/S)とも呼ばれます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会計期間の期末日時点での財政状態を示したもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNSキャッシュポイズニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、DNSサーバに偽のキャッシュ情報を登録させ、その汚染されたDNSサーバの利用者を、攻撃者の設定した別のサイトに誘導させようとする攻撃手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者の名前解決要求に対して、偽のキャッシュ情報を元にした結果が返されると、利用者は意に反して別のサイトに移動させられてしまいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス指定方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直接アドレス指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間接アドレス指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス部の値で主記憶上のアドレスを指定し、そのアドレスに格納されている値を有効アドレスとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指標アドレス指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス部の値にインデックスレジスタの値を加えたものを有効アドレスとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基底アドレス指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス部の値にベースレジスタの値を加えたものを有効アドレスとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相対アドレス指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス部の値にプログラムカウンターの値を加えたものを有効アドレスとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即値アドレス指定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス部の値を有効アドレスではなく、そのまま演算対象データとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BCP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Business Continuity Plan，事業継続計画)は、予期せぬ重大災害が発生した場合に、必要最低限の事業を継続しつつ、業務を早期に復旧・再開できるようにするための行動計画です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近年、地震、火災・爆発、大規模なシステム障害などが相次いでおり、その結果、基幹となる事業・業務の停止に追い込まれるケースが見られることから策定の重要性が高まっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画があるのとないのでは有事の際に決定的な違いが出るので、経営の観点から定めて置くべき事項と言えます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BSC(バランススコアカード)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業の戦略を実現するために，財務，顧客，内部ビジネスプロセス，学習と成長の視点から戦略を検討したもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPM(Business Process Management)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業の目標を達成するために業務内容や業務の流れを可視化し，一定のサイクルをもって継続的に業務プロセスを改善するもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務効率の向上，業務コストの削減を目的に，業務プロセスを対象としてアウトソースを実施するもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BPO(Business Process Outsourcing)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Secure Sockets Layer)は、通信の暗号化，デジタル証明書を利用した改ざん検出，ノード認証を含む統合セキュアプロトコルです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主にWebブラウザとWebサーバ間でデータを安全にやり取りするための業界標準プロトコルとして使用されています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SSLを利用するWebサーバでは，そのFQDNをデジタル証明書に組み込む。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSI 参照モデル</t>
+  </si>
+  <si>
+    <t>OSI 参照モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCP/IP モデル</t>
+  </si>
+  <si>
+    <t>実装</t>
+  </si>
+  <si>
+    <t>アプリケーション層</t>
+  </si>
+  <si>
+    <t>アプリケーション</t>
+  </si>
+  <si>
+    <t>プログラム</t>
+  </si>
+  <si>
+    <t>プレゼンテーション層</t>
+  </si>
+  <si>
+    <t>セッション層</t>
+  </si>
+  <si>
+    <t>トランスポート層</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>ネットワーク層</t>
+  </si>
+  <si>
+    <t>インターネット層</t>
+  </si>
+  <si>
+    <t>データリンク層</t>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+  </si>
+  <si>
+    <t>インターフェイス層</t>
+  </si>
+  <si>
+    <t>IEEE 802.11(Wi-Fi/無線)</t>
+  </si>
+  <si>
+    <t>デバイスドライバー</t>
+  </si>
+  <si>
+    <t>Network Interface</t>
+  </si>
+  <si>
+    <t>TCP/IP プロトコル</t>
+  </si>
+  <si>
+    <t>HTTP, DNS, DHCP,</t>
+  </si>
+  <si>
+    <t>SSH, MIME, TLS</t>
+  </si>
+  <si>
+    <t>TCP, UDP</t>
+  </si>
+  <si>
+    <t>IP, ICMP, ARP, IPSec</t>
+  </si>
+  <si>
+    <t>イーサネット (有線)</t>
+  </si>
+  <si>
+    <t>物理層</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2相コミット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、トランザクションを、他のサイトに更新可能かどうかを確認する第1フェーズと、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新を確定する第2フェーズに分け、各サイトのトランザクションをコミットもロールバックも可能な中間状態(セキュア状態)にした後、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全サイトがコミットできる場合だけトランザクションをコミットするという方法で分散データベース環境でのトランザクションの原子性・一貫性を保証する手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスクアセスメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Risk Assessment)は、リスクマネジメントにおける「リスクの特定」から「リスクの評価」までの一連の活動です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>損失額と発生確率の予測に基づくリスクの大きさに従うなどの方法で，対応の優先順位を付ける。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ERP(Enterprise Resource Plannning)パッケージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織全体の経営資源と業務プロセスを統合して、計画的に管理するために、企業活動に必要な機能、販売、生産、購買、出荷、会計などのすべてが含まれた情報システムです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入することによって企業内に散在するデータの一元管理を可能にしたり、全社的な業務の統合化を推進することができるメリットがあります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、導入する際にはERPパッケージが想定している業務モデルと現状業務とのフィットギャップ分析を行い、ERPパッケージに適合するように業務プロセスを変更するBPR(Business Process Re-engineering)が必要となります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージが前提としている業務モデルに配慮して，会社全体の業務プロセスを再設計することが重要である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイックソート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象集合から基準となる要素を選び，これよりも大きい要素の集合と小さい要素の集合に分割する。この操作を繰り返すことで，整列を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Queue)は、コンピュータのデータ構造の1つで、先に入力したデータが先に出力される「先入先出し」の構造を持ちます。また、このようなデータの入出力方式は「First In First Out」を略して「FIFO」と呼ばれます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後入先出し構造のスタックに関する記述です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーカイバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(archiver)は、複数のファイルを一つのファイルにまとめたり元に戻したりするソフトウェアで、まとめられたファイルのことを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理積</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND演算</t>
+    <rPh sb="3" eb="5">
+      <t>エンザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>論理和</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OR演算</t>
+    <rPh sb="2" eb="4">
+      <t>エンザン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>排他論理和</t>
+    <rPh sb="0" eb="2">
+      <t>ハイタ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ロンリワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XOR  入力される2つの数値が同じ場合に"0"、異なる場合には"1"が出力されます。この関係はXOR回路(排他的論理和)の真理値表と一致します。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1497,7 +2072,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1514,15 +2089,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1676,6 +2371,55 @@
         <a:xfrm>
           <a:off x="6293224" y="17714259"/>
           <a:ext cx="5524979" cy="3375953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>51874</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>175069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C428EF95-3883-D01F-916E-508AD1156C19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555812" y="58969835"/>
+          <a:ext cx="3772227" cy="2972058"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1955,10 +2699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D197"/>
+  <dimension ref="A2:M331"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A181" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K201" sqref="K201"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A315" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2434,496 +3178,1280 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>16</v>
-      </c>
       <c r="B109" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="C110" t="s">
-        <v>85</v>
+        <v>208</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="C111" t="s">
-        <v>86</v>
+      <c r="B111" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="C112" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="C113" t="s">
-        <v>88</v>
+      <c r="A113" s="1">
+        <v>16</v>
+      </c>
+      <c r="B113" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="D114" t="s">
-        <v>89</v>
+      <c r="C114" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="C115" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="D116" t="s">
-        <v>91</v>
+      <c r="C116" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="C117" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="D118" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="C119" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="D120" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="C121" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="D122" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="C123" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="D124" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="1">
-        <v>17</v>
-      </c>
-      <c r="B125" t="s">
-        <v>100</v>
+      <c r="C125" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="C126" t="s">
-        <v>101</v>
+      <c r="D126" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="C127" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="1">
-        <v>18</v>
-      </c>
-      <c r="B128" t="s">
-        <v>103</v>
+      <c r="D128" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="C129" t="s">
-        <v>104</v>
+      <c r="A129" s="1">
+        <v>17</v>
+      </c>
+      <c r="B129" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="C130" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="1">
-        <v>19</v>
-      </c>
-      <c r="B131" t="s">
-        <v>106</v>
+      <c r="C131" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B132" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="C133" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="C134" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="C135" t="s">
-        <v>110</v>
+      <c r="A135" s="1">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="C136" t="s">
-        <v>111</v>
+      <c r="A136" s="1">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="1">
-        <v>21</v>
-      </c>
-      <c r="B137" t="s">
-        <v>112</v>
+      <c r="C137" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="C138" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="C139" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="C140" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="C142" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="C143" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="B144" t="s">
-        <v>119</v>
+      <c r="C144" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="C145" t="s">
-        <v>120</v>
+      <c r="A145" s="1">
+        <v>22</v>
+      </c>
+      <c r="B145" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="B146" t="s">
-        <v>121</v>
+      <c r="C146" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="C147" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148" s="1">
-        <v>23</v>
-      </c>
       <c r="B148" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="C149" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="C150" t="s">
-        <v>125</v>
+      <c r="B150" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="C151" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B152" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="C153" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="B154" t="s">
-        <v>130</v>
+      <c r="C154" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="C155" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>24</v>
+      </c>
       <c r="B156" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="C157" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="B158" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="C159" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="B160" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="C161" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="1">
-        <v>25</v>
-      </c>
       <c r="B162" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="C163" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="B164" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="C165" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>25</v>
+      </c>
       <c r="B166" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="C167" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="B168" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="C169" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170" s="1">
-        <v>26</v>
-      </c>
       <c r="B170" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="C171" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172" s="1">
-        <v>27</v>
-      </c>
       <c r="B172" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="C173" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B174" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="C175" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>27</v>
+      </c>
       <c r="B176" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="C177" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>28</v>
+      </c>
       <c r="B178" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="C179" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="B180" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="C181" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="B182" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="C183" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="C180" s="2" t="s">
+    <row r="184" spans="1:3">
+      <c r="C184" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="B181" t="s">
+    <row r="185" spans="1:3">
+      <c r="B185" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="C182" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="C183" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1">
-        <v>29</v>
-      </c>
-      <c r="B184" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="C185" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="C186" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="B187" t="s">
-        <v>162</v>
+      <c r="C187" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="C188" t="s">
-        <v>163</v>
+      <c r="A188" s="1">
+        <v>29</v>
+      </c>
+      <c r="B188" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="C189" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="C190" s="3" t="s">
-        <v>165</v>
+      <c r="C190" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191" s="1">
-        <v>30</v>
-      </c>
       <c r="B191" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="C192" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="C193" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="B194" t="s">
-        <v>169</v>
+      <c r="C194" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="C195" t="s">
-        <v>170</v>
+      <c r="A195" s="1">
+        <v>30</v>
+      </c>
+      <c r="B195" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196" s="1">
-        <v>31</v>
-      </c>
-      <c r="B196" t="s">
-        <v>171</v>
+      <c r="C196" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="C197" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="B198" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="C199" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1">
+        <v>31</v>
+      </c>
+      <c r="B200" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="C201" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1">
+        <v>32</v>
+      </c>
+      <c r="B202" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="C203" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
+        <v>33</v>
+      </c>
+      <c r="B204" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="C205" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="C206" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1">
+        <v>34</v>
+      </c>
+      <c r="B207" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="C208" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="C209" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="B210" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="C211" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
+        <v>35</v>
+      </c>
+      <c r="B212" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="C213" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="C214" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="C215" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
+        <v>36</v>
+      </c>
+      <c r="B216" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="C217" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="C218" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="D219" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="C220" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="D221" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="C222" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="D223" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="C224" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="D225" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="C226" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="D227" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="C228" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="D229" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="C230" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="D231" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
+        <v>37</v>
+      </c>
+      <c r="B232" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="C233" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="C234" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="C235" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
+        <v>38</v>
+      </c>
+      <c r="B236" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="C237" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
+        <v>39</v>
+      </c>
+      <c r="B238" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="C239" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="C240" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
+        <v>40</v>
+      </c>
+      <c r="B241" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="C242" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="C243" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="D244" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="C245" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="D246" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="C247" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="D248" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="C249" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="D250" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
+        <v>41</v>
+      </c>
+      <c r="B251" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="C252" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="C253" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1">
+        <v>42</v>
+      </c>
+      <c r="B268" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="C269" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="C270" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1">
+        <v>43</v>
+      </c>
+      <c r="B271" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="C272" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="C273" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="D274" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="C275" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="D276" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="C277" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="D278" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="C279" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="D280" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="C281" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="D282" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
+        <v>44</v>
+      </c>
+      <c r="B283" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="C284" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="C285" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="C286" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="B287" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="C288" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13">
+      <c r="B289" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13">
+      <c r="C290" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13">
+      <c r="B291" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="C292" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
+      <c r="A293" s="1">
+        <v>45</v>
+      </c>
+      <c r="B293" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13">
+      <c r="C294" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13">
+      <c r="C295" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13">
+      <c r="C296" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13">
+      <c r="A297" s="1">
+        <v>46</v>
+      </c>
+      <c r="B297" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13">
+      <c r="C298" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D298" s="6"/>
+      <c r="E298" s="6"/>
+      <c r="F298" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G298" s="6"/>
+      <c r="H298" s="7"/>
+      <c r="I298" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J298" s="6"/>
+      <c r="K298" s="7"/>
+      <c r="L298" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M298" s="7"/>
+    </row>
+    <row r="299" spans="1:13">
+      <c r="C299" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D299" s="6"/>
+      <c r="E299" s="6"/>
+      <c r="F299" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G299" s="6"/>
+      <c r="H299" s="7"/>
+      <c r="I299" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J299" s="6"/>
+      <c r="K299" s="7"/>
+      <c r="L299" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="M299" s="7"/>
+    </row>
+    <row r="300" spans="1:13">
+      <c r="C300" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D300" s="14"/>
+      <c r="E300" s="15"/>
+      <c r="F300" s="8"/>
+      <c r="G300" s="9"/>
+      <c r="H300" s="1"/>
+      <c r="I300" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="J300" s="9"/>
+      <c r="K300" s="1"/>
+      <c r="L300" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="M300" s="1"/>
+    </row>
+    <row r="301" spans="1:13">
+      <c r="C301" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="10"/>
+      <c r="G301" s="11"/>
+      <c r="H301" s="12"/>
+      <c r="I301" s="10"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="12"/>
+      <c r="L301" s="11"/>
+      <c r="M301" s="12"/>
+    </row>
+    <row r="302" spans="1:13">
+      <c r="C302" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D302" s="14"/>
+      <c r="E302" s="14"/>
+      <c r="F302" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G302" s="14"/>
+      <c r="H302" s="15"/>
+      <c r="I302" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="J302" s="14"/>
+      <c r="K302" s="15"/>
+      <c r="L302" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="M302" s="15"/>
+    </row>
+    <row r="303" spans="1:13">
+      <c r="C303" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D303" s="14"/>
+      <c r="E303" s="14"/>
+      <c r="F303" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G303" s="14"/>
+      <c r="H303" s="15"/>
+      <c r="I303" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="J303" s="14"/>
+      <c r="K303" s="15"/>
+      <c r="L303" s="14"/>
+      <c r="M303" s="15"/>
+    </row>
+    <row r="304" spans="1:13">
+      <c r="C304" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
+      <c r="F304" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="G304" s="9"/>
+      <c r="H304" s="1"/>
+      <c r="I304" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J304" s="9"/>
+      <c r="K304" s="1"/>
+      <c r="L304" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="M304" s="1"/>
+    </row>
+    <row r="305" spans="1:13">
+      <c r="C305" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="D305" s="14"/>
+      <c r="E305" s="15"/>
+      <c r="F305" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G305" s="11"/>
+      <c r="H305" s="12"/>
+      <c r="I305" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="J305" s="11"/>
+      <c r="K305" s="12"/>
+      <c r="L305" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="M305" s="12"/>
+    </row>
+    <row r="306" spans="1:13">
+      <c r="A306" s="1">
+        <v>47</v>
+      </c>
+      <c r="B306" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13">
+      <c r="C307" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13">
+      <c r="C308" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13">
+      <c r="C309" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13">
+      <c r="A310" s="1">
+        <v>48</v>
+      </c>
+      <c r="B310" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13">
+      <c r="C311" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13">
+      <c r="C312" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13">
+      <c r="A313" s="1">
+        <v>49</v>
+      </c>
+      <c r="B313" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13">
+      <c r="C314" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13">
+      <c r="C315" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13">
+      <c r="C316" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13">
+      <c r="C317" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13">
+      <c r="A318" s="1">
+        <v>50</v>
+      </c>
+      <c r="B318" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13">
+      <c r="C319" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13">
+      <c r="A320" s="1">
+        <v>51</v>
+      </c>
+      <c r="B320" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="C321" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="B322" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="C323" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
+        <v>52</v>
+      </c>
+      <c r="B324" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="C325" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>53</v>
+      </c>
+      <c r="B326" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="C327" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="B328" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="C329" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="B330" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="C331" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9642E5-1FD0-4E72-8CEA-AA31152741F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FEEC6-8A16-463A-AFCE-6A493630899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="427">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -2011,6 +2011,676 @@
   </si>
   <si>
     <t>XOR  入力される2つの数値が同じ場合に"0"、異なる場合には"1"が出力されます。この関係はXOR回路(排他的論理和)の真理値表と一致します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CIO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Chief Information Officer，最高情報責任者)とは、情報や情報技術に関する上位の役員のことで、経営戦略を実現するための情報戦略やIT投資計画の策定及び実施を主導する職務です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報システムを統括する最高責任者であり、CEO（最高経営責任者）やCOO（最高執行責任者）を補佐し、全社的視点から企業の情報戦略の策定に当たるのが主な責務となります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SOA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Service Oriented Architecture，サービス指向アーキテクチャ)は、業務上の一処理に相当するソフトウェアで実現されている機能や部品を独立したサービスとし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>、それらを組み合わせ連携させることで全体のシステムを構築するという手法、またはそのことを指す言葉です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務機能を提供するサービスを組み合わせることによって，システムを構築する考え方である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UDDI(Universal Description, Discovery and Integration)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XMLを利用して，インターネット上に存在するWebサービスを検索できる仕組みである。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WSDL(Web Services Description Language)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサービスを利用するためのインタフェースやプロトコルを規定したものである。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLA(Service Level Agreement)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サービス提供者と委託者との間でサービスの内容，範囲及び，品質に対する要求水準を明確にして，あらかじめ合意を得ておくことである。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共有ロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを読込むときに使うロックで、資源がこの状態の場合は他のトランザクションによる更新処理ができなくなる。(読込みは可能)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>専有ロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データを更新するときに使うロックで、資源がこの状態の場合は他のトランザクションによる読込みや更新ができなくなる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VDI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Virtual Desktop Infrastructure：仮想デスクトップ基盤)は，サーバ内にクライアントごとの仮想マシンを用意して仮想デスクトップ環境を構築する技術です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者はネットワークを通じてVDIサーバ上の仮想デスクトップ環境に接続し、クライアントPCにはVDIサーバからの操作結果画面のみが転送される仕組みになっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEBサーバ上だけ動作するもの</t>
+  </si>
+  <si>
+    <t>Javaサーブレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java言語を用いてWebページのためのHTML文書を動的に生成したり、データ処理をWebサーバ上で実行するサーバサイドのプログラム技術です。JavaサーブレットはJava言語で書かれているのでさまざまなプラットフォームで使用できる利点があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javaアプレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Javaアプレットは、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTMLと同時にWebを通してダウンロードされブラウザ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上（Webクライアント側）で実行されるJavaアプリケーションプログラムのことです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通フレーム2007</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェア産業界においての"共通の物差し"となることを目的として作成された規格。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取得者と供給者双方または、システム開発に関わる全ての人が、ソフトウェアを中心としたシステムの企画、要件定義、開発、運用、保守の作業内容を共通に参照できるよう詳細に表現したり、ソフトウェア取引を明確化するための基準が記述されています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報システムの有効性及び投資効果を明確にする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクセシビリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「年齢や身体的制約・利用環境などにかかわらず、さまざまな製品や建物やサービスなどを支障なく利用できるかどうか、あるいはその度合いをいいます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリの実効アクセス時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシュメモリと主記憶が存在する場合、実際の1アクセスに要する平均時間です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　(キャッシュメモリのアクセス時間×ヒット率)＋主記憶のアクセス時間×(1－ヒット率)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リバースプロキシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントとWebサーバの間のWebサーバ側に位置し、Webサーバを代理する形でクライアントからのリクエストを受け取り、そのリクエストをWebサーバに受け渡す仕組みです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアントからのリクエストは必ずリバースプロキシを経由するので、リバースプロキシにアクセス制御や認証などの機能をもたせることで、Webサーバのセキュリティ向上が期待できます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DMZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeMilitarized Zoneの略。非武装地帯の意味をもち、外部からアクセスされる可能性のある公開サーバ(Webサーバ・メールサーバ・プロキシサーバなど)などの情報資源を配置するためのネットワークセグメントのことです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部ネットワーク及び内部ネットワークとファイアウォールで隔てられており、ファイアウォールの中でも外でもない中間的なエリアに位置付けられます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォワードプロキシ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単にプロキシともいいます。クライアントとWebサーバの間のクライアント側に位置し、クライアントの要求を受け取り、クライアントに代わってWebサーバにアクセスする仕組みです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロキシARP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロキシARPは、あるホスト宛てのARP要求に対して代理でARP応答をする機能で、ルータなどに備わっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BNF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Backus-Naur Form，バッカス・ナウア記法)は、コンピュータ言語の構文などを記述するために使用される表記法で、プログラム言語ALGOL(アルゴル)の文法を表現するためにジョン・バッカスなどによって考案されました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「::＝」は等号「|」は論理和(OR)を表しているので、問題文のBNFは「&lt;S&gt;は、01または0&lt;S&gt;1である」と解釈します。また&lt;S&gt;は両辺に表れているので再帰的に定義されていることになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバイスドライバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Device Driver)は、コンピュータに接続された周辺機器を管理・制御するための抽象化したインタフェースを、他のアプリケーションソフトウェアに対して提供するためのソフトウェア／プログラムです。単にドライバともいいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移行テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運用テストを終えた新システムを稼働環境に展開する際に、一連の作業内容や作業手順の把握や、移行に伴う問題点とそれに対する事前策の確認のために実施されるテストです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレシデンスダイアグラム法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(PDM法)は、個々の作業を四角で囲み、作業同士を矢印で結ぶことで作業順序や依存関係を表現する図法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bluetooth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>免許申請や使用登録の不要な2.4GHz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帯の電波を用いて、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数mから100m程度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の距離の情報機器間で、電波を使い最大24Mbpsの無線通信を行う規格です</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>公式の規格では、同時に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最大7台</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の対応デバイスと接続できるとされています。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイオメトリクス認証</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指紋，虹彩，顔など人間の身体的な特徴や行動の特性など個人に固有の情報を用いて本人の認証を行う方式です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般にバイオメトリクス認証システムの精度は、本人拒否率(False Rejection Rate:FRR)と他人受入率(False Acceptance Rate:FAR)の組合せで評価されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本人拒否率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本人であるにもかかわらず本人ではないと判断されてしまう確率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人受入率</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人であるにもかかわらず本人であると誤認してしまう確率です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本人拒否率と他人受け入れ率はトレードオフの関係にあり、一方を減少させると他方は増大することになります。通常は十分なセキュリティを確保するため本人拒否率よりも他人受入率が十分に低くなるように設定されています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スパイラルモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報システムやソフトウェアの開発モデルの一つで、開発の初期段階でシステムを複数の独立性の高いサブシステムに分割し、そのサブシステムごとに設計～テストまでのサイクルを繰り返しながらシステムを構築していく開発モデルです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロトタイピングモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロトタイピングモデルは、システム開発プロセスの早い段階でシステムの試作品をつくり、ユーザーにそのイメージを理解させ、承認を得ながら開発を進めていく開発モデルです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成長モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成長モデルは、まずシステムの核となる部分を開発し、引き続きユーザーの要望を取り入れながら機能を追加していくことでシステムを完成させていく開発モデルです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、CPU内部に複数のパイプラインを用意して、パイプラインの各ステージを並列に実行することで処理を高速化する手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパースカラ　　superscalar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のパイプラインを用いて，同時に複数の命令を実行可能にすることによって，高速化を図る方式である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーパイプライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイプラインを更に細分化することによって，高速化を図る方式である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VLIW(Very Long Instruction Word)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令語を長く取り，一つの命令で複数の機能ユニットを同時に制御することによって，高速化を図る方式である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECCメモリといいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(Error Check and Correct)は、誤り訂正符号として</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ハミング符号や垂直水平パリティ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を用いることで、記録内容に発生した誤りを検知・自動訂正できる誤り制御方式です。また、この機能を搭載したメモリを</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信側では送信側と同じ生成多項式を用いて受信データを除算し、送信されてきた誤り検出用のデータと比較することで誤りの有無を判断する方式です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高速に動作し、パリティチェックでは不可能な偶数個の誤りを検出できるという特徴がありますが、誤りの訂正機能は持っていません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Cyclic Redundancy Checkの略で、巡回冗長検査の意味。送信データから</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成多項式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>によって生成した誤り検出用のデータを元データに付加して送信し、</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックサム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>チェックサム(Check Sum)は、元データの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>合計値</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を検査用として付加し、誤りが発生しているかを検査する方式ですが、誤りの訂正機能は持っていません。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パリティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パリティは、送信するデータの一定長のビット列に1ビットの検査ビットを付加し、受信側では受信データとパリティビットを照合することで誤りを検出する方式です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運用テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステムの利用者が業務の流れに沿ってシステムのテストを行い、実際の稼働状況において不具合が発生しないかを検証するために実施されるテストです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用部門の利用者が優先して確認すべき事項なので、業務手順(利用手順)どおりにシステムが動作し、問題なく業務を行うことができるかが重要になります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HEMS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Home Energy Management System，ヘムス)は、家庭で使用されるあらゆる電気機器をネットワークとして繋ぎ、エネルギー消費量を可視化しつつ積極的な制御を行うことで、省エネやピークカットの効果を目指す仕組みです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトスルー方式(write through)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPUから書き込む命令が出たときにキャッシュメモリと同時に主記憶にも書き込む方式。データの整合性は得られるが処理速度は低下する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>常に主記憶とキャッシュの内容が一致するため一貫性の確保は容易だが、主記憶への書き込みが頻繁に行われるので遅い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトバック方式(write back)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CPUから書き込む命令が出たときにキャッシュメモリだけに書き込む方式。主記憶への書き込みはキャッシュメモリからデータが追い出されるときに行われる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主記憶とキャッシュの内容が一致しないため一貫性を保つための制御が複雑になるが、主記憶への書き込み回数が少ないため速い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スループット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Throughput)は、システムで単位時間当たりに処理される仕事の量を表す言葉です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ処理におけるスループットには、コンピュータに搭載されるCPUのクロック周波数やハードディスクの回転速度、OSなど、様々な要因が影響し、システムのパフォーマンスの評価基準となります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターンアラウンドタイムは、利用者がシステムに処理要求を行ってから、すべての結果の出力が終了するまでの時間のことです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターンアラウンドタイム　Turnaround Time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスライス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスライスは、複数あるタスクを一定時間ごとに入れ替えながら処理を行うマルチタスクシステムやタイムシェアリングシステムにおける、各タスクやユーザーに割り当てられる処理時間単位のことです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサーションチェッカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサーションチェッカは、プログラムの正当性を検査するために、変数間で論理的に成立する条件が満たされているかをチェックするツールです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストカバレージ分析</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、ツールを用いて、テストケースがどの程度プログラムのソースコードを網羅しているかを測定することです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースコードの文、分岐、条件、関数などが検証された割合（網羅率）を示すため、テストの品質を客観的に把握することができ、ソフトウェアの品質やテスト妥当性を評価する際の指標になります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ARP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(Address Resolution Protocol)は、IPアドレスから対応する機器の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MACアドレス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を取得するプロトコルです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DHCP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Dynamic Host Configuration Protocolの略。TCP/IPネットワークで、ネットワークに接続するノードへの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IPアドレスの割り当て</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をアドレスプールから自動的に行うプロトコルです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Internet Control Message Protocolの略。インターネットプロトコル(IP)の通信制御を補完するプロトコルで、データ配送中のエラー通知や送達エラーを通知する機能を持っています。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2201,7 +2871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2211,7 +2881,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -2420,6 +3089,55 @@
         <a:xfrm>
           <a:off x="555812" y="58969835"/>
           <a:ext cx="3772227" cy="2972058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>299205</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>198686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5296246A-7906-C599-CFA2-C777F8722F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555812" y="81112659"/>
+          <a:ext cx="2674852" cy="1364098"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2699,10 +3417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M331"/>
+  <dimension ref="A2:M454"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A315" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C332" sqref="C332"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A437" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C454" sqref="C454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4188,120 +4906,114 @@
       <c r="M299" s="7"/>
     </row>
     <row r="300" spans="1:13">
-      <c r="C300" s="13" t="s">
+      <c r="C300" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D300" s="14"/>
-      <c r="E300" s="15"/>
+      <c r="D300" s="13"/>
+      <c r="E300" s="14"/>
       <c r="F300" s="8"/>
-      <c r="G300" s="9"/>
       <c r="H300" s="1"/>
       <c r="I300" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="J300" s="9"/>
       <c r="K300" s="1"/>
-      <c r="L300" s="9" t="s">
+      <c r="L300" t="s">
         <v>264</v>
       </c>
       <c r="M300" s="1"/>
     </row>
     <row r="301" spans="1:13">
-      <c r="C301" s="10" t="s">
+      <c r="C301" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D301" s="11"/>
-      <c r="E301" s="11"/>
-      <c r="F301" s="10"/>
-      <c r="G301" s="11"/>
-      <c r="H301" s="12"/>
-      <c r="I301" s="10"/>
-      <c r="J301" s="11"/>
-      <c r="K301" s="12"/>
-      <c r="L301" s="11"/>
-      <c r="M301" s="12"/>
+      <c r="D301" s="10"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="10"/>
+      <c r="H301" s="11"/>
+      <c r="I301" s="9"/>
+      <c r="J301" s="10"/>
+      <c r="K301" s="11"/>
+      <c r="L301" s="10"/>
+      <c r="M301" s="11"/>
     </row>
     <row r="302" spans="1:13">
-      <c r="C302" s="13" t="s">
+      <c r="C302" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D302" s="14"/>
-      <c r="E302" s="14"/>
-      <c r="F302" s="13" t="s">
+      <c r="D302" s="13"/>
+      <c r="E302" s="13"/>
+      <c r="F302" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G302" s="14"/>
-      <c r="H302" s="15"/>
-      <c r="I302" s="13" t="s">
+      <c r="G302" s="13"/>
+      <c r="H302" s="14"/>
+      <c r="I302" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="J302" s="14"/>
-      <c r="K302" s="15"/>
-      <c r="L302" s="14" t="s">
+      <c r="J302" s="13"/>
+      <c r="K302" s="14"/>
+      <c r="L302" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="M302" s="15"/>
+      <c r="M302" s="14"/>
     </row>
     <row r="303" spans="1:13">
-      <c r="C303" s="13" t="s">
+      <c r="C303" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D303" s="14"/>
-      <c r="E303" s="14"/>
-      <c r="F303" s="13" t="s">
+      <c r="D303" s="13"/>
+      <c r="E303" s="13"/>
+      <c r="F303" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="G303" s="14"/>
-      <c r="H303" s="15"/>
-      <c r="I303" s="13" t="s">
+      <c r="G303" s="13"/>
+      <c r="H303" s="14"/>
+      <c r="I303" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="J303" s="14"/>
-      <c r="K303" s="15"/>
-      <c r="L303" s="14"/>
-      <c r="M303" s="15"/>
+      <c r="J303" s="13"/>
+      <c r="K303" s="14"/>
+      <c r="L303" s="13"/>
+      <c r="M303" s="14"/>
     </row>
     <row r="304" spans="1:13">
       <c r="C304" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="D304" s="9"/>
-      <c r="E304" s="9"/>
       <c r="F304" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="G304" s="9"/>
       <c r="H304" s="1"/>
       <c r="I304" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="J304" s="9"/>
       <c r="K304" s="1"/>
-      <c r="L304" s="9" t="s">
+      <c r="L304" t="s">
         <v>275</v>
       </c>
       <c r="M304" s="1"/>
     </row>
     <row r="305" spans="1:13">
-      <c r="C305" s="13" t="s">
+      <c r="C305" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D305" s="14"/>
-      <c r="E305" s="15"/>
-      <c r="F305" s="10" t="s">
+      <c r="D305" s="13"/>
+      <c r="E305" s="14"/>
+      <c r="F305" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G305" s="11"/>
-      <c r="H305" s="12"/>
-      <c r="I305" s="10" t="s">
+      <c r="G305" s="10"/>
+      <c r="H305" s="11"/>
+      <c r="I305" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="J305" s="11"/>
-      <c r="K305" s="12"/>
-      <c r="L305" s="11" t="s">
+      <c r="J305" s="10"/>
+      <c r="K305" s="11"/>
+      <c r="L305" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="M305" s="12"/>
+      <c r="M305" s="11"/>
     </row>
     <row r="306" spans="1:13">
       <c r="A306" s="1">
@@ -4452,6 +5164,661 @@
     <row r="331" spans="1:3">
       <c r="C331" t="s">
         <v>309</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>54</v>
+      </c>
+      <c r="B332" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="C333" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="C334" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>55</v>
+      </c>
+      <c r="B335" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="C336" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="C337" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="C338" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="B339" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="C340" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="B341" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="C342" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="B343" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="C344" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1">
+        <v>56</v>
+      </c>
+      <c r="B345" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="C346" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="B347" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="C348" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1">
+        <v>57</v>
+      </c>
+      <c r="B355" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="C356" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="C357" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1">
+        <v>58</v>
+      </c>
+      <c r="B358" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="C359" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="C360" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="B361" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="C362" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1">
+        <v>59</v>
+      </c>
+      <c r="B363" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="C364" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="C365" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="C366" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1">
+        <v>60</v>
+      </c>
+      <c r="B367" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="C368" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1">
+        <v>61</v>
+      </c>
+      <c r="B369" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="C370" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="C371" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1">
+        <v>62</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="C373" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="C374" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="B375" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="C376" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="C377" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="B378" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="C379" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="B380" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="C381" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1">
+        <v>63</v>
+      </c>
+      <c r="B382" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="C383" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="C384" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1">
+        <v>64</v>
+      </c>
+      <c r="B385" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="C386" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1">
+        <v>65</v>
+      </c>
+      <c r="B387" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="C388" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="B389" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="C390" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="C391" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1">
+        <v>66</v>
+      </c>
+      <c r="B392" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="C393" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1">
+        <v>67</v>
+      </c>
+      <c r="B394" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="C395" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="C396" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1">
+        <v>68</v>
+      </c>
+      <c r="B397" t="s">
+        <v>366</v>
+      </c>
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="C398" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="C399" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="C400" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="D401" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="C402" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="D403" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="C404" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1">
+        <v>69</v>
+      </c>
+      <c r="B405" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="C406" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="B407" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="C408" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="B409" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="C410" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1">
+        <v>70</v>
+      </c>
+      <c r="B411" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="C412" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="C413" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="B414" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="C415" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="B416" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="C417" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1">
+        <v>71</v>
+      </c>
+      <c r="B418" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="C419" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="C420" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="B421" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="C422" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="C423" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="C424" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="B425" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="C426" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="B427" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="C428" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1">
+        <v>72</v>
+      </c>
+      <c r="B429" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="C430" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1">
+        <v>73</v>
+      </c>
+      <c r="B431" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="C432" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="C433" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="B434" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="C435" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="C436" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1">
+        <v>74</v>
+      </c>
+      <c r="B437" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="C438" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="C439" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="B440" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="C441" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="B442" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="C443" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1">
+        <v>75</v>
+      </c>
+      <c r="B444" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="C445" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="B446" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="C447" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="C448" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1">
+        <v>76</v>
+      </c>
+      <c r="B449" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="C450" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="B451" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="C452" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="B453" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="C454" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12FEEC6-8A16-463A-AFCE-6A493630899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AEF9E1-0496-4471-A7EB-31DE6F3BE4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2592" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="516">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -2683,12 +2683,647 @@
     <t>Internet Control Message Protocolの略。インターネットプロトコル(IP)の通信制御を補完するプロトコルで、データ配送中のエラー通知や送達エラーを通知する機能を持っています。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>終了 – 開始関係（FS）</t>
+  </si>
+  <si>
+    <t>終了 – 終了関係（FF）</t>
+  </si>
+  <si>
+    <t>開始 – 開始関係（SS）</t>
+  </si>
+  <si>
+    <t>開始 – 終了関係（SF）</t>
+  </si>
+  <si>
+    <t>ベンチマークテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価対象の業務の典型的な処理プログラムを用いて、ハードウェア、ソフトウェア、入出力や制御プログラムを含めたシステムの総合的な処理性能を定量的に測定して性能を評価する手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演算、ディスクアクセス、グラフィックス描画に用にシステムの使用目的に合わせたプログラムや、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LRU Least Recently Used</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FlFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>First-in First-outの略。置き換え対象の中に最も古くから存在するページを追い出す"先入れ先出し"のアルゴリズムです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LFU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>置き換え対象の中で最も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>長い時間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>参照されていないものを置き換え対象とするアルゴリズムです</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Least Frequently Usedの略。置き換え対象の中で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最も参照回数の少ない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ページを置き換えるアルゴリズムです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊休時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼働時間＝遊休時間/(1-使用率）</t>
+    <rPh sb="0" eb="2">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シヨウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSMA/CD方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝送路上に他のノードからフレームが送出されていないかを確認する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数の通信が同時に行われた場合は衝突を検出し、送信を中止してランダム時間待ってから再び送信をする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Carrier Sense Multiple Access with Collision Detection　　　搬送波感知多重アクセス／衝突検出方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>複数のクライアントは同じ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回線を共用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>し、他者が通信をしていなければ自分の通信を開始する。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度制御方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ノードに論理的な順位付けを行い，送信権を順次受け渡し，これを受け取ったノードだけが送信を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トークンパッシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ノードを環状に接続して，送信権を制御するための特殊なフレームを巡回させ，これを受け取ったノードだけが送信を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスロットを割り当てられたノードだけが送信を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TDMA方式　　Time Division Multiple Access</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム監査人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>監査結果に改善提案を記載した場合は、その提案に基づいて所要の措置が講じられているかどうかを確認し、改善状況を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>モニタリング</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>しなければなりません。このシステム監査人のシステム監査後の役割を「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>フォローアップ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」と言います。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RFID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Radio Frequency IDentification)は、ID情報を埋め込んだRFタグ(ICタグ)から電磁界や電波を用いて情報のやり取りを行う技術です。通信可能距離は数cm～数m程度です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RFIDの技術は、非接触型ICカード(Suica、PASMOなど)や電子マネー(Edyなど)、無人レジ、在庫管理などに活用されています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汚れに強く，記録された情報を梱包の外から読むことができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドレス部の値をそのまま有効アドレスとする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>即値オペランド方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オペランド部の値にアドレスではなく演算対象のデータを直接指定するため、他の方式のように演算対象データを取り出すためのメモリ参照を行うことはありません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MPEG-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MPEG-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数M～数十Mビット／秒という広い範囲の圧縮方式であり、蓄積型メディア、放送、通信で共通に利用できる汎用の方式である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MPEG-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MPEG-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動画・音声全般を扱う多様なマルチメディア符号化フォーマットを規定していて、パソコンで動画を扱う際によく使われるDivXやXvidはMPEG-4 Visual(Video)の技術を利用したものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1.5Mビット／秒程度の圧縮方式であり、主にCD-ROMなどの蓄積型メディアを対象にしている。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CD-ROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に1時間程度の動画を記録することを目的に設計された方式。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>60Mビット／秒を超える圧縮方式であり、主に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高品質なテレビ放送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を対象にしている。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MPEG-7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>MPEG-1,2,3,4とは異なり、動画データのエンコードが目的ではなく、XMLをベースとしたメタデータ記述によるマルチメディアデータの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高速な内容検索</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を目的とした国際標準化規格。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>数十k～数百kビット／秒という</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>低ビットレート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の圧縮方式の一つであり、主に携帯電子機器などへの利用を対象にしています。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファンクションポイント法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト見積りにおいて、外部入出力や内部ファイルの数と難易度の高さから論理的に開発規模を見積もる手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムの機能と複雑さなどの因子をもとにファンクションポイントを算出して、開発工数を見積ります。利用者側に見える出力帳票をもとに、開発規模を見積もるので依頼者側とのコンセンサス（合意）が取りやすいという特徴があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファンクションポイント法は、外部入出力と内部ファイル数などの個数と開発難易度からファンクションポイントを求め、それを基に開発規模を見積もる手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>putnamモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総開発工数から，それを分解した各開発工程の工数を推定するトップダウン式の手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dotyモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェア開発の工数は、プログラムのステップ数の指数乗に比例するという考え方で開発工数を見積もる手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COCOMO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Constructive Cost Modelの略。予想されるプログラム行数にエンジニアの能力や要求の信頼性などの補正係数を掛け合わせて開発工数や期間，要員や生産性を見積もる手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOT(NOT（A・B）* NOT（C・D）) = A*B + C*D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュ法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコードのキー値とハッシュ関数を用いて格納アドレスを計算するアクセス方法です。連続したデータ探索には向きませんが、少ない回数のデータ探索であれば線形探索や2分探索よりも探索時間が短くて済みます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>競争地位戦略</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場においてナンバー1のシェアを誇る企業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャレンジャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダーに次ぐシェアを保持し、リーダーに競争をしかける企業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニッチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さいながらも特定の市場で、独自の地位を築いている企業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォロワー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダーやチャレンジャーの戦略を模倣して、市場での地位を維持している企業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辞書攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辞書に載っている英単語、人名、パスワードによく使われる文字列などを大量に登録したリスト(辞書ファイル)を用意して、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つずつ試していくことでパスワードを解読しようとする攻撃手法。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スニッフィング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通信経路上を流れるパケットを盗聴して、その内容からパスワードの不正取得を試みる攻撃手法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルートフォース攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードとして設定可能な文字数と文字種の組合せを全て試すことで、パスワードの不正取得を試みる攻撃手法。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード長が短く、使用可能な文字種が少ない場合には、この手法によって破られる可能性が高くなってしまう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16進数　→　２進数</t>
+    <rPh sb="2" eb="4">
+      <t>シンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>０　→　0000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F　→　1111</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3層スキーマ構造</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(ANSI/SPARCモデル)は、概念スキーマ、外部スキーマ、内部スキーマの3つのグループに分けてデータ定義を行うデータベースモデルです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概念スキーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>データベース化対象の業務とデータの内容を論理的な構造として記述したもの。関係モデルでは、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E-R図の作成、表定義、表の正規化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が概念スキーマに相当する。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部スキーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>データの利用者からの見方を記述したもの。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQLのビュー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が外部スキーマに該当する。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部スキーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>データを記憶装置上にどのような形式で格納するかを記述したものです。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ファイル編成やインデックスの設定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>などが内部スキーマに相当する。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキーマの役割は、データベースの論理的・物理的なデータ構造が変更されたときの影響をユーザーやアプリケーションに与えないようにすること（プログラムからの独立性を保証すること）です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2728,6 +3363,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -3057,14 +3701,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>51874</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>175069</xdr:rowOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>175070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3106,14 +3750,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>348</xdr:row>
+      <xdr:row>356</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>299205</xdr:colOff>
-      <xdr:row>353</xdr:row>
-      <xdr:rowOff>198686</xdr:rowOff>
+      <xdr:row>361</xdr:row>
+      <xdr:rowOff>198687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3138,6 +3782,55 @@
         <a:xfrm>
           <a:off x="555812" y="81112659"/>
           <a:ext cx="2674852" cy="1364098"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131550</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>131405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39F33B29-1540-0613-3A69-01911540DC05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555812" y="30766871"/>
+          <a:ext cx="2507197" cy="830652"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3417,10 +4110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M454"/>
+  <dimension ref="A2:M547"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A437" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C454" sqref="C454"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A538" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D549" sqref="D549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4017,1808 +4710,2292 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="1">
+      <c r="C132" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
         <v>18</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B137" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="C133" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="C134" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1">
-        <v>19</v>
-      </c>
-      <c r="B135" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1">
-        <v>20</v>
-      </c>
-      <c r="B136" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="C137" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="C138" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="C139" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="C140" t="s">
-        <v>111</v>
+      <c r="A140" s="1">
+        <v>19</v>
+      </c>
+      <c r="B140" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B141" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="C142" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="C143" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="C144" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="1">
-        <v>22</v>
-      </c>
-      <c r="B145" t="s">
-        <v>116</v>
+      <c r="C145" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="C146" t="s">
-        <v>117</v>
+      <c r="A146" s="1">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="C147" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="B148" t="s">
-        <v>119</v>
+      <c r="C148" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="C149" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>22</v>
+      </c>
       <c r="B150" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="C151" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152" s="1">
-        <v>23</v>
-      </c>
-      <c r="B152" t="s">
-        <v>123</v>
+      <c r="C152" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="C153" t="s">
-        <v>124</v>
+      <c r="B153" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="C154" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="C155" t="s">
-        <v>126</v>
+      <c r="B155" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="1">
-        <v>24</v>
-      </c>
-      <c r="B156" t="s">
-        <v>127</v>
+      <c r="C156" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="C157" t="s">
-        <v>128</v>
+      <c r="A157" s="1">
+        <v>23</v>
+      </c>
+      <c r="B157" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="B158" t="s">
-        <v>130</v>
+      <c r="C158" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="C159" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="C160" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>24</v>
+      </c>
+      <c r="B161" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="C162" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="B163" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="C164" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="B160" t="s">
+    <row r="165" spans="1:3">
+      <c r="B165" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="C161" t="s">
+    <row r="166" spans="1:3">
+      <c r="C166" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
-      <c r="B162" t="s">
+    <row r="167" spans="1:3">
+      <c r="B167" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="C163" t="s">
+    <row r="168" spans="1:3">
+      <c r="C168" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="B164" t="s">
+    <row r="169" spans="1:3">
+      <c r="B169" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="C165" t="s">
+    <row r="170" spans="1:3">
+      <c r="C170" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="1">
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
         <v>25</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B171" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="C167" t="s">
+    <row r="172" spans="1:3">
+      <c r="C172" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="B168" t="s">
+    <row r="173" spans="1:3">
+      <c r="B173" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="C169" t="s">
+    <row r="174" spans="1:3">
+      <c r="C174" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="B170" t="s">
+    <row r="175" spans="1:3">
+      <c r="B175" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="C171" t="s">
+    <row r="176" spans="1:3">
+      <c r="C176" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="B172" t="s">
+    <row r="177" spans="1:3">
+      <c r="B177" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="C173" t="s">
+    <row r="178" spans="1:3">
+      <c r="C178" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1">
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
         <v>26</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B179" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="C175" t="s">
+    <row r="180" spans="1:3">
+      <c r="C180" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="1">
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
         <v>27</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B181" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="C177" t="s">
+    <row r="182" spans="1:3">
+      <c r="C182" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1">
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
         <v>28</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B183" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="C179" t="s">
+    <row r="184" spans="1:3">
+      <c r="C184" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="B180" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="C181" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="B182" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="C183" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="C184" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="B185" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="C186" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="B187" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="C188" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="C189" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="B190" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="C191" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="C187" s="2" t="s">
+    <row r="192" spans="1:3">
+      <c r="C192" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="1">
+    <row r="193" spans="1:3">
+      <c r="A193" s="1">
         <v>29</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B193" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="C189" t="s">
+    <row r="194" spans="1:3">
+      <c r="C194" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="C190" t="s">
+    <row r="195" spans="1:3">
+      <c r="C195" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="B191" t="s">
+    <row r="196" spans="1:3">
+      <c r="B196" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="C192" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="C193" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="C194" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="1">
-        <v>30</v>
-      </c>
-      <c r="B195" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="C196" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="C197" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="B198" t="s">
-        <v>169</v>
+      <c r="C198" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="C199" t="s">
-        <v>170</v>
+      <c r="C199" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B200" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="C201" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202" s="1">
-        <v>32</v>
-      </c>
-      <c r="B202" t="s">
-        <v>173</v>
+      <c r="C202" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="C203" t="s">
-        <v>174</v>
+      <c r="B203" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204" s="1">
-        <v>33</v>
-      </c>
-      <c r="B204" t="s">
-        <v>175</v>
+      <c r="C204" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="C205" t="s">
-        <v>176</v>
+      <c r="A205" s="1">
+        <v>31</v>
+      </c>
+      <c r="B205" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="C206" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B207" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="C208" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="C209" t="s">
-        <v>180</v>
+      <c r="A209" s="1">
+        <v>33</v>
+      </c>
+      <c r="B209" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="B210" t="s">
-        <v>181</v>
+      <c r="C210" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="C211" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B212" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="C213" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="C214" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="C215" t="s">
-        <v>186</v>
+      <c r="B215" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="1">
-        <v>36</v>
-      </c>
-      <c r="B216" t="s">
-        <v>187</v>
+      <c r="C216" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="C217" t="s">
-        <v>188</v>
+      <c r="A217" s="1">
+        <v>35</v>
+      </c>
+      <c r="B217" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="C218" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="D219" t="s">
-        <v>190</v>
+      <c r="C219" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="C220" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="D221" t="s">
-        <v>192</v>
+      <c r="A221" s="1">
+        <v>36</v>
+      </c>
+      <c r="B221" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="C222" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="C223" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="D224" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="C225" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="D226" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="C227" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="D223" t="s">
+    <row r="228" spans="1:4">
+      <c r="D228" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="C224" t="s">
+    <row r="229" spans="1:4">
+      <c r="C229" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="D225" t="s">
+    <row r="230" spans="1:4">
+      <c r="D230" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="C226" t="s">
+    <row r="231" spans="1:4">
+      <c r="C231" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="D227" t="s">
+    <row r="232" spans="1:4">
+      <c r="D232" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4">
-      <c r="C228" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4">
-      <c r="D229" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4">
-      <c r="C230" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4">
-      <c r="D231" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="1">
-        <v>37</v>
-      </c>
-      <c r="B232" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="C233" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="C234" t="s">
-        <v>205</v>
+      <c r="D234" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="C235" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="1">
-        <v>38</v>
-      </c>
-      <c r="B236" t="s">
-        <v>211</v>
+      <c r="D236" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="C237" t="s">
-        <v>212</v>
+      <c r="A237" s="1">
+        <v>37</v>
+      </c>
+      <c r="B237" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="1">
-        <v>39</v>
-      </c>
-      <c r="B238" t="s">
-        <v>213</v>
+      <c r="C238" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="C239" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="C240" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="1">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B241" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="C242" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="C243" t="s">
-        <v>218</v>
+      <c r="A243" s="1">
+        <v>39</v>
+      </c>
+      <c r="B243" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="D244" t="s">
-        <v>219</v>
+      <c r="C244" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="C245" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="D246" t="s">
-        <v>221</v>
+      <c r="A246" s="1">
+        <v>40</v>
+      </c>
+      <c r="B246" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="C247" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="D248" t="s">
-        <v>223</v>
+      <c r="C248" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="C249" t="s">
-        <v>225</v>
+      <c r="D249" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="D250" t="s">
-        <v>224</v>
+      <c r="C250" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="1">
-        <v>41</v>
-      </c>
-      <c r="B251" t="s">
-        <v>226</v>
+      <c r="D251" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="C252" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="D253" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="C254" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="D255" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
+        <v>41</v>
+      </c>
+      <c r="B256" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="C253" t="s">
+    <row r="258" spans="3:3">
+      <c r="C258" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="1">
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>42</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B273" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
-      <c r="C269" t="s">
+    <row r="274" spans="1:4">
+      <c r="C274" t="s">
         <v>230</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="C270" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="1">
-        <v>43</v>
-      </c>
-      <c r="B271" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="C272" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="C273" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="D274" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="C275" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="D276" t="s">
-        <v>237</v>
+      <c r="A276" s="1">
+        <v>43</v>
+      </c>
+      <c r="B276" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="C277" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="D278" t="s">
-        <v>239</v>
+        <v>460</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="C279" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="D280" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="C281" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="D282" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="1">
-        <v>44</v>
-      </c>
-      <c r="B283" t="s">
-        <v>244</v>
+      <c r="C283" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="284" spans="1:4">
-      <c r="C284" t="s">
-        <v>245</v>
+      <c r="D284" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="C285" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="D286" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="C287" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="D288" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="C289" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="D290" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
+        <v>44</v>
+      </c>
+      <c r="B291" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="C292" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="C293" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="C286" t="s">
+    <row r="294" spans="1:4">
+      <c r="C294" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="B287" t="s">
+    <row r="295" spans="1:4">
+      <c r="B295" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="C288" t="s">
+    <row r="296" spans="1:4">
+      <c r="C296" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="289" spans="1:13">
-      <c r="B289" t="s">
+    <row r="297" spans="1:4">
+      <c r="B297" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="290" spans="1:13">
-      <c r="C290" t="s">
+    <row r="298" spans="1:4">
+      <c r="C298" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="291" spans="1:13">
-      <c r="B291" t="s">
+    <row r="299" spans="1:4">
+      <c r="B299" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="292" spans="1:13">
-      <c r="C292" t="s">
+    <row r="300" spans="1:4">
+      <c r="C300" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="293" spans="1:13">
-      <c r="A293" s="1">
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>45</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B301" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="294" spans="1:13">
-      <c r="C294" t="s">
+    <row r="302" spans="1:4">
+      <c r="C302" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="295" spans="1:13">
-      <c r="C295" t="s">
+    <row r="303" spans="1:4">
+      <c r="C303" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="296" spans="1:13">
-      <c r="C296" s="4" t="s">
+    <row r="304" spans="1:4">
+      <c r="C304" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="297" spans="1:13">
-      <c r="A297" s="1">
+    <row r="305" spans="1:13">
+      <c r="A305" s="1">
         <v>46</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B305" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="298" spans="1:13">
-      <c r="C298" s="5" t="s">
+    <row r="306" spans="1:13">
+      <c r="C306" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D298" s="6"/>
-      <c r="E298" s="6"/>
-      <c r="F298" s="5" t="s">
+      <c r="D306" s="6"/>
+      <c r="E306" s="6"/>
+      <c r="F306" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="G298" s="6"/>
-      <c r="H298" s="7"/>
-      <c r="I298" s="5" t="s">
+      <c r="G306" s="6"/>
+      <c r="H306" s="7"/>
+      <c r="I306" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="J298" s="6"/>
-      <c r="K298" s="7"/>
-      <c r="L298" s="6" t="s">
+      <c r="J306" s="6"/>
+      <c r="K306" s="7"/>
+      <c r="L306" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="M298" s="7"/>
-    </row>
-    <row r="299" spans="1:13">
-      <c r="C299" s="5" t="s">
+      <c r="M306" s="7"/>
+    </row>
+    <row r="307" spans="1:13">
+      <c r="C307" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D299" s="6"/>
-      <c r="E299" s="6"/>
-      <c r="F299" s="5" t="s">
+      <c r="D307" s="6"/>
+      <c r="E307" s="6"/>
+      <c r="F307" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="G299" s="6"/>
-      <c r="H299" s="7"/>
-      <c r="I299" s="5" t="s">
+      <c r="G307" s="6"/>
+      <c r="H307" s="7"/>
+      <c r="I307" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="J299" s="6"/>
-      <c r="K299" s="7"/>
-      <c r="L299" s="6" t="s">
+      <c r="J307" s="6"/>
+      <c r="K307" s="7"/>
+      <c r="L307" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="M299" s="7"/>
-    </row>
-    <row r="300" spans="1:13">
-      <c r="C300" s="12" t="s">
+      <c r="M307" s="7"/>
+    </row>
+    <row r="308" spans="1:13">
+      <c r="C308" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="D300" s="13"/>
-      <c r="E300" s="14"/>
-      <c r="F300" s="8"/>
-      <c r="H300" s="1"/>
-      <c r="I300" s="8" t="s">
+      <c r="D308" s="13"/>
+      <c r="E308" s="14"/>
+      <c r="F308" s="8"/>
+      <c r="H308" s="1"/>
+      <c r="I308" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="K300" s="1"/>
-      <c r="L300" t="s">
+      <c r="K308" s="1"/>
+      <c r="L308" t="s">
         <v>264</v>
       </c>
-      <c r="M300" s="1"/>
-    </row>
-    <row r="301" spans="1:13">
-      <c r="C301" s="9" t="s">
+      <c r="M308" s="1"/>
+    </row>
+    <row r="309" spans="1:13">
+      <c r="C309" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="D301" s="10"/>
-      <c r="E301" s="10"/>
-      <c r="F301" s="9"/>
-      <c r="G301" s="10"/>
-      <c r="H301" s="11"/>
-      <c r="I301" s="9"/>
-      <c r="J301" s="10"/>
-      <c r="K301" s="11"/>
-      <c r="L301" s="10"/>
-      <c r="M301" s="11"/>
-    </row>
-    <row r="302" spans="1:13">
-      <c r="C302" s="12" t="s">
+      <c r="D309" s="10"/>
+      <c r="E309" s="10"/>
+      <c r="F309" s="9"/>
+      <c r="G309" s="10"/>
+      <c r="H309" s="11"/>
+      <c r="I309" s="9"/>
+      <c r="J309" s="10"/>
+      <c r="K309" s="11"/>
+      <c r="L309" s="10"/>
+      <c r="M309" s="11"/>
+    </row>
+    <row r="310" spans="1:13">
+      <c r="C310" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="D302" s="13"/>
-      <c r="E302" s="13"/>
-      <c r="F302" s="12" t="s">
+      <c r="D310" s="13"/>
+      <c r="E310" s="13"/>
+      <c r="F310" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G302" s="13"/>
-      <c r="H302" s="14"/>
-      <c r="I302" s="12" t="s">
+      <c r="G310" s="13"/>
+      <c r="H310" s="14"/>
+      <c r="I310" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="J302" s="13"/>
-      <c r="K302" s="14"/>
-      <c r="L302" s="13" t="s">
+      <c r="J310" s="13"/>
+      <c r="K310" s="14"/>
+      <c r="L310" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="M302" s="14"/>
-    </row>
-    <row r="303" spans="1:13">
-      <c r="C303" s="12" t="s">
+      <c r="M310" s="14"/>
+    </row>
+    <row r="311" spans="1:13">
+      <c r="C311" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="D303" s="13"/>
-      <c r="E303" s="13"/>
-      <c r="F303" s="12" t="s">
+      <c r="D311" s="13"/>
+      <c r="E311" s="13"/>
+      <c r="F311" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="G303" s="13"/>
-      <c r="H303" s="14"/>
-      <c r="I303" s="12" t="s">
+      <c r="G311" s="13"/>
+      <c r="H311" s="14"/>
+      <c r="I311" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="J303" s="13"/>
-      <c r="K303" s="14"/>
-      <c r="L303" s="13"/>
-      <c r="M303" s="14"/>
-    </row>
-    <row r="304" spans="1:13">
-      <c r="C304" s="8" t="s">
+      <c r="J311" s="13"/>
+      <c r="K311" s="14"/>
+      <c r="L311" s="13"/>
+      <c r="M311" s="14"/>
+    </row>
+    <row r="312" spans="1:13">
+      <c r="C312" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="F304" s="8" t="s">
+      <c r="F312" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="H304" s="1"/>
-      <c r="I304" s="8" t="s">
+      <c r="H312" s="1"/>
+      <c r="I312" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="K304" s="1"/>
-      <c r="L304" t="s">
+      <c r="K312" s="1"/>
+      <c r="L312" t="s">
         <v>275</v>
       </c>
-      <c r="M304" s="1"/>
-    </row>
-    <row r="305" spans="1:13">
-      <c r="C305" s="12" t="s">
+      <c r="M312" s="1"/>
+    </row>
+    <row r="313" spans="1:13">
+      <c r="C313" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D305" s="13"/>
-      <c r="E305" s="14"/>
-      <c r="F305" s="9" t="s">
+      <c r="D313" s="13"/>
+      <c r="E313" s="14"/>
+      <c r="F313" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G305" s="10"/>
-      <c r="H305" s="11"/>
-      <c r="I305" s="9" t="s">
+      <c r="G313" s="10"/>
+      <c r="H313" s="11"/>
+      <c r="I313" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="J305" s="10"/>
-      <c r="K305" s="11"/>
-      <c r="L305" s="10" t="s">
+      <c r="J313" s="10"/>
+      <c r="K313" s="11"/>
+      <c r="L313" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="M305" s="11"/>
-    </row>
-    <row r="306" spans="1:13">
-      <c r="A306" s="1">
+      <c r="M313" s="11"/>
+    </row>
+    <row r="314" spans="1:13">
+      <c r="A314" s="1">
         <v>47</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B314" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13">
-      <c r="C307" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13">
-      <c r="C308" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13">
-      <c r="C309" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13">
-      <c r="A310" s="1">
-        <v>48</v>
-      </c>
-      <c r="B310" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13">
-      <c r="C311" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13">
-      <c r="C312" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13">
-      <c r="A313" s="1">
-        <v>49</v>
-      </c>
-      <c r="B313" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13">
-      <c r="C314" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="315" spans="1:13">
       <c r="C315" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
     <row r="316" spans="1:13">
       <c r="C316" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="317" spans="1:13">
-      <c r="C317" s="2" t="s">
-        <v>295</v>
+      <c r="C317" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="318" spans="1:13">
       <c r="A318" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B318" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="319" spans="1:13">
       <c r="C319" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="320" spans="1:13">
-      <c r="A320" s="1">
-        <v>51</v>
-      </c>
-      <c r="B320" t="s">
-        <v>298</v>
+      <c r="C320" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="C321" t="s">
-        <v>299</v>
+      <c r="A321" s="1">
+        <v>49</v>
+      </c>
+      <c r="B321" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="B322" t="s">
-        <v>300</v>
+      <c r="C322" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="C323" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" s="1">
-        <v>52</v>
-      </c>
-      <c r="B324" t="s">
-        <v>302</v>
+      <c r="C324" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="C325" t="s">
-        <v>303</v>
+      <c r="C325" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B326" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="C327" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>51</v>
+      </c>
       <c r="B328" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="C329" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="B330" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="C331" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B332" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="C333" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="C334" t="s">
-        <v>312</v>
+      <c r="A334" s="1">
+        <v>53</v>
+      </c>
+      <c r="B334" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="1">
-        <v>55</v>
-      </c>
-      <c r="B335" t="s">
-        <v>313</v>
+      <c r="C335" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="336" spans="1:3">
-      <c r="C336" t="s">
-        <v>314</v>
+      <c r="B336" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="C337" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="338" spans="1:3">
-      <c r="C338" t="s">
-        <v>316</v>
+      <c r="B338" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="B339" t="s">
-        <v>317</v>
+      <c r="C339" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="340" spans="1:3">
-      <c r="C340" t="s">
-        <v>318</v>
+      <c r="A340" s="1">
+        <v>54</v>
+      </c>
+      <c r="B340" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="341" spans="1:3">
-      <c r="B341" t="s">
-        <v>319</v>
+      <c r="C341" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="C342" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="343" spans="1:3">
+      <c r="A343" s="1">
+        <v>55</v>
+      </c>
       <c r="B343" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="C344" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" s="1">
-        <v>56</v>
-      </c>
-      <c r="B345" t="s">
-        <v>323</v>
+      <c r="C345" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="C346" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="B347" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="C348" t="s">
-        <v>326</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="B349" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="C350" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="B351" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="C352" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1">
+        <v>56</v>
+      </c>
+      <c r="B353" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="C354" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="355" spans="1:3">
-      <c r="A355" s="1">
-        <v>57</v>
-      </c>
       <c r="B355" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="C356" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3">
-      <c r="C357" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="1">
-        <v>58</v>
-      </c>
-      <c r="B358" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="C359" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="C360" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="B361" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="C362" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B363" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="C364" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="C365" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="C366" s="2" t="s">
-        <v>338</v>
+      <c r="A366" s="1">
+        <v>58</v>
+      </c>
+      <c r="B366" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="367" spans="1:3">
-      <c r="A367" s="1">
-        <v>60</v>
-      </c>
-      <c r="B367" t="s">
-        <v>339</v>
+      <c r="C367" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="C368" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="369" spans="1:3">
-      <c r="A369" s="1">
-        <v>61</v>
-      </c>
       <c r="B369" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="C370" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="371" spans="1:3">
-      <c r="C371" s="2" t="s">
-        <v>343</v>
+      <c r="A371" s="1">
+        <v>59</v>
+      </c>
+      <c r="B371" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="372" spans="1:3">
-      <c r="A372" s="1">
-        <v>62</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>344</v>
+      <c r="C372" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="C373" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="374" spans="1:3">
-      <c r="C374" t="s">
-        <v>346</v>
+      <c r="C374" s="2" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="375" spans="1:3">
+      <c r="A375" s="1">
+        <v>60</v>
+      </c>
       <c r="B375" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="C376" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="377" spans="1:3">
-      <c r="C377" t="s">
-        <v>349</v>
+      <c r="A377" s="1">
+        <v>61</v>
+      </c>
+      <c r="B377" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="378" spans="1:3">
-      <c r="B378" t="s">
-        <v>350</v>
+      <c r="C378" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="379" spans="1:3">
-      <c r="C379" t="s">
-        <v>351</v>
+      <c r="C379" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="380" spans="1:3">
-      <c r="B380" t="s">
-        <v>352</v>
+      <c r="A380" s="1">
+        <v>62</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="C381" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="A382" s="1">
-        <v>63</v>
-      </c>
-      <c r="B382" t="s">
-        <v>354</v>
+      <c r="C382" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="C383" t="s">
-        <v>355</v>
+      <c r="B383" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="C384" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="385" spans="1:3">
-      <c r="A385" s="1">
-        <v>64</v>
-      </c>
-      <c r="B385" t="s">
-        <v>357</v>
+      <c r="C385" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="386" spans="1:3">
-      <c r="C386" t="s">
-        <v>358</v>
+      <c r="B386" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="387" spans="1:3">
-      <c r="A387" s="1">
-        <v>65</v>
-      </c>
-      <c r="B387" t="s">
-        <v>359</v>
+      <c r="C387" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="388" spans="1:3">
-      <c r="C388" t="s">
-        <v>360</v>
+      <c r="B388" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="389" spans="1:3">
-      <c r="B389" t="s">
-        <v>398</v>
+      <c r="C389" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="C390" t="s">
-        <v>399</v>
+      <c r="A390" s="1">
+        <v>63</v>
+      </c>
+      <c r="B390" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="C391" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="C392" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1">
+        <v>64</v>
+      </c>
+      <c r="B393" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="C394" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1">
+        <v>65</v>
+      </c>
+      <c r="B395" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="C396" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="B397" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="C398" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="C399" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="392" spans="1:3">
-      <c r="A392" s="1">
+    <row r="400" spans="1:3">
+      <c r="A400" s="1">
         <v>66</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B400" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
-      <c r="C393" t="s">
+    <row r="401" spans="1:4">
+      <c r="C401" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
-      <c r="A394" s="1">
-        <v>67</v>
-      </c>
-      <c r="B394" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
-      <c r="C395" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
-      <c r="C396" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="1">
-        <v>68</v>
-      </c>
-      <c r="B397" t="s">
-        <v>366</v>
-      </c>
-      <c r="C397" s="3"/>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="C398" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
-      <c r="C399" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
-      <c r="C400" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4">
-      <c r="D401" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="C402" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
     </row>
     <row r="403" spans="1:4">
-      <c r="D403" t="s">
-        <v>372</v>
+      <c r="C403" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="C404" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="C405" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1">
+        <v>67</v>
+      </c>
+      <c r="B406" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="C407" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="C408" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1">
+        <v>68</v>
+      </c>
+      <c r="B409" t="s">
+        <v>366</v>
+      </c>
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="C410" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="C411" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="C412" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="D413" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="C414" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="D415" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="C416" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="1">
+    <row r="417" spans="1:3">
+      <c r="A417" s="1">
         <v>69</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B417" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
-      <c r="C406" t="s">
+    <row r="418" spans="1:3">
+      <c r="C418" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
-      <c r="B407" t="s">
+    <row r="419" spans="1:3">
+      <c r="B419" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="C408" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
-      <c r="B409" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="C410" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="1">
-        <v>70</v>
-      </c>
-      <c r="B411" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4">
-      <c r="C412" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
-      <c r="C413" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="B414" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="C415" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="B416" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3">
-      <c r="C417" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3">
-      <c r="A418" s="1">
-        <v>71</v>
-      </c>
-      <c r="B418" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
-      <c r="C419" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="C420" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="B421" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="C422" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="423" spans="1:3">
-      <c r="C423" t="s">
-        <v>391</v>
+      <c r="A423" s="1">
+        <v>70</v>
+      </c>
+      <c r="B423" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="C424" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="425" spans="1:3">
-      <c r="B425" t="s">
-        <v>394</v>
+      <c r="C425" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="426" spans="1:3">
-      <c r="C426" t="s">
-        <v>395</v>
+      <c r="B426" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="427" spans="1:3">
-      <c r="B427" t="s">
-        <v>396</v>
+      <c r="C427" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="428" spans="1:3">
-      <c r="C428" t="s">
-        <v>397</v>
+      <c r="B428" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="429" spans="1:3">
-      <c r="A429" s="1">
-        <v>72</v>
-      </c>
-      <c r="B429" t="s">
-        <v>401</v>
+      <c r="C429" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="430" spans="1:3">
-      <c r="C430" t="s">
-        <v>402</v>
+      <c r="A430" s="1">
+        <v>71</v>
+      </c>
+      <c r="B430" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="431" spans="1:3">
-      <c r="A431" s="1">
-        <v>73</v>
-      </c>
-      <c r="B431" t="s">
-        <v>403</v>
+      <c r="C431" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="C432" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="433" spans="1:3">
-      <c r="C433" t="s">
-        <v>405</v>
+      <c r="B433" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="434" spans="1:3">
-      <c r="B434" t="s">
-        <v>406</v>
+      <c r="C434" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="C435" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="C436" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="437" spans="1:3">
-      <c r="A437" s="1">
-        <v>74</v>
-      </c>
       <c r="B437" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="C438" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="439" spans="1:3">
-      <c r="C439" t="s">
-        <v>411</v>
+      <c r="B439" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="440" spans="1:3">
-      <c r="B440" t="s">
-        <v>413</v>
+      <c r="C440" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="441" spans="1:3">
-      <c r="C441" t="s">
-        <v>412</v>
+      <c r="A441" s="1">
+        <v>72</v>
+      </c>
+      <c r="B441" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="442" spans="1:3">
-      <c r="B442" t="s">
-        <v>414</v>
+      <c r="C442" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="443" spans="1:3">
-      <c r="C443" t="s">
-        <v>415</v>
+      <c r="A443" s="1">
+        <v>73</v>
+      </c>
+      <c r="B443" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="444" spans="1:3">
-      <c r="A444" s="1">
-        <v>75</v>
-      </c>
-      <c r="B444" t="s">
-        <v>416</v>
+      <c r="C444" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="C445" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="B446" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="C447" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="C448" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B449" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="C450" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="C451" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="B452" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="C453" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="B454" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="C455" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1">
+        <v>75</v>
+      </c>
+      <c r="B456" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="C457" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="B458" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="C459" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="C460" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1">
+        <v>76</v>
+      </c>
+      <c r="B461" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="C462" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
-      <c r="B451" t="s">
+    <row r="463" spans="1:3">
+      <c r="B463" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
-      <c r="C452" t="s">
+    <row r="464" spans="1:3">
+      <c r="C464" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
-      <c r="B453" t="s">
+    <row r="465" spans="1:3">
+      <c r="B465" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
-      <c r="C454" t="s">
+    <row r="466" spans="1:3">
+      <c r="C466" t="s">
         <v>426</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1">
+        <v>77</v>
+      </c>
+      <c r="B467" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="C468" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="C469" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1">
+        <v>78</v>
+      </c>
+      <c r="B470" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="C471" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="B472" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="C473" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="B474" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="C475" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1">
+        <v>79</v>
+      </c>
+      <c r="B476" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="C477" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1">
+        <v>80</v>
+      </c>
+      <c r="B478" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="C479" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="C480" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="C481" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="C482" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="B483" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="C484" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="B485" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="C486" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="B487" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="C488" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1">
+        <v>81</v>
+      </c>
+      <c r="B489" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="C490" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="C491" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1">
+        <v>82</v>
+      </c>
+      <c r="B492" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="C493" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="C494" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="C495" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1">
+        <v>83</v>
+      </c>
+      <c r="B496" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="C497" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="B498" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="C499" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="B500" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="C501" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="B502" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="C503" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="C504" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="B505" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="C506" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1">
+        <v>84</v>
+      </c>
+      <c r="B507" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="C508" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="C509" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="C510" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="B511" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="C512" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="B513" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="C514" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="B515" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="C516" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1">
+        <v>85</v>
+      </c>
+      <c r="B517" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="C518" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1">
+        <v>86</v>
+      </c>
+      <c r="B519" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="C520" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="D521" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="C522" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="D523" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="C524" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="D525" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="C526" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="D527" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1">
+        <v>87</v>
+      </c>
+      <c r="B528" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="C529" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="C530" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="B531" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="C532" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="B533" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="C534" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="C535" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1">
+        <v>88</v>
+      </c>
+      <c r="B536" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="C537" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="C538" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="1">
+        <v>89</v>
+      </c>
+      <c r="B539" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="C540" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="C541" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="D542" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="C543" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="D544" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="545" spans="3:4">
+      <c r="C545" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="546" spans="3:4">
+      <c r="D546" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="547" spans="3:4">
+      <c r="C547" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AEF9E1-0496-4471-A7EB-31DE6F3BE4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1169AF66-633C-430B-8FA3-5373FD71D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2592" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="597">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -1666,10 +1666,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システムの機能要件をユーザーの視点から視覚化します。アクター（ユーザーや他のシステム）とユースケース（システムが提供する機能）との関係を示し、システムの利用方法を明確にします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コンポーネント図はソフトウェアや組み込みコントローラなどのシステムを構成する部品の構造を表現します。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1873,13 +1869,7 @@
     <t>SSH, MIME, TLS</t>
   </si>
   <si>
-    <t>TCP, UDP</t>
-  </si>
-  <si>
     <t>IP, ICMP, ARP, IPSec</t>
-  </si>
-  <si>
-    <t>イーサネット (有線)</t>
   </si>
   <si>
     <t>物理層</t>
@@ -3316,6 +3306,537 @@
   </si>
   <si>
     <t>スキーマの役割は、データベースの論理的・物理的なデータ構造が変更されたときの影響をユーザーやアプリケーションに与えないようにすること（プログラムからの独立性を保証すること）です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>エンドシステム間のデータ伝送を実現するために，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ルーティング(通信経路選択)や中継</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>などを行う役割をもつ。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隣接ノード間の伝送制御手順(誤り検出，再送制御など)を提供する役割をもつ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理的な通信媒体の特性の差を吸収し，上位の層に透過的な伝送路を提供する役割をもつ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラー検出/再送などの伝送制御を担い通信の品質を保証する役割をもつ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションプロセス間での会話を構成し，同期をとり，データ交換を管理するために必要な手段を提供する役割をもつ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの表示形式を管理したり、文字コードやエンコードの種類などを規定する役割をもつ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各層のうち，最も利用者に近い部分であり，ファイル転送や電子メールなどの機能が実現されている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通鍵暗号方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>"共通鍵"という名前のとおり暗号化と復号に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同じ鍵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を使用します。錠をかけるのと開けるのとで同じ鍵を使用する、玄関のドアのようなイメージです</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QC管理図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工程の状態や品質を時系列に表した図で、工程が安定した状態にあるかどうかを判断するために用います</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>。例えば日ごとに不良品の個数を記録していき、統計的に求めた上方管理限界と下方管理限界を超えた位置に値が記録された場合には、その日に何らかの異常が発生していることがわかります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送信方式</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションから送信されたデータは、OSI基本参照モデル（TCP/IP階層モデル）の各層ごとのヘッダーが付加されて次の階層に渡されていきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション層で生成されたデータは、トランスポート層ではポート番号を含む「TCPヘッダー」、ネットワーク層ではIPアドレスを含む「IPヘッダー」、データリンク層ではMACアドレスを含む「MACヘッダー」がそれぞれ付加されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラウンドロビン方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行可能状態の各タスクは待ち行列で管理され、一定時間内に処理が終わらなかったタスクは、待ち行列の最後尾に移され先頭になるのを待つという流れを繰り返します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OSが各タスクに一定のCPU時間（タイムクウォンタムやタイムスライスという）を順番に割り当てていくタスクスケジューリング方式です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各タスクに，均等にCPU時間を割り当てて実行させる方式である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MTBF　Mean Time Between Failures</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムが修理され正常に稼働し始めてから、次回故障するまでの平均故障間隔のことです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>稼働率 = MTBF / (MTBF + MTTR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MTTR　　Mean Time To Repair　　平均修復時間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予防保守を実施する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非機能要件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とは、業務要件を実現するために必要なシステムの機能要件以外の要件のことで制約条件や品質要求がこれに該当します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>TCP, UDP,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TLS</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>イーサネット (有線),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L2TP</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EVA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Economic Value Addedの略で経済的付加価値のこと。企業が一定期間に生み出した経済的価値を評価する指標のひとつです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IRR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Internal Rate of Returnの略で内部収益率のこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投資により将来得られるキャッシュフローの現在価値と投資額の現在価値とが等しくなる割引率(内部収益率)を求め、投資により見込まれる内部収益率が本来得るべき利回りより大きいかどうかで投資の可否を判断する手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NPV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Net Present Valueの略で正味現在価値のこと。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投資により得られるキャッシュフローを現在価値に換算し、そこから投資額を引いた正味現在価値を求め、その額が0(ゼロ)を上回っているかどうかで投資の可否を判断する手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(Return on Investment：投資利益率)は、投資額に対してどれだけ利益を生み出しているかを見る尺度で、「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ROI(%)＝利益額÷投資額×100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>」の式で算出します。ROIが大きいほど投資対効果が高いということになります。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webビーコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とはWeb標識という意味で、マーケティングなどの目的でWebページに埋め込んだ非常に小さい画像(ほとんどは1×1ピクセル)をいいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像の表示回数などにより利用者のページ遷移などの情報を取得し、収集された情報をもとにWebサイトのアクセス解析などが行われます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データの正規化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースを構築する際にデータの重複や矛盾を排除して、データの整合性と一貫性を図るために行われます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウォークスルー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計上の誤りを早期に発見することを目的として、各工程の終了時点で、作成者を含めた複数の関係者が設計書やソースコードを検査するデザインレビューの手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①原則として管理者には参加させない、②誤りの発見を目的としその場で解決策を議論しない、③事前に資料を配布しておくことで短時間で効率よく行うなどの特徴があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>机上デバッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>机上デバッグは、紙面に印刷したソースコードを見ながら人力で誤りを探し取り除く手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップダウンテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テストのときに上位のモジュールから下位のモジュールへと順に結合しながらテストをしていく手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並行シミュレーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別途用意したテスト用のプログラムと検証対象のプログラムに同じデータを入力して出力値を比較する手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UMLのクラス図における多重度の記法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スワッピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のプログラムを主記憶にロードすることで主記憶の効率的な利用を行う方法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんらかの理由で主記憶上にあるプログラムが長時間待ち状態になっている場合に、そのプログラムを実行中のまま補助記憶上のスワップと呼ばれる場所に退避し、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主記憶に格納できない大きいプログラムをいくつかのブロックに分割し、その時の処理に必要なブロックだけを主記憶にロードして実行する方式です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスライシング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数あるタスクを一定時間ごとに入れ替えながら処理を行うマルチタスクシステムやタイムシェアリングシステムにおいて、各タスクやユーザーに処理時間単位を割り当てられることをいいます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホワイトボックステスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>プログラムやモジュールの単体テストとして実施されるテスト手法で、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内部構造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に基づき仕様書どおりに動作するかを検証するために実施されます。内部構造が明らかな状態でテストを行うことからホワイトボックステストと呼ばれています。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニューメリックチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(numeric check)とは、入力データが数値かどうかをチェックすることです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリップフロップ回路</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DRAMと比較してリフレッシュ動作が不要、消費電力が少ないなどの理由で読み書きを高速化しやすい長所があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>は、2つの安定状態をもつことで1ビットの状態を表現することができる順序回路で、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SRAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の記憶セルに使用されています。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>システムの機能要件をユーザーの視点から視覚化します。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>アクター</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（ユーザーや他のシステム）とユースケース（システムが提供する機能）との関係を示し、システムの利用方法を明確にします。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムに要求される機能を利用者の視点から記述した図です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主に要求分析段階でユーザーの要件を特定するために作成され、ユースケース図を有効に活用することにより、システムの全体像を開発者と利用者が一緒に評価しやすくなる利点があります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アンゾフの成長マトリクス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンパイラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高水準語で記述されたソースコードをコンピュータが理解できる機械語に一括変換する（＝コンパイルする）ソフトウェアです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムコードを解析して，実行時の処理効率を高めたオブジェクトコードを生成する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ISMS  Information Security Management System</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>組織における情報セキュリティを管理するための仕組みです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JIS Q 27001に基づき，組織が構築した情報セキュリティマネジメントシステムの適合性を評価する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正の整数の10進表示のけた数Dと2進表示のけた数Bとの関係を表す式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10^D≒2^B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D= Blog(_10)2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hadoop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(ハドゥープ)は、ペタバイト級の大規模データの蓄積・処理の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分散処理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を実現するミドルウェアです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Googleが論文として発表した分散処理フレームワーク「MapReduce」および分散ファイルシステム「Google File System」を基盤技術に、オープンソースとしてJavaで実装したものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分散ファイルシステムのHDFS(Hadoop Distributed File System)と、分散処理のフレームワークであるHadoop MapReduceの2つから構成されます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3554,13 +4075,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>35859</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38539</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>104120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3603,13 +4124,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>543747</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>128041</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3652,13 +4173,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>146156</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>112800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3701,13 +4222,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>258</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>51874</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>275</xdr:row>
       <xdr:rowOff>175070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3750,14 +4271,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>356</xdr:row>
+      <xdr:row>361</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>299205</xdr:colOff>
-      <xdr:row>361</xdr:row>
-      <xdr:rowOff>198687</xdr:rowOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>198686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3799,13 +4320,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>131550</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>131405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3831,6 +4352,349 @@
         <a:xfrm>
           <a:off x="555812" y="30766871"/>
           <a:ext cx="2507197" cy="830652"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>554</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>299886</xdr:colOff>
+      <xdr:row>563</xdr:row>
+      <xdr:rowOff>104630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1072B6B1-E875-C7C0-09E3-487D219F15AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555812" y="127962212"/>
+          <a:ext cx="5364945" cy="2202371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>567</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371942</xdr:colOff>
+      <xdr:row>576</xdr:row>
+      <xdr:rowOff>104630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4877E0C-4FAF-88C3-3A0D-9B3E889AC6BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555812" y="130992282"/>
+          <a:ext cx="4092295" cy="2202371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>580</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>417666</xdr:colOff>
+      <xdr:row>590</xdr:row>
+      <xdr:rowOff>168754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D61995-173C-9F58-BA30-B13EB41D1252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555812" y="134022353"/>
+          <a:ext cx="4138019" cy="2499577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>601</xdr:row>
+      <xdr:rowOff>215153</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295344</xdr:colOff>
+      <xdr:row>618</xdr:row>
+      <xdr:rowOff>139290</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3012E79-FFB9-0113-2754-28A8737E489A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="564777" y="139132235"/>
+          <a:ext cx="4679085" cy="3886537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>644</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>308560</xdr:colOff>
+      <xdr:row>649</xdr:row>
+      <xdr:rowOff>130100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D40DB2E-75FB-8E79-3541-2158ABC44A89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="645459" y="148939624"/>
+          <a:ext cx="2011854" cy="1295512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>644</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>444414</xdr:colOff>
+      <xdr:row>647</xdr:row>
+      <xdr:rowOff>55198</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CABE4DC-F201-FCF0-7F74-EEEC8706A908}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3021106" y="148939624"/>
+          <a:ext cx="2461473" cy="754445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>665</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>283963</xdr:colOff>
+      <xdr:row>676</xdr:row>
+      <xdr:rowOff>88084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27D9BF3-E01D-2D9D-E37E-EAA082ECCED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="645459" y="154300518"/>
+          <a:ext cx="2659610" cy="2651990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4110,15 +4974,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M547"/>
+  <dimension ref="A2:X687"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A538" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D549" sqref="D549"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A679" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D690" sqref="D690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.69921875" customWidth="1"/>
     <col min="3" max="3" width="4.69921875" customWidth="1"/>
   </cols>
@@ -4155,2847 +5019,3376 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>3</v>
-      </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="C10" t="s">
+    <row r="13" spans="1:3">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="C12" t="s">
+    <row r="15" spans="1:3">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="C14" t="s">
+    <row r="17" spans="1:4">
+      <c r="C17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
+    <row r="19" spans="1:4">
+      <c r="C19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="B17" t="s">
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="C18" t="s">
+    <row r="21" spans="1:4">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="B19" t="s">
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="C20" t="s">
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="C22" t="s">
+    <row r="25" spans="1:4">
+      <c r="C25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="D23" t="s">
+    <row r="26" spans="1:4">
+      <c r="D26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="C24" t="s">
+    <row r="27" spans="1:4">
+      <c r="C27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="D25" t="s">
+    <row r="28" spans="1:4">
+      <c r="D28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="C26" t="s">
+    <row r="29" spans="1:4">
+      <c r="C29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="D27" t="s">
+    <row r="30" spans="1:4">
+      <c r="D30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="C28" t="s">
+    <row r="31" spans="1:4">
+      <c r="C31" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="D29" t="s">
+    <row r="32" spans="1:4">
+      <c r="D32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="C30" t="s">
+    <row r="33" spans="1:4">
+      <c r="C33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="D31" t="s">
+    <row r="34" spans="1:4">
+      <c r="D34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="C32" t="s">
+    <row r="35" spans="1:4">
+      <c r="C35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="D33" t="s">
+    <row r="36" spans="1:4">
+      <c r="D36" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
         <v>7</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="C43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="C44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="B45" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="C46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="B47" t="s">
+    <row r="50" spans="1:3">
+      <c r="B50" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="C48" t="s">
+    <row r="51" spans="1:3">
+      <c r="C51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="B49" t="s">
+    <row r="52" spans="1:3">
+      <c r="B52" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="C50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="C52" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="C53" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="C55" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>9</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="C58" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1">
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
         <v>10</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B59" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="C57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>11</v>
-      </c>
-      <c r="B58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="C59" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="C60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="C62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>12</v>
+      </c>
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="C65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="B63" t="s">
+    <row r="66" spans="1:3">
+      <c r="B66" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="C64" t="s">
+    <row r="67" spans="1:3">
+      <c r="C67" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="B65" t="s">
+    <row r="68" spans="1:3">
+      <c r="B68" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="C66" t="s">
+    <row r="69" spans="1:3">
+      <c r="C69" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="B67" t="s">
+    <row r="70" spans="1:3">
+      <c r="B70" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="C68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>13</v>
-      </c>
-      <c r="B69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="C70" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="C71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="C72" t="s">
-        <v>62</v>
+      <c r="A72" s="1">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="C73" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="B74" t="s">
-        <v>64</v>
+      <c r="C74" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="C75" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="C76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="C78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="C79" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
         <v>14</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B95" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="C93" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="C94" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="C95" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="C96" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="B97" t="s">
-        <v>72</v>
+      <c r="C97" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="C98" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="C99" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>15</v>
-      </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="C101" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="C102" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>15</v>
+      </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="C104" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="C105" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="B106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="C107" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="B105" t="s">
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="C106" t="s">
+    <row r="109" spans="1:3">
+      <c r="C109" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="B107" t="s">
+    <row r="110" spans="1:3">
+      <c r="B110" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="C108" t="s">
+    <row r="111" spans="1:3">
+      <c r="C111" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="B109" t="s">
+    <row r="112" spans="1:3">
+      <c r="B112" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="C110" t="s">
+    <row r="113" spans="1:4">
+      <c r="C113" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="B111" t="s">
+    <row r="114" spans="1:4">
+      <c r="B114" t="s">
         <v>209</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="C112" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1">
-        <v>16</v>
-      </c>
-      <c r="B113" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="C114" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="C115" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="C116" t="s">
-        <v>87</v>
+      <c r="A116" s="1">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="C117" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="D118" t="s">
-        <v>89</v>
+      <c r="C118" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="C119" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="C120" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="D121" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="C122" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="D120" t="s">
+    <row r="123" spans="1:4">
+      <c r="D123" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="C121" t="s">
+    <row r="124" spans="1:4">
+      <c r="C124" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="D122" t="s">
+    <row r="125" spans="1:4">
+      <c r="D125" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="C123" t="s">
+    <row r="126" spans="1:4">
+      <c r="C126" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="D124" t="s">
+    <row r="127" spans="1:4">
+      <c r="D127" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="C125" t="s">
+    <row r="128" spans="1:4">
+      <c r="C128" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="D126" t="s">
+    <row r="129" spans="1:4">
+      <c r="D129" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="C127" t="s">
+    <row r="130" spans="1:4">
+      <c r="C130" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="D128" t="s">
+    <row r="131" spans="1:4">
+      <c r="D131" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="1">
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>17</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B132" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="C130" t="s">
+    <row r="133" spans="1:4">
+      <c r="C133" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="C131" t="s">
+    <row r="134" spans="1:4">
+      <c r="C134" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="C132" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1">
+    <row r="135" spans="1:4">
+      <c r="C135" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>18</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B140" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="C138" t="s">
+    <row r="141" spans="1:4">
+      <c r="C141" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="C139" t="s">
+    <row r="142" spans="1:4">
+      <c r="C142" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="1">
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>19</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B143" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="1">
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>20</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B144" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="C142" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="C143" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="C144" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="C145" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="1">
-        <v>21</v>
-      </c>
-      <c r="B146" t="s">
-        <v>112</v>
+      <c r="C146" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="C147" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="C148" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="C149" t="s">
-        <v>115</v>
+      <c r="A149" s="1">
+        <v>21</v>
+      </c>
+      <c r="B149" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>22</v>
-      </c>
-      <c r="B150" t="s">
-        <v>116</v>
+      <c r="C150" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="C151" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="C152" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>22</v>
+      </c>
       <c r="B153" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="C154" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="C155" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="B156" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="C157" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="B155" t="s">
+    <row r="158" spans="1:3">
+      <c r="B158" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="C156" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="1">
-        <v>23</v>
-      </c>
-      <c r="B157" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="C158" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="C159" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="C160" t="s">
-        <v>126</v>
+      <c r="A160" s="1">
+        <v>23</v>
+      </c>
+      <c r="B160" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>24</v>
-      </c>
-      <c r="B161" t="s">
-        <v>127</v>
+      <c r="C161" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="C162" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="C163" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>24</v>
+      </c>
+      <c r="B164" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="C165" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="B163" t="s">
+    <row r="166" spans="1:3">
+      <c r="B166" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="C164" t="s">
+    <row r="167" spans="1:3">
+      <c r="C167" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="B165" t="s">
+    <row r="168" spans="1:3">
+      <c r="B168" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="C166" t="s">
+    <row r="169" spans="1:3">
+      <c r="C169" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="B167" t="s">
+    <row r="170" spans="1:3">
+      <c r="B170" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="C168" t="s">
+    <row r="171" spans="1:3">
+      <c r="C171" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="B169" t="s">
+    <row r="172" spans="1:3">
+      <c r="B172" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="C170" t="s">
+    <row r="173" spans="1:3">
+      <c r="C173" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="1">
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
         <v>25</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B174" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="C172" t="s">
+    <row r="175" spans="1:3">
+      <c r="C175" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="B173" t="s">
+    <row r="176" spans="1:3">
+      <c r="B176" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="C174" t="s">
+    <row r="177" spans="1:3">
+      <c r="C177" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="B175" t="s">
+    <row r="178" spans="1:3">
+      <c r="B178" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="C176" t="s">
+    <row r="179" spans="1:3">
+      <c r="C179" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="B177" t="s">
+    <row r="180" spans="1:3">
+      <c r="B180" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="C178" t="s">
+    <row r="181" spans="1:3">
+      <c r="C181" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1">
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
         <v>26</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B182" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="C180" t="s">
+    <row r="183" spans="1:3">
+      <c r="C183" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="1">
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
         <v>27</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B184" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="C182" t="s">
+    <row r="185" spans="1:3">
+      <c r="C185" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1">
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
         <v>28</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B186" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="C184" t="s">
+    <row r="187" spans="1:3">
+      <c r="C187" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="B185" t="s">
+    <row r="188" spans="1:3">
+      <c r="B188" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="C186" t="s">
+    <row r="189" spans="1:3">
+      <c r="C189" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="B187" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="C188" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="C189" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="B190" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="C191" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="C192" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="1">
-        <v>29</v>
-      </c>
       <c r="B193" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="C194" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="C195" t="s">
-        <v>161</v>
+      <c r="C195" s="2" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="196" spans="1:3">
+      <c r="A196" s="1">
+        <v>29</v>
+      </c>
       <c r="B196" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="C197" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="C198" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="C199" s="3" t="s">
-        <v>165</v>
+      <c r="B199" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200" s="1">
-        <v>30</v>
-      </c>
-      <c r="B200" t="s">
-        <v>166</v>
+      <c r="C200" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="C201" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="C202" t="s">
-        <v>168</v>
+      <c r="C202" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="203" spans="1:3">
+      <c r="A203" s="1">
+        <v>30</v>
+      </c>
       <c r="B203" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="C204" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="C205" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="B206" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="C207" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1">
+    <row r="208" spans="1:3">
+      <c r="A208" s="1">
         <v>31</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B208" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="C206" t="s">
+    <row r="209" spans="1:3">
+      <c r="C209" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="1">
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
         <v>32</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B210" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="C208" t="s">
+    <row r="211" spans="1:3">
+      <c r="C211" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="1">
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
         <v>33</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B212" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="C210" t="s">
+    <row r="213" spans="1:3">
+      <c r="C213" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="C211" t="s">
+    <row r="214" spans="1:3">
+      <c r="C214" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="1">
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
         <v>34</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B215" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="C213" t="s">
+    <row r="216" spans="1:3">
+      <c r="C216" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="C214" t="s">
+    <row r="217" spans="1:3">
+      <c r="C217" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="B215" t="s">
+    <row r="218" spans="1:3">
+      <c r="B218" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="C216" t="s">
+    <row r="219" spans="1:3">
+      <c r="C219" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="1">
+    <row r="220" spans="1:3">
+      <c r="A220" s="1">
         <v>35</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B220" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="C218" t="s">
+    <row r="221" spans="1:3">
+      <c r="C221" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="C219" t="s">
+    <row r="222" spans="1:3">
+      <c r="C222" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="C220" t="s">
+    <row r="223" spans="1:3">
+      <c r="C223" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="1">
+    <row r="224" spans="1:3">
+      <c r="A224" s="1">
         <v>36</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B224" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="C222" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4">
-      <c r="C223" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
-      <c r="D224" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="C225" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="C226" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="D227" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="C228" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="D226" t="s">
+    <row r="229" spans="1:4">
+      <c r="D229" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="C227" t="s">
+    <row r="230" spans="1:4">
+      <c r="C230" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="D228" t="s">
+    <row r="231" spans="1:4">
+      <c r="D231" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="C229" t="s">
+    <row r="232" spans="1:4">
+      <c r="C232" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="D230" t="s">
+    <row r="233" spans="1:4">
+      <c r="D233" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="C231" t="s">
+    <row r="234" spans="1:4">
+      <c r="C234" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="D232" t="s">
+    <row r="235" spans="1:4">
+      <c r="D235" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="C233" t="s">
+    <row r="236" spans="1:4">
+      <c r="C236" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="D234" t="s">
+    <row r="237" spans="1:4">
+      <c r="D237" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4">
-      <c r="C235" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4">
-      <c r="D236" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="1">
-        <v>37</v>
-      </c>
-      <c r="B237" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="C238" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="D239" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
+        <v>37</v>
+      </c>
+      <c r="B240" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="C241" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4">
-      <c r="C239" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4">
-      <c r="C240" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="1">
-        <v>38</v>
-      </c>
-      <c r="B241" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="C242" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="1">
-        <v>39</v>
-      </c>
-      <c r="B243" t="s">
-        <v>213</v>
+      <c r="C243" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="C244" t="s">
-        <v>214</v>
+      <c r="A244" s="1">
+        <v>38</v>
+      </c>
+      <c r="B244" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="C245" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B246" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="C247" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="C248" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="D249" t="s">
-        <v>219</v>
+      <c r="A249" s="1">
+        <v>40</v>
+      </c>
+      <c r="B249" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="C250" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="C251" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="D252" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="C253" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="D251" t="s">
+    <row r="254" spans="1:4">
+      <c r="D254" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="C252" t="s">
+    <row r="255" spans="1:4">
+      <c r="C255" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="D253" t="s">
+    <row r="256" spans="1:4">
+      <c r="D256" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="D257" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="D258" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="C259" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="D260" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="C254" t="s">
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
+        <v>41</v>
+      </c>
+      <c r="B261" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="D255" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="1">
-        <v>41</v>
-      </c>
-      <c r="B256" t="s">
+    <row r="262" spans="1:4">
+      <c r="C262" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="257" spans="3:3">
-      <c r="C257" t="s">
+    <row r="263" spans="1:4">
+      <c r="C263" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="258" spans="3:3">
-      <c r="C258" t="s">
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
+        <v>42</v>
+      </c>
+      <c r="B278" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="1">
-        <v>42</v>
-      </c>
-      <c r="B273" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="C274" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="C275" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="1">
-        <v>43</v>
-      </c>
-      <c r="B276" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="C277" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="D278" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="C279" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="C280" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
+        <v>43</v>
+      </c>
+      <c r="B281" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="C282" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="D283" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="C284" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="D285" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="D280" t="s">
+    <row r="286" spans="1:4">
+      <c r="C286" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="C281" t="s">
+    <row r="287" spans="1:4">
+      <c r="D287" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="D282" t="s">
+    <row r="288" spans="1:4">
+      <c r="C288" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="C283" t="s">
+    <row r="289" spans="1:4">
+      <c r="D289" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="D284" t="s">
+    <row r="290" spans="1:4">
+      <c r="C290" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="C285" t="s">
+    <row r="291" spans="1:4">
+      <c r="D291" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="D286" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="C287" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="D288" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="C289" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="D290" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="1">
-        <v>44</v>
-      </c>
-      <c r="B291" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="C292" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="C293" t="s">
-        <v>246</v>
+      <c r="D293" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="C294" t="s">
-        <v>247</v>
+        <v>458</v>
       </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="B295" t="s">
-        <v>248</v>
+      <c r="D295" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="296" spans="1:4">
-      <c r="C296" t="s">
-        <v>249</v>
+      <c r="A296" s="1">
+        <v>44</v>
+      </c>
+      <c r="B296" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="B297" t="s">
-        <v>250</v>
+      <c r="C297" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="C298" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="B299" t="s">
-        <v>253</v>
+      <c r="C299" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="C300" t="s">
-        <v>252</v>
+      <c r="B300" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="1">
-        <v>45</v>
-      </c>
-      <c r="B301" t="s">
-        <v>254</v>
+      <c r="C301" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="C302" t="s">
-        <v>255</v>
+      <c r="B302" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="C303" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="B304" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="305" spans="1:24">
+      <c r="C305" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="306" spans="1:24">
+      <c r="A306" s="1">
+        <v>45</v>
+      </c>
+      <c r="B306" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="307" spans="1:24">
+      <c r="C307" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="308" spans="1:24">
+      <c r="C308" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24">
+      <c r="C309" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="C304" s="4" t="s">
+    <row r="310" spans="1:24">
+      <c r="A310" s="1">
+        <v>46</v>
+      </c>
+      <c r="B310" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="311" spans="1:24">
+      <c r="C311" s="5" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="305" spans="1:13">
-      <c r="A305" s="1">
-        <v>46</v>
-      </c>
-      <c r="B305" t="s">
+      <c r="D311" s="6"/>
+      <c r="E311" s="6"/>
+      <c r="F311" s="5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="306" spans="1:13">
-      <c r="C306" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="D306" s="6"/>
-      <c r="E306" s="6"/>
-      <c r="F306" s="5" t="s">
+      <c r="G311" s="6"/>
+      <c r="H311" s="7"/>
+      <c r="I311" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J311" s="6"/>
+      <c r="K311" s="7"/>
+      <c r="L311" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="G306" s="6"/>
-      <c r="H306" s="7"/>
-      <c r="I306" s="5" t="s">
+      <c r="M311" s="7"/>
+      <c r="N311" s="12"/>
+      <c r="O311" s="13"/>
+      <c r="P311" s="13"/>
+      <c r="Q311" s="13"/>
+      <c r="R311" s="13"/>
+      <c r="S311" s="13"/>
+      <c r="T311" s="13"/>
+      <c r="U311" s="13"/>
+      <c r="V311" s="13"/>
+      <c r="W311" s="13"/>
+      <c r="X311" s="14"/>
+    </row>
+    <row r="312" spans="1:24">
+      <c r="C312" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D312" s="6"/>
+      <c r="E312" s="6"/>
+      <c r="F312" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G312" s="6"/>
+      <c r="H312" s="7"/>
+      <c r="I312" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="J306" s="6"/>
-      <c r="K306" s="7"/>
-      <c r="L306" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="M306" s="7"/>
-    </row>
-    <row r="307" spans="1:13">
-      <c r="C307" s="5" t="s">
+      <c r="J312" s="6"/>
+      <c r="K312" s="7"/>
+      <c r="L312" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="D307" s="6"/>
-      <c r="E307" s="6"/>
-      <c r="F307" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G307" s="6"/>
-      <c r="H307" s="7"/>
-      <c r="I307" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="J307" s="6"/>
-      <c r="K307" s="7"/>
-      <c r="L307" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="M307" s="7"/>
-    </row>
-    <row r="308" spans="1:13">
-      <c r="C308" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D308" s="13"/>
-      <c r="E308" s="14"/>
-      <c r="F308" s="8"/>
-      <c r="H308" s="1"/>
-      <c r="I308" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K308" s="1"/>
-      <c r="L308" t="s">
+      <c r="M312" s="7"/>
+      <c r="N312" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="O312" s="13"/>
+      <c r="P312" s="13"/>
+      <c r="Q312" s="13"/>
+      <c r="R312" s="13"/>
+      <c r="S312" s="13"/>
+      <c r="T312" s="13"/>
+      <c r="U312" s="13"/>
+      <c r="V312" s="13"/>
+      <c r="W312" s="13"/>
+      <c r="X312" s="14"/>
+    </row>
+    <row r="313" spans="1:24">
+      <c r="C313" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="M308" s="1"/>
-    </row>
-    <row r="309" spans="1:13">
-      <c r="C309" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D309" s="10"/>
-      <c r="E309" s="10"/>
-      <c r="F309" s="9"/>
-      <c r="G309" s="10"/>
-      <c r="H309" s="11"/>
-      <c r="I309" s="9"/>
-      <c r="J309" s="10"/>
-      <c r="K309" s="11"/>
-      <c r="L309" s="10"/>
-      <c r="M309" s="11"/>
-    </row>
-    <row r="310" spans="1:13">
-      <c r="C310" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D310" s="13"/>
-      <c r="E310" s="13"/>
-      <c r="F310" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G310" s="13"/>
-      <c r="H310" s="14"/>
-      <c r="I310" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="J310" s="13"/>
-      <c r="K310" s="14"/>
-      <c r="L310" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="M310" s="14"/>
-    </row>
-    <row r="311" spans="1:13">
-      <c r="C311" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D311" s="13"/>
-      <c r="E311" s="13"/>
-      <c r="F311" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="G311" s="13"/>
-      <c r="H311" s="14"/>
-      <c r="I311" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="J311" s="13"/>
-      <c r="K311" s="14"/>
-      <c r="L311" s="13"/>
-      <c r="M311" s="14"/>
-    </row>
-    <row r="312" spans="1:13">
-      <c r="C312" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="F312" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H312" s="1"/>
-      <c r="I312" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="K312" s="1"/>
-      <c r="L312" t="s">
-        <v>275</v>
-      </c>
-      <c r="M312" s="1"/>
-    </row>
-    <row r="313" spans="1:13">
-      <c r="C313" s="12" t="s">
-        <v>283</v>
       </c>
       <c r="D313" s="13"/>
       <c r="E313" s="14"/>
-      <c r="F313" s="9" t="s">
+      <c r="F313" s="8"/>
+      <c r="H313" s="1"/>
+      <c r="I313" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K313" s="1"/>
+      <c r="L313" t="s">
+        <v>263</v>
+      </c>
+      <c r="M313" s="1"/>
+      <c r="N313" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="O313" s="13"/>
+      <c r="P313" s="13"/>
+      <c r="Q313" s="13"/>
+      <c r="R313" s="13"/>
+      <c r="S313" s="13"/>
+      <c r="T313" s="13"/>
+      <c r="U313" s="13"/>
+      <c r="V313" s="13"/>
+      <c r="W313" s="13"/>
+      <c r="X313" s="14"/>
+    </row>
+    <row r="314" spans="1:24">
+      <c r="C314" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D314" s="10"/>
+      <c r="E314" s="10"/>
+      <c r="F314" s="9"/>
+      <c r="G314" s="10"/>
+      <c r="H314" s="11"/>
+      <c r="I314" s="9"/>
+      <c r="J314" s="10"/>
+      <c r="K314" s="11"/>
+      <c r="L314" s="10"/>
+      <c r="M314" s="11"/>
+      <c r="N314" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="O314" s="13"/>
+      <c r="P314" s="13"/>
+      <c r="Q314" s="13"/>
+      <c r="R314" s="13"/>
+      <c r="S314" s="13"/>
+      <c r="T314" s="13"/>
+      <c r="U314" s="13"/>
+      <c r="V314" s="13"/>
+      <c r="W314" s="13"/>
+      <c r="X314" s="14"/>
+    </row>
+    <row r="315" spans="1:24">
+      <c r="C315" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D315" s="13"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G315" s="13"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="J315" s="13"/>
+      <c r="K315" s="14"/>
+      <c r="L315" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="M315" s="14"/>
+      <c r="N315" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="O315" s="13"/>
+      <c r="P315" s="13"/>
+      <c r="Q315" s="13"/>
+      <c r="R315" s="13"/>
+      <c r="S315" s="13"/>
+      <c r="T315" s="13"/>
+      <c r="U315" s="13"/>
+      <c r="V315" s="13"/>
+      <c r="W315" s="13"/>
+      <c r="X315" s="14"/>
+    </row>
+    <row r="316" spans="1:24">
+      <c r="C316" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D316" s="13"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G316" s="13"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J316" s="13"/>
+      <c r="K316" s="14"/>
+      <c r="L316" s="13"/>
+      <c r="M316" s="14"/>
+      <c r="N316" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="O316" s="13"/>
+      <c r="P316" s="13"/>
+      <c r="Q316" s="13"/>
+      <c r="R316" s="13"/>
+      <c r="S316" s="13"/>
+      <c r="T316" s="13"/>
+      <c r="U316" s="13"/>
+      <c r="V316" s="13"/>
+      <c r="W316" s="13"/>
+      <c r="X316" s="14"/>
+    </row>
+    <row r="317" spans="1:24">
+      <c r="C317" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F317" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H317" s="1"/>
+      <c r="I317" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="K317" s="1"/>
+      <c r="L317" t="s">
+        <v>274</v>
+      </c>
+      <c r="M317" s="1"/>
+      <c r="N317" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O317" s="13"/>
+      <c r="P317" s="13"/>
+      <c r="Q317" s="13"/>
+      <c r="R317" s="13"/>
+      <c r="S317" s="13"/>
+      <c r="T317" s="13"/>
+      <c r="U317" s="13"/>
+      <c r="V317" s="13"/>
+      <c r="W317" s="13"/>
+      <c r="X317" s="14"/>
+    </row>
+    <row r="318" spans="1:24">
+      <c r="C318" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D318" s="13"/>
+      <c r="E318" s="14"/>
+      <c r="F318" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G318" s="10"/>
+      <c r="H318" s="11"/>
+      <c r="I318" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="G313" s="10"/>
-      <c r="H313" s="11"/>
-      <c r="I313" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="J313" s="10"/>
-      <c r="K313" s="11"/>
-      <c r="L313" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="M313" s="11"/>
-    </row>
-    <row r="314" spans="1:13">
-      <c r="A314" s="1">
+      <c r="J318" s="10"/>
+      <c r="K318" s="11"/>
+      <c r="L318" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="M318" s="11"/>
+      <c r="N318" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O318" s="13"/>
+      <c r="P318" s="13"/>
+      <c r="Q318" s="13"/>
+      <c r="R318" s="13"/>
+      <c r="S318" s="13"/>
+      <c r="T318" s="13"/>
+      <c r="U318" s="13"/>
+      <c r="V318" s="13"/>
+      <c r="W318" s="13"/>
+      <c r="X318" s="14"/>
+    </row>
+    <row r="319" spans="1:24">
+      <c r="A319" s="1">
         <v>47</v>
       </c>
-      <c r="B314" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13">
-      <c r="C315" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13">
-      <c r="C316" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13">
-      <c r="C317" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13">
-      <c r="A318" s="1">
-        <v>48</v>
-      </c>
-      <c r="B318" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="319" spans="1:13">
-      <c r="C319" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="320" spans="1:13">
+      <c r="B319" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="320" spans="1:24">
       <c r="C320" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321" s="1">
-        <v>49</v>
-      </c>
-      <c r="B321" t="s">
-        <v>291</v>
+      <c r="C321" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="C322" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="C323" t="s">
-        <v>293</v>
+      <c r="A323" s="1">
+        <v>48</v>
+      </c>
+      <c r="B323" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="C324" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="C325" s="2" t="s">
-        <v>295</v>
+      <c r="C325" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B326" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="C327" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="328" spans="1:3">
-      <c r="A328" s="1">
-        <v>51</v>
-      </c>
-      <c r="B328" t="s">
-        <v>298</v>
+      <c r="C328" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="C329" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="C330" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>50</v>
+      </c>
+      <c r="B331" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="C332" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>51</v>
+      </c>
+      <c r="B333" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="C334" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="B335" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="C336" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>52</v>
+      </c>
+      <c r="B337" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
-      <c r="B330" t="s">
+    <row r="338" spans="1:3">
+      <c r="C338" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
-      <c r="C331" t="s">
+    <row r="339" spans="1:3">
+      <c r="A339" s="1">
+        <v>53</v>
+      </c>
+      <c r="B339" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="1">
-        <v>52</v>
-      </c>
-      <c r="B332" t="s">
+    <row r="340" spans="1:3">
+      <c r="C340" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
-      <c r="C333" t="s">
+    <row r="341" spans="1:3">
+      <c r="B341" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3">
-      <c r="A334" s="1">
-        <v>53</v>
-      </c>
-      <c r="B334" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3">
-      <c r="C335" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="B336" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="C337" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="B338" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="C339" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3">
-      <c r="A340" s="1">
-        <v>54</v>
-      </c>
-      <c r="B340" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="C341" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="C342" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" s="1">
-        <v>55</v>
-      </c>
       <c r="B343" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="C344" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="C345" t="s">
-        <v>315</v>
+      <c r="A345" s="1">
+        <v>54</v>
+      </c>
+      <c r="B345" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="C346" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="B347" t="s">
-        <v>317</v>
+      <c r="C347" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="C348" t="s">
-        <v>318</v>
+      <c r="A348" s="1">
+        <v>55</v>
+      </c>
+      <c r="B348" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="349" spans="1:3">
-      <c r="B349" t="s">
-        <v>319</v>
+      <c r="C349" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="C350" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="C351" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="B352" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="C353" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="B354" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="C355" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="B356" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="C357" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1">
+        <v>56</v>
+      </c>
+      <c r="B358" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
-      <c r="B351" t="s">
+    <row r="359" spans="1:3">
+      <c r="C359" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="352" spans="1:3">
-      <c r="C352" t="s">
+    <row r="360" spans="1:3">
+      <c r="B360" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="1">
-        <v>56</v>
-      </c>
-      <c r="B353" t="s">
+    <row r="361" spans="1:3">
+      <c r="C361" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
-      <c r="C354" t="s">
+    <row r="368" spans="1:3">
+      <c r="A368" s="1">
+        <v>57</v>
+      </c>
+      <c r="B368" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
-      <c r="B355" t="s">
+    <row r="369" spans="1:3">
+      <c r="C369" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="C356" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" s="1">
-        <v>57</v>
-      </c>
-      <c r="B363" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="C364" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="C365" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="1">
-        <v>58</v>
-      </c>
-      <c r="B366" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="C367" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="C368" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
-      <c r="B369" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="C370" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B371" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="C372" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="C373" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="374" spans="1:3">
-      <c r="C374" s="2" t="s">
-        <v>338</v>
+      <c r="B374" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="375" spans="1:3">
-      <c r="A375" s="1">
-        <v>60</v>
-      </c>
-      <c r="B375" t="s">
-        <v>339</v>
+      <c r="C375" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="376" spans="1:3">
-      <c r="C376" t="s">
-        <v>340</v>
+      <c r="A376" s="1">
+        <v>59</v>
+      </c>
+      <c r="B376" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="377" spans="1:3">
-      <c r="A377" s="1">
-        <v>61</v>
-      </c>
-      <c r="B377" t="s">
-        <v>341</v>
+      <c r="C377" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="C378" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="C379" s="2" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="1">
-        <v>62</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>344</v>
+        <v>60</v>
+      </c>
+      <c r="B380" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="C381" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="C382" t="s">
-        <v>346</v>
+      <c r="A382" s="1">
+        <v>61</v>
+      </c>
+      <c r="B382" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="B383" t="s">
-        <v>347</v>
+      <c r="C383" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="384" spans="1:3">
-      <c r="C384" t="s">
-        <v>348</v>
+      <c r="C384" s="2" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="385" spans="1:3">
-      <c r="C385" t="s">
-        <v>349</v>
+      <c r="A385" s="1">
+        <v>62</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="386" spans="1:3">
-      <c r="B386" t="s">
-        <v>350</v>
+      <c r="C386" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="C387" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="B388" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="C389" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" s="1">
-        <v>63</v>
-      </c>
-      <c r="B390" t="s">
-        <v>354</v>
+      <c r="C390" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="C391" t="s">
-        <v>355</v>
+      <c r="B391" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="C392" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="A393" s="1">
-        <v>64</v>
-      </c>
       <c r="B393" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="C394" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B395" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="C396" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="397" spans="1:3">
-      <c r="B397" t="s">
-        <v>398</v>
+      <c r="C397" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="398" spans="1:3">
-      <c r="C398" t="s">
-        <v>399</v>
+      <c r="A398" s="1">
+        <v>64</v>
+      </c>
+      <c r="B398" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="C399" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1">
+        <v>65</v>
+      </c>
+      <c r="B400" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="C401" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="B402" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="C403" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="C404" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1">
         <v>66</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B405" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="C406" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="C407" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="C408" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="C409" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="C410" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1">
+        <v>67</v>
+      </c>
+      <c r="B411" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="C412" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
-      <c r="C401" t="s">
+    <row r="413" spans="1:3">
+      <c r="C413" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
-      <c r="C402" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
-      <c r="C403" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4">
-      <c r="C404" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4">
-      <c r="C405" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="1">
-        <v>67</v>
-      </c>
-      <c r="B406" t="s">
+    <row r="414" spans="1:3">
+      <c r="A414" s="1">
+        <v>68</v>
+      </c>
+      <c r="B414" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="407" spans="1:4">
-      <c r="C407" s="3" t="s">
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="C415" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
-      <c r="C408" s="3" t="s">
+    <row r="416" spans="1:3">
+      <c r="C416" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="1">
-        <v>68</v>
-      </c>
-      <c r="B409" t="s">
+    <row r="417" spans="1:4">
+      <c r="C417" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C409" s="3"/>
-    </row>
-    <row r="410" spans="1:4">
-      <c r="C410" s="3" t="s">
+    </row>
+    <row r="418" spans="1:4">
+      <c r="D418" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
-      <c r="C411" s="3" t="s">
+    <row r="419" spans="1:4">
+      <c r="C419" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="C412" s="3" t="s">
+    <row r="420" spans="1:4">
+      <c r="D420" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
-      <c r="D413" t="s">
+    <row r="421" spans="1:4">
+      <c r="C421" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
-      <c r="C414" t="s">
+    <row r="422" spans="1:4">
+      <c r="A422" s="1">
+        <v>69</v>
+      </c>
+      <c r="B422" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
-      <c r="D415" t="s">
+    <row r="423" spans="1:4">
+      <c r="C423" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
-      <c r="C416" t="s">
+    <row r="424" spans="1:4">
+      <c r="B424" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="417" spans="1:3">
-      <c r="A417" s="1">
-        <v>69</v>
-      </c>
-      <c r="B417" t="s">
+    <row r="425" spans="1:4">
+      <c r="C425" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
-      <c r="C418" t="s">
+    <row r="426" spans="1:4">
+      <c r="B426" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
-      <c r="B419" t="s">
+    <row r="427" spans="1:4">
+      <c r="C427" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
-      <c r="C420" t="s">
+    <row r="428" spans="1:4">
+      <c r="A428" s="1">
+        <v>70</v>
+      </c>
+      <c r="B428" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="C429" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
-      <c r="B421" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3">
-      <c r="C422" t="s">
+    <row r="430" spans="1:4">
+      <c r="C430" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="423" spans="1:3">
-      <c r="A423" s="1">
-        <v>70</v>
-      </c>
-      <c r="B423" t="s">
+    <row r="431" spans="1:4">
+      <c r="B431" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="C432" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3">
-      <c r="C424" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
-      <c r="C425" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3">
-      <c r="B426" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3">
-      <c r="C427" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
-      <c r="B428" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3">
-      <c r="C429" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3">
-      <c r="A430" s="1">
-        <v>71</v>
-      </c>
-      <c r="B430" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3">
-      <c r="C431" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
-      <c r="C432" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="B433" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="C434" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
     <row r="435" spans="1:3">
-      <c r="C435" t="s">
-        <v>391</v>
+      <c r="A435" s="1">
+        <v>71</v>
+      </c>
+      <c r="B435" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="C436" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="437" spans="1:3">
-      <c r="B437" t="s">
-        <v>394</v>
+      <c r="C437" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="438" spans="1:3">
-      <c r="C438" t="s">
-        <v>395</v>
+      <c r="B438" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="439" spans="1:3">
-      <c r="B439" t="s">
-        <v>396</v>
+      <c r="C439" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="C440" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="441" spans="1:3">
-      <c r="A441" s="1">
-        <v>72</v>
-      </c>
-      <c r="B441" t="s">
-        <v>401</v>
+      <c r="C441" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="442" spans="1:3">
-      <c r="C442" t="s">
-        <v>402</v>
+      <c r="B442" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="443" spans="1:3">
-      <c r="A443" s="1">
-        <v>73</v>
-      </c>
-      <c r="B443" t="s">
-        <v>403</v>
+      <c r="C443" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="444" spans="1:3">
-      <c r="C444" t="s">
-        <v>404</v>
+      <c r="B444" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="C445" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="446" spans="1:3">
+      <c r="A446" s="1">
+        <v>72</v>
+      </c>
       <c r="B446" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="C447" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="448" spans="1:3">
-      <c r="C448" t="s">
-        <v>408</v>
+      <c r="A448" s="1">
+        <v>73</v>
+      </c>
+      <c r="B448" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="449" spans="1:3">
-      <c r="A449" s="1">
-        <v>74</v>
-      </c>
-      <c r="B449" t="s">
-        <v>409</v>
+      <c r="C449" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="C450" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="451" spans="1:3">
-      <c r="C451" t="s">
-        <v>411</v>
+      <c r="B451" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="452" spans="1:3">
-      <c r="B452" t="s">
-        <v>413</v>
+      <c r="C452" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="C453" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="454" spans="1:3">
+      <c r="A454" s="1">
+        <v>74</v>
+      </c>
       <c r="B454" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="C455" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="456" spans="1:3">
-      <c r="A456" s="1">
-        <v>75</v>
-      </c>
-      <c r="B456" t="s">
-        <v>416</v>
+      <c r="C456" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="457" spans="1:3">
-      <c r="C457" t="s">
-        <v>417</v>
+      <c r="B457" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="B458" t="s">
-        <v>418</v>
+      <c r="C458" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="459" spans="1:3">
-      <c r="C459" t="s">
-        <v>419</v>
+      <c r="B459" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="C460" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B461" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="C462" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="B463" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="C464" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="465" spans="1:3">
-      <c r="B465" t="s">
-        <v>425</v>
+      <c r="C465" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="C466" t="s">
-        <v>426</v>
+      <c r="A466" s="1">
+        <v>76</v>
+      </c>
+      <c r="B466" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="467" spans="1:3">
-      <c r="A467" s="1">
-        <v>77</v>
-      </c>
-      <c r="B467" t="s">
-        <v>431</v>
+      <c r="C467" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="468" spans="1:3">
-      <c r="C468" t="s">
-        <v>433</v>
+      <c r="B468" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="C469" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="470" spans="1:3">
-      <c r="A470" s="1">
-        <v>78</v>
-      </c>
       <c r="B470" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="C471" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="472" spans="1:3">
+      <c r="A472" s="1">
+        <v>77</v>
+      </c>
       <c r="B472" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="C473" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="474" spans="1:3">
-      <c r="B474" t="s">
-        <v>437</v>
+      <c r="C474" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="475" spans="1:3">
-      <c r="C475" t="s">
-        <v>439</v>
+      <c r="A475" s="1">
+        <v>78</v>
+      </c>
+      <c r="B475" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="476" spans="1:3">
-      <c r="A476" s="1">
-        <v>79</v>
-      </c>
-      <c r="B476" t="s">
-        <v>440</v>
+      <c r="C476" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="477" spans="1:3">
-      <c r="C477" s="2" t="s">
-        <v>441</v>
+      <c r="B477" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="478" spans="1:3">
-      <c r="A478" s="1">
-        <v>80</v>
-      </c>
-      <c r="B478" t="s">
-        <v>442</v>
+      <c r="C478" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="479" spans="1:3">
-      <c r="C479" t="s">
-        <v>445</v>
+      <c r="B479" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="C480" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="481" spans="1:3">
-      <c r="C481" t="s">
-        <v>446</v>
+      <c r="A481" s="1">
+        <v>79</v>
+      </c>
+      <c r="B481" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="C482" t="s">
-        <v>444</v>
+      <c r="C482" s="2" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="483" spans="1:3">
+      <c r="A483" s="1">
+        <v>80</v>
+      </c>
       <c r="B483" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="C484" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="485" spans="1:3">
-      <c r="B485" t="s">
-        <v>449</v>
+      <c r="C485" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="C486" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="487" spans="1:3">
-      <c r="B487" t="s">
-        <v>452</v>
+      <c r="C487" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="488" spans="1:3">
-      <c r="C488" t="s">
-        <v>451</v>
+      <c r="B488" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="489" spans="1:3">
-      <c r="A489" s="1">
-        <v>81</v>
-      </c>
-      <c r="B489" t="s">
-        <v>453</v>
+      <c r="C489" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="490" spans="1:3">
-      <c r="C490" t="s">
-        <v>454</v>
+      <c r="B490" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="C491" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="492" spans="1:3">
-      <c r="A492" s="1">
-        <v>82</v>
-      </c>
       <c r="B492" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="C493" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="494" spans="1:3">
-      <c r="C494" t="s">
-        <v>458</v>
+      <c r="A494" s="1">
+        <v>81</v>
+      </c>
+      <c r="B494" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="C495" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="496" spans="1:3">
-      <c r="A496" s="1">
-        <v>83</v>
-      </c>
-      <c r="B496" t="s">
-        <v>463</v>
+      <c r="C496" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="497" spans="1:3">
-      <c r="C497" t="s">
-        <v>469</v>
+      <c r="A497" s="1">
+        <v>82</v>
+      </c>
+      <c r="B497" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="498" spans="1:3">
-      <c r="B498" t="s">
-        <v>464</v>
+      <c r="C498" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="C499" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="500" spans="1:3">
-      <c r="B500" t="s">
+      <c r="C500" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1">
+        <v>83</v>
+      </c>
+      <c r="B501" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="C502" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
-      <c r="C501" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
-      <c r="B502" t="s">
-        <v>467</v>
-      </c>
-    </row>
     <row r="503" spans="1:3">
-      <c r="C503" s="3" t="s">
-        <v>473</v>
+      <c r="B503" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="C504" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="B505" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="C506" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="507" spans="1:3">
-      <c r="A507" s="1">
-        <v>84</v>
-      </c>
       <c r="B507" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="508" spans="1:3">
-      <c r="C508" t="s">
-        <v>475</v>
+      <c r="C508" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="C509" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="510" spans="1:3">
-      <c r="C510" t="s">
-        <v>477</v>
+      <c r="B510" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="511" spans="1:3">
-      <c r="B511" t="s">
-        <v>478</v>
+      <c r="C511" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="512" spans="1:3">
-      <c r="C512" t="s">
-        <v>479</v>
+      <c r="A512" s="1">
+        <v>84</v>
+      </c>
+      <c r="B512" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="513" spans="1:4">
-      <c r="B513" t="s">
-        <v>480</v>
+      <c r="C513" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="514" spans="1:4">
       <c r="C514" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="515" spans="1:4">
-      <c r="B515" t="s">
+      <c r="C515" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="B516" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="C517" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="B518" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="C519" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="B520" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="C521" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="1">
+        <v>85</v>
+      </c>
+      <c r="B522" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
-      <c r="C516" t="s">
+    <row r="523" spans="1:4">
+      <c r="C523" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
-      <c r="A517" s="1">
-        <v>85</v>
-      </c>
-      <c r="B517" t="s">
+    <row r="524" spans="1:4">
+      <c r="A524" s="1">
+        <v>86</v>
+      </c>
+      <c r="B524" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="C525" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
-      <c r="C518" t="s">
+    <row r="526" spans="1:4">
+      <c r="D526" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
-      <c r="A519" s="1">
-        <v>86</v>
-      </c>
-      <c r="B519" t="s">
+    <row r="527" spans="1:4">
+      <c r="C527" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
-      <c r="C520" t="s">
+    <row r="528" spans="1:4">
+      <c r="D528" t="s">
         <v>488</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4">
-      <c r="D521" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
-      <c r="C522" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4">
-      <c r="D523" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
-      <c r="C524" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="525" spans="1:4">
-      <c r="D525" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="526" spans="1:4">
-      <c r="C526" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="527" spans="1:4">
-      <c r="D527" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="528" spans="1:4">
-      <c r="A528" s="1">
-        <v>87</v>
-      </c>
-      <c r="B528" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="C529" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="530" spans="1:4">
-      <c r="C530" t="s">
-        <v>498</v>
+      <c r="D530" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="531" spans="1:4">
-      <c r="B531" t="s">
-        <v>499</v>
+      <c r="C531" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="532" spans="1:4">
-      <c r="C532" t="s">
-        <v>500</v>
+      <c r="D532" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="533" spans="1:4">
+      <c r="A533" s="1">
+        <v>87</v>
+      </c>
       <c r="B533" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="534" spans="1:4">
       <c r="C534" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="535" spans="1:4">
       <c r="C535" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="536" spans="1:4">
-      <c r="A536" s="1">
-        <v>88</v>
-      </c>
       <c r="B536" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="537" spans="1:4">
       <c r="C537" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="538" spans="1:4">
-      <c r="C538" t="s">
-        <v>506</v>
+      <c r="B538" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="539" spans="1:4">
-      <c r="A539" s="1">
-        <v>89</v>
-      </c>
-      <c r="B539" t="s">
-        <v>507</v>
+      <c r="C539" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="540" spans="1:4">
       <c r="C540" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="541" spans="1:4">
-      <c r="C541" t="s">
-        <v>509</v>
+      <c r="A541" s="1">
+        <v>88</v>
+      </c>
+      <c r="B541" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="542" spans="1:4">
-      <c r="D542" t="s">
-        <v>510</v>
+      <c r="C542" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="543" spans="1:4">
       <c r="C543" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="1">
+        <v>89</v>
+      </c>
+      <c r="B544" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="C545" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="C546" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="D547" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="C548" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="D549" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="C550" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="D551" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
-      <c r="D544" t="s">
+    <row r="552" spans="1:4">
+      <c r="C552" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="545" spans="3:4">
-      <c r="C545" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="546" spans="3:4">
-      <c r="D546" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="547" spans="3:4">
-      <c r="C547" t="s">
-        <v>515</v>
+    <row r="553" spans="1:4">
+      <c r="A553" s="1">
+        <v>90</v>
+      </c>
+      <c r="B553" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="C554" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="1">
+        <v>91</v>
+      </c>
+      <c r="B565" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="C566" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="C567" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="1">
+        <v>92</v>
+      </c>
+      <c r="B578" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="C579" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="C580" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="1">
+        <v>93</v>
+      </c>
+      <c r="B592" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="C593" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="C594" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="C595" s="4" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="1">
+        <v>94</v>
+      </c>
+      <c r="B596" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="C597" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="C598" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="B599" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="C600" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" s="1">
+        <v>95</v>
+      </c>
+      <c r="B601" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="C602" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="1">
+        <v>96</v>
+      </c>
+      <c r="B620" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="C621" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="B622" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="C623" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="C624" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="B625" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="C626" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="C627" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="B628" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="C629" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630" s="1">
+        <v>97</v>
+      </c>
+      <c r="B630" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="C631" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="C632" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633" s="1">
+        <v>98</v>
+      </c>
+      <c r="B633" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="C634" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="1">
+        <v>99</v>
+      </c>
+      <c r="B635" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="C636" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="C637" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="B638" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="C639" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="B640" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="C641" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="B642" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="C643" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="1">
+        <v>100</v>
+      </c>
+      <c r="B644" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="1">
+        <v>101</v>
+      </c>
+      <c r="B651" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="C652" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="C653" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="B654" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="C655" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="B656" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="C657" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="A658" s="1">
+        <v>102</v>
+      </c>
+      <c r="B658" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="C659" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="A660" s="1">
+        <v>103</v>
+      </c>
+      <c r="B660" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="C661" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="A662" s="1">
+        <v>104</v>
+      </c>
+      <c r="B662" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="C663" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="C664" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="A665" s="1">
+        <v>105</v>
+      </c>
+      <c r="B665" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3">
+      <c r="A678" s="1">
+        <v>106</v>
+      </c>
+      <c r="B678" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3">
+      <c r="C679" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="C680" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3">
+      <c r="A681" s="1">
+        <v>107</v>
+      </c>
+      <c r="B681" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3">
+      <c r="C682" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3">
+      <c r="C683" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3">
+      <c r="A684" s="1">
+        <v>108</v>
+      </c>
+      <c r="B684" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3">
+      <c r="C685" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3">
+      <c r="C686" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3">
+      <c r="C687" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1169AF66-633C-430B-8FA3-5373FD71D92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9077D7-F88F-4B37-ABE0-68CCBE7B86B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="623">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -3837,6 +3837,177 @@
   </si>
   <si>
     <t>分散ファイルシステムのHDFS(Hadoop Distributed File System)と、分散処理のフレームワークであるHadoop MapReduceの2つから構成されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2層クライアントサーバシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クライアント側がユーザーへの入出力とデータ加工(ビジネスロジック)を担当し、クライアントからデータベースに直接接続する形態。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3層クライアントサーバシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2層ではクライアントが担当していたデータ加工の機能を独立させ、プレゼンテーション層・アプリケーション層・データ層の3層に分離した形態。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割込み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Interrupt)は、すぐに対処しなくてはならない問題などがシステムに生じたときに、実行中のプログラムの処理をいったん停止し、優先的に事象の解決を図ることを可能にする仕組みです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部割込み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実行中のプログラムが原因で起こる割込み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0除算やオーバーフローなどのプログラム中での不正な処理や、ページフォールトの発生、入出力処理などの機能をシステムコールをしてOSに依頼するためのSVC割込みなどがある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部割込み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイマ割込み、入力装置の操作などによって発生する入出力割込み、ハードウェアに障害が発生したときの機械チェック割込みなどがある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイトライセンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業や学校など特定の施設(サイト)内に限り複数のコンピュータへの使用権を認めるライセンス形態です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1本のソフトウェアで1つのコンピュータへの使用権が与えられる通常のライセンス契約と比較して、1ライセンスあたりの単価が低く抑えられるため、同一の施設に同じソフトウェアを大量導入するときに利用されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のコンピュータ又は一定数のコンピュータでの使用を認める。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバライセンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボリュームライセンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定のサーバにインストールし，そのクライアントでの使用を認める。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラックボックステスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムの内部構造を考慮せず、システムに与える入力とそれに対する出力だけに着目して、入力に対する出力が仕様書どおりになっているかを検証するテストです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内部でどのような処理が行われているのかは無視するため、システムの内部をブラックボックス(中が見えない箱)に見立てて「ブラックボックステスト」といいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具体的なテスト手法としては、同値分割、限界値分析、原因－結果グラフ、エラー推測などがあります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムの機能仕様やインタフェースの仕様に基づき，テストケースを設計する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページング方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>仮想アドレス空間を「ページ」と呼ばれる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固定長の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>区画に分割，同時に主記憶上も同じように固定長に分割して、このページ単位で主記憶と補助記憶装置のアドレス変換を行う方式です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>補助記憶装置から主記憶にページを移すことを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ページイン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，逆に主記憶から補助記憶装置に移すことを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ページアウト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>といいます。</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4708,6 +4879,104 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>689</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>265134</xdr:colOff>
+      <xdr:row>697</xdr:row>
+      <xdr:rowOff>95639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAE7AAD-CCCB-F267-32B5-B21BA387845A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="672353" y="160656495"/>
+          <a:ext cx="2613887" cy="1897544"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>700</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>265252</xdr:colOff>
+      <xdr:row>708</xdr:row>
+      <xdr:rowOff>25265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55A7055-AD07-A5A7-4298-FB98C1B7C783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="645459" y="163157647"/>
+          <a:ext cx="3985605" cy="1889924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4974,10 +5243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X687"/>
+  <dimension ref="A2:X731"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A679" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D690" sqref="D690"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A718" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K733" sqref="K733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8391,6 +8660,151 @@
         <v>596</v>
       </c>
     </row>
+    <row r="688" spans="1:3">
+      <c r="A688" s="1">
+        <v>109</v>
+      </c>
+      <c r="B688" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="689" spans="2:3">
+      <c r="C689" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="699" spans="2:3">
+      <c r="B699" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="700" spans="2:3">
+      <c r="C700" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="A710" s="1">
+        <v>110</v>
+      </c>
+      <c r="B710" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3">
+      <c r="C711" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="B712" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3">
+      <c r="C713" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3">
+      <c r="C714" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3">
+      <c r="B715" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3">
+      <c r="C716" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="A717" s="1">
+        <v>111</v>
+      </c>
+      <c r="B717" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3">
+      <c r="C718" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3">
+      <c r="C719" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3">
+      <c r="B720" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
+      <c r="C721" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
+      <c r="B722" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
+      <c r="C723" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
+      <c r="A724" s="1">
+        <v>112</v>
+      </c>
+      <c r="B724" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
+      <c r="C725" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="C726" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
+      <c r="C727" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
+      <c r="C728" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
+      <c r="A729" s="1">
+        <v>113</v>
+      </c>
+      <c r="B729" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
+      <c r="C730" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
+      <c r="C731" t="s">
+        <v>622</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9077D7-F88F-4B37-ABE0-68CCBE7B86B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80164E35-0A16-44A7-966E-4A0AC1DB19A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="694">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -1928,10 +1928,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対象集合から基準となる要素を選び，これよりも大きい要素の集合と小さい要素の集合に分割する。この操作を繰り返すことで，整列を行う。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キュー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4008,6 +4004,610 @@
       </rPr>
       <t>といいます。</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲートウェイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>OSI基本参照モデルの7層すべてを認識しますが、主に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>トランスポート層以上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プロトコルの異なるネットワーク同士を接続する役割を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>持つ装置です</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンタープライズアーキテクチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(EA:Enterprise Architecture)は、社会環境や情報技術の変化に素早く対応できるよう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>「全体最適」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の観点から業務やシステムを改善するフレームワークです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンタープライズアーキテクチャでは、モデリングにより業務とシステムの現状（As-Is）とあるべき姿 （To-Be）を整理し、あるべき姿（To-Be）の実現を目指して業務およびシステムの改善を図ります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各業務と情報システムを，政策・業務体系，データ体系，適用処理体系，技術体系の四つの体系で分析し，全体最適化の観点から見直すための技法である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dpi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>は、dots per inchの略で1インチの長さを何ピクセル(画素)で表現しているかを示す単位です。d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>piが大きくなるほど面積当たりのピクセル数が増加する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ので、より繊細な画像となります。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば：600dpi = 縦600ピクセル*横600ピクセル</t>
+    <rPh sb="0" eb="1">
+      <t>タト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(デシジョンテーブル)は、ある事象について条件や選択肢を表形式で整理し、記述された条件・選択肢の組合せによってどのような処理を行うべきかを列挙したものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DFD(Data Flow Diagram)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部インタフェース，プロセス，データストア間でのデータの流れを表現したものである。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理や選択などの制御の流れを，直線又は矢印で表現したものである。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流れ図(フローチャート)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットにおける電子メールの規約で，ヘッダーフィールドの拡張を行い，テキストだけでなく，音声，画像なども扱える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトウェア品質管理の指標</t>
+    <rPh sb="6" eb="8">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成果物ごとのレビュー時間</t>
+    <rPh sb="0" eb="3">
+      <t>セイカブツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間長いほど品質が高くなる(→馬鹿馬鹿しい、そんなわけないでしょうー、なんでこんな馬鹿なこと書いてるの）</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>バカバカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JAVA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javaはクラスの多重継承、すなわち複数の親クラスを指定した子クラスの定義をサポートしていません。よって、複数のスーパークラスを指定する多重継承はできません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ管理のためのガーベジコレクションの機能がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品に対するプロダクトポートフォリオ分析の場合と同様に、図のポートフォリオ類型は事業ごとの市場における自社の置かれた立場を客観的にとらえるために用いられます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この分析により事業の市場での立場を明らかにし、自社の資源をどの製品に配分していくのが効果的なのかを判断する材料とします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポートフォリオマネジメント project portfolio management（PPM）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>は、縦軸と横軸に別々の指標を設定したマトリックス図を四つの象限に区分し、製品や事業、あるいは</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プロジェクトの位置付け</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を分析して資源配分を検討する手法です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バブルソート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隣り合う要素を比較して，大小の順が逆であれば，それらの要素を入れ替えるという操作を繰り返して行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>対象集合から基準となる要素を選び，これよりも大きい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要素の集合と小さい要素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の集合に分割する。この操作を繰り返すことで，整列を行う。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中間的な基準値を決めて，それよりも大きな値を集めた区分と小さな値を集めた区分に要素を振り分ける</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ある一定間隔おきに取り出した要素から成る部分列をそれぞれ整列し，更に間隔を詰めて同様の操作を行い，間隔が1になるまでこれを繰り返す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェルソート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒープソート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未整列の部分を順序木に構成し，そこから最大値又は最小値を取り出して既整列の部分に移す。これらの操作を繰り返して，未整列部分を縮めていく。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Intrusion Detection System，侵入検知システム)は、ネットワークやホストをリアルタイムで監視し、異常を検知した場合に管理者に通知するなどの処置を行うシステムです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常を通知することを目的としたシステムのため通信の遮断などの防御機能を持たないことがほとんどです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IMAP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POP3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Post Office Protocol Version 3の略。ユーザーがメールサーバから自身のメールをとりだす処理において使用するメール</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用プロトコルです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールの実態をサーバー上へ残したまま、パソコンへは（一時的な）キャッシュのみをパソコンで管理する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Internet Message Access Protocolの略。電子メールの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に使われるプロトコルで、POP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と違いメールサーバ内のメールを選択して受信する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ことができます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USB3.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在最も普及している周辺機器接続のためのシリアルインタフェースのバージョン3に当たる規格です</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特徴：5Gbpsの"スーパースピード"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個別生産</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受注した注文ごとに仕様や製造計画・納期を設定し製品を生産する方式。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセス生産</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>食品/飲料、化学製品、医薬品、石油、素材などのように、液体やガスなどの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原材料を加工すること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で製品価値を生み出す生産方式。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続生産</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同じ製品をロットと呼ばれる単位で生産する方式。一度に大量に生産することで製品1つあたりに要する段取り時間を少なくできる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライン生産方式とも呼ばれ、大量生産を行う工場で製品の組み立て工程、作業員の配置を一連化(ライン化)させ、ベルトコンベアなどにより流れてくる機械に部品の取り付けや小加工を連続的に行う生産方式。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロット生産</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木構造を使ってデータを管理する方式で、RDBMSで最も一般的に使用されている。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B+木インデックス</t>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>節ごとにキー値の範囲とその子要素へのポインタを保持しているので、範囲検索をスムーズに行えるほか次のような性質がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木構造の深さが一定になっているので、どのようなキー値であっても探索コストが大きく変わらない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大量のデータに対する操作であっても、ある程度の速度が期待できる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インデックスノードはソートされた状態になっているので整列処理が高速に行える</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハッシュインデックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キー値をもとにレコードの格納位置を一意に特定できるので、B＋木インデックスより高速なアクセスが可能。その反面、範囲検索やキー値を順番に読み込んで処理を行う用途には使用できない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ハッシュ関数を使用してキー値とレコード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の格納位置を直接関連つける方式。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再帰処理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分自身を呼び出す処理が書かれている関数を呼び出すこと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再帰的処理では、入れ子式でプログラムが実行されるので、実行途中のプログラムの状態を何階層にもわたって保存しておく必要があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>これを実現するために用いられるのが、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LIFO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（後入れ先出し）の性質をもつスタックです。関数の呼出し時に局所変数等をスタックに積み、実行が終わったらスタックから取り除くことにより、関数の生成と消滅を制御します。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再入可能プログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのプログラムの実行中に別のタスクから呼び出されても、それぞれに正しい結果を返すことができるプログラムの性質です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再入可能であるためには、複数のプロセス間のデータが混じらないように、データ部分をプロセスごとに確保する必要があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再入可能プログラムを実現するためには，プログラムを手続部分とデータ部分に分割して，データ部分をプロセスごとにもつ必要がある。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逐次再使用可能</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他のタスクが使い終わったプログラムを再ロードしなくても正しい結果を返すことができる特性ですが、複数のタスクに対して正しい結果を返すこと（再入可能性）は保証していません。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4393,13 +4993,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>263</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>51874</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>175070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4442,13 +5042,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>361</xdr:row>
+      <xdr:row>363</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>299205</xdr:colOff>
-      <xdr:row>366</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>198686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4540,13 +5140,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>554</xdr:row>
+      <xdr:row>556</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>299886</xdr:colOff>
-      <xdr:row>563</xdr:row>
+      <xdr:row>565</xdr:row>
       <xdr:rowOff>104630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4589,13 +5189,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>567</xdr:row>
+      <xdr:row>569</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371942</xdr:colOff>
-      <xdr:row>576</xdr:row>
+      <xdr:row>578</xdr:row>
       <xdr:rowOff>104630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4638,14 +5238,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>580</xdr:row>
+      <xdr:row>582</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>417666</xdr:colOff>
-      <xdr:row>590</xdr:row>
-      <xdr:rowOff>168754</xdr:rowOff>
+      <xdr:row>592</xdr:row>
+      <xdr:rowOff>168753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4687,13 +5287,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>601</xdr:row>
+      <xdr:row>603</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295344</xdr:colOff>
-      <xdr:row>618</xdr:row>
+      <xdr:row>620</xdr:row>
       <xdr:rowOff>139290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4736,13 +5336,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>644</xdr:row>
+      <xdr:row>646</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>308560</xdr:colOff>
-      <xdr:row>649</xdr:row>
+      <xdr:row>651</xdr:row>
       <xdr:rowOff>130100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4785,13 +5385,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>644</xdr:row>
+      <xdr:row>646</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>444414</xdr:colOff>
-      <xdr:row>647</xdr:row>
+      <xdr:row>649</xdr:row>
       <xdr:rowOff>55198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4834,13 +5434,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>665</xdr:row>
+      <xdr:row>667</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>283963</xdr:colOff>
-      <xdr:row>676</xdr:row>
+      <xdr:row>678</xdr:row>
       <xdr:rowOff>88084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4883,13 +5483,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>689</xdr:row>
+      <xdr:row>691</xdr:row>
       <xdr:rowOff>62754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>265134</xdr:colOff>
-      <xdr:row>697</xdr:row>
+      <xdr:row>699</xdr:row>
       <xdr:rowOff>95639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4932,13 +5532,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>700</xdr:row>
+      <xdr:row>702</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>265252</xdr:colOff>
-      <xdr:row>708</xdr:row>
+      <xdr:row>710</xdr:row>
       <xdr:rowOff>25265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5243,10 +5843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X731"/>
+  <dimension ref="A2:X802"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A718" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K733" sqref="K733"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A785" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J805" sqref="J805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -5289,17 +5889,17 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5859,7 +6459,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="C135" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6123,672 +6723,643 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186" s="1">
+      <c r="C186" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
         <v>28</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="C187" t="s">
+    <row r="188" spans="1:3">
+      <c r="C188" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="B188" t="s">
+    <row r="189" spans="1:3">
+      <c r="B189" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="C189" t="s">
+    <row r="190" spans="1:3">
+      <c r="C190" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="B190" t="s">
+    <row r="191" spans="1:3">
+      <c r="B191" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="C191" t="s">
+    <row r="192" spans="1:3">
+      <c r="C192" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="C192" s="2" t="s">
+    <row r="193" spans="1:3">
+      <c r="C193" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="B193" t="s">
+    <row r="194" spans="1:3">
+      <c r="B194" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="C194" t="s">
+    <row r="195" spans="1:3">
+      <c r="C195" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="C195" s="2" t="s">
+    <row r="196" spans="1:3">
+      <c r="C196" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="1">
+    <row r="197" spans="1:3">
+      <c r="A197" s="1">
         <v>29</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="C197" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="C198" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="C199" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="B199" t="s">
+    <row r="200" spans="1:3">
+      <c r="B200" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="C200" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="C201" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="C202" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
-      <c r="C202" s="3" t="s">
+    <row r="203" spans="1:3">
+      <c r="C203" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="1">
+    <row r="204" spans="1:3">
+      <c r="A204" s="1">
         <v>30</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="C204" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="C205" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="C206" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
-      <c r="B206" t="s">
+    <row r="207" spans="1:3">
+      <c r="B207" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="C207" t="s">
+    <row r="208" spans="1:3">
+      <c r="C208" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="1">
+    <row r="209" spans="1:3">
+      <c r="A209" s="1">
         <v>31</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="C209" t="s">
+    <row r="210" spans="1:3">
+      <c r="C210" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1">
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
         <v>32</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="C211" t="s">
+    <row r="212" spans="1:3">
+      <c r="C212" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1">
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
         <v>33</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="C213" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="C214" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="C215" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="1">
+    <row r="216" spans="1:3">
+      <c r="A216" s="1">
         <v>34</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B216" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="C216" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="C217" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="C218" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
-      <c r="B218" t="s">
+    <row r="219" spans="1:3">
+      <c r="B219" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="C219" t="s">
+    <row r="220" spans="1:3">
+      <c r="C220" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="1">
+    <row r="221" spans="1:3">
+      <c r="A221" s="1">
         <v>35</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="C221" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="C222" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="C223" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="C224" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="1">
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>36</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="C225" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="C226" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="C227" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="D227" t="s">
+    <row r="228" spans="1:4">
+      <c r="D228" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="C228" t="s">
+    <row r="229" spans="1:4">
+      <c r="C229" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="D229" t="s">
+    <row r="230" spans="1:4">
+      <c r="D230" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="C230" t="s">
+    <row r="231" spans="1:4">
+      <c r="C231" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="D231" t="s">
+    <row r="232" spans="1:4">
+      <c r="D232" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="C232" t="s">
+    <row r="233" spans="1:4">
+      <c r="C233" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="D233" t="s">
+    <row r="234" spans="1:4">
+      <c r="D234" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="C234" t="s">
+    <row r="235" spans="1:4">
+      <c r="C235" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="D235" t="s">
+    <row r="236" spans="1:4">
+      <c r="D236" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="C236" t="s">
+    <row r="237" spans="1:4">
+      <c r="C237" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="D237" t="s">
+    <row r="238" spans="1:4">
+      <c r="D238" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="C238" t="s">
+    <row r="239" spans="1:4">
+      <c r="C239" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="D239" t="s">
+    <row r="240" spans="1:4">
+      <c r="D240" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="1">
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>37</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4">
-      <c r="C241" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="C242" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="C243" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="C244" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="1">
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>38</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="C245" t="s">
+    <row r="246" spans="1:4">
+      <c r="C246" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="1">
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>39</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4">
-      <c r="C247" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="C248" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="C249" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="1">
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>40</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="C250" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="C251" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="C252" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="D252" t="s">
+    <row r="253" spans="1:4">
+      <c r="D253" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="C253" t="s">
+    <row r="254" spans="1:4">
+      <c r="C254" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="D254" t="s">
+    <row r="255" spans="1:4">
+      <c r="D255" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="C255" t="s">
+    <row r="256" spans="1:4">
+      <c r="C256" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="D256" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="D257" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="D258" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="C259" t="s">
+      <c r="D259" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="C260" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="D260" t="s">
+    <row r="261" spans="1:4">
+      <c r="D261" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="1">
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>41</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="C262" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="C263" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="C264" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="1">
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>42</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B279" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="C279" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="C280" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="C281" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="1">
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>43</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B282" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="C282" t="s">
+    <row r="283" spans="1:4">
+      <c r="C283" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="D283" t="s">
+    <row r="284" spans="1:4">
+      <c r="D284" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="C285" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="D286" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="C287" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="D288" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="C289" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="D290" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="C291" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="D292" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="C293" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="D294" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="C295" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="C284" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="D285" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="C286" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="D287" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="C288" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="D289" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="C290" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="D291" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="C292" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="D293" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="C294" t="s">
+    <row r="296" spans="1:4">
+      <c r="D296" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="D295" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="1">
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>44</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B297" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="C297" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="C298" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="C299" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="C300" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="B300" t="s">
+    <row r="301" spans="1:4">
+      <c r="B301" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="C301" t="s">
+    <row r="302" spans="1:4">
+      <c r="C302" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="B302" t="s">
+    <row r="303" spans="1:4">
+      <c r="B303" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="C303" t="s">
+    <row r="304" spans="1:4">
+      <c r="C304" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="B304" t="s">
+    <row r="305" spans="1:24">
+      <c r="B305" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="305" spans="1:24">
-      <c r="C305" t="s">
+    <row r="306" spans="1:24">
+      <c r="C306" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="306" spans="1:24">
-      <c r="A306" s="1">
+    <row r="307" spans="1:24">
+      <c r="A307" s="1">
         <v>45</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B307" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="307" spans="1:24">
-      <c r="C307" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="308" spans="1:24">
       <c r="C308" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="309" spans="1:24">
+      <c r="C309" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="309" spans="1:24">
-      <c r="C309" s="4" t="s">
+    <row r="310" spans="1:24">
+      <c r="C310" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="310" spans="1:24">
-      <c r="A310" s="1">
+    <row r="311" spans="1:24">
+      <c r="A311" s="1">
         <v>46</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B311" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="311" spans="1:24">
-      <c r="C311" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D311" s="6"/>
-      <c r="E311" s="6"/>
-      <c r="F311" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G311" s="6"/>
-      <c r="H311" s="7"/>
-      <c r="I311" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="J311" s="6"/>
-      <c r="K311" s="7"/>
-      <c r="L311" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="M311" s="7"/>
-      <c r="N311" s="12"/>
-      <c r="O311" s="13"/>
-      <c r="P311" s="13"/>
-      <c r="Q311" s="13"/>
-      <c r="R311" s="13"/>
-      <c r="S311" s="13"/>
-      <c r="T311" s="13"/>
-      <c r="U311" s="13"/>
-      <c r="V311" s="13"/>
-      <c r="W311" s="13"/>
-      <c r="X311" s="14"/>
     </row>
     <row r="312" spans="1:24">
       <c r="C312" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D312" s="6"/>
       <c r="E312" s="6"/>
       <c r="F312" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G312" s="6"/>
       <c r="H312" s="7"/>
       <c r="I312" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J312" s="6"/>
       <c r="K312" s="7"/>
       <c r="L312" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M312" s="7"/>
-      <c r="N312" s="12" t="s">
-        <v>519</v>
-      </c>
+      <c r="N312" s="12"/>
       <c r="O312" s="13"/>
       <c r="P312" s="13"/>
       <c r="Q312" s="13"/>
@@ -6801,21 +7372,25 @@
       <c r="X312" s="14"/>
     </row>
     <row r="313" spans="1:24">
-      <c r="C313" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D313" s="13"/>
-      <c r="E313" s="14"/>
-      <c r="F313" s="8"/>
-      <c r="H313" s="1"/>
-      <c r="I313" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="K313" s="1"/>
-      <c r="L313" t="s">
-        <v>263</v>
-      </c>
-      <c r="M313" s="1"/>
+      <c r="C313" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D313" s="6"/>
+      <c r="E313" s="6"/>
+      <c r="F313" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G313" s="6"/>
+      <c r="H313" s="7"/>
+      <c r="I313" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J313" s="6"/>
+      <c r="K313" s="7"/>
+      <c r="L313" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M313" s="7"/>
       <c r="N313" s="12" t="s">
         <v>518</v>
       </c>
@@ -6831,19 +7406,21 @@
       <c r="X313" s="14"/>
     </row>
     <row r="314" spans="1:24">
-      <c r="C314" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D314" s="10"/>
-      <c r="E314" s="10"/>
-      <c r="F314" s="9"/>
-      <c r="G314" s="10"/>
-      <c r="H314" s="11"/>
-      <c r="I314" s="9"/>
-      <c r="J314" s="10"/>
-      <c r="K314" s="11"/>
-      <c r="L314" s="10"/>
-      <c r="M314" s="11"/>
+      <c r="C314" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D314" s="13"/>
+      <c r="E314" s="14"/>
+      <c r="F314" s="8"/>
+      <c r="H314" s="1"/>
+      <c r="I314" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K314" s="1"/>
+      <c r="L314" t="s">
+        <v>263</v>
+      </c>
+      <c r="M314" s="1"/>
       <c r="N314" s="12" t="s">
         <v>517</v>
       </c>
@@ -6859,25 +7436,19 @@
       <c r="X314" s="14"/>
     </row>
     <row r="315" spans="1:24">
-      <c r="C315" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D315" s="13"/>
-      <c r="E315" s="13"/>
-      <c r="F315" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G315" s="13"/>
-      <c r="H315" s="14"/>
-      <c r="I315" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="J315" s="13"/>
-      <c r="K315" s="14"/>
-      <c r="L315" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="M315" s="14"/>
+      <c r="C315" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="D315" s="10"/>
+      <c r="E315" s="10"/>
+      <c r="F315" s="9"/>
+      <c r="G315" s="10"/>
+      <c r="H315" s="11"/>
+      <c r="I315" s="9"/>
+      <c r="J315" s="10"/>
+      <c r="K315" s="11"/>
+      <c r="L315" s="10"/>
+      <c r="M315" s="11"/>
       <c r="N315" s="12" t="s">
         <v>516</v>
       </c>
@@ -6894,24 +7465,26 @@
     </row>
     <row r="316" spans="1:24">
       <c r="C316" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D316" s="13"/>
       <c r="E316" s="13"/>
       <c r="F316" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G316" s="13"/>
       <c r="H316" s="14"/>
       <c r="I316" s="12" t="s">
-        <v>279</v>
+        <v>538</v>
       </c>
       <c r="J316" s="13"/>
       <c r="K316" s="14"/>
-      <c r="L316" s="13"/>
+      <c r="L316" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="M316" s="14"/>
       <c r="N316" s="12" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O316" s="13"/>
       <c r="P316" s="13"/>
@@ -6925,23 +7498,25 @@
       <c r="X316" s="14"/>
     </row>
     <row r="317" spans="1:24">
-      <c r="C317" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F317" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="H317" s="1"/>
-      <c r="I317" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="K317" s="1"/>
-      <c r="L317" t="s">
-        <v>274</v>
-      </c>
-      <c r="M317" s="1"/>
+      <c r="C317" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D317" s="13"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G317" s="13"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J317" s="13"/>
+      <c r="K317" s="14"/>
+      <c r="L317" s="13"/>
+      <c r="M317" s="14"/>
       <c r="N317" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O317" s="13"/>
       <c r="P317" s="13"/>
@@ -6955,27 +7530,23 @@
       <c r="X317" s="14"/>
     </row>
     <row r="318" spans="1:24">
-      <c r="C318" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D318" s="13"/>
-      <c r="E318" s="14"/>
-      <c r="F318" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G318" s="10"/>
-      <c r="H318" s="11"/>
-      <c r="I318" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="J318" s="10"/>
-      <c r="K318" s="11"/>
-      <c r="L318" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="M318" s="11"/>
+      <c r="C318" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F318" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H318" s="1"/>
+      <c r="I318" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="K318" s="1"/>
+      <c r="L318" t="s">
+        <v>274</v>
+      </c>
+      <c r="M318" s="1"/>
       <c r="N318" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="O318" s="13"/>
       <c r="P318" s="13"/>
@@ -6989,659 +7560,688 @@
       <c r="X318" s="14"/>
     </row>
     <row r="319" spans="1:24">
-      <c r="A319" s="1">
+      <c r="C319" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D319" s="13"/>
+      <c r="E319" s="14"/>
+      <c r="F319" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G319" s="10"/>
+      <c r="H319" s="11"/>
+      <c r="I319" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J319" s="10"/>
+      <c r="K319" s="11"/>
+      <c r="L319" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="M319" s="11"/>
+      <c r="N319" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O319" s="13"/>
+      <c r="P319" s="13"/>
+      <c r="Q319" s="13"/>
+      <c r="R319" s="13"/>
+      <c r="S319" s="13"/>
+      <c r="T319" s="13"/>
+      <c r="U319" s="13"/>
+      <c r="V319" s="13"/>
+      <c r="W319" s="13"/>
+      <c r="X319" s="14"/>
+    </row>
+    <row r="320" spans="1:24">
+      <c r="A320" s="1">
         <v>47</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B320" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="320" spans="1:24">
-      <c r="C320" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="C321" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="C322" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="C323" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
-      <c r="A323" s="1">
+    <row r="324" spans="1:3">
+      <c r="A324" s="1">
         <v>48</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B324" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="C324" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="C325" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="C326" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="1">
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
         <v>49</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B327" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3">
-      <c r="C327" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="C328" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="C329" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="C330" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
-      <c r="C330" s="2" t="s">
+    <row r="331" spans="1:3">
+      <c r="C331" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
-      <c r="A331" s="1">
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
         <v>50</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B332" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="C332" t="s">
-        <v>294</v>
-      </c>
-    </row>
     <row r="333" spans="1:3">
-      <c r="A333" s="1">
-        <v>51</v>
-      </c>
-      <c r="B333" t="s">
-        <v>295</v>
+      <c r="C333" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="C334" t="s">
-        <v>296</v>
+        <v>651</v>
       </c>
     </row>
     <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>51</v>
+      </c>
       <c r="B335" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="C336" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="337" spans="1:3">
-      <c r="A337" s="1">
-        <v>52</v>
-      </c>
       <c r="B337" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="C338" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B339" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="C340" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="341" spans="1:3">
+      <c r="A341" s="1">
+        <v>53</v>
+      </c>
       <c r="B341" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="C342" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="B343" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="C344" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="A345" s="1">
-        <v>54</v>
-      </c>
       <c r="B345" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="C346" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="C347" t="s">
-        <v>309</v>
+      <c r="A347" s="1">
+        <v>54</v>
+      </c>
+      <c r="B347" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="A348" s="1">
-        <v>55</v>
-      </c>
-      <c r="B348" t="s">
-        <v>310</v>
+      <c r="C348" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="C349" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="350" spans="1:3">
-      <c r="C350" t="s">
-        <v>312</v>
+      <c r="A350" s="1">
+        <v>55</v>
+      </c>
+      <c r="B350" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="C351" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="B352" t="s">
-        <v>314</v>
+      <c r="C352" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="C353" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="B354" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="C355" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="B356" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="C357" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="358" spans="1:3">
-      <c r="A358" s="1">
-        <v>56</v>
-      </c>
       <c r="B358" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="C359" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="360" spans="1:3">
+      <c r="A360" s="1">
+        <v>56</v>
+      </c>
       <c r="B360" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="C361" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="B362" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="C363" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1">
+        <v>57</v>
+      </c>
+      <c r="B370" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
-      <c r="A368" s="1">
-        <v>57</v>
-      </c>
-      <c r="B368" t="s">
+    <row r="371" spans="1:3">
+      <c r="C371" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
-      <c r="C369" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
-      <c r="C370" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="A371" s="1">
-        <v>58</v>
-      </c>
-      <c r="B371" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="C372" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1">
+        <v>58</v>
+      </c>
+      <c r="B373" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
-      <c r="C373" t="s">
-        <v>329</v>
-      </c>
-    </row>
     <row r="374" spans="1:3">
-      <c r="B374" t="s">
-        <v>330</v>
+      <c r="C374" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="C375" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="376" spans="1:3">
-      <c r="A376" s="1">
-        <v>59</v>
-      </c>
       <c r="B376" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="C377" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1">
+        <v>59</v>
+      </c>
+      <c r="B378" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="C379" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="C380" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
-      <c r="C378" t="s">
+    <row r="381" spans="1:3">
+      <c r="C381" s="2" t="s">
         <v>334</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="C379" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
-      <c r="A380" s="1">
-        <v>60</v>
-      </c>
-      <c r="B380" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="C381" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B382" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="C383" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1">
+        <v>61</v>
+      </c>
+      <c r="B384" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="C385" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="C386" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
-      <c r="C384" s="2" t="s">
+    <row r="387" spans="1:3">
+      <c r="A387" s="1">
+        <v>62</v>
+      </c>
+      <c r="B387" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
-      <c r="A385" s="1">
-        <v>62</v>
-      </c>
-      <c r="B385" s="3" t="s">
+    <row r="388" spans="1:3">
+      <c r="C388" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="C386" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
-      <c r="C387" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
-      <c r="B388" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="C389" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="C390" t="s">
-        <v>346</v>
+      <c r="B390" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="391" spans="1:3">
-      <c r="B391" t="s">
-        <v>347</v>
+      <c r="C391" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="C392" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="B393" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="C394" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="395" spans="1:3">
-      <c r="A395" s="1">
-        <v>63</v>
-      </c>
       <c r="B395" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="C396" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="397" spans="1:3">
-      <c r="C397" t="s">
-        <v>353</v>
+      <c r="A397" s="1">
+        <v>63</v>
+      </c>
+      <c r="B397" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="398" spans="1:3">
-      <c r="A398" s="1">
-        <v>64</v>
-      </c>
-      <c r="B398" t="s">
-        <v>354</v>
+      <c r="C398" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="C399" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B400" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="C401" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="402" spans="1:3">
+      <c r="A402" s="1">
+        <v>65</v>
+      </c>
       <c r="B402" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="C403" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
     </row>
     <row r="404" spans="1:3">
-      <c r="C404" t="s">
-        <v>397</v>
+      <c r="B404" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="405" spans="1:3">
-      <c r="A405" s="1">
-        <v>66</v>
-      </c>
-      <c r="B405" t="s">
-        <v>358</v>
+      <c r="C405" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="C406" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
     </row>
     <row r="407" spans="1:3">
-      <c r="C407" t="s">
-        <v>424</v>
+      <c r="A407" s="1">
+        <v>66</v>
+      </c>
+      <c r="B407" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="C408" t="s">
-        <v>425</v>
+        <v>358</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="C409" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="C410" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="411" spans="1:3">
-      <c r="A411" s="1">
+      <c r="C411" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="C412" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1">
         <v>67</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B413" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="C414" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="412" spans="1:3">
-      <c r="C412" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
-      <c r="C413" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
-      <c r="A414" s="1">
-        <v>68</v>
-      </c>
-      <c r="B414" t="s">
-        <v>363</v>
-      </c>
-      <c r="C414" s="3"/>
     </row>
     <row r="415" spans="1:3">
       <c r="C415" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="416" spans="1:3">
-      <c r="C416" s="3" t="s">
-        <v>365</v>
-      </c>
+      <c r="A416" s="1">
+        <v>68</v>
+      </c>
+      <c r="B416" t="s">
+        <v>362</v>
+      </c>
+      <c r="C416" s="3"/>
     </row>
     <row r="417" spans="1:4">
       <c r="C417" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="418" spans="1:4">
-      <c r="D418" t="s">
-        <v>367</v>
+      <c r="C418" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="419" spans="1:4">
-      <c r="C419" t="s">
-        <v>368</v>
+      <c r="C419" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="D420" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="C421" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="422" spans="1:4">
-      <c r="A422" s="1">
-        <v>69</v>
-      </c>
-      <c r="B422" t="s">
-        <v>371</v>
+      <c r="D422" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="C423" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="424" spans="1:4">
+      <c r="A424" s="1">
+        <v>69</v>
+      </c>
       <c r="B424" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="C425" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="B426" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="C427" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="428" spans="1:4">
-      <c r="A428" s="1">
-        <v>70</v>
-      </c>
       <c r="B428" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="C429" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1">
+        <v>70</v>
+      </c>
+      <c r="B430" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="C430" t="s">
-        <v>379</v>
-      </c>
-    </row>
     <row r="431" spans="1:4">
-      <c r="B431" t="s">
-        <v>380</v>
+      <c r="C431" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="C432" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="B433" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="C434" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="435" spans="1:3">
-      <c r="A435" s="1">
-        <v>71</v>
-      </c>
       <c r="B435" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="C436" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="437" spans="1:3">
-      <c r="C437" t="s">
+      <c r="A437" s="1">
+        <v>71</v>
+      </c>
+      <c r="B437" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="C438" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
-      <c r="B438" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="C439" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="440" spans="1:3">
-      <c r="C440" t="s">
-        <v>388</v>
+      <c r="B440" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -7650,1103 +8250,1103 @@
       </c>
     </row>
     <row r="442" spans="1:3">
-      <c r="B442" t="s">
-        <v>391</v>
+      <c r="C442" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="C443" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="B444" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="C445" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="1">
-        <v>72</v>
-      </c>
       <c r="B446" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="C447" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B448" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="C449" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="450" spans="1:3">
-      <c r="C450" t="s">
-        <v>402</v>
+      <c r="A450" s="1">
+        <v>73</v>
+      </c>
+      <c r="B450" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="451" spans="1:3">
-      <c r="B451" t="s">
-        <v>403</v>
+      <c r="C451" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="C452" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="453" spans="1:3">
-      <c r="C453" t="s">
-        <v>405</v>
+      <c r="B453" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="454" spans="1:3">
-      <c r="A454" s="1">
-        <v>74</v>
-      </c>
-      <c r="B454" t="s">
-        <v>406</v>
+      <c r="C454" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="C455" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="456" spans="1:3">
-      <c r="C456" t="s">
-        <v>408</v>
+      <c r="A456" s="1">
+        <v>74</v>
+      </c>
+      <c r="B456" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="457" spans="1:3">
-      <c r="B457" t="s">
-        <v>410</v>
+      <c r="C457" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="C458" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="B459" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="C460" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="461" spans="1:3">
-      <c r="A461" s="1">
-        <v>75</v>
-      </c>
       <c r="B461" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="C462" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="463" spans="1:3">
+      <c r="A463" s="1">
+        <v>75</v>
+      </c>
       <c r="B463" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="C464" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="465" spans="1:3">
-      <c r="C465" t="s">
-        <v>417</v>
+      <c r="B465" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="466" spans="1:3">
-      <c r="A466" s="1">
-        <v>76</v>
-      </c>
-      <c r="B466" t="s">
-        <v>418</v>
+      <c r="C466" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="C467" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="468" spans="1:3">
+      <c r="A468" s="1">
+        <v>76</v>
+      </c>
       <c r="B468" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="C469" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="B470" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="C471" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="472" spans="1:3">
-      <c r="A472" s="1">
-        <v>77</v>
-      </c>
       <c r="B472" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="C473" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="474" spans="1:3">
-      <c r="C474" t="s">
+      <c r="A474" s="1">
+        <v>77</v>
+      </c>
+      <c r="B474" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="C475" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
-      <c r="A475" s="1">
-        <v>78</v>
-      </c>
-      <c r="B475" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="C476" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="477" spans="1:3">
+      <c r="A477" s="1">
+        <v>78</v>
+      </c>
       <c r="B477" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="C478" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="B479" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="C480" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="481" spans="1:3">
-      <c r="A481" s="1">
-        <v>79</v>
-      </c>
       <c r="B481" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="C482" s="2" t="s">
-        <v>438</v>
+      <c r="C482" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" s="1">
+        <v>79</v>
+      </c>
+      <c r="B483" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="C484" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1">
         <v>80</v>
       </c>
-      <c r="B483" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="484" spans="1:3">
-      <c r="C484" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
-      <c r="C485" t="s">
-        <v>440</v>
+      <c r="B485" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="C486" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="C487" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="488" spans="1:3">
-      <c r="B488" t="s">
-        <v>444</v>
+      <c r="C488" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="C489" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="B490" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="C491" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="B492" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="C493" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="B494" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="A494" s="1">
-        <v>81</v>
-      </c>
-      <c r="B494" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="C495" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="496" spans="1:3">
-      <c r="C496" t="s">
-        <v>452</v>
+      <c r="A496" s="1">
+        <v>81</v>
+      </c>
+      <c r="B496" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="497" spans="1:3">
-      <c r="A497" s="1">
-        <v>82</v>
-      </c>
-      <c r="B497" t="s">
-        <v>453</v>
+      <c r="C497" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="C498" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="499" spans="1:3">
-      <c r="C499" t="s">
-        <v>455</v>
+      <c r="A499" s="1">
+        <v>82</v>
+      </c>
+      <c r="B499" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="C500" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="501" spans="1:3">
-      <c r="A501" s="1">
-        <v>83</v>
-      </c>
-      <c r="B501" t="s">
-        <v>460</v>
+      <c r="C501" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="C502" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="503" spans="1:3">
+      <c r="A503" s="1">
+        <v>83</v>
+      </c>
       <c r="B503" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="C504" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="B505" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="C506" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="B507" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="508" spans="1:3">
-      <c r="C508" s="3" t="s">
-        <v>470</v>
+      <c r="C508" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="509" spans="1:3">
-      <c r="C509" t="s">
-        <v>465</v>
+      <c r="B509" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="510" spans="1:3">
-      <c r="B510" t="s">
-        <v>468</v>
+      <c r="C510" s="3" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="C511" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="512" spans="1:3">
-      <c r="A512" s="1">
-        <v>84</v>
-      </c>
       <c r="B512" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="513" spans="1:4">
       <c r="C513" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="514" spans="1:4">
-      <c r="C514" t="s">
-        <v>473</v>
+      <c r="A514" s="1">
+        <v>84</v>
+      </c>
+      <c r="B514" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="515" spans="1:4">
       <c r="C515" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="516" spans="1:4">
-      <c r="B516" t="s">
-        <v>475</v>
+      <c r="C516" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="517" spans="1:4">
       <c r="C517" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="518" spans="1:4">
       <c r="B518" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="519" spans="1:4">
       <c r="C519" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="520" spans="1:4">
       <c r="B520" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="521" spans="1:4">
       <c r="C521" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="1">
-        <v>85</v>
-      </c>
       <c r="B522" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="523" spans="1:4">
       <c r="C523" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B524" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="525" spans="1:4">
       <c r="C525" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="526" spans="1:4">
-      <c r="D526" t="s">
-        <v>486</v>
+      <c r="A526" s="1">
+        <v>86</v>
+      </c>
+      <c r="B526" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="527" spans="1:4">
       <c r="C527" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="528" spans="1:4">
       <c r="D528" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="529" spans="1:4">
       <c r="C529" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="530" spans="1:4">
       <c r="D530" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="531" spans="1:4">
       <c r="C531" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="532" spans="1:4">
       <c r="D532" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="C533" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="D534" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="1">
+        <v>87</v>
+      </c>
+      <c r="B535" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
-      <c r="A533" s="1">
-        <v>87</v>
-      </c>
-      <c r="B533" t="s">
+    <row r="536" spans="1:4">
+      <c r="C536" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4">
-      <c r="C534" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4">
-      <c r="C535" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4">
-      <c r="B536" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="537" spans="1:4">
       <c r="C537" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="538" spans="1:4">
       <c r="B538" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="539" spans="1:4">
       <c r="C539" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="540" spans="1:4">
-      <c r="C540" t="s">
-        <v>500</v>
+      <c r="B540" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="541" spans="1:4">
-      <c r="A541" s="1">
-        <v>88</v>
-      </c>
-      <c r="B541" t="s">
-        <v>501</v>
+      <c r="C541" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="542" spans="1:4">
       <c r="C542" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="543" spans="1:4">
-      <c r="C543" t="s">
-        <v>503</v>
+      <c r="A543" s="1">
+        <v>88</v>
+      </c>
+      <c r="B543" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="1">
-        <v>89</v>
-      </c>
-      <c r="B544" t="s">
-        <v>504</v>
+      <c r="C544" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="545" spans="1:4">
       <c r="C545" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="546" spans="1:4">
-      <c r="C546" t="s">
-        <v>506</v>
+      <c r="A546" s="1">
+        <v>89</v>
+      </c>
+      <c r="B546" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="547" spans="1:4">
-      <c r="D547" t="s">
-        <v>507</v>
+      <c r="C547" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="C548" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="549" spans="1:4">
       <c r="D549" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="550" spans="1:4">
       <c r="C550" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="D551" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="C552" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="553" spans="1:4">
-      <c r="A553" s="1">
-        <v>90</v>
-      </c>
-      <c r="B553" t="s">
-        <v>520</v>
+      <c r="D553" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="554" spans="1:4">
       <c r="C554" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="1">
+        <v>90</v>
+      </c>
+      <c r="B555" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="C556" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="1">
+        <v>91</v>
+      </c>
+      <c r="B567" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
-      <c r="A565" s="1">
-        <v>91</v>
-      </c>
-      <c r="B565" t="s">
+    <row r="568" spans="1:3">
+      <c r="C568" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="566" spans="1:3">
-      <c r="C566" t="s">
+    <row r="569" spans="1:3">
+      <c r="C569" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
-      <c r="C567" t="s">
+    <row r="580" spans="1:3">
+      <c r="A580" s="1">
+        <v>92</v>
+      </c>
+      <c r="B580" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
-      <c r="A578" s="1">
-        <v>92</v>
-      </c>
-      <c r="B578" t="s">
+    <row r="581" spans="1:3">
+      <c r="C581" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="579" spans="1:3">
-      <c r="C579" t="s">
+    <row r="582" spans="1:3">
+      <c r="C582" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
-      <c r="C580" t="s">
+    <row r="594" spans="1:3">
+      <c r="A594" s="1">
+        <v>93</v>
+      </c>
+      <c r="B594" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
-      <c r="A592" s="1">
-        <v>93</v>
-      </c>
-      <c r="B592" t="s">
+    <row r="595" spans="1:3">
+      <c r="C595" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="C596" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="593" spans="1:3">
-      <c r="C593" t="s">
+    <row r="597" spans="1:3">
+      <c r="C597" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
-      <c r="C594" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3">
-      <c r="C595" s="4" t="s">
+    <row r="598" spans="1:3">
+      <c r="A598" s="1">
+        <v>94</v>
+      </c>
+      <c r="B598" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
-      <c r="A596" s="1">
-        <v>94</v>
-      </c>
-      <c r="B596" t="s">
+    <row r="599" spans="1:3">
+      <c r="C599" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
-      <c r="C597" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3">
-      <c r="C598" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3">
-      <c r="B599" t="s">
+    <row r="600" spans="1:3">
+      <c r="C600" s="2" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
-      <c r="C600" t="s">
+    <row r="601" spans="1:3">
+      <c r="B601" t="s">
         <v>534</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3">
-      <c r="A601" s="1">
-        <v>95</v>
-      </c>
-      <c r="B601" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="602" spans="1:3">
       <c r="C602" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3">
-      <c r="A620" s="1">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="1">
+        <v>95</v>
+      </c>
+      <c r="B603" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="C604" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="1">
         <v>96</v>
       </c>
-      <c r="B620" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3">
-      <c r="C621" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3">
       <c r="B622" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="623" spans="1:3">
       <c r="C623" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="624" spans="1:3">
-      <c r="C624" t="s">
-        <v>545</v>
+      <c r="B624" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="625" spans="1:3">
-      <c r="B625" t="s">
-        <v>546</v>
+      <c r="C625" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="626" spans="1:3">
       <c r="C626" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="627" spans="1:3">
-      <c r="C627" t="s">
-        <v>548</v>
+      <c r="B627" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="628" spans="1:3">
-      <c r="B628" t="s">
-        <v>549</v>
+      <c r="C628" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="C629" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="630" spans="1:3">
-      <c r="A630" s="1">
-        <v>97</v>
-      </c>
       <c r="B630" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="C631" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="632" spans="1:3">
-      <c r="C632" t="s">
-        <v>553</v>
+      <c r="A632" s="1">
+        <v>97</v>
+      </c>
+      <c r="B632" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="633" spans="1:3">
-      <c r="A633" s="1">
-        <v>98</v>
-      </c>
-      <c r="B633" t="s">
-        <v>554</v>
+      <c r="C633" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="C634" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="635" spans="1:3">
       <c r="A635" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B635" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="C636" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="637" spans="1:3">
-      <c r="C637" t="s">
-        <v>558</v>
+      <c r="A637" s="1">
+        <v>99</v>
+      </c>
+      <c r="B637" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="638" spans="1:3">
-      <c r="B638" t="s">
-        <v>559</v>
+      <c r="C638" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="C639" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="B640" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="641" spans="1:3">
       <c r="C641" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="642" spans="1:3">
       <c r="B642" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="643" spans="1:3">
       <c r="C643" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="B644" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="C645" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="1">
+        <v>100</v>
+      </c>
+      <c r="B646" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
-      <c r="A644" s="1">
-        <v>100</v>
-      </c>
-      <c r="B644" t="s">
+    <row r="653" spans="1:3">
+      <c r="A653" s="1">
+        <v>101</v>
+      </c>
+      <c r="B653" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
-      <c r="A651" s="1">
-        <v>101</v>
-      </c>
-      <c r="B651" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3">
-      <c r="C652" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3">
-      <c r="C653" t="s">
+    <row r="654" spans="1:3">
+      <c r="C654" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3">
-      <c r="B654" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="C655" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="656" spans="1:3">
       <c r="B656" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="657" spans="1:3">
       <c r="C657" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="658" spans="1:3">
-      <c r="A658" s="1">
-        <v>102</v>
-      </c>
       <c r="B658" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="659" spans="1:3">
       <c r="C659" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="A660" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B660" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="C661" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="662" spans="1:3">
       <c r="A662" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B662" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="663" spans="1:3">
       <c r="C663" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="664" spans="1:3">
-      <c r="C664" t="s">
+      <c r="A664" s="1">
+        <v>104</v>
+      </c>
+      <c r="B664" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="C665" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
-      <c r="A665" s="1">
+    <row r="666" spans="1:3">
+      <c r="C666" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="1">
         <v>105</v>
       </c>
-      <c r="B665" t="s">
+      <c r="B667" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3">
+      <c r="A680" s="1">
+        <v>106</v>
+      </c>
+      <c r="B680" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
-      <c r="A678" s="1">
-        <v>106</v>
-      </c>
-      <c r="B678" t="s">
+    <row r="681" spans="1:3">
+      <c r="C681" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="679" spans="1:3">
-      <c r="C679" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="680" spans="1:3">
-      <c r="C680" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3">
-      <c r="A681" s="1">
-        <v>107</v>
-      </c>
-      <c r="B681" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="682" spans="1:3">
       <c r="C682" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="683" spans="1:3">
-      <c r="C683" t="s">
-        <v>589</v>
+      <c r="A683" s="1">
+        <v>107</v>
+      </c>
+      <c r="B683" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="684" spans="1:3">
-      <c r="A684" s="1">
-        <v>108</v>
-      </c>
-      <c r="B684" t="s">
-        <v>593</v>
+      <c r="C684" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="685" spans="1:3">
       <c r="C685" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="686" spans="1:3">
-      <c r="C686" t="s">
-        <v>595</v>
+      <c r="A686" s="1">
+        <v>108</v>
+      </c>
+      <c r="B686" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="687" spans="1:3">
       <c r="C687" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3">
+      <c r="C688" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3">
+      <c r="C689" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3">
+      <c r="A690" s="1">
+        <v>109</v>
+      </c>
+      <c r="B690" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
-      <c r="A688" s="1">
-        <v>109</v>
-      </c>
-      <c r="B688" t="s">
+    <row r="691" spans="1:3">
+      <c r="C691" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="689" spans="2:3">
-      <c r="C689" t="s">
+    <row r="701" spans="1:3">
+      <c r="B701" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="699" spans="2:3">
-      <c r="B699" t="s">
+    <row r="702" spans="1:3">
+      <c r="C702" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="700" spans="2:3">
-      <c r="C700" t="s">
+    <row r="712" spans="1:3">
+      <c r="A712" s="1">
+        <v>110</v>
+      </c>
+      <c r="B712" t="s">
         <v>600</v>
-      </c>
-    </row>
-    <row r="710" spans="1:3">
-      <c r="A710" s="1">
-        <v>110</v>
-      </c>
-      <c r="B710" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="711" spans="1:3">
-      <c r="C711" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="712" spans="1:3">
-      <c r="B712" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="713" spans="1:3">
       <c r="C713" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="714" spans="1:3">
-      <c r="C714" t="s">
-        <v>605</v>
+      <c r="B714" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="715" spans="1:3">
-      <c r="B715" t="s">
-        <v>606</v>
+      <c r="C715" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="716" spans="1:3">
       <c r="C716" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="717" spans="1:3">
-      <c r="A717" s="1">
-        <v>111</v>
-      </c>
       <c r="B717" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="718" spans="1:3">
       <c r="C718" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="719" spans="1:3">
-      <c r="C719" t="s">
-        <v>610</v>
+      <c r="A719" s="1">
+        <v>111</v>
+      </c>
+      <c r="B719" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="720" spans="1:3">
-      <c r="B720" t="s">
-        <v>613</v>
+      <c r="C720" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="721" spans="1:3">
       <c r="C721" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -8756,53 +9356,450 @@
     </row>
     <row r="723" spans="1:3">
       <c r="C723" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="724" spans="1:3">
-      <c r="A724" s="1">
-        <v>112</v>
-      </c>
       <c r="B724" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="725" spans="1:3">
       <c r="C725" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="726" spans="1:3">
-      <c r="C726" t="s">
-        <v>617</v>
+      <c r="A726" s="1">
+        <v>112</v>
+      </c>
+      <c r="B726" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="727" spans="1:3">
       <c r="C727" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3">
+      <c r="C728" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
+      <c r="C729" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
+      <c r="C730" s="4" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="728" spans="1:3">
-      <c r="C728" s="4" t="s">
+    <row r="731" spans="1:3">
+      <c r="A731" s="1">
+        <v>113</v>
+      </c>
+      <c r="B731" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="729" spans="1:3">
-      <c r="A729" s="1">
-        <v>113</v>
-      </c>
-      <c r="B729" t="s">
+    <row r="732" spans="1:3">
+      <c r="C732" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
-      <c r="C730" t="s">
+    <row r="733" spans="1:3">
+      <c r="C733" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
-      <c r="C731" t="s">
+    <row r="734" spans="1:3">
+      <c r="A734" s="1">
+        <v>114</v>
+      </c>
+      <c r="B734" t="s">
         <v>622</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
+      <c r="C735" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
+      <c r="A736" s="1">
+        <v>115</v>
+      </c>
+      <c r="B736" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="C737" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
+      <c r="C738" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3">
+      <c r="C739" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3">
+      <c r="A740" s="1">
+        <v>116</v>
+      </c>
+      <c r="B740" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3">
+      <c r="C741" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3">
+      <c r="C742" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3">
+      <c r="A743" s="1">
+        <v>117</v>
+      </c>
+      <c r="B743" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3">
+      <c r="C744" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3">
+      <c r="B745" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3">
+      <c r="C746" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3">
+      <c r="B747" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3">
+      <c r="C748" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3">
+      <c r="A749" s="1">
+        <v>118</v>
+      </c>
+      <c r="B749" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3">
+      <c r="C750" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3">
+      <c r="C751" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3">
+      <c r="A752" s="1">
+        <v>119</v>
+      </c>
+      <c r="B752" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3">
+      <c r="C753" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3">
+      <c r="C754" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3">
+      <c r="A755" s="1">
+        <v>120</v>
+      </c>
+      <c r="B755" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3">
+      <c r="C756" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3">
+      <c r="C757" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3">
+      <c r="C758" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3">
+      <c r="A759" s="1">
+        <v>121</v>
+      </c>
+      <c r="B759" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3">
+      <c r="C760" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3">
+      <c r="B761" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3">
+      <c r="C762" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3">
+      <c r="B763" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3">
+      <c r="C764" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3">
+      <c r="A765" s="1">
+        <v>122</v>
+      </c>
+      <c r="B765" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3">
+      <c r="C766" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3">
+      <c r="C767" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3">
+      <c r="A768" s="1">
+        <v>123</v>
+      </c>
+      <c r="B768" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3">
+      <c r="C769" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3">
+      <c r="C770" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3">
+      <c r="B771" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3">
+      <c r="C772" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3">
+      <c r="A773" s="1">
+        <v>124</v>
+      </c>
+      <c r="B773" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3">
+      <c r="C774" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3">
+      <c r="C775" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3">
+      <c r="A776" s="1">
+        <v>125</v>
+      </c>
+      <c r="B776" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3">
+      <c r="C777" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3">
+      <c r="B778" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3">
+      <c r="C779" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3">
+      <c r="B780" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3">
+      <c r="C781" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3">
+      <c r="B782" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3">
+      <c r="C783" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3">
+      <c r="A784" s="1">
+        <v>126</v>
+      </c>
+      <c r="B784" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3">
+      <c r="C785" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3">
+      <c r="C786" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3">
+      <c r="C787" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3">
+      <c r="C788" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3">
+      <c r="C789" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3">
+      <c r="B790" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3">
+      <c r="C791" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3">
+      <c r="C792" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3">
+      <c r="A793" s="1">
+        <v>127</v>
+      </c>
+      <c r="B793" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3">
+      <c r="C794" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3">
+      <c r="C795" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3">
+      <c r="C796" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3">
+      <c r="B797" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3">
+      <c r="C798" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3">
+      <c r="C799" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3">
+      <c r="C800" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="801" spans="2:3">
+      <c r="B801" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="802" spans="2:3">
+      <c r="C802" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80164E35-0A16-44A7-966E-4A0AC1DB19A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F3283-93AB-4248-81CF-0C525C99E8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="748">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -4608,6 +4609,365 @@
   </si>
   <si>
     <t>他のタスクが使い終わったプログラムを再ロードしなくても正しい結果を返すことができる特性ですが、複数のタスクに対して正しい結果を返すこと（再入可能性）は保証していません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ajax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザとWebサーバとがXML形式のデータを用いて非同期の通信をし，動的に画面を再描画する仕組み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>上位のモジュールから先に検証していくので、未完成の下位モジュールの代わりに上位モジュールからの呼び出しに対して適切な値を返す役割を持つ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>スタブ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が必要になります。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>逆に下位モジュールから検証を開始するボトムアップテストでは、未完成の上位モジュールの代わりとなる</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドライバ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が必要となります。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライバ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム監査規程の最終的な承認者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経営者</t>
+    <rPh sb="0" eb="3">
+      <t>ケイエイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピュータで使われる記憶装置を高速に動作するものから順番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①レジスタ、②キャッシュメモリ、③主記憶、④ディスクキャッシュ、⑤HDD/SSD、⑥磁気テープとなります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スナップショットダンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラム中に埋め込んだデバッグ用のコードを実行するたびに，メモリやレジスタの内容を書き出す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トレーサー　　tracer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>プログラムの命令の実行順序、実行結果などの履歴情報を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>時系列</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に出力するツールです。プログラムのステップごとに誤りがないかどうかを検証するときに有効です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プログラムの異常終了時に，メモリやレジスタの内容を書き出す。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリダンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLM(Product Lifecycle Management)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品開発，製造，販売，保守，リサイクルに至る製造業のプロセスにおいて，製品に関連する情報を一元管理し，商品力向上やコスト低減を図る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FMS(Flexible Manufacturing System)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NC工作機械，自動搬送装置，倉庫などを有機的に結合し，コンピュータで集中管理することで多品種少量生産に対応できる生産の自動化を実現する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MRP(Materials Requirements Planning)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品の生産計画に基づいてその生産に必要な資材の所要量を展開し，これを基準にして資材の需要とその発注時期を算出する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SCM(Supply Chain Management</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品の供給から製品の販売までの一連のプロセスの情報をリアルタイムで交換することによって，在庫の削減とリードタイムの短縮を実現する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラッシュメモリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電源を切ってもデータを保存できる半導体メモリです。SDカードやUSBメモリ、携帯電話などの電子機器に広く利用されています</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリッドコンピューティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネットなどのネットワーク上にある計算資源（CPUなどの計算能力や、ハードディスクなどの情報格納領域）を結びつけ、ひとつの複合したコンピュータシステムとしてサービスを提供する仕組みです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合されるコンピュータ数によっては、スーパーコンピュータ並まで処理性能を高めることも可能となります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユビキタスコンピューティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピュータの存在を意識させることなく，人間がどこに移動しても利用できる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生活のあらゆる場所にコンピューターが行き渡り、ユーザーが意識せずともいつでもどこでも情報にアクセスできる環境を指します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーティリティコンピューティング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理能力や記憶容量など，コンピュータがもつ計算資源を必要なときに必要なだけ購入する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスタシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のコンピュータを相互に接続して，一つのシステムとして利用し，システムの一部のコンピュータで障害が発生した場合は，ほかのコンピュータに処理を肩代わりさせる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マトリックス組織</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成員が，自己の専門とする職能部門と特定の事業を遂行する部門の両方に所属する組織である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購買・生産・販売・財務などの仕事の性質によって，部門を編成した組織である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職能別組織</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定の課題のもとに各部門から専門家を集めて編成し，期間と目標を定めて活動する一時的かつ柔軟な組織である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト組織</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事業部制組織</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利益責任と業務遂行に必要な職能を，製品別，顧客別又は地域別にもつことによって，自己完結的な経営活動が展開できる組織である。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(eXtensible Markup Language)は、ユーザーが定義したタグを用いて文書構造を記述するマークアップ言語です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>XMLでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ユーザーが新しくタグや属性を定義・使用することが可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>になっています。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>HTMLが、Webページを記述するための言語であるのに対して、XMLは、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>データ交換</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のための汎用のデータ形式です。HTMLで使用するタグはあらかじめ定義済みのものですが、</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>減価償却</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(げんかしょうきゃく)は、企業会計において主に固定資産に対して行われる計算方法の一つです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定資産は、購入してから長期にわたり使用されます。そのため固定資産を取得するために要した費用を、「費用収益対応の原則」にもとづき使用期間にわたって費用として分配する手続きを減価償却と言います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>減価償却の方法には、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>定額法、定率法、級数法、生産高比例法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の4つが認められています。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可用性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とは、利用者が必要な時に、必要なだけ、合意済みの機能を実行できる能力を示します。サービスマネジメントにおいては、SLAで合意された時間に対する、実際に利用できた時間の割合で表されます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5336,13 +5696,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>646</xdr:row>
+      <xdr:row>650</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>308560</xdr:colOff>
-      <xdr:row>651</xdr:row>
+      <xdr:row>655</xdr:row>
       <xdr:rowOff>130100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5385,13 +5745,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>646</xdr:row>
+      <xdr:row>650</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>444414</xdr:colOff>
-      <xdr:row>649</xdr:row>
+      <xdr:row>653</xdr:row>
       <xdr:rowOff>55198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5434,14 +5794,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>667</xdr:row>
+      <xdr:row>671</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>283963</xdr:colOff>
-      <xdr:row>678</xdr:row>
-      <xdr:rowOff>88084</xdr:rowOff>
+      <xdr:row>682</xdr:row>
+      <xdr:rowOff>88083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5483,14 +5843,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>691</xdr:row>
+      <xdr:row>695</xdr:row>
       <xdr:rowOff>62754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>265134</xdr:colOff>
-      <xdr:row>699</xdr:row>
-      <xdr:rowOff>95639</xdr:rowOff>
+      <xdr:row>703</xdr:row>
+      <xdr:rowOff>95638</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5532,13 +5892,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>702</xdr:row>
+      <xdr:row>706</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>265252</xdr:colOff>
-      <xdr:row>710</xdr:row>
+      <xdr:row>714</xdr:row>
       <xdr:rowOff>25265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5843,10 +6203,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X802"/>
+  <dimension ref="A2:X856"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A785" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J805" sqref="J805"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A843" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D861" sqref="D861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9088,718 +9448,1021 @@
         <v>558</v>
       </c>
     </row>
-    <row r="641" spans="1:3">
+    <row r="641" spans="1:4">
       <c r="C641" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="642" spans="1:3">
+    <row r="642" spans="1:4">
       <c r="B642" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
+    <row r="643" spans="1:4">
       <c r="C643" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="644" spans="1:3">
-      <c r="B644" t="s">
+    <row r="644" spans="1:4">
+      <c r="C644" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4">
+      <c r="D645" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4">
+      <c r="C646" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4">
+      <c r="D647" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4">
+      <c r="B648" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="645" spans="1:3">
-      <c r="C645" t="s">
+    <row r="649" spans="1:4">
+      <c r="C649" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
-      <c r="A646" s="1">
+    <row r="650" spans="1:4">
+      <c r="A650" s="1">
         <v>100</v>
       </c>
-      <c r="B646" t="s">
+      <c r="B650" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
-      <c r="A653" s="1">
+    <row r="657" spans="1:3">
+      <c r="A657" s="1">
         <v>101</v>
       </c>
-      <c r="B653" t="s">
+      <c r="B657" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="654" spans="1:3">
-      <c r="C654" t="s">
+    <row r="658" spans="1:3">
+      <c r="C658" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="655" spans="1:3">
-      <c r="C655" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3">
-      <c r="B656" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="657" spans="1:3">
-      <c r="C657" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3">
-      <c r="B658" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="659" spans="1:3">
       <c r="C659" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="660" spans="1:3">
-      <c r="A660" s="1">
-        <v>102</v>
-      </c>
       <c r="B660" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="C661" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="662" spans="1:3">
-      <c r="A662" s="1">
-        <v>103</v>
-      </c>
       <c r="B662" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="663" spans="1:3">
       <c r="C663" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="664" spans="1:3">
       <c r="A664" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B664" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="665" spans="1:3">
       <c r="C665" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="A666" s="1">
+        <v>103</v>
+      </c>
+      <c r="B666" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="C667" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="A668" s="1">
+        <v>104</v>
+      </c>
+      <c r="B668" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="C669" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="666" spans="1:3">
-      <c r="C666" t="s">
+    <row r="670" spans="1:3">
+      <c r="C670" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="667" spans="1:3">
-      <c r="A667" s="1">
+    <row r="671" spans="1:3">
+      <c r="A671" s="1">
         <v>105</v>
       </c>
-      <c r="B667" t="s">
+      <c r="B671" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
-      <c r="A680" s="1">
+    <row r="684" spans="1:3">
+      <c r="A684" s="1">
         <v>106</v>
       </c>
-      <c r="B680" t="s">
+      <c r="B684" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="681" spans="1:3">
-      <c r="C681" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="682" spans="1:3">
-      <c r="C682" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="683" spans="1:3">
-      <c r="A683" s="1">
-        <v>107</v>
-      </c>
-      <c r="B683" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="684" spans="1:3">
-      <c r="C684" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="685" spans="1:3">
       <c r="C685" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="686" spans="1:3">
-      <c r="A686" s="1">
-        <v>108</v>
-      </c>
-      <c r="B686" t="s">
-        <v>592</v>
+      <c r="C686" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="687" spans="1:3">
-      <c r="C687" t="s">
-        <v>593</v>
+      <c r="A687" s="1">
+        <v>107</v>
+      </c>
+      <c r="B687" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="688" spans="1:3">
       <c r="C688" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="689" spans="1:3">
       <c r="C689" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="690" spans="1:3">
       <c r="A690" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B690" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="691" spans="1:3">
       <c r="C691" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3">
+      <c r="C692" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3">
+      <c r="C693" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3">
+      <c r="A694" s="1">
+        <v>109</v>
+      </c>
+      <c r="B694" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3">
+      <c r="C695" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
-      <c r="B701" t="s">
+    <row r="705" spans="1:3">
+      <c r="B705" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
-      <c r="C702" t="s">
+    <row r="706" spans="1:3">
+      <c r="C706" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="712" spans="1:3">
-      <c r="A712" s="1">
+    <row r="716" spans="1:3">
+      <c r="A716" s="1">
         <v>110</v>
       </c>
-      <c r="B712" t="s">
+      <c r="B716" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="713" spans="1:3">
-      <c r="C713" t="s">
+    <row r="717" spans="1:3">
+      <c r="C717" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="714" spans="1:3">
-      <c r="B714" t="s">
+    <row r="718" spans="1:3">
+      <c r="B718" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
-      <c r="C715" t="s">
+    <row r="719" spans="1:3">
+      <c r="C719" t="s">
         <v>603</v>
-      </c>
-    </row>
-    <row r="716" spans="1:3">
-      <c r="C716" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="717" spans="1:3">
-      <c r="B717" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="718" spans="1:3">
-      <c r="C718" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="719" spans="1:3">
-      <c r="A719" s="1">
-        <v>111</v>
-      </c>
-      <c r="B719" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="720" spans="1:3">
       <c r="C720" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3">
+      <c r="B721" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3">
+      <c r="C722" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3">
+      <c r="A723" s="1">
+        <v>111</v>
+      </c>
+      <c r="B723" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
+      <c r="C724" t="s">
         <v>608</v>
-      </c>
-    </row>
-    <row r="721" spans="1:3">
-      <c r="C721" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3">
-      <c r="B722" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="723" spans="1:3">
-      <c r="C723" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="724" spans="1:3">
-      <c r="B724" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="725" spans="1:3">
       <c r="C725" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="726" spans="1:3">
-      <c r="A726" s="1">
-        <v>112</v>
-      </c>
       <c r="B726" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="727" spans="1:3">
       <c r="C727" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="728" spans="1:3">
-      <c r="C728" t="s">
-        <v>616</v>
+      <c r="B728" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="729" spans="1:3">
       <c r="C729" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="730" spans="1:3">
-      <c r="C730" s="4" t="s">
-        <v>618</v>
+      <c r="A730" s="1">
+        <v>112</v>
+      </c>
+      <c r="B730" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="731" spans="1:3">
-      <c r="A731" s="1">
-        <v>113</v>
-      </c>
-      <c r="B731" t="s">
-        <v>619</v>
+      <c r="C731" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="732" spans="1:3">
       <c r="C732" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="733" spans="1:3">
       <c r="C733" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="734" spans="1:3">
-      <c r="A734" s="1">
-        <v>114</v>
-      </c>
-      <c r="B734" t="s">
-        <v>622</v>
+      <c r="C734" s="4" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="735" spans="1:3">
-      <c r="C735" t="s">
-        <v>623</v>
+      <c r="A735" s="1">
+        <v>113</v>
+      </c>
+      <c r="B735" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="736" spans="1:3">
-      <c r="A736" s="1">
-        <v>115</v>
-      </c>
-      <c r="B736" t="s">
-        <v>624</v>
+      <c r="C736" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="737" spans="1:3">
       <c r="C737" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="738" spans="1:3">
-      <c r="C738" t="s">
-        <v>626</v>
+      <c r="A738" s="1">
+        <v>114</v>
+      </c>
+      <c r="B738" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="739" spans="1:3">
-      <c r="C739" s="4" t="s">
-        <v>627</v>
+      <c r="C739" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B740" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="741" spans="1:3">
       <c r="C741" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="742" spans="1:3">
       <c r="C742" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="743" spans="1:3">
-      <c r="A743" s="1">
-        <v>117</v>
-      </c>
-      <c r="B743" t="s">
-        <v>631</v>
+      <c r="C743" s="4" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="744" spans="1:3">
-      <c r="C744" t="s">
-        <v>632</v>
+      <c r="A744" s="1">
+        <v>116</v>
+      </c>
+      <c r="B744" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="745" spans="1:3">
-      <c r="B745" t="s">
-        <v>633</v>
+      <c r="C745" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="746" spans="1:3">
       <c r="C746" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="747" spans="1:3">
+      <c r="A747" s="1">
+        <v>117</v>
+      </c>
       <c r="B747" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="748" spans="1:3">
       <c r="C748" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="749" spans="1:3">
-      <c r="A749" s="1">
-        <v>118</v>
-      </c>
       <c r="B749" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
     </row>
     <row r="750" spans="1:3">
       <c r="C750" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="751" spans="1:3">
-      <c r="C751" t="s">
-        <v>640</v>
+      <c r="B751" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="752" spans="1:3">
-      <c r="A752" s="1">
-        <v>119</v>
-      </c>
-      <c r="B752" t="s">
-        <v>641</v>
+      <c r="C752" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="753" spans="1:3">
-      <c r="C753" t="s">
-        <v>642</v>
+      <c r="A753" s="1">
+        <v>118</v>
+      </c>
+      <c r="B753" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="754" spans="1:3">
       <c r="C754" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="755" spans="1:3">
-      <c r="A755" s="1">
-        <v>120</v>
-      </c>
-      <c r="B755" t="s">
-        <v>646</v>
+      <c r="C755" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="756" spans="1:3">
-      <c r="C756" t="s">
-        <v>647</v>
+      <c r="A756" s="1">
+        <v>119</v>
+      </c>
+      <c r="B756" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="757" spans="1:3">
       <c r="C757" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="758" spans="1:3">
       <c r="C758" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="759" spans="1:3">
       <c r="A759" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B759" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="760" spans="1:3">
       <c r="C760" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="761" spans="1:3">
-      <c r="B761" t="s">
-        <v>653</v>
+      <c r="C761" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="762" spans="1:3">
       <c r="C762" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="763" spans="1:3">
+      <c r="A763" s="1">
+        <v>121</v>
+      </c>
       <c r="B763" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="764" spans="1:3">
       <c r="C764" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="765" spans="1:3">
-      <c r="A765" s="1">
-        <v>122</v>
-      </c>
       <c r="B765" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="766" spans="1:3">
       <c r="C766" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3">
+      <c r="B767" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3">
+      <c r="C768" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3">
+      <c r="A769" s="1">
+        <v>122</v>
+      </c>
+      <c r="B769" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3">
+      <c r="C770" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="767" spans="1:3">
-      <c r="C767" t="s">
+    <row r="771" spans="1:3">
+      <c r="C771" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="768" spans="1:3">
-      <c r="A768" s="1">
+    <row r="772" spans="1:3">
+      <c r="A772" s="1">
         <v>123</v>
       </c>
-      <c r="B768" t="s">
+      <c r="B772" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="769" spans="1:3">
-      <c r="C769" t="s">
+    <row r="773" spans="1:3">
+      <c r="C773" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="770" spans="1:3">
-      <c r="C770" s="2" t="s">
+    <row r="774" spans="1:3">
+      <c r="C774" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="771" spans="1:3">
-      <c r="B771" t="s">
+    <row r="775" spans="1:3">
+      <c r="B775" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="772" spans="1:3">
-      <c r="C772" t="s">
+    <row r="776" spans="1:3">
+      <c r="C776" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="773" spans="1:3">
-      <c r="A773" s="1">
+    <row r="777" spans="1:3">
+      <c r="A777" s="1">
         <v>124</v>
       </c>
-      <c r="B773" t="s">
+      <c r="B777" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="774" spans="1:3">
-      <c r="C774" t="s">
+    <row r="778" spans="1:3">
+      <c r="C778" t="s">
         <v>665</v>
-      </c>
-    </row>
-    <row r="775" spans="1:3">
-      <c r="C775" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="776" spans="1:3">
-      <c r="A776" s="1">
-        <v>125</v>
-      </c>
-      <c r="B776" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="777" spans="1:3">
-      <c r="C777" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="778" spans="1:3">
-      <c r="B778" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="779" spans="1:3">
       <c r="C779" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="780" spans="1:3">
+      <c r="A780" s="1">
+        <v>125</v>
+      </c>
       <c r="B780" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="781" spans="1:3">
       <c r="C781" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="782" spans="1:3">
       <c r="B782" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="783" spans="1:3">
       <c r="C783" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="784" spans="1:3">
-      <c r="A784" s="1">
-        <v>126</v>
-      </c>
       <c r="B784" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="785" spans="1:3">
-      <c r="C785" s="2" t="s">
-        <v>675</v>
+      <c r="C785" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="786" spans="1:3">
-      <c r="C786" t="s">
-        <v>677</v>
+      <c r="B786" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="787" spans="1:3">
       <c r="C787" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3">
+      <c r="A788" s="1">
+        <v>126</v>
+      </c>
+      <c r="B788" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3">
+      <c r="C789" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3">
+      <c r="C790" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3">
+      <c r="C791" t="s">
         <v>678</v>
-      </c>
-    </row>
-    <row r="788" spans="1:3">
-      <c r="C788" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="789" spans="1:3">
-      <c r="C789" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="790" spans="1:3">
-      <c r="B790" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="791" spans="1:3">
-      <c r="C791" s="3" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="792" spans="1:3">
       <c r="C792" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="793" spans="1:3">
-      <c r="A793" s="1">
-        <v>127</v>
-      </c>
-      <c r="B793" t="s">
-        <v>684</v>
+      <c r="C793" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="794" spans="1:3">
-      <c r="C794" t="s">
-        <v>685</v>
+      <c r="B794" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="795" spans="1:3">
-      <c r="C795" t="s">
-        <v>686</v>
+      <c r="C795" s="3" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="796" spans="1:3">
       <c r="C796" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="797" spans="1:3">
+      <c r="A797" s="1">
+        <v>127</v>
+      </c>
       <c r="B797" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="798" spans="1:3">
       <c r="C798" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="799" spans="1:3">
       <c r="C799" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3">
+      <c r="C800" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3">
+      <c r="B801" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3">
+      <c r="C802" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3">
+      <c r="C803" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="800" spans="1:3">
-      <c r="C800" s="4" t="s">
+    <row r="804" spans="1:3">
+      <c r="C804" s="4" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="801" spans="2:3">
-      <c r="B801" t="s">
+    <row r="805" spans="1:3">
+      <c r="B805" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="802" spans="2:3">
-      <c r="C802" t="s">
+    <row r="806" spans="1:3">
+      <c r="C806" t="s">
         <v>693</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3">
+      <c r="A807" s="1">
+        <v>128</v>
+      </c>
+      <c r="B807" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3">
+      <c r="C808" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3">
+      <c r="A809" s="1">
+        <v>129</v>
+      </c>
+      <c r="B809" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3">
+      <c r="C810" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3">
+      <c r="A811" s="1">
+        <v>130</v>
+      </c>
+      <c r="B811" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3">
+      <c r="C812" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3">
+      <c r="A813" s="1">
+        <v>131</v>
+      </c>
+      <c r="B813" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3">
+      <c r="C814" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3">
+      <c r="B815" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3">
+      <c r="C816" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3">
+      <c r="B817" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3">
+      <c r="C818" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3">
+      <c r="A819" s="1">
+        <v>132</v>
+      </c>
+      <c r="B819" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3">
+      <c r="C820" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3">
+      <c r="B821" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3">
+      <c r="C822" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3">
+      <c r="B823" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3">
+      <c r="C824" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3">
+      <c r="B825" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3">
+      <c r="C826" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3">
+      <c r="A827" s="1">
+        <v>133</v>
+      </c>
+      <c r="B827" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3">
+      <c r="C828" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3">
+      <c r="A829" s="1">
+        <v>134</v>
+      </c>
+      <c r="B829" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3">
+      <c r="C830" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3">
+      <c r="C831" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3">
+      <c r="B832" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3">
+      <c r="C833" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3">
+      <c r="C834" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3">
+      <c r="B835" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3">
+      <c r="C836" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3">
+      <c r="B837" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3">
+      <c r="C838" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3">
+      <c r="A839" s="1">
+        <v>135</v>
+      </c>
+      <c r="B839" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3">
+      <c r="C840" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3">
+      <c r="B841" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3">
+      <c r="C842" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3">
+      <c r="B843" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3">
+      <c r="C844" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3">
+      <c r="B845" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3">
+      <c r="C846" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3">
+      <c r="A847" s="1">
+        <v>136</v>
+      </c>
+      <c r="B847" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3">
+      <c r="C848" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3">
+      <c r="C849" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3">
+      <c r="C850" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3">
+      <c r="A851" s="1">
+        <v>137</v>
+      </c>
+      <c r="B851" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3">
+      <c r="C852" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3">
+      <c r="C853" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3">
+      <c r="C854" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3">
+      <c r="A855" s="1">
+        <v>138</v>
+      </c>
+      <c r="B855" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3">
+      <c r="C856" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F3283-93AB-4248-81CF-0C525C99E8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8DBD0-4210-4191-BB03-31D6F7B72608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="科目A" sheetId="1" r:id="rId1"/>
+    <sheet name="科目B" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="822">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -3306,33 +3306,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>エンドシステム間のデータ伝送を実現するために，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ルーティング(通信経路選択)や中継</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>などを行う役割をもつ。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>隣接ノード間の伝送制御手順(誤り検出，再送制御など)を提供する役割をもつ。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3342,10 +3315,6 @@
   </si>
   <si>
     <t>エラー検出/再送などの伝送制御を担い通信の品質を保証する役割をもつ。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アプリケーションプロセス間での会話を構成し，同期をとり，データ交換を管理するために必要な手段を提供する役割をもつ。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4159,10 +4128,6 @@
   </si>
   <si>
     <t>流れ図(フローチャート)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インターネットにおける電子メールの規約で，ヘッダーフィールドの拡張を行い，テキストだけでなく，音声，画像なども扱える</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4970,12 +4935,589 @@
     <t>とは、利用者が必要な時に、必要なだけ、合意済みの機能を実行できる能力を示します。サービスマネジメントにおいては、SLAで合意された時間に対する、実際に利用できた時間の割合で表されます。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>QRコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在普及している二次元コードで、バーコードが横方向にしか情報を持たないのに対し、QRコードは縦横に情報を持っています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、格納できる情報量が多く、数字だけでなく英字や漢字など多言語のデータも格納することが可能です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦・横方向に情報をもたせることによって，1次元シンボルよりも多くのデータを記録する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JANコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JANコードは、バーコードに使われている国際共通商品コード体系です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同値分割</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラックボックステストのテストケースを作成する手法の1つです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>一般的に、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正しい入力値のデータクラス、正しいデータ範囲の上限を超えて無効であるデータクラス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>正しいデータ範囲の下限を下回って無効であるデータクラスの3つのデータクラス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に分割し、その中から代表として1つの値を選んでテストケースとします。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロールバック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ロールバックは、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>トランザクションの途中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、プログラムのバグなどでアプリケーションから の応答がなくなったり強制終了した場合に、</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>更新前ジャーナル(ログ)を用いて データベースをトランザクション</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>開始直前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">の状態に戻す処理です。 </t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロールフォワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ロールフォワードは、データベースシステムに障害が起こったときに、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>更新後ログ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を用いて今まで処理したトランザクションを再現しシステム障害直前までデータベース情報を復帰させることをいいます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アフィリエイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネット上で企業の広告を掲載して、成果報酬を得るビジネスモデルです。副業として人気があります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>携帯電話などの位置情報を利用して，周辺の店舗などから利用者に対して，リアルタイムに広告を配信する仕組み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPSナビ連動型広告</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索連動型広告</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲットとなるキーワードをあらかじめ指定し，そのキーワードが検索に用いられたときに広告が表示される仕組み</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリアルATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Serial Advanced Technology Attachment)は、CPUと内蔵磁気ディスクドライブ，SSD，DVDドライブなどを接続するためのATAインタフェース規格の一つです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリアルATAホットスワップの起動がある</t>
+    <rPh sb="15" eb="17">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホットスワップ：電源を入れたまま機器の脱着を行うことができる仕組みのことです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RSA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字の桁数がそのまま安全強度につながるため、実際のRSAでは合成数の元となる2つの素数に150～300もの桁数の数を使用します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(Rivest Shamir Adleman)は、桁数が大きい合成数の素因数分解が困難であることを安全性の根拠とした</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公開鍵暗号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の一つです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Advanced Encryption Standardの略。アメリカ合衆国の次世代暗号方式として規格化された</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>共通鍵暗号方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタル署名</t>
+    <rPh sb="4" eb="6">
+      <t>ショメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>→電子文書の作成者が本人であることを確認する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>→電子文書の内容が改ざんされていないことを確認する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>﻿</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暗号化</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→電子メールの本文の内容の漏えいの防止</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開鍵暗号方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開鍵暗号方式による暗号化通信では、送信者は受信者の公開鍵で暗号化した文書を送信し、受信者は自身の秘密鍵で復号を行います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開鍵は広く公開されているので誰でも暗号化して送信することはできますが、その内容を復号できるのは秘密鍵をもつ正規の受信者だけです。この仕組みにより通信内容を第三者に読み取られることがなくなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>インターネットにおける電子メールの規約で，ヘッダーフィールドの拡張を行い，テキストだけでなく，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>音声，画像なども</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扱える</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動的リンクライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(DLL:Dynamic Link Library)とは、主にOSが提供し複数のプログラムに共通して使用する関数やプログラムを機能単位でまとめたモジュールで、プログラムの実行中に</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホストアプリケーションに組み込まれる形で使用されるため動的リンクライブラリと呼ばれます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリを外部ファイルとすることで、実行ファイルのサイズを小さくでき、必要な時にだけ必要なライブラリを主記憶にロードすれば良いため主記憶利用の効率化が期待できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションがDLLの関数を呼び出したときにOSによってリンクされます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイプライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令の処理をプロセッサ内で複数のステージに細分化し，複数の命令を並列に実行する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令が実行される段階で，どの演算器を使うかを動的に決めながら，複数の命令を同時に実行する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMP(Symmetric Multiple Processor)型マルチプロセッサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AMP(Asymmetric Multiple Processor)型マルチプロセッサ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数の命令を同時実行するために，コンパイラが目的プログラムを生成する段階で，それぞれの命令がどの演算器を使うかをあらかじめ割り振る。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイクロプログラム制御</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命令を更に細かなマイクロ命令の組合せで実行する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロングテール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、膨大な商品を低コストで扱うことができるインターネットを使った商品販売において、実店舗では陳列されにくい販売機会の少ない商品でも</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>、それらを数多く取りそろえることによって十分な売上を確保できることを説明した経済理論です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードに使用できる文字の種類の数をM，パスワードの文字数をnとするとき，設定できるパスワードの理論的な総数を求める数式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M^n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>割込み発生時の手順</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ユーザーモードから特権モードへの移行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.プログラムレジスタ(プログラムカウンター)などの退避</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.割込み処理ルーチンの開始番地の決定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.割込み処理ルーチンの実行</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リピータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ伝送媒体上の信号を物理層で増幅して中継する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブリッジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データリンク層でネットワーク同士を接続する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイッチングハブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二つ以上のLANを接続し，LAN上のMACアドレスを参照して，データフレームをほかのセグメントに流すかどうかの判断を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションプロセス間での会話を構成し，同期をとり，データ交換を管理するために必要な手段</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を提供する役割をもつ。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>エンドシステム間のデータ伝送を実現するために，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ルーティング(通信経路選択)や中継や経路制御</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>などを行う役割をもつ。</t>
+    </r>
+    <rPh sb="41" eb="43">
+      <t>ケイロ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSMA/CA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>CSMA/CAは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>無線LAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の規格であるIEEE802.11系で使用されている通信プロトコルです。無線通信では信頼できる衝突検出の仕組みがありません。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デジタルディバイド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Digital Divide)は、日本語では情報格差の意味で、パソコンやインターネットなどの情報技術(IT)を使いこなせる者と使いこなせない者の間に生じる、待遇や貧富、機会の格差のことです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>若者や高学歴者、高所得者などが情報技術を活用してますます高収入や雇用を手にする一方、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンピュータを使いこなせない高齢者や貧困のため情報機器を入手できない人々は、より一層困難な状況に追い込まれる、といういわば、情報技術が社会的な格差を拡大、固定化してしまう現象を指します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5028,6 +5570,22 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5167,7 +5725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5183,6 +5741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5402,13 +5961,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>363</xdr:row>
+      <xdr:row>364</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>299205</xdr:colOff>
-      <xdr:row>368</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>198686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5500,13 +6059,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>556</xdr:row>
+      <xdr:row>559</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>299886</xdr:colOff>
-      <xdr:row>565</xdr:row>
+      <xdr:row>568</xdr:row>
       <xdr:rowOff>104630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5549,14 +6108,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>569</xdr:row>
+      <xdr:row>585</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371942</xdr:colOff>
-      <xdr:row>578</xdr:row>
-      <xdr:rowOff>104630</xdr:rowOff>
+      <xdr:row>594</xdr:row>
+      <xdr:rowOff>104629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5598,14 +6157,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>582</xdr:row>
+      <xdr:row>598</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>417666</xdr:colOff>
-      <xdr:row>592</xdr:row>
-      <xdr:rowOff>168753</xdr:rowOff>
+      <xdr:row>608</xdr:row>
+      <xdr:rowOff>168754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5647,13 +6206,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>603</xdr:row>
+      <xdr:row>619</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295344</xdr:colOff>
-      <xdr:row>620</xdr:row>
+      <xdr:row>636</xdr:row>
       <xdr:rowOff>139290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5696,13 +6255,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>650</xdr:row>
+      <xdr:row>666</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>308560</xdr:colOff>
-      <xdr:row>655</xdr:row>
+      <xdr:row>671</xdr:row>
       <xdr:rowOff>130100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5745,13 +6304,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>650</xdr:row>
+      <xdr:row>666</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>444414</xdr:colOff>
-      <xdr:row>653</xdr:row>
+      <xdr:row>669</xdr:row>
       <xdr:rowOff>55198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5794,14 +6353,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>671</xdr:row>
+      <xdr:row>687</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>283963</xdr:colOff>
-      <xdr:row>682</xdr:row>
-      <xdr:rowOff>88083</xdr:rowOff>
+      <xdr:row>698</xdr:row>
+      <xdr:rowOff>88084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5843,14 +6402,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>695</xdr:row>
+      <xdr:row>711</xdr:row>
       <xdr:rowOff>62754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>265134</xdr:colOff>
-      <xdr:row>703</xdr:row>
-      <xdr:rowOff>95638</xdr:rowOff>
+      <xdr:row>719</xdr:row>
+      <xdr:rowOff>95639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5892,14 +6451,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>706</xdr:row>
+      <xdr:row>722</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>265252</xdr:colOff>
-      <xdr:row>714</xdr:row>
-      <xdr:rowOff>25265</xdr:rowOff>
+      <xdr:row>730</xdr:row>
+      <xdr:rowOff>25264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5924,6 +6483,104 @@
         <a:xfrm>
           <a:off x="645459" y="163157647"/>
           <a:ext cx="3985605" cy="1889924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>887</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>558285</xdr:colOff>
+      <xdr:row>892</xdr:row>
+      <xdr:rowOff>65699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{461B5AED-F46A-E2D2-B302-ACBB8DCA8B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662609" y="202070805"/>
+          <a:ext cx="4252328" cy="1150720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>572</xdr:row>
+      <xdr:rowOff>74543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57422</xdr:colOff>
+      <xdr:row>581</xdr:row>
+      <xdr:rowOff>37284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA7659D-6557-7BCD-649B-AB499A06D9B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695739" y="132033065"/>
+          <a:ext cx="5060118" cy="2049958"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6203,10 +6860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X856"/>
+  <dimension ref="A2:X946"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A843" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D861" sqref="D861"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A928" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D950" sqref="D950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6249,17 +6906,17 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7084,7 +7741,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="C186" t="s">
-        <v>637</v>
+        <v>783</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -7478,17 +8135,17 @@
     </row>
     <row r="257" spans="1:4">
       <c r="D257" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="D258" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="D259" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -7752,7 +8409,7 @@
       </c>
       <c r="M313" s="7"/>
       <c r="N313" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="O313" s="13"/>
       <c r="P313" s="13"/>
@@ -7782,7 +8439,7 @@
       </c>
       <c r="M314" s="1"/>
       <c r="N314" s="12" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="O314" s="13"/>
       <c r="P314" s="13"/>
@@ -7796,87 +8453,81 @@
       <c r="X314" s="14"/>
     </row>
     <row r="315" spans="1:24">
-      <c r="C315" s="9" t="s">
+      <c r="C315" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D315" s="10"/>
-      <c r="E315" s="10"/>
-      <c r="F315" s="9"/>
-      <c r="G315" s="10"/>
-      <c r="H315" s="11"/>
-      <c r="I315" s="9"/>
-      <c r="J315" s="10"/>
-      <c r="K315" s="11"/>
-      <c r="L315" s="10"/>
-      <c r="M315" s="11"/>
-      <c r="N315" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="O315" s="13"/>
-      <c r="P315" s="13"/>
-      <c r="Q315" s="13"/>
-      <c r="R315" s="13"/>
-      <c r="S315" s="13"/>
-      <c r="T315" s="13"/>
-      <c r="U315" s="13"/>
-      <c r="V315" s="13"/>
-      <c r="W315" s="13"/>
-      <c r="X315" s="14"/>
+      <c r="D315" s="15"/>
+      <c r="E315" s="15"/>
+      <c r="F315" s="8"/>
+      <c r="G315" s="15"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="8"/>
+      <c r="J315" s="15"/>
+      <c r="K315" s="1"/>
+      <c r="L315" s="15"/>
+      <c r="M315" s="1"/>
+      <c r="N315" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="O315" s="6"/>
+      <c r="P315" s="6"/>
+      <c r="Q315" s="6"/>
+      <c r="R315" s="6"/>
+      <c r="S315" s="6"/>
+      <c r="T315" s="6"/>
+      <c r="U315" s="6"/>
+      <c r="V315" s="6"/>
+      <c r="W315" s="6"/>
+      <c r="X315" s="7"/>
     </row>
     <row r="316" spans="1:24">
-      <c r="C316" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D316" s="13"/>
-      <c r="E316" s="13"/>
-      <c r="F316" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G316" s="13"/>
-      <c r="H316" s="14"/>
-      <c r="I316" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="J316" s="13"/>
-      <c r="K316" s="14"/>
-      <c r="L316" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="M316" s="14"/>
-      <c r="N316" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="O316" s="13"/>
-      <c r="P316" s="13"/>
-      <c r="Q316" s="13"/>
-      <c r="R316" s="13"/>
-      <c r="S316" s="13"/>
-      <c r="T316" s="13"/>
-      <c r="U316" s="13"/>
-      <c r="V316" s="13"/>
-      <c r="W316" s="13"/>
-      <c r="X316" s="14"/>
+      <c r="C316" s="9"/>
+      <c r="D316" s="10"/>
+      <c r="E316" s="10"/>
+      <c r="F316" s="9"/>
+      <c r="G316" s="10"/>
+      <c r="H316" s="11"/>
+      <c r="I316" s="9"/>
+      <c r="J316" s="10"/>
+      <c r="K316" s="11"/>
+      <c r="L316" s="10"/>
+      <c r="M316" s="11"/>
+      <c r="N316" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="O316" s="10"/>
+      <c r="P316" s="10"/>
+      <c r="Q316" s="10"/>
+      <c r="R316" s="10"/>
+      <c r="S316" s="10"/>
+      <c r="T316" s="10"/>
+      <c r="U316" s="10"/>
+      <c r="V316" s="10"/>
+      <c r="W316" s="10"/>
+      <c r="X316" s="11"/>
     </row>
     <row r="317" spans="1:24">
       <c r="C317" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D317" s="13"/>
       <c r="E317" s="13"/>
       <c r="F317" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G317" s="13"/>
       <c r="H317" s="14"/>
       <c r="I317" s="12" t="s">
-        <v>279</v>
+        <v>536</v>
       </c>
       <c r="J317" s="13"/>
       <c r="K317" s="14"/>
-      <c r="L317" s="13"/>
+      <c r="L317" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="M317" s="14"/>
       <c r="N317" s="12" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="O317" s="13"/>
       <c r="P317" s="13"/>
@@ -7890,23 +8541,25 @@
       <c r="X317" s="14"/>
     </row>
     <row r="318" spans="1:24">
-      <c r="C318" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F318" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="H318" s="1"/>
-      <c r="I318" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="K318" s="1"/>
-      <c r="L318" t="s">
-        <v>274</v>
-      </c>
-      <c r="M318" s="1"/>
+      <c r="C318" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D318" s="13"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G318" s="13"/>
+      <c r="H318" s="14"/>
+      <c r="I318" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J318" s="13"/>
+      <c r="K318" s="14"/>
+      <c r="L318" s="13"/>
+      <c r="M318" s="14"/>
       <c r="N318" s="12" t="s">
-        <v>513</v>
+        <v>815</v>
       </c>
       <c r="O318" s="13"/>
       <c r="P318" s="13"/>
@@ -7920,27 +8573,23 @@
       <c r="X318" s="14"/>
     </row>
     <row r="319" spans="1:24">
-      <c r="C319" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D319" s="13"/>
-      <c r="E319" s="14"/>
-      <c r="F319" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G319" s="10"/>
-      <c r="H319" s="11"/>
-      <c r="I319" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="J319" s="10"/>
-      <c r="K319" s="11"/>
-      <c r="L319" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="M319" s="11"/>
+      <c r="C319" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F319" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H319" s="1"/>
+      <c r="I319" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="K319" s="1"/>
+      <c r="L319" t="s">
+        <v>274</v>
+      </c>
+      <c r="M319" s="1"/>
       <c r="N319" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="O319" s="13"/>
       <c r="P319" s="13"/>
@@ -7954,2515 +8603,2956 @@
       <c r="X319" s="14"/>
     </row>
     <row r="320" spans="1:24">
-      <c r="A320" s="1">
+      <c r="C320" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D320" s="13"/>
+      <c r="E320" s="14"/>
+      <c r="F320" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G320" s="10"/>
+      <c r="H320" s="11"/>
+      <c r="I320" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J320" s="10"/>
+      <c r="K320" s="11"/>
+      <c r="L320" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="M320" s="11"/>
+      <c r="N320" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="O320" s="13"/>
+      <c r="P320" s="13"/>
+      <c r="Q320" s="13"/>
+      <c r="R320" s="13"/>
+      <c r="S320" s="13"/>
+      <c r="T320" s="13"/>
+      <c r="U320" s="13"/>
+      <c r="V320" s="13"/>
+      <c r="W320" s="13"/>
+      <c r="X320" s="14"/>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1">
         <v>47</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B321" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="C321" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="C322" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="C323" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="C324" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="1">
+    <row r="325" spans="1:3">
+      <c r="A325" s="1">
         <v>48</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B325" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="C325" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="C326" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="C327" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
-      <c r="A327" s="1">
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
         <v>49</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B328" t="s">
         <v>288</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="C328" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="C329" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="C330" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="C331" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
-      <c r="C331" s="2" t="s">
+    <row r="332" spans="1:3">
+      <c r="C332" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="1">
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
         <v>50</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="C333" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="C334" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="335" spans="1:3">
-      <c r="A335" s="1">
+      <c r="C335" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
         <v>51</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
-      <c r="C336" t="s">
+    <row r="337" spans="1:3">
+      <c r="C337" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
-      <c r="B337" t="s">
+    <row r="338" spans="1:3">
+      <c r="B338" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
-      <c r="C338" t="s">
+    <row r="339" spans="1:3">
+      <c r="C339" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="1">
+    <row r="340" spans="1:3">
+      <c r="A340" s="1">
         <v>52</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B340" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
-      <c r="C340" t="s">
+    <row r="341" spans="1:3">
+      <c r="C341" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="1">
+    <row r="342" spans="1:3">
+      <c r="A342" s="1">
         <v>53</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B342" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
-      <c r="C342" t="s">
+    <row r="343" spans="1:3">
+      <c r="C343" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
-      <c r="B343" t="s">
+    <row r="344" spans="1:3">
+      <c r="B344" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
-      <c r="C344" t="s">
+    <row r="345" spans="1:3">
+      <c r="C345" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
-      <c r="B345" t="s">
+    <row r="346" spans="1:3">
+      <c r="B346" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
-      <c r="C346" t="s">
+    <row r="347" spans="1:3">
+      <c r="C347" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="1">
+    <row r="348" spans="1:3">
+      <c r="A348" s="1">
         <v>54</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B348" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="C348" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="C349" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="C350" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="1">
+    <row r="351" spans="1:3">
+      <c r="A351" s="1">
         <v>55</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B351" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="C351" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="C352" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="C353" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="C354" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
-      <c r="B354" t="s">
+    <row r="355" spans="1:3">
+      <c r="B355" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
-      <c r="C355" t="s">
+    <row r="356" spans="1:3">
+      <c r="C356" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
-      <c r="B356" t="s">
+    <row r="357" spans="1:3">
+      <c r="B357" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
-      <c r="C357" t="s">
+    <row r="358" spans="1:3">
+      <c r="C358" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
-      <c r="B358" t="s">
+    <row r="359" spans="1:3">
+      <c r="B359" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
-      <c r="C359" t="s">
+    <row r="360" spans="1:3">
+      <c r="C360" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="1">
+    <row r="361" spans="1:3">
+      <c r="A361" s="1">
         <v>56</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B361" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
-      <c r="C361" t="s">
+    <row r="362" spans="1:3">
+      <c r="C362" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
-      <c r="B362" t="s">
+    <row r="363" spans="1:3">
+      <c r="B363" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
-      <c r="C363" t="s">
+    <row r="364" spans="1:3">
+      <c r="C364" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
-      <c r="A370" s="1">
+    <row r="371" spans="1:3">
+      <c r="A371" s="1">
         <v>57</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B371" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="C371" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="C372" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="C373" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
-      <c r="A373" s="1">
+    <row r="374" spans="1:3">
+      <c r="A374" s="1">
         <v>58</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B374" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
-      <c r="C374" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="C375" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="C376" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
-      <c r="B376" t="s">
+    <row r="377" spans="1:3">
+      <c r="B377" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
-      <c r="C377" t="s">
+    <row r="378" spans="1:3">
+      <c r="C378" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
-      <c r="A378" s="1">
+    <row r="379" spans="1:3">
+      <c r="A379" s="1">
         <v>59</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B379" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="C379" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="C380" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="C381" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="381" spans="1:3">
-      <c r="C381" s="2" t="s">
+    <row r="382" spans="1:3">
+      <c r="C382" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
-      <c r="A382" s="1">
+    <row r="383" spans="1:3">
+      <c r="A383" s="1">
         <v>60</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B383" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
-      <c r="C383" t="s">
+    <row r="384" spans="1:3">
+      <c r="C384" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
-      <c r="A384" s="1">
+    <row r="385" spans="1:3">
+      <c r="A385" s="1">
         <v>61</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B385" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
-      <c r="C385" t="s">
+    <row r="386" spans="1:3">
+      <c r="C386" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
-      <c r="C386" s="2" t="s">
+    <row r="387" spans="1:3">
+      <c r="C387" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
-      <c r="A387" s="1">
+    <row r="388" spans="1:3">
+      <c r="A388" s="1">
         <v>62</v>
       </c>
-      <c r="B387" s="3" t="s">
+      <c r="B388" s="3" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
-      <c r="C388" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="C389" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="C390" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="390" spans="1:3">
-      <c r="B390" t="s">
+    <row r="391" spans="1:3">
+      <c r="B391" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
-      <c r="C391" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="C392" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="C393" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
-      <c r="B393" t="s">
+    <row r="394" spans="1:3">
+      <c r="B394" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
-      <c r="C394" t="s">
+    <row r="395" spans="1:3">
+      <c r="C395" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
-      <c r="B395" t="s">
+    <row r="396" spans="1:3">
+      <c r="B396" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
-      <c r="C396" t="s">
+    <row r="397" spans="1:3">
+      <c r="C397" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="1">
+    <row r="398" spans="1:3">
+      <c r="A398" s="1">
         <v>63</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B398" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="C398" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="C399" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="C400" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
-      <c r="A400" s="1">
+    <row r="401" spans="1:3">
+      <c r="A401" s="1">
         <v>64</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B401" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
-      <c r="C401" t="s">
+    <row r="402" spans="1:3">
+      <c r="C402" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
-      <c r="A402" s="1">
+    <row r="403" spans="1:3">
+      <c r="A403" s="1">
         <v>65</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B403" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
-      <c r="C403" t="s">
+    <row r="404" spans="1:3">
+      <c r="C404" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
-      <c r="B404" t="s">
+    <row r="405" spans="1:3">
+      <c r="B405" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
-      <c r="C405" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="C406" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="C407" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="407" spans="1:3">
-      <c r="A407" s="1">
+    <row r="408" spans="1:3">
+      <c r="A408" s="1">
         <v>66</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B408" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
-      <c r="C408" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="C409" t="s">
-        <v>423</v>
+        <v>358</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="C410" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="C411" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="C412" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="C413" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
-      <c r="A413" s="1">
+    <row r="414" spans="1:3">
+      <c r="A414" s="1">
         <v>67</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B414" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
-      <c r="C414" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="C415" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="C416" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
-      <c r="A416" s="1">
+    <row r="417" spans="1:4">
+      <c r="A417" s="1">
         <v>68</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B417" t="s">
         <v>362</v>
       </c>
-      <c r="C416" s="3"/>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="C417" s="3" t="s">
-        <v>363</v>
-      </c>
+      <c r="C417" s="3"/>
     </row>
     <row r="418" spans="1:4">
       <c r="C418" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="C419" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="C420" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
-      <c r="D420" t="s">
+    <row r="421" spans="1:4">
+      <c r="D421" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="C421" t="s">
+    <row r="422" spans="1:4">
+      <c r="C422" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="D422" t="s">
+    <row r="423" spans="1:4">
+      <c r="D423" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
-      <c r="C423" t="s">
+    <row r="424" spans="1:4">
+      <c r="C424" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="1">
+    <row r="425" spans="1:4">
+      <c r="A425" s="1">
         <v>69</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B425" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
-      <c r="C425" t="s">
+    <row r="426" spans="1:4">
+      <c r="C426" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="B426" t="s">
+    <row r="427" spans="1:4">
+      <c r="B427" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
-      <c r="C427" t="s">
+    <row r="428" spans="1:4">
+      <c r="C428" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="B428" t="s">
+    <row r="429" spans="1:4">
+      <c r="B429" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="C429" t="s">
+    <row r="430" spans="1:4">
+      <c r="C430" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="1">
+    <row r="431" spans="1:4">
+      <c r="A431" s="1">
         <v>70</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B431" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="C431" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="C432" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="C433" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
-      <c r="B433" t="s">
+    <row r="434" spans="1:3">
+      <c r="B434" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
-      <c r="C434" t="s">
+    <row r="435" spans="1:3">
+      <c r="C435" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
-      <c r="B435" t="s">
+    <row r="436" spans="1:3">
+      <c r="B436" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
-      <c r="C436" t="s">
+    <row r="437" spans="1:3">
+      <c r="C437" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
-      <c r="A437" s="1">
+    <row r="438" spans="1:3">
+      <c r="A438" s="1">
         <v>71</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B438" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
-      <c r="C438" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="C439" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="C440" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="440" spans="1:3">
-      <c r="B440" t="s">
+    <row r="441" spans="1:3">
+      <c r="B441" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
-      <c r="C441" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="C442" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="C443" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="C444" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="444" spans="1:3">
-      <c r="B444" t="s">
+    <row r="445" spans="1:3">
+      <c r="B445" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
-      <c r="C445" t="s">
+    <row r="446" spans="1:3">
+      <c r="C446" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
-      <c r="B446" t="s">
+    <row r="447" spans="1:3">
+      <c r="B447" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
-      <c r="C447" t="s">
+    <row r="448" spans="1:3">
+      <c r="C448" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
-      <c r="A448" s="1">
+    <row r="449" spans="1:3">
+      <c r="A449" s="1">
         <v>72</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B449" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
-      <c r="C449" t="s">
+    <row r="450" spans="1:3">
+      <c r="C450" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
-      <c r="A450" s="1">
+    <row r="451" spans="1:3">
+      <c r="A451" s="1">
         <v>73</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B451" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3">
-      <c r="C451" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="C452" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="C453" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
-      <c r="B453" t="s">
+    <row r="454" spans="1:3">
+      <c r="B454" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3">
-      <c r="C454" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="C455" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="C456" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="456" spans="1:3">
-      <c r="A456" s="1">
+    <row r="457" spans="1:3">
+      <c r="A457" s="1">
         <v>74</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B457" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3">
-      <c r="C457" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="C458" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="C459" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="459" spans="1:3">
-      <c r="B459" t="s">
+    <row r="460" spans="1:3">
+      <c r="B460" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
-      <c r="C460" t="s">
+    <row r="461" spans="1:3">
+      <c r="C461" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
-      <c r="B461" t="s">
+    <row r="462" spans="1:3">
+      <c r="B462" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
-      <c r="C462" t="s">
+    <row r="463" spans="1:3">
+      <c r="C463" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
-      <c r="A463" s="1">
+    <row r="464" spans="1:3">
+      <c r="A464" s="1">
         <v>75</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B464" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
-      <c r="C464" t="s">
+    <row r="465" spans="1:3">
+      <c r="C465" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
-      <c r="B465" t="s">
+    <row r="466" spans="1:3">
+      <c r="B466" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="C466" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="C467" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="C468" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="468" spans="1:3">
-      <c r="A468" s="1">
+    <row r="469" spans="1:3">
+      <c r="A469" s="1">
         <v>76</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B469" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
-      <c r="C469" t="s">
+    <row r="470" spans="1:3">
+      <c r="C470" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
-      <c r="B470" t="s">
+    <row r="471" spans="1:3">
+      <c r="B471" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
-      <c r="C471" t="s">
+    <row r="472" spans="1:3">
+      <c r="C472" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
-      <c r="B472" t="s">
+    <row r="473" spans="1:3">
+      <c r="B473" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
-      <c r="C473" t="s">
+    <row r="474" spans="1:3">
+      <c r="C474" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
-      <c r="A474" s="1">
+    <row r="475" spans="1:3">
+      <c r="A475" s="1">
         <v>77</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B475" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
-      <c r="C475" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="C476" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="C477" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
-      <c r="A477" s="1">
+    <row r="478" spans="1:3">
+      <c r="A478" s="1">
         <v>78</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B478" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
-      <c r="C478" t="s">
+    <row r="479" spans="1:3">
+      <c r="C479" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
-      <c r="B479" t="s">
+    <row r="480" spans="1:3">
+      <c r="B480" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
-      <c r="C480" t="s">
+    <row r="481" spans="1:3">
+      <c r="C481" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
-      <c r="B481" t="s">
+    <row r="482" spans="1:3">
+      <c r="B482" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
-      <c r="C482" t="s">
+    <row r="483" spans="1:3">
+      <c r="C483" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
-      <c r="A483" s="1">
+    <row r="484" spans="1:3">
+      <c r="A484" s="1">
         <v>79</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B484" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
-      <c r="C484" s="2" t="s">
+    <row r="485" spans="1:3">
+      <c r="C485" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
-      <c r="A485" s="1">
+    <row r="486" spans="1:3">
+      <c r="A486" s="1">
         <v>80</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B486" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
-      <c r="C486" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="C487" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="C488" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="C489" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="C490" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
-      <c r="B490" t="s">
+    <row r="491" spans="1:3">
+      <c r="B491" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="C492" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="B493" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
-      <c r="C491" t="s">
+    <row r="494" spans="1:3">
+      <c r="C494" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
-      <c r="B492" t="s">
+    <row r="495" spans="1:3">
+      <c r="B495" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
-      <c r="C493" t="s">
+    <row r="496" spans="1:3">
+      <c r="C496" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
-      <c r="B494" t="s">
+    <row r="497" spans="1:3">
+      <c r="B497" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
-      <c r="C495" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
-      <c r="A496" s="1">
-        <v>81</v>
-      </c>
-      <c r="B496" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
-      <c r="C497" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="C498" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B499" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="C500" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="C501" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="502" spans="1:3">
-      <c r="C502" t="s">
-        <v>455</v>
+      <c r="A502" s="1">
+        <v>82</v>
+      </c>
+      <c r="B502" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="503" spans="1:3">
-      <c r="A503" s="1">
-        <v>83</v>
-      </c>
-      <c r="B503" t="s">
-        <v>459</v>
+      <c r="C503" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="C504" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="C505" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1">
+        <v>83</v>
+      </c>
+      <c r="B506" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="C507" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="505" spans="1:3">
-      <c r="B505" t="s">
+    <row r="508" spans="1:3">
+      <c r="B508" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
-      <c r="C506" t="s">
+    <row r="509" spans="1:3">
+      <c r="C509" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
-      <c r="B507" t="s">
+    <row r="510" spans="1:3">
+      <c r="B510" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="508" spans="1:3">
-      <c r="C508" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
-      <c r="B509" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="510" spans="1:3">
-      <c r="C510" s="3" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="C511" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="B512" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="C513" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="C514" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="B515" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
-      <c r="C513" t="s">
+    <row r="516" spans="1:3">
+      <c r="C516" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
-      <c r="A514" s="1">
+    <row r="517" spans="1:3">
+      <c r="A517" s="1">
         <v>84</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B517" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
-      <c r="C515" t="s">
+    <row r="518" spans="1:3">
+      <c r="C518" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
-      <c r="C516" t="s">
+    <row r="519" spans="1:3">
+      <c r="C519" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
-      <c r="C517" t="s">
+    <row r="520" spans="1:3">
+      <c r="C520" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
-      <c r="B518" t="s">
+    <row r="521" spans="1:3">
+      <c r="B521" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
-      <c r="C519" t="s">
+    <row r="522" spans="1:3">
+      <c r="C522" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
-      <c r="B520" t="s">
+    <row r="523" spans="1:3">
+      <c r="B523" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
-      <c r="C521" t="s">
+    <row r="524" spans="1:3">
+      <c r="C524" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
-      <c r="B522" t="s">
+    <row r="525" spans="1:3">
+      <c r="B525" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
-      <c r="C523" t="s">
+    <row r="526" spans="1:3">
+      <c r="C526" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
-      <c r="A524" s="1">
+    <row r="527" spans="1:3">
+      <c r="A527" s="1">
         <v>85</v>
       </c>
-      <c r="B524" t="s">
+      <c r="B527" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
-      <c r="C525" t="s">
+    <row r="528" spans="1:3">
+      <c r="C528" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
-      <c r="A526" s="1">
+    <row r="529" spans="1:4">
+      <c r="A529" s="1">
         <v>86</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B529" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
-      <c r="C527" t="s">
+    <row r="530" spans="1:4">
+      <c r="C530" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
-      <c r="D528" t="s">
+    <row r="531" spans="1:4">
+      <c r="D531" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
-      <c r="C529" t="s">
+    <row r="532" spans="1:4">
+      <c r="C532" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
-      <c r="D530" t="s">
+    <row r="533" spans="1:4">
+      <c r="D533" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
-      <c r="C531" t="s">
+    <row r="534" spans="1:4">
+      <c r="C534" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
-      <c r="D532" t="s">
+    <row r="535" spans="1:4">
+      <c r="D535" t="s">
         <v>489</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4">
-      <c r="C533" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4">
-      <c r="D534" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4">
-      <c r="A535" s="1">
-        <v>87</v>
-      </c>
-      <c r="B535" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="536" spans="1:4">
       <c r="C536" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="537" spans="1:4">
-      <c r="C537" t="s">
-        <v>494</v>
+      <c r="D537" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="538" spans="1:4">
+      <c r="A538" s="1">
+        <v>87</v>
+      </c>
       <c r="B538" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="539" spans="1:4">
       <c r="C539" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="540" spans="1:4">
-      <c r="B540" t="s">
-        <v>497</v>
+      <c r="C540" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="541" spans="1:4">
-      <c r="C541" t="s">
-        <v>498</v>
+      <c r="B541" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="542" spans="1:4">
       <c r="C542" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="543" spans="1:4">
-      <c r="A543" s="1">
-        <v>88</v>
-      </c>
       <c r="B543" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="544" spans="1:4">
       <c r="C544" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="545" spans="1:4">
       <c r="C545" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B546" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="547" spans="1:4">
       <c r="C547" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="C548" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="549" spans="1:4">
-      <c r="D549" t="s">
-        <v>506</v>
+      <c r="A549" s="1">
+        <v>89</v>
+      </c>
+      <c r="B549" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="550" spans="1:4">
       <c r="C550" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="C551" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="D552" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="C553" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
-      <c r="D551" t="s">
+    <row r="554" spans="1:4">
+      <c r="D554" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
-      <c r="C552" t="s">
+    <row r="555" spans="1:4">
+      <c r="C555" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
-      <c r="D553" t="s">
+    <row r="556" spans="1:4">
+      <c r="D556" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
-      <c r="C554" t="s">
+    <row r="557" spans="1:4">
+      <c r="C557" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
-      <c r="A555" s="1">
+    <row r="558" spans="1:4">
+      <c r="A558" s="1">
         <v>90</v>
       </c>
-      <c r="B555" t="s">
+      <c r="B558" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="C559" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="570" spans="2:3">
+      <c r="B570" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="571" spans="2:3">
+      <c r="C571" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="572" spans="2:3">
+      <c r="C572" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="1">
+        <v>91</v>
+      </c>
+      <c r="B583" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
-      <c r="C556" t="s">
+    <row r="584" spans="1:3">
+      <c r="C584" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="567" spans="1:3">
-      <c r="A567" s="1">
-        <v>91</v>
-      </c>
-      <c r="B567" t="s">
+    <row r="585" spans="1:3">
+      <c r="C585" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="568" spans="1:3">
-      <c r="C568" t="s">
+    <row r="596" spans="1:3">
+      <c r="A596" s="1">
+        <v>92</v>
+      </c>
+      <c r="B596" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="569" spans="1:3">
-      <c r="C569" t="s">
+    <row r="597" spans="1:3">
+      <c r="C597" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="580" spans="1:3">
-      <c r="A580" s="1">
-        <v>92</v>
-      </c>
-      <c r="B580" t="s">
+    <row r="598" spans="1:3">
+      <c r="C598" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="581" spans="1:3">
-      <c r="C581" t="s">
+    <row r="610" spans="1:3">
+      <c r="A610" s="1">
+        <v>93</v>
+      </c>
+      <c r="B610" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="582" spans="1:3">
-      <c r="C582" t="s">
+    <row r="611" spans="1:3">
+      <c r="C611" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="C612" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="594" spans="1:3">
-      <c r="A594" s="1">
-        <v>93</v>
-      </c>
-      <c r="B594" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3">
-      <c r="C595" t="s">
+    <row r="613" spans="1:3">
+      <c r="C613" s="4" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="1">
+        <v>94</v>
+      </c>
+      <c r="B614" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
-      <c r="C596" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3">
-      <c r="C597" s="4" t="s">
+    <row r="615" spans="1:3">
+      <c r="C615" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="598" spans="1:3">
-      <c r="A598" s="1">
-        <v>94</v>
-      </c>
-      <c r="B598" t="s">
+    <row r="616" spans="1:3">
+      <c r="C616" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="B617" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="C618" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="599" spans="1:3">
-      <c r="C599" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="600" spans="1:3">
-      <c r="C600" s="2" t="s">
+    <row r="619" spans="1:3">
+      <c r="A619" s="1">
+        <v>95</v>
+      </c>
+      <c r="B619" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="C620" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
-      <c r="B601" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="602" spans="1:3">
-      <c r="C602" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="603" spans="1:3">
-      <c r="A603" s="1">
-        <v>95</v>
-      </c>
-      <c r="B603" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="604" spans="1:3">
-      <c r="C604" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="622" spans="1:3">
-      <c r="A622" s="1">
+    <row r="638" spans="1:3">
+      <c r="A638" s="1">
         <v>96</v>
       </c>
-      <c r="B622" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="623" spans="1:3">
-      <c r="C623" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3">
-      <c r="B624" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3">
-      <c r="C625" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3">
-      <c r="C626" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3">
-      <c r="B627" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3">
-      <c r="C628" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3">
-      <c r="C629" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="630" spans="1:3">
-      <c r="B630" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="631" spans="1:3">
-      <c r="C631" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="632" spans="1:3">
-      <c r="A632" s="1">
-        <v>97</v>
-      </c>
-      <c r="B632" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="633" spans="1:3">
-      <c r="C633" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3">
-      <c r="C634" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3">
-      <c r="A635" s="1">
-        <v>98</v>
-      </c>
-      <c r="B635" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="636" spans="1:3">
-      <c r="C636" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="637" spans="1:3">
-      <c r="A637" s="1">
-        <v>99</v>
-      </c>
-      <c r="B637" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="638" spans="1:3">
-      <c r="C638" t="s">
-        <v>556</v>
+      <c r="B638" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="639" spans="1:3">
       <c r="C639" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
     </row>
     <row r="640" spans="1:3">
       <c r="B640" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="C641" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="C642" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="B643" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="C644" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="C645" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="B646" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="C647" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="1">
+        <v>97</v>
+      </c>
+      <c r="B648" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="C649" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="C650" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="1">
+        <v>98</v>
+      </c>
+      <c r="B651" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="C652" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3">
+      <c r="A653" s="1">
+        <v>99</v>
+      </c>
+      <c r="B653" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3">
+      <c r="C654" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3">
+      <c r="C655" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="B656" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4">
+      <c r="C657" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4">
+      <c r="B658" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
-      <c r="C641" t="s">
+    <row r="659" spans="1:4">
+      <c r="C659" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
-      <c r="B642" t="s">
+    <row r="660" spans="1:4">
+      <c r="C660" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="D661" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4">
+      <c r="C662" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4">
+      <c r="D663" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4">
+      <c r="B664" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
-      <c r="C643" t="s">
+    <row r="665" spans="1:4">
+      <c r="C665" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
-      <c r="C644" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="645" spans="1:4">
-      <c r="D645" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="646" spans="1:4">
-      <c r="C646" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="647" spans="1:4">
-      <c r="D647" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="648" spans="1:4">
-      <c r="B648" t="s">
+    <row r="666" spans="1:4">
+      <c r="A666" s="1">
+        <v>100</v>
+      </c>
+      <c r="B666" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
-      <c r="C649" t="s">
+    <row r="673" spans="1:3">
+      <c r="A673" s="1">
+        <v>101</v>
+      </c>
+      <c r="B673" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
-      <c r="A650" s="1">
-        <v>100</v>
-      </c>
-      <c r="B650" t="s">
+    <row r="674" spans="1:3">
+      <c r="C674" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3">
+      <c r="C675" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="657" spans="1:3">
-      <c r="A657" s="1">
-        <v>101</v>
-      </c>
-      <c r="B657" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3">
-      <c r="C658" t="s">
+    <row r="676" spans="1:3">
+      <c r="B676" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3">
+      <c r="C677" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="659" spans="1:3">
-      <c r="C659" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="660" spans="1:3">
-      <c r="B660" t="s">
+    <row r="678" spans="1:3">
+      <c r="B678" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="661" spans="1:3">
-      <c r="C661" t="s">
+    <row r="679" spans="1:3">
+      <c r="C679" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="662" spans="1:3">
-      <c r="B662" t="s">
+    <row r="680" spans="1:3">
+      <c r="A680" s="1">
+        <v>102</v>
+      </c>
+      <c r="B680" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="663" spans="1:3">
-      <c r="C663" t="s">
+    <row r="681" spans="1:3">
+      <c r="C681" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="664" spans="1:3">
-      <c r="A664" s="1">
-        <v>102</v>
-      </c>
-      <c r="B664" t="s">
+    <row r="682" spans="1:3">
+      <c r="A682" s="1">
+        <v>103</v>
+      </c>
+      <c r="B682" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="665" spans="1:3">
-      <c r="C665" t="s">
+    <row r="683" spans="1:3">
+      <c r="C683" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="666" spans="1:3">
-      <c r="A666" s="1">
-        <v>103</v>
-      </c>
-      <c r="B666" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="667" spans="1:3">
-      <c r="C667" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="668" spans="1:3">
-      <c r="A668" s="1">
-        <v>104</v>
-      </c>
-      <c r="B668" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="669" spans="1:3">
-      <c r="C669" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="670" spans="1:3">
-      <c r="C670" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="671" spans="1:3">
-      <c r="A671" s="1">
-        <v>105</v>
-      </c>
-      <c r="B671" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="684" spans="1:3">
       <c r="A684" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B684" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="685" spans="1:3">
       <c r="C685" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="686" spans="1:3">
       <c r="C686" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="687" spans="1:3">
       <c r="A687" s="1">
+        <v>105</v>
+      </c>
+      <c r="B687" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3">
+      <c r="A700" s="1">
+        <v>106</v>
+      </c>
+      <c r="B700" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3">
+      <c r="C701" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3">
+      <c r="C702" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703" s="1">
         <v>107</v>
       </c>
-      <c r="B687" t="s">
+      <c r="B703" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3">
+      <c r="C704" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3">
+      <c r="C705" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="688" spans="1:3">
-      <c r="C688" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="689" spans="1:3">
-      <c r="C689" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="690" spans="1:3">
-      <c r="A690" s="1">
+    <row r="706" spans="1:3">
+      <c r="A706" s="1">
         <v>108</v>
       </c>
-      <c r="B690" t="s">
+      <c r="B706" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3">
+      <c r="C707" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3">
+      <c r="C708" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
-      <c r="C691" t="s">
+    <row r="709" spans="1:3">
+      <c r="C709" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="692" spans="1:3">
-      <c r="C692" t="s">
+    <row r="710" spans="1:3">
+      <c r="A710" s="1">
+        <v>109</v>
+      </c>
+      <c r="B710" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
-      <c r="C693" t="s">
+    <row r="711" spans="1:3">
+      <c r="C711" t="s">
         <v>595</v>
-      </c>
-    </row>
-    <row r="694" spans="1:3">
-      <c r="A694" s="1">
-        <v>109</v>
-      </c>
-      <c r="B694" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="695" spans="1:3">
-      <c r="C695" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="705" spans="1:3">
-      <c r="B705" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="706" spans="1:3">
-      <c r="C706" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="716" spans="1:3">
-      <c r="A716" s="1">
-        <v>110</v>
-      </c>
-      <c r="B716" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="717" spans="1:3">
-      <c r="C717" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="718" spans="1:3">
-      <c r="B718" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="719" spans="1:3">
-      <c r="C719" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="720" spans="1:3">
-      <c r="C720" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="721" spans="1:3">
       <c r="B721" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
     </row>
     <row r="722" spans="1:3">
       <c r="C722" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="723" spans="1:3">
-      <c r="A723" s="1">
-        <v>111</v>
-      </c>
-      <c r="B723" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="724" spans="1:3">
-      <c r="C724" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="725" spans="1:3">
-      <c r="C725" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="726" spans="1:3">
-      <c r="B726" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="727" spans="1:3">
-      <c r="C727" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="728" spans="1:3">
-      <c r="B728" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="729" spans="1:3">
-      <c r="C729" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="730" spans="1:3">
-      <c r="A730" s="1">
-        <v>112</v>
-      </c>
-      <c r="B730" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="731" spans="1:3">
-      <c r="C731" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
     </row>
     <row r="732" spans="1:3">
-      <c r="C732" t="s">
-        <v>616</v>
+      <c r="A732" s="1">
+        <v>110</v>
+      </c>
+      <c r="B732" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="733" spans="1:3">
       <c r="C733" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
     </row>
     <row r="734" spans="1:3">
-      <c r="C734" s="4" t="s">
-        <v>618</v>
+      <c r="B734" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="735" spans="1:3">
-      <c r="A735" s="1">
-        <v>113</v>
-      </c>
-      <c r="B735" t="s">
-        <v>619</v>
+      <c r="C735" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="736" spans="1:3">
       <c r="C736" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
     </row>
     <row r="737" spans="1:3">
-      <c r="C737" t="s">
-        <v>621</v>
+      <c r="B737" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="738" spans="1:3">
-      <c r="A738" s="1">
-        <v>114</v>
-      </c>
-      <c r="B738" t="s">
-        <v>622</v>
+      <c r="C738" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="739" spans="1:3">
-      <c r="C739" t="s">
-        <v>623</v>
+      <c r="A739" s="1">
+        <v>111</v>
+      </c>
+      <c r="B739" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="740" spans="1:3">
-      <c r="A740" s="1">
-        <v>115</v>
-      </c>
-      <c r="B740" t="s">
-        <v>624</v>
+      <c r="C740" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="741" spans="1:3">
       <c r="C741" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
     </row>
     <row r="742" spans="1:3">
-      <c r="C742" t="s">
-        <v>626</v>
+      <c r="B742" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="743" spans="1:3">
-      <c r="C743" s="4" t="s">
-        <v>627</v>
+      <c r="C743" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="744" spans="1:3">
-      <c r="A744" s="1">
-        <v>116</v>
-      </c>
       <c r="B744" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
     </row>
     <row r="745" spans="1:3">
       <c r="C745" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="746" spans="1:3">
-      <c r="C746" t="s">
-        <v>630</v>
+      <c r="A746" s="1">
+        <v>112</v>
+      </c>
+      <c r="B746" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="747" spans="1:3">
-      <c r="A747" s="1">
-        <v>117</v>
-      </c>
-      <c r="B747" t="s">
-        <v>631</v>
+      <c r="C747" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="748" spans="1:3">
       <c r="C748" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
     </row>
     <row r="749" spans="1:3">
-      <c r="B749" t="s">
-        <v>633</v>
+      <c r="C749" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="750" spans="1:3">
-      <c r="C750" t="s">
-        <v>634</v>
+      <c r="C750" s="4" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="751" spans="1:3">
+      <c r="A751" s="1">
+        <v>113</v>
+      </c>
       <c r="B751" t="s">
-        <v>636</v>
+        <v>617</v>
       </c>
     </row>
     <row r="752" spans="1:3">
       <c r="C752" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
     </row>
     <row r="753" spans="1:3">
-      <c r="A753" s="1">
-        <v>118</v>
-      </c>
-      <c r="B753" t="s">
-        <v>638</v>
+      <c r="C753" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="754" spans="1:3">
-      <c r="C754" t="s">
-        <v>639</v>
+      <c r="A754" s="1">
+        <v>114</v>
+      </c>
+      <c r="B754" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="755" spans="1:3">
       <c r="C755" t="s">
-        <v>640</v>
+        <v>621</v>
       </c>
     </row>
     <row r="756" spans="1:3">
       <c r="A756" s="1">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B756" t="s">
-        <v>641</v>
+        <v>622</v>
       </c>
     </row>
     <row r="757" spans="1:3">
       <c r="C757" t="s">
-        <v>642</v>
+        <v>623</v>
       </c>
     </row>
     <row r="758" spans="1:3">
       <c r="C758" t="s">
-        <v>643</v>
+        <v>624</v>
       </c>
     </row>
     <row r="759" spans="1:3">
-      <c r="A759" s="1">
-        <v>120</v>
-      </c>
-      <c r="B759" t="s">
-        <v>646</v>
+      <c r="C759" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="760" spans="1:3">
-      <c r="C760" t="s">
-        <v>647</v>
+      <c r="A760" s="1">
+        <v>116</v>
+      </c>
+      <c r="B760" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="761" spans="1:3">
       <c r="C761" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
     </row>
     <row r="762" spans="1:3">
       <c r="C762" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
     </row>
     <row r="763" spans="1:3">
       <c r="A763" s="1">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B763" t="s">
-        <v>648</v>
+        <v>629</v>
       </c>
     </row>
     <row r="764" spans="1:3">
       <c r="C764" t="s">
-        <v>649</v>
+        <v>630</v>
       </c>
     </row>
     <row r="765" spans="1:3">
       <c r="B765" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
     </row>
     <row r="766" spans="1:3">
       <c r="C766" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
     </row>
     <row r="767" spans="1:3">
       <c r="B767" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
     </row>
     <row r="768" spans="1:3">
       <c r="C768" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
     </row>
     <row r="769" spans="1:3">
       <c r="A769" s="1">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B769" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
     </row>
     <row r="770" spans="1:3">
       <c r="C770" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
     </row>
     <row r="771" spans="1:3">
       <c r="C771" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
     </row>
     <row r="772" spans="1:3">
       <c r="A772" s="1">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B772" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
     </row>
     <row r="773" spans="1:3">
       <c r="C773" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
     </row>
     <row r="774" spans="1:3">
-      <c r="C774" s="2" t="s">
-        <v>662</v>
+      <c r="C774" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="775" spans="1:3">
+      <c r="A775" s="1">
+        <v>120</v>
+      </c>
       <c r="B775" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
     </row>
     <row r="776" spans="1:3">
       <c r="C776" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
     </row>
     <row r="777" spans="1:3">
-      <c r="A777" s="1">
-        <v>124</v>
-      </c>
-      <c r="B777" t="s">
-        <v>664</v>
+      <c r="C777" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="778" spans="1:3">
       <c r="C778" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
     </row>
     <row r="779" spans="1:3">
-      <c r="C779" t="s">
-        <v>666</v>
+      <c r="A779" s="1">
+        <v>121</v>
+      </c>
+      <c r="B779" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="780" spans="1:3">
-      <c r="A780" s="1">
-        <v>125</v>
-      </c>
-      <c r="B780" t="s">
-        <v>667</v>
+      <c r="C780" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="781" spans="1:3">
-      <c r="C781" t="s">
-        <v>668</v>
+      <c r="B781" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="782" spans="1:3">
-      <c r="B782" t="s">
-        <v>669</v>
+      <c r="C782" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="783" spans="1:3">
-      <c r="C783" t="s">
-        <v>670</v>
+      <c r="B783" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="784" spans="1:3">
-      <c r="B784" t="s">
-        <v>671</v>
+      <c r="C784" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="785" spans="1:3">
-      <c r="C785" t="s">
-        <v>673</v>
+      <c r="A785" s="1">
+        <v>122</v>
+      </c>
+      <c r="B785" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="786" spans="1:3">
-      <c r="B786" t="s">
-        <v>674</v>
+      <c r="C786" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="787" spans="1:3">
       <c r="C787" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
     </row>
     <row r="788" spans="1:3">
       <c r="A788" s="1">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B788" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
     </row>
     <row r="789" spans="1:3">
-      <c r="C789" s="2" t="s">
-        <v>675</v>
+      <c r="C789" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="790" spans="1:3">
-      <c r="C790" t="s">
-        <v>677</v>
+      <c r="C790" s="2" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="791" spans="1:3">
-      <c r="C791" t="s">
-        <v>678</v>
+      <c r="B791" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="792" spans="1:3">
       <c r="C792" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
     </row>
     <row r="793" spans="1:3">
-      <c r="C793" t="s">
-        <v>680</v>
+      <c r="A793" s="1">
+        <v>124</v>
+      </c>
+      <c r="B793" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="794" spans="1:3">
-      <c r="B794" t="s">
-        <v>681</v>
+      <c r="C794" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="795" spans="1:3">
-      <c r="C795" s="3" t="s">
-        <v>683</v>
+      <c r="C795" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="796" spans="1:3">
-      <c r="C796" t="s">
-        <v>682</v>
+      <c r="A796" s="1">
+        <v>125</v>
+      </c>
+      <c r="B796" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="797" spans="1:3">
-      <c r="A797" s="1">
-        <v>127</v>
-      </c>
-      <c r="B797" t="s">
-        <v>684</v>
+      <c r="C797" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="798" spans="1:3">
-      <c r="C798" t="s">
-        <v>685</v>
+      <c r="B798" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="799" spans="1:3">
       <c r="C799" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
     </row>
     <row r="800" spans="1:3">
-      <c r="C800" t="s">
-        <v>687</v>
+      <c r="B800" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="801" spans="1:3">
-      <c r="B801" t="s">
-        <v>688</v>
+      <c r="C801" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="802" spans="1:3">
-      <c r="C802" t="s">
-        <v>689</v>
+      <c r="B802" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="803" spans="1:3">
       <c r="C803" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
     </row>
     <row r="804" spans="1:3">
-      <c r="C804" s="4" t="s">
-        <v>691</v>
+      <c r="A804" s="1">
+        <v>126</v>
+      </c>
+      <c r="B804" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="805" spans="1:3">
-      <c r="B805" t="s">
-        <v>692</v>
+      <c r="C805" s="2" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="806" spans="1:3">
       <c r="C806" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
     </row>
     <row r="807" spans="1:3">
-      <c r="A807" s="1">
-        <v>128</v>
-      </c>
-      <c r="B807" t="s">
-        <v>694</v>
+      <c r="C807" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="808" spans="1:3">
       <c r="C808" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
     </row>
     <row r="809" spans="1:3">
-      <c r="A809" s="1">
-        <v>129</v>
-      </c>
-      <c r="B809" t="s">
-        <v>700</v>
+      <c r="C809" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="810" spans="1:3">
-      <c r="C810" t="s">
-        <v>701</v>
+      <c r="B810" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="811" spans="1:3">
-      <c r="A811" s="1">
-        <v>130</v>
-      </c>
-      <c r="B811" t="s">
-        <v>702</v>
+      <c r="C811" s="3" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="812" spans="1:3">
       <c r="C812" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
     </row>
     <row r="813" spans="1:3">
       <c r="A813" s="1">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B813" t="s">
-        <v>706</v>
+        <v>681</v>
       </c>
     </row>
     <row r="814" spans="1:3">
       <c r="C814" t="s">
-        <v>707</v>
+        <v>682</v>
       </c>
     </row>
     <row r="815" spans="1:3">
-      <c r="B815" t="s">
-        <v>704</v>
+      <c r="C815" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="816" spans="1:3">
       <c r="C816" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
     </row>
     <row r="817" spans="1:3">
       <c r="B817" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
     </row>
     <row r="818" spans="1:3">
       <c r="C818" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
     </row>
     <row r="819" spans="1:3">
-      <c r="A819" s="1">
-        <v>132</v>
-      </c>
-      <c r="B819" t="s">
-        <v>710</v>
+      <c r="C819" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="820" spans="1:3">
-      <c r="C820" t="s">
-        <v>711</v>
+      <c r="C820" s="4" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="821" spans="1:3">
       <c r="B821" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
     </row>
     <row r="822" spans="1:3">
       <c r="C822" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
     </row>
     <row r="823" spans="1:3">
+      <c r="A823" s="1">
+        <v>128</v>
+      </c>
       <c r="B823" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
     </row>
     <row r="824" spans="1:3">
       <c r="C824" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
     </row>
     <row r="825" spans="1:3">
+      <c r="A825" s="1">
+        <v>129</v>
+      </c>
       <c r="B825" t="s">
-        <v>716</v>
+        <v>697</v>
       </c>
     </row>
     <row r="826" spans="1:3">
       <c r="C826" t="s">
-        <v>717</v>
+        <v>698</v>
       </c>
     </row>
     <row r="827" spans="1:3">
       <c r="A827" s="1">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B827" t="s">
-        <v>718</v>
+        <v>699</v>
       </c>
     </row>
     <row r="828" spans="1:3">
       <c r="C828" t="s">
-        <v>719</v>
+        <v>700</v>
       </c>
     </row>
     <row r="829" spans="1:3">
       <c r="A829" s="1">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B829" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
     </row>
     <row r="830" spans="1:3">
       <c r="C830" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
     </row>
     <row r="831" spans="1:3">
-      <c r="C831" t="s">
-        <v>722</v>
+      <c r="B831" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="832" spans="1:3">
-      <c r="B832" t="s">
-        <v>723</v>
+      <c r="C832" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="833" spans="1:3">
-      <c r="C833" t="s">
-        <v>724</v>
+      <c r="B833" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="834" spans="1:3">
       <c r="C834" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
     </row>
     <row r="835" spans="1:3">
+      <c r="A835" s="1">
+        <v>132</v>
+      </c>
       <c r="B835" t="s">
-        <v>726</v>
+        <v>707</v>
       </c>
     </row>
     <row r="836" spans="1:3">
       <c r="C836" t="s">
-        <v>727</v>
+        <v>708</v>
       </c>
     </row>
     <row r="837" spans="1:3">
       <c r="B837" t="s">
-        <v>728</v>
+        <v>709</v>
       </c>
     </row>
     <row r="838" spans="1:3">
       <c r="C838" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
     </row>
     <row r="839" spans="1:3">
-      <c r="A839" s="1">
-        <v>135</v>
-      </c>
       <c r="B839" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
     </row>
     <row r="840" spans="1:3">
       <c r="C840" t="s">
-        <v>731</v>
+        <v>712</v>
       </c>
     </row>
     <row r="841" spans="1:3">
       <c r="B841" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
     </row>
     <row r="842" spans="1:3">
       <c r="C842" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
     </row>
     <row r="843" spans="1:3">
+      <c r="A843" s="1">
+        <v>133</v>
+      </c>
       <c r="B843" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
     </row>
     <row r="844" spans="1:3">
       <c r="C844" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
     </row>
     <row r="845" spans="1:3">
+      <c r="A845" s="1">
+        <v>134</v>
+      </c>
       <c r="B845" t="s">
-        <v>736</v>
+        <v>717</v>
       </c>
     </row>
     <row r="846" spans="1:3">
       <c r="C846" t="s">
-        <v>737</v>
+        <v>718</v>
       </c>
     </row>
     <row r="847" spans="1:3">
-      <c r="A847" s="1">
-        <v>136</v>
-      </c>
-      <c r="B847" t="s">
-        <v>738</v>
+      <c r="C847" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="848" spans="1:3">
-      <c r="C848" t="s">
-        <v>739</v>
+      <c r="B848" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="849" spans="1:3">
       <c r="C849" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
     </row>
     <row r="850" spans="1:3">
       <c r="C850" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
     </row>
     <row r="851" spans="1:3">
-      <c r="A851" s="1">
-        <v>137</v>
-      </c>
       <c r="B851" t="s">
-        <v>742</v>
+        <v>723</v>
       </c>
     </row>
     <row r="852" spans="1:3">
       <c r="C852" t="s">
-        <v>743</v>
+        <v>724</v>
       </c>
     </row>
     <row r="853" spans="1:3">
-      <c r="C853" t="s">
-        <v>744</v>
+      <c r="B853" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="854" spans="1:3">
       <c r="C854" t="s">
-        <v>745</v>
+        <v>726</v>
       </c>
     </row>
     <row r="855" spans="1:3">
       <c r="A855" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B855" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
     </row>
     <row r="856" spans="1:3">
       <c r="C856" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3">
+      <c r="B857" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3">
+      <c r="C858" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3">
+      <c r="B859" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3">
+      <c r="C860" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3">
+      <c r="B861" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3">
+      <c r="C862" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3">
+      <c r="A863" s="1">
+        <v>136</v>
+      </c>
+      <c r="B863" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3">
+      <c r="C864" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3">
+      <c r="C865" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3">
+      <c r="C866" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3">
+      <c r="A867" s="1">
+        <v>137</v>
+      </c>
+      <c r="B867" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3">
+      <c r="C868" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3">
+      <c r="C869" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3">
+      <c r="C870" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3">
+      <c r="A871" s="1">
+        <v>138</v>
+      </c>
+      <c r="B871" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3">
+      <c r="C872" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3">
+      <c r="A873" s="1">
+        <v>139</v>
+      </c>
+      <c r="B873" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3">
+      <c r="C874" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3">
+      <c r="C875" t="s">
         <v>747</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3">
+      <c r="C876" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3">
+      <c r="B877" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3">
+      <c r="C878" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3">
+      <c r="A879" s="1">
+        <v>140</v>
+      </c>
+      <c r="B879" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3">
+      <c r="C880" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3">
+      <c r="C881" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3">
+      <c r="C882" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3">
+      <c r="A883" s="1">
+        <v>141</v>
+      </c>
+      <c r="B883" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3">
+      <c r="C884" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3">
+      <c r="C885" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3">
+      <c r="B886" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3">
+      <c r="C887" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3">
+      <c r="A894" s="1">
+        <v>142</v>
+      </c>
+      <c r="B894" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3">
+      <c r="C895" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3">
+      <c r="B896" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4">
+      <c r="C897" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4">
+      <c r="B898" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4">
+      <c r="C899" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4">
+      <c r="A900" s="1">
+        <v>143</v>
+      </c>
+      <c r="B900" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4">
+      <c r="C901" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4">
+      <c r="C902" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4">
+      <c r="D903" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4">
+      <c r="A904" s="1">
+        <v>144</v>
+      </c>
+      <c r="B904" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4">
+      <c r="C905" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4">
+      <c r="C906" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4">
+      <c r="B907" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4">
+      <c r="C908" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4">
+      <c r="A909" s="1">
+        <v>145</v>
+      </c>
+      <c r="B909" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4">
+      <c r="C910" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4">
+      <c r="C911" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4">
+      <c r="B912" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3">
+      <c r="C913" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3">
+      <c r="A914" s="1">
+        <v>146</v>
+      </c>
+      <c r="B914" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3">
+      <c r="C915" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3">
+      <c r="C916" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3">
+      <c r="C917" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3">
+      <c r="C918" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3">
+      <c r="A919" s="1">
+        <v>147</v>
+      </c>
+      <c r="B919" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3">
+      <c r="C920" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3">
+      <c r="B921" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3">
+      <c r="C922" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3">
+      <c r="B923" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3">
+      <c r="C924" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3">
+      <c r="B925" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3">
+      <c r="C926" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3">
+      <c r="A927" s="1">
+        <v>148</v>
+      </c>
+      <c r="B927" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3">
+      <c r="C928" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3">
+      <c r="C929" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3">
+      <c r="A930" s="1">
+        <v>149</v>
+      </c>
+      <c r="B930" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3">
+      <c r="C931" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3">
+      <c r="A932" s="1">
+        <v>150</v>
+      </c>
+      <c r="B932" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3">
+      <c r="C933" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3">
+      <c r="C934" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3">
+      <c r="C935" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3">
+      <c r="C936" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3">
+      <c r="A937" s="1">
+        <v>151</v>
+      </c>
+      <c r="B937" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3">
+      <c r="C938" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3">
+      <c r="B939" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3">
+      <c r="C940" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3">
+      <c r="B941" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3">
+      <c r="C942" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3">
+      <c r="A943" s="1">
+        <v>152</v>
+      </c>
+      <c r="B943" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3">
+      <c r="C944" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="945" spans="3:3">
+      <c r="C945" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="946" spans="3:3">
+      <c r="C946" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -10470,4 +11560,22 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0DF6BA-7441-4021-9C4A-B1E24E37DEB3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="4.796875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8DBD0-4210-4191-BB03-31D6F7B72608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E9DC0-4B3A-4CD0-BFD4-549FF4D8F983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="884">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -5510,6 +5510,486 @@
   </si>
   <si>
     <t>コンピュータを使いこなせない高齢者や貧困のため情報機器を入手できない人々は、より一層困難な状況に追い込まれる、といういわば、情報技術が社会的な格差を拡大、固定化してしまう現象を指します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリインターリーブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物理上はひとつである主記憶領域を、同時アクセス可能な複数の論理的な領域（バンク）に分け、それぞれのバンクに対してデータの読み書きを並列で行うことにより、メモリアクセスの高速化を図る技術です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリインターリーブでは、奇数アドレスはバンク1、偶数アドレスはバンク2というように、連続したアドレスを複数のバンクに割り振っていきます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常は、連続するアドレスに次々とアクセスされることが多いため、見かけ上並列アクセスしているようになり、実効アクセス時間が短くなります。「主記憶に並列アクセス」ときたらメモリインターリーブです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ‐プリンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ページ単位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に情報を処理して印刷するコンピューター用の印字装置の総称</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>プリンター又はパソコンのプリンタードライバのどちらかが，画像と漢字データを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ビットマップ形式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に展開して，印刷イメージを作る。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホスティングサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機器を自分で所有する場合と異なり、設置環境の整備、機器のメンテナンス、障害対応、ソフトウェアアップデートなどの維持管理は事業者側の責任で行われるので、利用者側ではこれらの管理コストが掛からないという利点があります。代表的な例としてレンタルサーバが挙げられます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(Hosting Service)は、サービス提供者が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自らの施設内で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>運用している機器の全部または一部を、顧客に有料あるいは無料で貸し出すサービスです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハウジングサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サービス事業者の施設に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利用者が独自のサーバを持ち込み，サーバの選定や組合せは自由に行う。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バグ管理図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、縦軸に検出バグ数，横軸にテストに要した時間またはテスト消化件数をとり、一般的な信頼度曲線と比較することでプログラムの品質を判断するために用いられるグラフです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デュアルシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>とは、信頼化設計の1つで、同じ処理を2組のコンピュータシステムで行い、その結果を照合機で</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>チェックしながら処理を進行し</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ていくシステム構成です。一</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>方の系統に障害が発生した場合でも、それを切り離して処理を中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>断することなく継続</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>することが可能です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デュプレックスシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>では待機系から主系へ切り替えるのに一定の停止時間が生じますが、デュアルシステムでは切り離すだけなので中断時間はデュプレックスシステムよりも短くなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホットスタンバイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機系に現用系のオンライン処理プログラムをロードして待機させておき，現用系に障害が発生した場合は，即時に待機系に切り替えて処理を続行する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォールトトレラントシステム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロセッサ，メモリ，チャネル，電源系などを二重に用意しておき，それぞれの装置で片方に障害が発生した場合でも，処理を継続する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CSF（Critical Success Factor：重要成功要因）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標・目的を達成する上で決定的な影響を与える要因のことで、重点的に資源を投下して取り組むべき重要な事項</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KGI（Key Goal Indicator：重要目標達成指標）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業目標やビジネス戦略の遂行によって達成すべき到達目標(Goal)を、測定可能な数値で表したもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KPI（Key Performance Indicator：重要業績評価指標）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業目標やビジネス戦略の実現に向けて行われるビジネスプロセスについて、その実施状況をモニタリングするために設定する指標</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MBO（Management by Objectives：目標による管理）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個々のグル―プや担当者に自らの業務目標を設定、申告させ、その進捗や実行を各人が自ら主体的に管理する手法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>損益分岐点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>損益分岐点＝固定費÷(1－変動費率)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変動費率=変動費/売上高</t>
+    <rPh sb="9" eb="12">
+      <t>ウリアゲダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動平均法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線形計画法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>移動平均法は、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>時系列のデータ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を平滑化することで売上予測などに用いられる手法です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、1次式を満たす変数の値の中で式を最大化または最小化する値を求める方法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェールソフト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムに故障が発生しても、一部の機能を制限しながら全体として稼働し続ける設計のことです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、システムの一部に障害が発生しても全体としては停止することなく稼働を続け、その間に復旧を図るような設計となっているシステムです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害発生時、機能を縮小せずに継続させる設計手法。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェールセーフ（Fail Safe）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>障害発生時、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>安全を優先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>してシステムを移行する設計思想。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェールオーバー（Fail Over）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>障害発生時、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自動的に予備システムに切り替える</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>こと（機能）。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フールプルーフ（Fool Proof）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザが誤った操作をしても、安全に稼働させる設計思想。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップシッピング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ドロップシッピングは、ネットショップ側で在庫を持たず、注文が入った時点で、商品をメーカーや卸売り業者から</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>させるネットショップの運営方法の一形態です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプトイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプトインとは、「承諾」のことで一般的にはユーザーが広告メールの受け取りを承諾することを指します。このようにユーザーの承諾を経て送信されるメール広告をオプトインメール広告といいます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>44.1khz ：1秒間のサンプリング回数は44,100回になります</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンカレントエンジニアリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製品の開発，設計，生産準備を同時並行で行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カンバン方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業指示票を利用して作業指示，運搬指示をする。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要なタイミングで必要な量だけを生産する方式です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BTO(Build to Order，受注生産)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顧客の注文を受けてから製品の生産を行う。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションプログラムからデータベースへの問合せによって得られた導入表を、表データを直接扱えない手続き型プログラム言語に渡す機能を実現するものです。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5741,7 +6221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5814,13 +6294,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>543747</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>128041</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5863,13 +6343,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>146156</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>112800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5912,14 +6392,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>51874</xdr:colOff>
-      <xdr:row>276</xdr:row>
-      <xdr:rowOff>175070</xdr:rowOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>175071</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5961,13 +6441,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>365</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>299205</xdr:colOff>
-      <xdr:row>369</xdr:row>
+      <xdr:row>370</xdr:row>
       <xdr:rowOff>198686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6010,13 +6490,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>131550</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>131405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6059,13 +6539,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>559</xdr:row>
+      <xdr:row>560</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>299886</xdr:colOff>
-      <xdr:row>568</xdr:row>
+      <xdr:row>569</xdr:row>
       <xdr:rowOff>104630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6108,13 +6588,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>585</xdr:row>
+      <xdr:row>586</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371942</xdr:colOff>
-      <xdr:row>594</xdr:row>
+      <xdr:row>595</xdr:row>
       <xdr:rowOff>104629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6157,13 +6637,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>598</xdr:row>
+      <xdr:row>599</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>417666</xdr:colOff>
-      <xdr:row>608</xdr:row>
+      <xdr:row>609</xdr:row>
       <xdr:rowOff>168754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6206,13 +6686,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>619</xdr:row>
+      <xdr:row>620</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295344</xdr:colOff>
-      <xdr:row>636</xdr:row>
+      <xdr:row>637</xdr:row>
       <xdr:rowOff>139290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6255,13 +6735,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>666</xdr:row>
+      <xdr:row>667</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>308560</xdr:colOff>
-      <xdr:row>671</xdr:row>
+      <xdr:row>672</xdr:row>
       <xdr:rowOff>130100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6304,13 +6784,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>666</xdr:row>
+      <xdr:row>667</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>444414</xdr:colOff>
-      <xdr:row>669</xdr:row>
+      <xdr:row>670</xdr:row>
       <xdr:rowOff>55198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6353,13 +6833,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>687</xdr:row>
+      <xdr:row>688</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>283963</xdr:colOff>
-      <xdr:row>698</xdr:row>
+      <xdr:row>699</xdr:row>
       <xdr:rowOff>88084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6402,13 +6882,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>711</xdr:row>
+      <xdr:row>712</xdr:row>
       <xdr:rowOff>62754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>265134</xdr:colOff>
-      <xdr:row>719</xdr:row>
+      <xdr:row>720</xdr:row>
       <xdr:rowOff>95639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6451,13 +6931,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>722</xdr:row>
+      <xdr:row>723</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>265252</xdr:colOff>
-      <xdr:row>730</xdr:row>
+      <xdr:row>731</xdr:row>
       <xdr:rowOff>25264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6500,13 +6980,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>887</xdr:row>
+      <xdr:row>888</xdr:row>
       <xdr:rowOff>74544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>558285</xdr:colOff>
-      <xdr:row>892</xdr:row>
+      <xdr:row>893</xdr:row>
       <xdr:rowOff>65699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6549,13 +7029,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>572</xdr:row>
+      <xdr:row>573</xdr:row>
       <xdr:rowOff>74543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57422</xdr:colOff>
-      <xdr:row>581</xdr:row>
+      <xdr:row>582</xdr:row>
       <xdr:rowOff>37284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6860,10 +7340,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X946"/>
+  <dimension ref="A2:X1009"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A928" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D950" sqref="D950"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A998" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1015" sqref="M1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7177,1240 +7657,1211 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
+      <c r="C64" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
         <v>12</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="C65" t="s">
+    <row r="66" spans="1:3">
+      <c r="C66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="B66" t="s">
+    <row r="67" spans="1:3">
+      <c r="B67" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="C67" t="s">
+    <row r="68" spans="1:3">
+      <c r="C68" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="B68" t="s">
+    <row r="69" spans="1:3">
+      <c r="B69" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="C69" t="s">
+    <row r="70" spans="1:3">
+      <c r="C70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="B70" t="s">
+    <row r="71" spans="1:3">
+      <c r="B71" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="C71" t="s">
+    <row r="72" spans="1:3">
+      <c r="C72" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1">
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
         <v>13</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="C73" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="C74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="C75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="C76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="C77" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="B77" t="s">
+    <row r="78" spans="1:3">
+      <c r="B78" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="C78" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="C79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="C80" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
         <v>14</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="C96" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="C97" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="C98" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="C99" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="C100" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="B100" t="s">
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="C101" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="C102" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="C103" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
         <v>15</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="C104" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="C105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="C106" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="B106" t="s">
+    <row r="107" spans="1:3">
+      <c r="B107" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="C107" t="s">
+    <row r="108" spans="1:3">
+      <c r="C108" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="B108" t="s">
+    <row r="109" spans="1:3">
+      <c r="B109" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="C109" t="s">
+    <row r="110" spans="1:3">
+      <c r="C110" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="B110" t="s">
+    <row r="111" spans="1:3">
+      <c r="B111" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="C111" t="s">
+    <row r="112" spans="1:3">
+      <c r="C112" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="B112" t="s">
+    <row r="113" spans="1:4">
+      <c r="B113" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="C113" t="s">
+    <row r="114" spans="1:4">
+      <c r="C114" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="B114" t="s">
+    <row r="115" spans="1:4">
+      <c r="B115" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="C115" t="s">
+    <row r="116" spans="1:4">
+      <c r="C116" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1">
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>16</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="C117" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="C118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="C119" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="C120" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="C121" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="D121" t="s">
+    <row r="122" spans="1:4">
+      <c r="D122" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="C122" t="s">
+    <row r="123" spans="1:4">
+      <c r="C123" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="D123" t="s">
+    <row r="124" spans="1:4">
+      <c r="D124" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="C124" t="s">
+    <row r="125" spans="1:4">
+      <c r="C125" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="D125" t="s">
+    <row r="126" spans="1:4">
+      <c r="D126" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="C126" t="s">
+    <row r="127" spans="1:4">
+      <c r="C127" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="D127" t="s">
+    <row r="128" spans="1:4">
+      <c r="D128" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="C128" t="s">
+    <row r="129" spans="1:4">
+      <c r="C129" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="D129" t="s">
+    <row r="130" spans="1:4">
+      <c r="D130" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="C130" t="s">
+    <row r="131" spans="1:4">
+      <c r="C131" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="D131" t="s">
+    <row r="132" spans="1:4">
+      <c r="D132" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="1">
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>17</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="C133" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="C134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="C135" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="C136" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="1">
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>18</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="C141" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="C142" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="C143" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
-        <v>19</v>
-      </c>
-      <c r="B143" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
         <v>20</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="C145" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="C146" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="C147" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="C148" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="C149" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="1">
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
         <v>21</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="C150" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="C151" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="C152" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="C153" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="1">
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
         <v>22</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="C154" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="C155" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="C156" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
-      <c r="B156" t="s">
+    <row r="157" spans="1:3">
+      <c r="B157" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="C157" t="s">
+    <row r="158" spans="1:3">
+      <c r="C158" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="B158" t="s">
+    <row r="159" spans="1:3">
+      <c r="B159" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="C159" t="s">
+    <row r="160" spans="1:3">
+      <c r="C160" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="1">
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
         <v>23</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="C161" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="C162" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="C163" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="C164" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="1">
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
         <v>24</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="C165" t="s">
+    <row r="166" spans="1:3">
+      <c r="C166" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="B166" t="s">
+    <row r="167" spans="1:3">
+      <c r="B167" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="C167" t="s">
+    <row r="168" spans="1:3">
+      <c r="C168" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="B168" t="s">
+    <row r="169" spans="1:3">
+      <c r="B169" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
-      <c r="C169" t="s">
+    <row r="170" spans="1:3">
+      <c r="C170" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="B170" t="s">
+    <row r="171" spans="1:3">
+      <c r="B171" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="C171" t="s">
+    <row r="172" spans="1:3">
+      <c r="C172" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="B172" t="s">
+    <row r="173" spans="1:3">
+      <c r="B173" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="C173" t="s">
+    <row r="174" spans="1:3">
+      <c r="C174" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="1">
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
         <v>25</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="C175" t="s">
+    <row r="176" spans="1:3">
+      <c r="C176" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="B176" t="s">
+    <row r="177" spans="1:3">
+      <c r="B177" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="C177" t="s">
+    <row r="178" spans="1:3">
+      <c r="C178" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="B178" t="s">
+    <row r="179" spans="1:3">
+      <c r="B179" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="C179" t="s">
+    <row r="180" spans="1:3">
+      <c r="C180" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="B180" t="s">
+    <row r="181" spans="1:3">
+      <c r="B181" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="C181" t="s">
+    <row r="182" spans="1:3">
+      <c r="C182" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="1">
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
         <v>26</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="C183" t="s">
+    <row r="184" spans="1:3">
+      <c r="C184" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="1">
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
         <v>27</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="C185" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="C186" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="C187" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="1">
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
         <v>28</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="C188" t="s">
+    <row r="189" spans="1:3">
+      <c r="C189" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="B189" t="s">
+    <row r="190" spans="1:3">
+      <c r="B190" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="C190" t="s">
+    <row r="191" spans="1:3">
+      <c r="C191" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="B191" t="s">
+    <row r="192" spans="1:3">
+      <c r="B192" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="C192" t="s">
+    <row r="193" spans="1:3">
+      <c r="C193" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="C193" s="2" t="s">
+    <row r="194" spans="1:3">
+      <c r="C194" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="B194" t="s">
+    <row r="195" spans="1:3">
+      <c r="B195" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
-      <c r="C195" t="s">
+    <row r="196" spans="1:3">
+      <c r="C196" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
-      <c r="C196" s="2" t="s">
+    <row r="197" spans="1:3">
+      <c r="C197" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="1">
+    <row r="198" spans="1:3">
+      <c r="A198" s="1">
         <v>29</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="C198" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="C199" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="C200" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="B200" t="s">
+    <row r="201" spans="1:3">
+      <c r="B201" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="C201" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="C202" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="C203" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="C203" s="3" t="s">
+    <row r="204" spans="1:3">
+      <c r="C204" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="1">
+    <row r="205" spans="1:3">
+      <c r="A205" s="1">
         <v>30</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="C205" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="C206" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="C207" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="B207" t="s">
+    <row r="208" spans="1:3">
+      <c r="B208" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="C208" t="s">
+    <row r="209" spans="1:3">
+      <c r="C209" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="1">
+    <row r="210" spans="1:3">
+      <c r="A210" s="1">
         <v>31</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="C210" t="s">
+    <row r="211" spans="1:3">
+      <c r="C211" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="1">
+    <row r="212" spans="1:3">
+      <c r="A212" s="1">
         <v>32</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="C212" t="s">
+    <row r="213" spans="1:3">
+      <c r="C213" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="1">
+    <row r="214" spans="1:3">
+      <c r="A214" s="1">
         <v>33</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="C214" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="C215" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="C216" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="1">
+    <row r="217" spans="1:3">
+      <c r="A217" s="1">
         <v>34</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="C217" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="C218" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="C219" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
-      <c r="B219" t="s">
+    <row r="220" spans="1:3">
+      <c r="B220" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="C220" t="s">
+    <row r="221" spans="1:3">
+      <c r="C221" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="1">
+    <row r="222" spans="1:3">
+      <c r="A222" s="1">
         <v>35</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="C222" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="C223" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="C224" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="C225" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="1">
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>36</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="C226" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="C227" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="C228" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="D228" t="s">
+    <row r="229" spans="1:4">
+      <c r="D229" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="C229" t="s">
+    <row r="230" spans="1:4">
+      <c r="C230" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="D230" t="s">
+    <row r="231" spans="1:4">
+      <c r="D231" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="C231" t="s">
+    <row r="232" spans="1:4">
+      <c r="C232" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="D232" t="s">
+    <row r="233" spans="1:4">
+      <c r="D233" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="C233" t="s">
+    <row r="234" spans="1:4">
+      <c r="C234" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="D234" t="s">
+    <row r="235" spans="1:4">
+      <c r="D235" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="C235" t="s">
+    <row r="236" spans="1:4">
+      <c r="C236" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="D236" t="s">
+    <row r="237" spans="1:4">
+      <c r="D237" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="C237" t="s">
+    <row r="238" spans="1:4">
+      <c r="C238" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="D238" t="s">
+    <row r="239" spans="1:4">
+      <c r="D239" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="C239" t="s">
+    <row r="240" spans="1:4">
+      <c r="C240" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="D240" t="s">
+    <row r="241" spans="1:4">
+      <c r="D241" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="1">
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>37</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B242" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="C242" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="C243" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="C244" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="C245" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="1">
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>38</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="C246" t="s">
+    <row r="247" spans="1:4">
+      <c r="C247" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="1">
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>39</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="C248" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="C249" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="C250" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="1">
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>40</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B251" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="C251" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="C252" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="C253" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="D253" t="s">
+    <row r="254" spans="1:4">
+      <c r="D254" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="C254" t="s">
+    <row r="255" spans="1:4">
+      <c r="C255" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="D255" t="s">
+    <row r="256" spans="1:4">
+      <c r="D256" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="C256" t="s">
+    <row r="257" spans="1:4">
+      <c r="C257" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4">
-      <c r="D257" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="D258" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="D259" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="D260" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="C260" t="s">
+    <row r="261" spans="1:4">
+      <c r="C261" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="D261" t="s">
+    <row r="262" spans="1:4">
+      <c r="D262" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="1">
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>41</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4">
-      <c r="C263" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="C264" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="C265" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="1">
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>42</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B280" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="C280" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="C281" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="C282" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="1">
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>43</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B283" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="C283" t="s">
+    <row r="284" spans="1:4">
+      <c r="C284" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="D284" t="s">
+    <row r="285" spans="1:4">
+      <c r="D285" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="C285" t="s">
+    <row r="286" spans="1:4">
+      <c r="C286" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="D286" t="s">
+    <row r="287" spans="1:4">
+      <c r="D287" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="C287" t="s">
+    <row r="288" spans="1:4">
+      <c r="C288" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="D288" t="s">
+    <row r="289" spans="1:4">
+      <c r="D289" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="C289" t="s">
+    <row r="290" spans="1:4">
+      <c r="C290" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="D290" t="s">
+    <row r="291" spans="1:4">
+      <c r="D291" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="C291" t="s">
+    <row r="292" spans="1:4">
+      <c r="C292" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="D292" t="s">
+    <row r="293" spans="1:4">
+      <c r="D293" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="C293" t="s">
+    <row r="294" spans="1:4">
+      <c r="C294" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="D294" t="s">
+    <row r="295" spans="1:4">
+      <c r="D295" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="C295" t="s">
+    <row r="296" spans="1:4">
+      <c r="C296" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="D296" t="s">
+    <row r="297" spans="1:4">
+      <c r="D297" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="1">
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>44</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B298" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="C298" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="C299" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="C300" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="C301" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="B301" t="s">
+    <row r="302" spans="1:4">
+      <c r="B302" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="C302" t="s">
+    <row r="303" spans="1:4">
+      <c r="C303" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="B303" t="s">
+    <row r="304" spans="1:4">
+      <c r="B304" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="C304" t="s">
+    <row r="305" spans="1:24">
+      <c r="C305" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="305" spans="1:24">
-      <c r="B305" t="s">
+    <row r="306" spans="1:24">
+      <c r="B306" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="306" spans="1:24">
-      <c r="C306" t="s">
+    <row r="307" spans="1:24">
+      <c r="C307" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="307" spans="1:24">
-      <c r="A307" s="1">
+    <row r="308" spans="1:24">
+      <c r="A308" s="1">
         <v>45</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B308" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="308" spans="1:24">
-      <c r="C308" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="309" spans="1:24">
       <c r="C309" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="310" spans="1:24">
+      <c r="C310" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="310" spans="1:24">
-      <c r="C310" s="4" t="s">
+    <row r="311" spans="1:24">
+      <c r="C311" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="311" spans="1:24">
-      <c r="A311" s="1">
+    <row r="312" spans="1:24">
+      <c r="A312" s="1">
         <v>46</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B312" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="312" spans="1:24">
-      <c r="C312" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D312" s="6"/>
-      <c r="E312" s="6"/>
-      <c r="F312" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G312" s="6"/>
-      <c r="H312" s="7"/>
-      <c r="I312" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="J312" s="6"/>
-      <c r="K312" s="7"/>
-      <c r="L312" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="M312" s="7"/>
-      <c r="N312" s="12"/>
-      <c r="O312" s="13"/>
-      <c r="P312" s="13"/>
-      <c r="Q312" s="13"/>
-      <c r="R312" s="13"/>
-      <c r="S312" s="13"/>
-      <c r="T312" s="13"/>
-      <c r="U312" s="13"/>
-      <c r="V312" s="13"/>
-      <c r="W312" s="13"/>
-      <c r="X312" s="14"/>
     </row>
     <row r="313" spans="1:24">
       <c r="C313" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D313" s="6"/>
       <c r="E313" s="6"/>
       <c r="F313" s="5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G313" s="6"/>
       <c r="H313" s="7"/>
       <c r="I313" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J313" s="6"/>
       <c r="K313" s="7"/>
       <c r="L313" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M313" s="7"/>
-      <c r="N313" s="12" t="s">
-        <v>516</v>
-      </c>
+      <c r="N313" s="12"/>
       <c r="O313" s="13"/>
       <c r="P313" s="13"/>
       <c r="Q313" s="13"/>
@@ -8423,23 +8874,27 @@
       <c r="X313" s="14"/>
     </row>
     <row r="314" spans="1:24">
-      <c r="C314" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D314" s="13"/>
-      <c r="E314" s="14"/>
-      <c r="F314" s="8"/>
-      <c r="H314" s="1"/>
-      <c r="I314" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="K314" s="1"/>
-      <c r="L314" t="s">
-        <v>263</v>
-      </c>
-      <c r="M314" s="1"/>
+      <c r="C314" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D314" s="6"/>
+      <c r="E314" s="6"/>
+      <c r="F314" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G314" s="6"/>
+      <c r="H314" s="7"/>
+      <c r="I314" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J314" s="6"/>
+      <c r="K314" s="7"/>
+      <c r="L314" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M314" s="7"/>
       <c r="N314" s="12" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O314" s="13"/>
       <c r="P314" s="13"/>
@@ -8453,113 +8908,106 @@
       <c r="X314" s="14"/>
     </row>
     <row r="315" spans="1:24">
-      <c r="C315" s="8" t="s">
+      <c r="C315" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D315" s="13"/>
+      <c r="E315" s="14"/>
+      <c r="F315" s="8"/>
+      <c r="H315" s="1"/>
+      <c r="I315" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K315" s="1"/>
+      <c r="L315" t="s">
+        <v>263</v>
+      </c>
+      <c r="M315" s="1"/>
+      <c r="N315" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O315" s="13"/>
+      <c r="P315" s="13"/>
+      <c r="Q315" s="13"/>
+      <c r="R315" s="13"/>
+      <c r="S315" s="13"/>
+      <c r="T315" s="13"/>
+      <c r="U315" s="13"/>
+      <c r="V315" s="13"/>
+      <c r="W315" s="13"/>
+      <c r="X315" s="14"/>
+    </row>
+    <row r="316" spans="1:24">
+      <c r="C316" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D315" s="15"/>
-      <c r="E315" s="15"/>
-      <c r="F315" s="8"/>
-      <c r="G315" s="15"/>
-      <c r="H315" s="1"/>
-      <c r="I315" s="8"/>
-      <c r="J315" s="15"/>
-      <c r="K315" s="1"/>
-      <c r="L315" s="15"/>
-      <c r="M315" s="1"/>
-      <c r="N315" s="5" t="s">
+      <c r="F316" s="8"/>
+      <c r="H316" s="1"/>
+      <c r="I316" s="8"/>
+      <c r="K316" s="1"/>
+      <c r="M316" s="1"/>
+      <c r="N316" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="O315" s="6"/>
-      <c r="P315" s="6"/>
-      <c r="Q315" s="6"/>
-      <c r="R315" s="6"/>
-      <c r="S315" s="6"/>
-      <c r="T315" s="6"/>
-      <c r="U315" s="6"/>
-      <c r="V315" s="6"/>
-      <c r="W315" s="6"/>
-      <c r="X315" s="7"/>
-    </row>
-    <row r="316" spans="1:24">
-      <c r="C316" s="9"/>
-      <c r="D316" s="10"/>
-      <c r="E316" s="10"/>
-      <c r="F316" s="9"/>
-      <c r="G316" s="10"/>
-      <c r="H316" s="11"/>
-      <c r="I316" s="9"/>
-      <c r="J316" s="10"/>
-      <c r="K316" s="11"/>
-      <c r="L316" s="10"/>
-      <c r="M316" s="11"/>
-      <c r="N316" s="9" t="s">
+      <c r="O316" s="6"/>
+      <c r="P316" s="6"/>
+      <c r="Q316" s="6"/>
+      <c r="R316" s="6"/>
+      <c r="S316" s="6"/>
+      <c r="T316" s="6"/>
+      <c r="U316" s="6"/>
+      <c r="V316" s="6"/>
+      <c r="W316" s="6"/>
+      <c r="X316" s="7"/>
+    </row>
+    <row r="317" spans="1:24">
+      <c r="C317" s="9"/>
+      <c r="D317" s="10"/>
+      <c r="E317" s="10"/>
+      <c r="F317" s="9"/>
+      <c r="G317" s="10"/>
+      <c r="H317" s="11"/>
+      <c r="I317" s="9"/>
+      <c r="J317" s="10"/>
+      <c r="K317" s="11"/>
+      <c r="L317" s="10"/>
+      <c r="M317" s="11"/>
+      <c r="N317" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="O316" s="10"/>
-      <c r="P316" s="10"/>
-      <c r="Q316" s="10"/>
-      <c r="R316" s="10"/>
-      <c r="S316" s="10"/>
-      <c r="T316" s="10"/>
-      <c r="U316" s="10"/>
-      <c r="V316" s="10"/>
-      <c r="W316" s="10"/>
-      <c r="X316" s="11"/>
-    </row>
-    <row r="317" spans="1:24">
-      <c r="C317" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D317" s="13"/>
-      <c r="E317" s="13"/>
-      <c r="F317" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G317" s="13"/>
-      <c r="H317" s="14"/>
-      <c r="I317" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="J317" s="13"/>
-      <c r="K317" s="14"/>
-      <c r="L317" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="M317" s="14"/>
-      <c r="N317" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="O317" s="13"/>
-      <c r="P317" s="13"/>
-      <c r="Q317" s="13"/>
-      <c r="R317" s="13"/>
-      <c r="S317" s="13"/>
-      <c r="T317" s="13"/>
-      <c r="U317" s="13"/>
-      <c r="V317" s="13"/>
-      <c r="W317" s="13"/>
-      <c r="X317" s="14"/>
+      <c r="O317" s="10"/>
+      <c r="P317" s="10"/>
+      <c r="Q317" s="10"/>
+      <c r="R317" s="10"/>
+      <c r="S317" s="10"/>
+      <c r="T317" s="10"/>
+      <c r="U317" s="10"/>
+      <c r="V317" s="10"/>
+      <c r="W317" s="10"/>
+      <c r="X317" s="11"/>
     </row>
     <row r="318" spans="1:24">
       <c r="C318" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D318" s="13"/>
       <c r="E318" s="13"/>
       <c r="F318" s="12" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G318" s="13"/>
       <c r="H318" s="14"/>
       <c r="I318" s="12" t="s">
-        <v>279</v>
+        <v>536</v>
       </c>
       <c r="J318" s="13"/>
       <c r="K318" s="14"/>
-      <c r="L318" s="13"/>
+      <c r="L318" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="M318" s="14"/>
       <c r="N318" s="12" t="s">
-        <v>815</v>
+        <v>514</v>
       </c>
       <c r="O318" s="13"/>
       <c r="P318" s="13"/>
@@ -8573,23 +9021,25 @@
       <c r="X318" s="14"/>
     </row>
     <row r="319" spans="1:24">
-      <c r="C319" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F319" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="H319" s="1"/>
-      <c r="I319" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="K319" s="1"/>
-      <c r="L319" t="s">
-        <v>274</v>
-      </c>
-      <c r="M319" s="1"/>
+      <c r="C319" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D319" s="13"/>
+      <c r="E319" s="13"/>
+      <c r="F319" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G319" s="13"/>
+      <c r="H319" s="14"/>
+      <c r="I319" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J319" s="13"/>
+      <c r="K319" s="14"/>
+      <c r="L319" s="13"/>
+      <c r="M319" s="14"/>
       <c r="N319" s="12" t="s">
-        <v>512</v>
+        <v>815</v>
       </c>
       <c r="O319" s="13"/>
       <c r="P319" s="13"/>
@@ -8603,27 +9053,23 @@
       <c r="X319" s="14"/>
     </row>
     <row r="320" spans="1:24">
-      <c r="C320" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D320" s="13"/>
-      <c r="E320" s="14"/>
-      <c r="F320" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G320" s="10"/>
-      <c r="H320" s="11"/>
-      <c r="I320" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="J320" s="10"/>
-      <c r="K320" s="11"/>
-      <c r="L320" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="M320" s="11"/>
+      <c r="C320" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F320" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H320" s="1"/>
+      <c r="I320" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="K320" s="1"/>
+      <c r="L320" t="s">
+        <v>274</v>
+      </c>
+      <c r="M320" s="1"/>
       <c r="N320" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O320" s="13"/>
       <c r="P320" s="13"/>
@@ -8636,2923 +9082,3303 @@
       <c r="W320" s="13"/>
       <c r="X320" s="14"/>
     </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="1">
+    <row r="321" spans="1:24">
+      <c r="C321" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D321" s="13"/>
+      <c r="E321" s="14"/>
+      <c r="F321" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G321" s="10"/>
+      <c r="H321" s="11"/>
+      <c r="I321" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J321" s="10"/>
+      <c r="K321" s="11"/>
+      <c r="L321" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="M321" s="11"/>
+      <c r="N321" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="O321" s="13"/>
+      <c r="P321" s="13"/>
+      <c r="Q321" s="13"/>
+      <c r="R321" s="13"/>
+      <c r="S321" s="13"/>
+      <c r="T321" s="13"/>
+      <c r="U321" s="13"/>
+      <c r="V321" s="13"/>
+      <c r="W321" s="13"/>
+      <c r="X321" s="14"/>
+    </row>
+    <row r="322" spans="1:24">
+      <c r="A322" s="1">
         <v>47</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B322" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="322" spans="1:3">
-      <c r="C322" t="s">
+    <row r="323" spans="1:24">
+      <c r="C323" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="323" spans="1:3">
-      <c r="C323" t="s">
+    <row r="324" spans="1:24">
+      <c r="C324" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="324" spans="1:3">
-      <c r="C324" t="s">
+    <row r="325" spans="1:24">
+      <c r="C325" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="325" spans="1:3">
-      <c r="A325" s="1">
+    <row r="326" spans="1:24">
+      <c r="A326" s="1">
         <v>48</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B326" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="326" spans="1:3">
-      <c r="C326" t="s">
+    <row r="327" spans="1:24">
+      <c r="C327" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="327" spans="1:3">
-      <c r="C327" t="s">
+    <row r="328" spans="1:24">
+      <c r="C328" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="1">
+    <row r="329" spans="1:24">
+      <c r="A329" s="1">
         <v>49</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B329" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="329" spans="1:3">
-      <c r="C329" t="s">
+    <row r="330" spans="1:24">
+      <c r="C330" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
-      <c r="C330" t="s">
+    <row r="331" spans="1:24">
+      <c r="C331" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
-      <c r="C331" t="s">
+    <row r="332" spans="1:24">
+      <c r="C332" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="C332" s="2" t="s">
+    <row r="333" spans="1:24">
+      <c r="C333" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
-      <c r="A333" s="1">
+    <row r="334" spans="1:24">
+      <c r="A334" s="1">
         <v>50</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B334" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="334" spans="1:3">
-      <c r="C334" t="s">
+    <row r="335" spans="1:24">
+      <c r="C335" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
-      <c r="C335" t="s">
+    <row r="336" spans="1:24">
+      <c r="C336" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="1">
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
         <v>51</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B337" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
-      <c r="C337" t="s">
+    <row r="338" spans="1:3">
+      <c r="C338" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
-      <c r="B338" t="s">
+    <row r="339" spans="1:3">
+      <c r="B339" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
-      <c r="C339" t="s">
+    <row r="340" spans="1:3">
+      <c r="C340" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
-      <c r="A340" s="1">
+    <row r="341" spans="1:3">
+      <c r="A341" s="1">
         <v>52</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B341" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
-      <c r="C341" t="s">
+    <row r="342" spans="1:3">
+      <c r="C342" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="1">
+    <row r="343" spans="1:3">
+      <c r="A343" s="1">
         <v>53</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B343" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
-      <c r="C343" t="s">
+    <row r="344" spans="1:3">
+      <c r="C344" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
-      <c r="B344" t="s">
+    <row r="345" spans="1:3">
+      <c r="B345" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
-      <c r="C345" t="s">
+    <row r="346" spans="1:3">
+      <c r="C346" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
-      <c r="B346" t="s">
+    <row r="347" spans="1:3">
+      <c r="B347" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
-      <c r="C347" t="s">
+    <row r="348" spans="1:3">
+      <c r="C348" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="1">
+    <row r="349" spans="1:3">
+      <c r="A349" s="1">
         <v>54</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B349" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="C349" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="C350" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="C351" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="1">
+    <row r="352" spans="1:3">
+      <c r="A352" s="1">
         <v>55</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B352" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="C352" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="C353" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="C354" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="C355" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
-      <c r="B355" t="s">
+    <row r="356" spans="1:3">
+      <c r="B356" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
-      <c r="C356" t="s">
+    <row r="357" spans="1:3">
+      <c r="C357" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
-      <c r="B357" t="s">
+    <row r="358" spans="1:3">
+      <c r="B358" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
-      <c r="C358" t="s">
+    <row r="359" spans="1:3">
+      <c r="C359" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
-      <c r="B359" t="s">
+    <row r="360" spans="1:3">
+      <c r="B360" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
-      <c r="C360" t="s">
+    <row r="361" spans="1:3">
+      <c r="C361" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
-      <c r="A361" s="1">
+    <row r="362" spans="1:3">
+      <c r="A362" s="1">
         <v>56</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B362" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
-      <c r="C362" t="s">
+    <row r="363" spans="1:3">
+      <c r="C363" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
-      <c r="B363" t="s">
+    <row r="364" spans="1:3">
+      <c r="B364" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="364" spans="1:3">
-      <c r="C364" t="s">
+    <row r="365" spans="1:3">
+      <c r="C365" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
-      <c r="A371" s="1">
+    <row r="372" spans="1:3">
+      <c r="A372" s="1">
         <v>57</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B372" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
-      <c r="C372" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="C373" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="C374" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
-      <c r="A374" s="1">
+    <row r="375" spans="1:3">
+      <c r="A375" s="1">
         <v>58</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B375" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="C375" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="C376" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="C377" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
-      <c r="B377" t="s">
+    <row r="378" spans="1:3">
+      <c r="B378" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
-      <c r="C378" t="s">
+    <row r="379" spans="1:3">
+      <c r="C379" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
-      <c r="A379" s="1">
+    <row r="380" spans="1:3">
+      <c r="A380" s="1">
         <v>59</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B380" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
-      <c r="C380" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="C381" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="C382" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="382" spans="1:3">
-      <c r="C382" s="2" t="s">
+    <row r="383" spans="1:3">
+      <c r="C383" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="383" spans="1:3">
-      <c r="A383" s="1">
+    <row r="384" spans="1:3">
+      <c r="A384" s="1">
         <v>60</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B384" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="384" spans="1:3">
-      <c r="C384" t="s">
+    <row r="385" spans="1:3">
+      <c r="C385" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
-      <c r="A385" s="1">
+    <row r="386" spans="1:3">
+      <c r="A386" s="1">
         <v>61</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B386" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="386" spans="1:3">
-      <c r="C386" t="s">
+    <row r="387" spans="1:3">
+      <c r="C387" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="387" spans="1:3">
-      <c r="C387" s="2" t="s">
+    <row r="388" spans="1:3">
+      <c r="C388" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="388" spans="1:3">
-      <c r="A388" s="1">
+    <row r="389" spans="1:3">
+      <c r="A389" s="1">
         <v>62</v>
       </c>
-      <c r="B388" s="3" t="s">
+      <c r="B389" s="3" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
-      <c r="C389" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="C390" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="C391" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="391" spans="1:3">
-      <c r="B391" t="s">
+    <row r="392" spans="1:3">
+      <c r="B392" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
-      <c r="C392" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="C393" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="C394" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
-      <c r="B394" t="s">
+    <row r="395" spans="1:3">
+      <c r="B395" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
-      <c r="C395" t="s">
+    <row r="396" spans="1:3">
+      <c r="C396" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="396" spans="1:3">
-      <c r="B396" t="s">
+    <row r="397" spans="1:3">
+      <c r="B397" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
-      <c r="C397" t="s">
+    <row r="398" spans="1:3">
+      <c r="C398" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
-      <c r="A398" s="1">
+    <row r="399" spans="1:3">
+      <c r="A399" s="1">
         <v>63</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B399" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
-      <c r="C399" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="C400" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="C401" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
-      <c r="A401" s="1">
+    <row r="402" spans="1:3">
+      <c r="A402" s="1">
         <v>64</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B402" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
-      <c r="C402" t="s">
+    <row r="403" spans="1:3">
+      <c r="C403" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
-      <c r="A403" s="1">
+    <row r="404" spans="1:3">
+      <c r="A404" s="1">
         <v>65</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B404" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="404" spans="1:3">
-      <c r="C404" t="s">
+    <row r="405" spans="1:3">
+      <c r="C405" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="405" spans="1:3">
-      <c r="B405" t="s">
+    <row r="406" spans="1:3">
+      <c r="B406" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3">
-      <c r="C406" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="C407" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="C408" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="408" spans="1:3">
-      <c r="A408" s="1">
+    <row r="409" spans="1:3">
+      <c r="A409" s="1">
         <v>66</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B409" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3">
-      <c r="C409" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="C410" t="s">
-        <v>423</v>
+        <v>358</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="C411" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="C412" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="C413" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="C414" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
-      <c r="A414" s="1">
+    <row r="415" spans="1:3">
+      <c r="A415" s="1">
         <v>67</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B415" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
-      <c r="C415" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="C416" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="C417" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="1">
+    <row r="418" spans="1:4">
+      <c r="A418" s="1">
         <v>68</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B418" t="s">
         <v>362</v>
       </c>
-      <c r="C417" s="3"/>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="C418" s="3" t="s">
-        <v>363</v>
-      </c>
+      <c r="C418" s="3"/>
     </row>
     <row r="419" spans="1:4">
       <c r="C419" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="C420" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="C421" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="D421" t="s">
+    <row r="422" spans="1:4">
+      <c r="D422" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="C422" t="s">
+    <row r="423" spans="1:4">
+      <c r="C423" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
-      <c r="D423" t="s">
+    <row r="424" spans="1:4">
+      <c r="D424" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
-      <c r="C424" t="s">
+    <row r="425" spans="1:4">
+      <c r="C425" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="1">
+    <row r="426" spans="1:4">
+      <c r="A426" s="1">
         <v>69</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B426" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="C426" t="s">
+    <row r="427" spans="1:4">
+      <c r="C427" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
-      <c r="B427" t="s">
+    <row r="428" spans="1:4">
+      <c r="B428" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="C428" t="s">
+    <row r="429" spans="1:4">
+      <c r="C429" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="B429" t="s">
+    <row r="430" spans="1:4">
+      <c r="B430" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="C430" t="s">
+    <row r="431" spans="1:4">
+      <c r="C431" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="1">
+    <row r="432" spans="1:4">
+      <c r="A432" s="1">
         <v>70</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B432" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4">
-      <c r="C432" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="C433" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="C434" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="434" spans="1:3">
-      <c r="B434" t="s">
+    <row r="435" spans="1:3">
+      <c r="B435" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="435" spans="1:3">
-      <c r="C435" t="s">
+    <row r="436" spans="1:3">
+      <c r="C436" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="436" spans="1:3">
-      <c r="B436" t="s">
+    <row r="437" spans="1:3">
+      <c r="B437" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="437" spans="1:3">
-      <c r="C437" t="s">
+    <row r="438" spans="1:3">
+      <c r="C438" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="438" spans="1:3">
-      <c r="A438" s="1">
+    <row r="439" spans="1:3">
+      <c r="A439" s="1">
         <v>71</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B439" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
-      <c r="C439" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="C440" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="C441" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="441" spans="1:3">
-      <c r="B441" t="s">
+    <row r="442" spans="1:3">
+      <c r="B442" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
-      <c r="C442" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="C443" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="C444" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="C445" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="445" spans="1:3">
-      <c r="B445" t="s">
+    <row r="446" spans="1:3">
+      <c r="B446" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="446" spans="1:3">
-      <c r="C446" t="s">
+    <row r="447" spans="1:3">
+      <c r="C447" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="447" spans="1:3">
-      <c r="B447" t="s">
+    <row r="448" spans="1:3">
+      <c r="B448" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="448" spans="1:3">
-      <c r="C448" t="s">
+    <row r="449" spans="1:3">
+      <c r="C449" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="449" spans="1:3">
-      <c r="A449" s="1">
+    <row r="450" spans="1:3">
+      <c r="A450" s="1">
         <v>72</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B450" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
-      <c r="C450" t="s">
+    <row r="451" spans="1:3">
+      <c r="C451" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
-      <c r="A451" s="1">
+    <row r="452" spans="1:3">
+      <c r="A452" s="1">
         <v>73</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B452" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3">
-      <c r="C452" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="C453" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="C454" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="454" spans="1:3">
-      <c r="B454" t="s">
+    <row r="455" spans="1:3">
+      <c r="B455" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
-      <c r="C455" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="C456" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="C457" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="457" spans="1:3">
-      <c r="A457" s="1">
+    <row r="458" spans="1:3">
+      <c r="A458" s="1">
         <v>74</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B458" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
-      <c r="C458" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="C459" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="C460" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="460" spans="1:3">
-      <c r="B460" t="s">
+    <row r="461" spans="1:3">
+      <c r="B461" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="461" spans="1:3">
-      <c r="C461" t="s">
+    <row r="462" spans="1:3">
+      <c r="C462" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
-      <c r="B462" t="s">
+    <row r="463" spans="1:3">
+      <c r="B463" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
-      <c r="C463" t="s">
+    <row r="464" spans="1:3">
+      <c r="C464" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
-      <c r="A464" s="1">
+    <row r="465" spans="1:3">
+      <c r="A465" s="1">
         <v>75</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B465" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="465" spans="1:3">
-      <c r="C465" t="s">
+    <row r="466" spans="1:3">
+      <c r="C466" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
-      <c r="B466" t="s">
+    <row r="467" spans="1:3">
+      <c r="B467" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="C467" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="C468" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="C469" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
-      <c r="A469" s="1">
+    <row r="470" spans="1:3">
+      <c r="A470" s="1">
         <v>76</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B470" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="470" spans="1:3">
-      <c r="C470" t="s">
+    <row r="471" spans="1:3">
+      <c r="C471" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="471" spans="1:3">
-      <c r="B471" t="s">
+    <row r="472" spans="1:3">
+      <c r="B472" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
-      <c r="C472" t="s">
+    <row r="473" spans="1:3">
+      <c r="C473" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="473" spans="1:3">
-      <c r="B473" t="s">
+    <row r="474" spans="1:3">
+      <c r="B474" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="474" spans="1:3">
-      <c r="C474" t="s">
+    <row r="475" spans="1:3">
+      <c r="C475" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="475" spans="1:3">
-      <c r="A475" s="1">
+    <row r="476" spans="1:3">
+      <c r="A476" s="1">
         <v>77</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B476" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
-      <c r="C476" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="C477" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="C478" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="478" spans="1:3">
-      <c r="A478" s="1">
+    <row r="479" spans="1:3">
+      <c r="A479" s="1">
         <v>78</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B479" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
-      <c r="C479" t="s">
+    <row r="480" spans="1:3">
+      <c r="C480" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
-      <c r="B480" t="s">
+    <row r="481" spans="1:3">
+      <c r="B481" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
-      <c r="C481" t="s">
+    <row r="482" spans="1:3">
+      <c r="C482" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="482" spans="1:3">
-      <c r="B482" t="s">
+    <row r="483" spans="1:3">
+      <c r="B483" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="483" spans="1:3">
-      <c r="C483" t="s">
+    <row r="484" spans="1:3">
+      <c r="C484" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="484" spans="1:3">
-      <c r="A484" s="1">
+    <row r="485" spans="1:3">
+      <c r="A485" s="1">
         <v>79</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B485" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
-      <c r="C485" s="2" t="s">
+    <row r="486" spans="1:3">
+      <c r="C486" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
-      <c r="A486" s="1">
+    <row r="487" spans="1:3">
+      <c r="A487" s="1">
         <v>80</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B487" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3">
-      <c r="C487" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="C488" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="C489" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="C490" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="C491" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="491" spans="1:3">
-      <c r="B491" t="s">
+    <row r="492" spans="1:3">
+      <c r="B492" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="492" spans="1:3">
-      <c r="C492" t="s">
+    <row r="493" spans="1:3">
+      <c r="C493" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
-      <c r="B493" t="s">
+    <row r="494" spans="1:3">
+      <c r="B494" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
-      <c r="C494" t="s">
+    <row r="495" spans="1:3">
+      <c r="C495" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
-      <c r="B495" t="s">
+    <row r="496" spans="1:3">
+      <c r="B496" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
-      <c r="C496" t="s">
+    <row r="497" spans="1:3">
+      <c r="C497" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="497" spans="1:3">
-      <c r="B497" t="s">
+    <row r="498" spans="1:3">
+      <c r="B498" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="498" spans="1:3">
-      <c r="C498" t="s">
+    <row r="499" spans="1:3">
+      <c r="C499" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="499" spans="1:3">
-      <c r="A499" s="1">
+    <row r="500" spans="1:3">
+      <c r="A500" s="1">
         <v>81</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B500" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
-      <c r="C500" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="C501" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="C502" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="502" spans="1:3">
-      <c r="A502" s="1">
+    <row r="503" spans="1:3">
+      <c r="A503" s="1">
         <v>82</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B503" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
-      <c r="C503" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="C504" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="C505" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="C506" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="506" spans="1:3">
-      <c r="A506" s="1">
+    <row r="507" spans="1:3">
+      <c r="A507" s="1">
         <v>83</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B507" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="507" spans="1:3">
-      <c r="C507" t="s">
+    <row r="508" spans="1:3">
+      <c r="C508" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
-      <c r="B508" t="s">
+    <row r="509" spans="1:3">
+      <c r="B509" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="509" spans="1:3">
-      <c r="C509" t="s">
+    <row r="510" spans="1:3">
+      <c r="C510" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
-      <c r="B510" t="s">
+    <row r="511" spans="1:3">
+      <c r="B511" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
-      <c r="C511" t="s">
+    <row r="512" spans="1:3">
+      <c r="C512" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
-      <c r="B512" t="s">
+    <row r="513" spans="1:3">
+      <c r="B513" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
-      <c r="C513" s="3" t="s">
+    <row r="514" spans="1:3">
+      <c r="C514" s="3" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="514" spans="1:3">
-      <c r="C514" t="s">
+    <row r="515" spans="1:3">
+      <c r="C515" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
-      <c r="B515" t="s">
+    <row r="516" spans="1:3">
+      <c r="B516" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="516" spans="1:3">
-      <c r="C516" t="s">
+    <row r="517" spans="1:3">
+      <c r="C517" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="517" spans="1:3">
-      <c r="A517" s="1">
+    <row r="518" spans="1:3">
+      <c r="A518" s="1">
         <v>84</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B518" t="s">
         <v>470</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
-      <c r="C518" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="C519" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="C520" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="C521" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="521" spans="1:3">
-      <c r="B521" t="s">
+    <row r="522" spans="1:3">
+      <c r="B522" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="522" spans="1:3">
-      <c r="C522" t="s">
+    <row r="523" spans="1:3">
+      <c r="C523" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="523" spans="1:3">
-      <c r="B523" t="s">
+    <row r="524" spans="1:3">
+      <c r="B524" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="524" spans="1:3">
-      <c r="C524" t="s">
+    <row r="525" spans="1:3">
+      <c r="C525" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="525" spans="1:3">
-      <c r="B525" t="s">
+    <row r="526" spans="1:3">
+      <c r="B526" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="526" spans="1:3">
-      <c r="C526" t="s">
+    <row r="527" spans="1:3">
+      <c r="C527" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="527" spans="1:3">
-      <c r="A527" s="1">
+    <row r="528" spans="1:3">
+      <c r="A528" s="1">
         <v>85</v>
       </c>
-      <c r="B527" t="s">
+      <c r="B528" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
-      <c r="C528" t="s">
+    <row r="529" spans="1:4">
+      <c r="C529" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
-      <c r="A529" s="1">
+    <row r="530" spans="1:4">
+      <c r="A530" s="1">
         <v>86</v>
       </c>
-      <c r="B529" t="s">
+      <c r="B530" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
-      <c r="C530" t="s">
+    <row r="531" spans="1:4">
+      <c r="C531" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
-      <c r="D531" t="s">
+    <row r="532" spans="1:4">
+      <c r="D532" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
-      <c r="C532" t="s">
+    <row r="533" spans="1:4">
+      <c r="C533" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
-      <c r="D533" t="s">
+    <row r="534" spans="1:4">
+      <c r="D534" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
-      <c r="C534" t="s">
+    <row r="535" spans="1:4">
+      <c r="C535" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
-      <c r="D535" t="s">
+    <row r="536" spans="1:4">
+      <c r="D536" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
-      <c r="C536" t="s">
+    <row r="537" spans="1:4">
+      <c r="C537" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
-      <c r="D537" t="s">
+    <row r="538" spans="1:4">
+      <c r="D538" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
-      <c r="A538" s="1">
+    <row r="539" spans="1:4">
+      <c r="A539" s="1">
         <v>87</v>
       </c>
-      <c r="B538" t="s">
+      <c r="B539" t="s">
         <v>492</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4">
-      <c r="C539" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="540" spans="1:4">
       <c r="C540" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="C541" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
-      <c r="B541" t="s">
+    <row r="542" spans="1:4">
+      <c r="B542" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
-      <c r="C542" t="s">
+    <row r="543" spans="1:4">
+      <c r="C543" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
-      <c r="B543" t="s">
+    <row r="544" spans="1:4">
+      <c r="B544" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4">
-      <c r="C544" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="545" spans="1:4">
       <c r="C545" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="C546" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
-      <c r="A546" s="1">
+    <row r="547" spans="1:4">
+      <c r="A547" s="1">
         <v>88</v>
       </c>
-      <c r="B546" t="s">
+      <c r="B547" t="s">
         <v>500</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4">
-      <c r="C547" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="C548" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="C549" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
-      <c r="A549" s="1">
+    <row r="550" spans="1:4">
+      <c r="A550" s="1">
         <v>89</v>
       </c>
-      <c r="B549" t="s">
+      <c r="B550" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4">
-      <c r="C550" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="C551" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="C552" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
-      <c r="D552" t="s">
+    <row r="553" spans="1:4">
+      <c r="D553" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
-      <c r="C553" t="s">
+    <row r="554" spans="1:4">
+      <c r="C554" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
-      <c r="D554" t="s">
+    <row r="555" spans="1:4">
+      <c r="D555" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
-      <c r="C555" t="s">
+    <row r="556" spans="1:4">
+      <c r="C556" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
-      <c r="D556" t="s">
+    <row r="557" spans="1:4">
+      <c r="D557" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
-      <c r="C557" t="s">
+    <row r="558" spans="1:4">
+      <c r="C558" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
-      <c r="A558" s="1">
+    <row r="559" spans="1:4">
+      <c r="A559" s="1">
         <v>90</v>
       </c>
-      <c r="B558" t="s">
+      <c r="B559" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
-      <c r="C559" t="s">
+    <row r="560" spans="1:4">
+      <c r="C560" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="570" spans="2:3">
-      <c r="B570" t="s">
+    <row r="571" spans="2:3">
+      <c r="B571" t="s">
         <v>780</v>
-      </c>
-    </row>
-    <row r="571" spans="2:3">
-      <c r="C571" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="572" spans="2:3">
       <c r="C572" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="573" spans="2:3">
+      <c r="C573" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="583" spans="1:3">
-      <c r="A583" s="1">
+    <row r="584" spans="1:3">
+      <c r="A584" s="1">
         <v>91</v>
       </c>
-      <c r="B583" t="s">
+      <c r="B584" t="s">
         <v>519</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3">
-      <c r="C584" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="585" spans="1:3">
       <c r="C585" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="C586" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="596" spans="1:3">
-      <c r="A596" s="1">
+    <row r="597" spans="1:3">
+      <c r="A597" s="1">
         <v>92</v>
       </c>
-      <c r="B596" t="s">
+      <c r="B597" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="597" spans="1:3">
-      <c r="C597" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="598" spans="1:3">
       <c r="C598" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="C599" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="610" spans="1:3">
-      <c r="A610" s="1">
+    <row r="611" spans="1:3">
+      <c r="A611" s="1">
         <v>93</v>
       </c>
-      <c r="B610" t="s">
+      <c r="B611" t="s">
         <v>525</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3">
-      <c r="C611" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="612" spans="1:3">
       <c r="C612" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="C613" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
-      <c r="C613" s="4" t="s">
+    <row r="614" spans="1:3">
+      <c r="C614" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
-      <c r="A614" s="1">
+    <row r="615" spans="1:3">
+      <c r="A615" s="1">
         <v>94</v>
       </c>
-      <c r="B614" t="s">
+      <c r="B615" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
-      <c r="C615" t="s">
+    <row r="616" spans="1:3">
+      <c r="C616" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
-      <c r="C616" s="2" t="s">
+    <row r="617" spans="1:3">
+      <c r="C617" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
-      <c r="B617" t="s">
+    <row r="618" spans="1:3">
+      <c r="B618" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
-      <c r="C618" t="s">
+    <row r="619" spans="1:3">
+      <c r="C619" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
-      <c r="A619" s="1">
+    <row r="620" spans="1:3">
+      <c r="A620" s="1">
         <v>95</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B620" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
-      <c r="C620" t="s">
+    <row r="621" spans="1:3">
+      <c r="C621" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="638" spans="1:3">
-      <c r="A638" s="1">
+    <row r="639" spans="1:3">
+      <c r="A639" s="1">
         <v>96</v>
       </c>
-      <c r="B638" t="s">
+      <c r="B639" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="639" spans="1:3">
-      <c r="C639" t="s">
+    <row r="640" spans="1:3">
+      <c r="C640" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="640" spans="1:3">
-      <c r="B640" t="s">
+    <row r="641" spans="1:3">
+      <c r="B641" t="s">
         <v>540</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3">
-      <c r="C641" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="642" spans="1:3">
       <c r="C642" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="C643" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="643" spans="1:3">
-      <c r="B643" t="s">
+    <row r="644" spans="1:3">
+      <c r="B644" t="s">
         <v>543</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3">
-      <c r="C644" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="645" spans="1:3">
       <c r="C645" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="C646" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="646" spans="1:3">
-      <c r="B646" t="s">
+    <row r="647" spans="1:3">
+      <c r="B647" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="647" spans="1:3">
-      <c r="C647" t="s">
+    <row r="648" spans="1:3">
+      <c r="C648" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="648" spans="1:3">
-      <c r="A648" s="1">
+    <row r="649" spans="1:3">
+      <c r="A649" s="1">
         <v>97</v>
       </c>
-      <c r="B648" t="s">
+      <c r="B649" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3">
-      <c r="C649" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="650" spans="1:3">
       <c r="C650" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="C651" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="651" spans="1:3">
-      <c r="A651" s="1">
+    <row r="652" spans="1:3">
+      <c r="A652" s="1">
         <v>98</v>
       </c>
-      <c r="B651" t="s">
+      <c r="B652" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="652" spans="1:3">
-      <c r="C652" t="s">
+    <row r="653" spans="1:3">
+      <c r="C653" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="653" spans="1:3">
-      <c r="A653" s="1">
+    <row r="654" spans="1:3">
+      <c r="A654" s="1">
         <v>99</v>
       </c>
-      <c r="B653" t="s">
+      <c r="B654" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3">
-      <c r="C654" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="C655" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="C656" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
-      <c r="B656" t="s">
+    <row r="657" spans="1:4">
+      <c r="B657" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
-      <c r="C657" t="s">
+    <row r="658" spans="1:4">
+      <c r="C658" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
-      <c r="B658" t="s">
+    <row r="659" spans="1:4">
+      <c r="B659" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="659" spans="1:4">
-      <c r="C659" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="660" spans="1:4">
       <c r="C660" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4">
+      <c r="C661" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
-      <c r="D661" t="s">
+    <row r="662" spans="1:4">
+      <c r="D662" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
-      <c r="C662" t="s">
+    <row r="663" spans="1:4">
+      <c r="C663" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
-      <c r="D663" t="s">
+    <row r="664" spans="1:4">
+      <c r="D664" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
-      <c r="B664" t="s">
+    <row r="665" spans="1:4">
+      <c r="B665" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
-      <c r="C665" t="s">
+    <row r="666" spans="1:4">
+      <c r="C666" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
-      <c r="A666" s="1">
+    <row r="667" spans="1:4">
+      <c r="A667" s="1">
         <v>100</v>
       </c>
-      <c r="B666" t="s">
+      <c r="B667" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="673" spans="1:3">
-      <c r="A673" s="1">
+    <row r="674" spans="1:3">
+      <c r="A674" s="1">
         <v>101</v>
       </c>
-      <c r="B673" t="s">
+      <c r="B674" t="s">
         <v>563</v>
-      </c>
-    </row>
-    <row r="674" spans="1:3">
-      <c r="C674" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="675" spans="1:3">
       <c r="C675" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3">
+      <c r="C676" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
-      <c r="B676" t="s">
+    <row r="677" spans="1:3">
+      <c r="B677" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
-      <c r="C677" t="s">
+    <row r="678" spans="1:3">
+      <c r="C678" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
-      <c r="B678" t="s">
+    <row r="679" spans="1:3">
+      <c r="B679" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
-      <c r="C679" t="s">
+    <row r="680" spans="1:3">
+      <c r="C680" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
-      <c r="A680" s="1">
+    <row r="681" spans="1:3">
+      <c r="A681" s="1">
         <v>102</v>
       </c>
-      <c r="B680" t="s">
+      <c r="B681" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
-      <c r="C681" t="s">
+    <row r="682" spans="1:3">
+      <c r="C682" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
-      <c r="A682" s="1">
+    <row r="683" spans="1:3">
+      <c r="A683" s="1">
         <v>103</v>
       </c>
-      <c r="B682" t="s">
+      <c r="B683" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
-      <c r="C683" t="s">
+    <row r="684" spans="1:3">
+      <c r="C684" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
-      <c r="A684" s="1">
+    <row r="685" spans="1:3">
+      <c r="A685" s="1">
         <v>104</v>
       </c>
-      <c r="B684" t="s">
+      <c r="B685" t="s">
         <v>574</v>
-      </c>
-    </row>
-    <row r="685" spans="1:3">
-      <c r="C685" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="686" spans="1:3">
       <c r="C686" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3">
+      <c r="C687" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="687" spans="1:3">
-      <c r="A687" s="1">
+    <row r="688" spans="1:3">
+      <c r="A688" s="1">
         <v>105</v>
       </c>
-      <c r="B687" t="s">
+      <c r="B688" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
-      <c r="A700" s="1">
+    <row r="701" spans="1:3">
+      <c r="A701" s="1">
         <v>106</v>
       </c>
-      <c r="B700" t="s">
+      <c r="B701" t="s">
         <v>581</v>
-      </c>
-    </row>
-    <row r="701" spans="1:3">
-      <c r="C701" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="702" spans="1:3">
       <c r="C702" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="C703" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
-      <c r="A703" s="1">
+    <row r="704" spans="1:3">
+      <c r="A704" s="1">
         <v>107</v>
       </c>
-      <c r="B703" t="s">
+      <c r="B704" t="s">
         <v>584</v>
-      </c>
-    </row>
-    <row r="704" spans="1:3">
-      <c r="C704" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="705" spans="1:3">
       <c r="C705" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3">
+      <c r="C706" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
-      <c r="A706" s="1">
+    <row r="707" spans="1:3">
+      <c r="A707" s="1">
         <v>108</v>
       </c>
-      <c r="B706" t="s">
+      <c r="B707" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="707" spans="1:3">
-      <c r="C707" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="708" spans="1:3">
       <c r="C708" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="709" spans="1:3">
       <c r="C709" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3">
+      <c r="C710" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="710" spans="1:3">
-      <c r="A710" s="1">
+    <row r="711" spans="1:3">
+      <c r="A711" s="1">
         <v>109</v>
       </c>
-      <c r="B710" t="s">
+      <c r="B711" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="711" spans="1:3">
-      <c r="C711" t="s">
+    <row r="712" spans="1:3">
+      <c r="C712" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="721" spans="1:3">
-      <c r="B721" t="s">
+    <row r="722" spans="1:3">
+      <c r="B722" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="722" spans="1:3">
-      <c r="C722" t="s">
+    <row r="723" spans="1:3">
+      <c r="C723" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="732" spans="1:3">
-      <c r="A732" s="1">
+    <row r="733" spans="1:3">
+      <c r="A733" s="1">
         <v>110</v>
       </c>
-      <c r="B732" t="s">
+      <c r="B733" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
-      <c r="C733" t="s">
+    <row r="734" spans="1:3">
+      <c r="C734" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
-      <c r="B734" t="s">
+    <row r="735" spans="1:3">
+      <c r="B735" t="s">
         <v>600</v>
-      </c>
-    </row>
-    <row r="735" spans="1:3">
-      <c r="C735" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="736" spans="1:3">
       <c r="C736" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="C737" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
-      <c r="B737" t="s">
+    <row r="738" spans="1:3">
+      <c r="B738" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="738" spans="1:3">
-      <c r="C738" t="s">
+    <row r="739" spans="1:3">
+      <c r="C739" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="739" spans="1:3">
-      <c r="A739" s="1">
+    <row r="740" spans="1:3">
+      <c r="A740" s="1">
         <v>111</v>
       </c>
-      <c r="B739" t="s">
+      <c r="B740" t="s">
         <v>605</v>
-      </c>
-    </row>
-    <row r="740" spans="1:3">
-      <c r="C740" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="741" spans="1:3">
       <c r="C741" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3">
+      <c r="C742" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="742" spans="1:3">
-      <c r="B742" t="s">
+    <row r="743" spans="1:3">
+      <c r="B743" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="743" spans="1:3">
-      <c r="C743" t="s">
+    <row r="744" spans="1:3">
+      <c r="C744" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="744" spans="1:3">
-      <c r="B744" t="s">
+    <row r="745" spans="1:3">
+      <c r="B745" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="745" spans="1:3">
-      <c r="C745" t="s">
+    <row r="746" spans="1:3">
+      <c r="C746" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="746" spans="1:3">
-      <c r="A746" s="1">
+    <row r="747" spans="1:3">
+      <c r="A747" s="1">
         <v>112</v>
       </c>
-      <c r="B746" t="s">
+      <c r="B747" t="s">
         <v>612</v>
-      </c>
-    </row>
-    <row r="747" spans="1:3">
-      <c r="C747" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="748" spans="1:3">
       <c r="C748" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="749" spans="1:3">
       <c r="C749" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3">
+      <c r="C750" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="750" spans="1:3">
-      <c r="C750" s="4" t="s">
+    <row r="751" spans="1:3">
+      <c r="C751" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="751" spans="1:3">
-      <c r="A751" s="1">
+    <row r="752" spans="1:3">
+      <c r="A752" s="1">
         <v>113</v>
       </c>
-      <c r="B751" t="s">
+      <c r="B752" t="s">
         <v>617</v>
-      </c>
-    </row>
-    <row r="752" spans="1:3">
-      <c r="C752" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="753" spans="1:3">
       <c r="C753" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3">
+      <c r="C754" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="754" spans="1:3">
-      <c r="A754" s="1">
+    <row r="755" spans="1:3">
+      <c r="A755" s="1">
         <v>114</v>
       </c>
-      <c r="B754" t="s">
+      <c r="B755" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="755" spans="1:3">
-      <c r="C755" t="s">
+    <row r="756" spans="1:3">
+      <c r="C756" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="756" spans="1:3">
-      <c r="A756" s="1">
+    <row r="757" spans="1:3">
+      <c r="A757" s="1">
         <v>115</v>
       </c>
-      <c r="B756" t="s">
+      <c r="B757" t="s">
         <v>622</v>
-      </c>
-    </row>
-    <row r="757" spans="1:3">
-      <c r="C757" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="758" spans="1:3">
       <c r="C758" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3">
+      <c r="C759" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="759" spans="1:3">
-      <c r="C759" s="4" t="s">
+    <row r="760" spans="1:3">
+      <c r="C760" s="4" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="760" spans="1:3">
-      <c r="A760" s="1">
+    <row r="761" spans="1:3">
+      <c r="A761" s="1">
         <v>116</v>
       </c>
-      <c r="B760" t="s">
+      <c r="B761" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="761" spans="1:3">
-      <c r="C761" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="762" spans="1:3">
       <c r="C762" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3">
+      <c r="C763" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="763" spans="1:3">
-      <c r="A763" s="1">
+    <row r="764" spans="1:3">
+      <c r="A764" s="1">
         <v>117</v>
       </c>
-      <c r="B763" t="s">
+      <c r="B764" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="764" spans="1:3">
-      <c r="C764" t="s">
+    <row r="765" spans="1:3">
+      <c r="C765" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="765" spans="1:3">
-      <c r="B765" t="s">
+    <row r="766" spans="1:3">
+      <c r="B766" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="766" spans="1:3">
-      <c r="C766" t="s">
+    <row r="767" spans="1:3">
+      <c r="C767" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="767" spans="1:3">
-      <c r="B767" t="s">
+    <row r="768" spans="1:3">
+      <c r="B768" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="768" spans="1:3">
-      <c r="C768" t="s">
+    <row r="769" spans="1:3">
+      <c r="C769" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="769" spans="1:3">
-      <c r="A769" s="1">
+    <row r="770" spans="1:3">
+      <c r="A770" s="1">
         <v>118</v>
       </c>
-      <c r="B769" t="s">
+      <c r="B770" t="s">
         <v>635</v>
-      </c>
-    </row>
-    <row r="770" spans="1:3">
-      <c r="C770" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="771" spans="1:3">
       <c r="C771" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3">
+      <c r="C772" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="772" spans="1:3">
-      <c r="A772" s="1">
+    <row r="773" spans="1:3">
+      <c r="A773" s="1">
         <v>119</v>
       </c>
-      <c r="B772" t="s">
+      <c r="B773" t="s">
         <v>638</v>
-      </c>
-    </row>
-    <row r="773" spans="1:3">
-      <c r="C773" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="774" spans="1:3">
       <c r="C774" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3">
+      <c r="C775" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="775" spans="1:3">
-      <c r="A775" s="1">
+    <row r="776" spans="1:3">
+      <c r="A776" s="1">
         <v>120</v>
       </c>
-      <c r="B775" t="s">
+      <c r="B776" t="s">
         <v>643</v>
-      </c>
-    </row>
-    <row r="776" spans="1:3">
-      <c r="C776" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="777" spans="1:3">
       <c r="C777" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="778" spans="1:3">
       <c r="C778" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3">
+      <c r="C779" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="779" spans="1:3">
-      <c r="A779" s="1">
+    <row r="780" spans="1:3">
+      <c r="A780" s="1">
         <v>121</v>
       </c>
-      <c r="B779" t="s">
+      <c r="B780" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="780" spans="1:3">
-      <c r="C780" t="s">
+    <row r="781" spans="1:3">
+      <c r="C781" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="781" spans="1:3">
-      <c r="B781" t="s">
+    <row r="782" spans="1:3">
+      <c r="B782" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="782" spans="1:3">
-      <c r="C782" t="s">
+    <row r="783" spans="1:3">
+      <c r="C783" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="783" spans="1:3">
-      <c r="B783" t="s">
+    <row r="784" spans="1:3">
+      <c r="B784" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="784" spans="1:3">
-      <c r="C784" t="s">
+    <row r="785" spans="1:3">
+      <c r="C785" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="785" spans="1:3">
-      <c r="A785" s="1">
+    <row r="786" spans="1:3">
+      <c r="A786" s="1">
         <v>122</v>
       </c>
-      <c r="B785" t="s">
+      <c r="B786" t="s">
         <v>653</v>
-      </c>
-    </row>
-    <row r="786" spans="1:3">
-      <c r="C786" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="787" spans="1:3">
       <c r="C787" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3">
+      <c r="C788" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="788" spans="1:3">
-      <c r="A788" s="1">
+    <row r="789" spans="1:3">
+      <c r="A789" s="1">
         <v>123</v>
       </c>
-      <c r="B788" t="s">
+      <c r="B789" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="789" spans="1:3">
-      <c r="C789" t="s">
+    <row r="790" spans="1:3">
+      <c r="C790" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="790" spans="1:3">
-      <c r="C790" s="2" t="s">
+    <row r="791" spans="1:3">
+      <c r="C791" s="2" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="791" spans="1:3">
-      <c r="B791" t="s">
+    <row r="792" spans="1:3">
+      <c r="B792" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="792" spans="1:3">
-      <c r="C792" t="s">
+    <row r="793" spans="1:3">
+      <c r="C793" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="793" spans="1:3">
-      <c r="A793" s="1">
+    <row r="794" spans="1:3">
+      <c r="A794" s="1">
         <v>124</v>
       </c>
-      <c r="B793" t="s">
+      <c r="B794" t="s">
         <v>661</v>
-      </c>
-    </row>
-    <row r="794" spans="1:3">
-      <c r="C794" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="795" spans="1:3">
       <c r="C795" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3">
+      <c r="C796" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="796" spans="1:3">
-      <c r="A796" s="1">
+    <row r="797" spans="1:3">
+      <c r="A797" s="1">
         <v>125</v>
       </c>
-      <c r="B796" t="s">
+      <c r="B797" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="797" spans="1:3">
-      <c r="C797" t="s">
+    <row r="798" spans="1:3">
+      <c r="C798" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="798" spans="1:3">
-      <c r="B798" t="s">
+    <row r="799" spans="1:3">
+      <c r="B799" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="799" spans="1:3">
-      <c r="C799" t="s">
+    <row r="800" spans="1:3">
+      <c r="C800" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="800" spans="1:3">
-      <c r="B800" t="s">
+    <row r="801" spans="1:3">
+      <c r="B801" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="801" spans="1:3">
-      <c r="C801" t="s">
+    <row r="802" spans="1:3">
+      <c r="C802" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="802" spans="1:3">
-      <c r="B802" t="s">
+    <row r="803" spans="1:3">
+      <c r="B803" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="803" spans="1:3">
-      <c r="C803" t="s">
+    <row r="804" spans="1:3">
+      <c r="C804" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="804" spans="1:3">
-      <c r="A804" s="1">
+    <row r="805" spans="1:3">
+      <c r="A805" s="1">
         <v>126</v>
       </c>
-      <c r="B804" t="s">
+      <c r="B805" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="805" spans="1:3">
-      <c r="C805" s="2" t="s">
+    <row r="806" spans="1:3">
+      <c r="C806" s="2" t="s">
         <v>672</v>
-      </c>
-    </row>
-    <row r="806" spans="1:3">
-      <c r="C806" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="807" spans="1:3">
       <c r="C807" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="808" spans="1:3">
       <c r="C808" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="809" spans="1:3">
       <c r="C809" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3">
+      <c r="C810" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="810" spans="1:3">
-      <c r="B810" t="s">
+    <row r="811" spans="1:3">
+      <c r="B811" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="811" spans="1:3">
-      <c r="C811" s="3" t="s">
+    <row r="812" spans="1:3">
+      <c r="C812" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="812" spans="1:3">
-      <c r="C812" t="s">
+    <row r="813" spans="1:3">
+      <c r="C813" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="813" spans="1:3">
-      <c r="A813" s="1">
+    <row r="814" spans="1:3">
+      <c r="A814" s="1">
         <v>127</v>
       </c>
-      <c r="B813" t="s">
+      <c r="B814" t="s">
         <v>681</v>
-      </c>
-    </row>
-    <row r="814" spans="1:3">
-      <c r="C814" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="815" spans="1:3">
       <c r="C815" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="816" spans="1:3">
       <c r="C816" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3">
+      <c r="C817" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="817" spans="1:3">
-      <c r="B817" t="s">
+    <row r="818" spans="1:3">
+      <c r="B818" t="s">
         <v>685</v>
-      </c>
-    </row>
-    <row r="818" spans="1:3">
-      <c r="C818" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="819" spans="1:3">
       <c r="C819" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3">
+      <c r="C820" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="820" spans="1:3">
-      <c r="C820" s="4" t="s">
+    <row r="821" spans="1:3">
+      <c r="C821" s="4" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="821" spans="1:3">
-      <c r="B821" t="s">
+    <row r="822" spans="1:3">
+      <c r="B822" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="822" spans="1:3">
-      <c r="C822" t="s">
+    <row r="823" spans="1:3">
+      <c r="C823" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="823" spans="1:3">
-      <c r="A823" s="1">
+    <row r="824" spans="1:3">
+      <c r="A824" s="1">
         <v>128</v>
       </c>
-      <c r="B823" t="s">
+      <c r="B824" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="824" spans="1:3">
-      <c r="C824" t="s">
+    <row r="825" spans="1:3">
+      <c r="C825" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="825" spans="1:3">
-      <c r="A825" s="1">
+    <row r="826" spans="1:3">
+      <c r="A826" s="1">
         <v>129</v>
       </c>
-      <c r="B825" t="s">
+      <c r="B826" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="826" spans="1:3">
-      <c r="C826" t="s">
+    <row r="827" spans="1:3">
+      <c r="C827" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="827" spans="1:3">
-      <c r="A827" s="1">
+    <row r="828" spans="1:3">
+      <c r="A828" s="1">
         <v>130</v>
       </c>
-      <c r="B827" t="s">
+      <c r="B828" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="828" spans="1:3">
-      <c r="C828" t="s">
+    <row r="829" spans="1:3">
+      <c r="C829" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="829" spans="1:3">
-      <c r="A829" s="1">
+    <row r="830" spans="1:3">
+      <c r="A830" s="1">
         <v>131</v>
       </c>
-      <c r="B829" t="s">
+      <c r="B830" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="830" spans="1:3">
-      <c r="C830" t="s">
+    <row r="831" spans="1:3">
+      <c r="C831" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="831" spans="1:3">
-      <c r="B831" t="s">
+    <row r="832" spans="1:3">
+      <c r="B832" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="832" spans="1:3">
-      <c r="C832" t="s">
+    <row r="833" spans="1:3">
+      <c r="C833" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="833" spans="1:3">
-      <c r="B833" t="s">
+    <row r="834" spans="1:3">
+      <c r="B834" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="834" spans="1:3">
-      <c r="C834" t="s">
+    <row r="835" spans="1:3">
+      <c r="C835" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="835" spans="1:3">
-      <c r="A835" s="1">
+    <row r="836" spans="1:3">
+      <c r="A836" s="1">
         <v>132</v>
       </c>
-      <c r="B835" t="s">
+      <c r="B836" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="836" spans="1:3">
-      <c r="C836" t="s">
+    <row r="837" spans="1:3">
+      <c r="C837" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="837" spans="1:3">
-      <c r="B837" t="s">
+    <row r="838" spans="1:3">
+      <c r="B838" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="838" spans="1:3">
-      <c r="C838" t="s">
+    <row r="839" spans="1:3">
+      <c r="C839" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="839" spans="1:3">
-      <c r="B839" t="s">
+    <row r="840" spans="1:3">
+      <c r="B840" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="840" spans="1:3">
-      <c r="C840" t="s">
+    <row r="841" spans="1:3">
+      <c r="C841" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="841" spans="1:3">
-      <c r="B841" t="s">
+    <row r="842" spans="1:3">
+      <c r="B842" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="842" spans="1:3">
-      <c r="C842" t="s">
+    <row r="843" spans="1:3">
+      <c r="C843" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="843" spans="1:3">
-      <c r="A843" s="1">
+    <row r="844" spans="1:3">
+      <c r="A844" s="1">
         <v>133</v>
       </c>
-      <c r="B843" t="s">
+      <c r="B844" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="844" spans="1:3">
-      <c r="C844" t="s">
+    <row r="845" spans="1:3">
+      <c r="C845" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="845" spans="1:3">
-      <c r="A845" s="1">
+    <row r="846" spans="1:3">
+      <c r="A846" s="1">
         <v>134</v>
       </c>
-      <c r="B845" t="s">
+      <c r="B846" t="s">
         <v>717</v>
-      </c>
-    </row>
-    <row r="846" spans="1:3">
-      <c r="C846" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="847" spans="1:3">
       <c r="C847" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3">
+      <c r="C848" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="848" spans="1:3">
-      <c r="B848" t="s">
+    <row r="849" spans="1:3">
+      <c r="B849" t="s">
         <v>720</v>
-      </c>
-    </row>
-    <row r="849" spans="1:3">
-      <c r="C849" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="850" spans="1:3">
       <c r="C850" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3">
+      <c r="C851" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="851" spans="1:3">
-      <c r="B851" t="s">
+    <row r="852" spans="1:3">
+      <c r="B852" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="852" spans="1:3">
-      <c r="C852" t="s">
+    <row r="853" spans="1:3">
+      <c r="C853" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="853" spans="1:3">
-      <c r="B853" t="s">
+    <row r="854" spans="1:3">
+      <c r="B854" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="854" spans="1:3">
-      <c r="C854" t="s">
+    <row r="855" spans="1:3">
+      <c r="C855" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="855" spans="1:3">
-      <c r="A855" s="1">
+    <row r="856" spans="1:3">
+      <c r="A856" s="1">
         <v>135</v>
       </c>
-      <c r="B855" t="s">
+      <c r="B856" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="856" spans="1:3">
-      <c r="C856" t="s">
+    <row r="857" spans="1:3">
+      <c r="C857" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="857" spans="1:3">
-      <c r="B857" t="s">
+    <row r="858" spans="1:3">
+      <c r="B858" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="858" spans="1:3">
-      <c r="C858" t="s">
+    <row r="859" spans="1:3">
+      <c r="C859" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="859" spans="1:3">
-      <c r="B859" t="s">
+    <row r="860" spans="1:3">
+      <c r="B860" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="860" spans="1:3">
-      <c r="C860" t="s">
+    <row r="861" spans="1:3">
+      <c r="C861" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="861" spans="1:3">
-      <c r="B861" t="s">
+    <row r="862" spans="1:3">
+      <c r="B862" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="862" spans="1:3">
-      <c r="C862" t="s">
+    <row r="863" spans="1:3">
+      <c r="C863" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="863" spans="1:3">
-      <c r="A863" s="1">
+    <row r="864" spans="1:3">
+      <c r="A864" s="1">
         <v>136</v>
       </c>
-      <c r="B863" t="s">
+      <c r="B864" t="s">
         <v>735</v>
-      </c>
-    </row>
-    <row r="864" spans="1:3">
-      <c r="C864" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="865" spans="1:3">
       <c r="C865" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="866" spans="1:3">
       <c r="C866" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3">
+      <c r="C867" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="867" spans="1:3">
-      <c r="A867" s="1">
+    <row r="868" spans="1:3">
+      <c r="A868" s="1">
         <v>137</v>
       </c>
-      <c r="B867" t="s">
+      <c r="B868" t="s">
         <v>739</v>
-      </c>
-    </row>
-    <row r="868" spans="1:3">
-      <c r="C868" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="869" spans="1:3">
       <c r="C869" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="870" spans="1:3">
       <c r="C870" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3">
+      <c r="C871" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="871" spans="1:3">
-      <c r="A871" s="1">
+    <row r="872" spans="1:3">
+      <c r="A872" s="1">
         <v>138</v>
       </c>
-      <c r="B871" t="s">
+      <c r="B872" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="872" spans="1:3">
-      <c r="C872" t="s">
+    <row r="873" spans="1:3">
+      <c r="C873" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="873" spans="1:3">
-      <c r="A873" s="1">
+    <row r="874" spans="1:3">
+      <c r="A874" s="1">
         <v>139</v>
       </c>
-      <c r="B873" t="s">
+      <c r="B874" t="s">
         <v>745</v>
-      </c>
-    </row>
-    <row r="874" spans="1:3">
-      <c r="C874" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="875" spans="1:3">
       <c r="C875" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3">
+      <c r="C876" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="876" spans="1:3">
-      <c r="C876" s="2" t="s">
+    <row r="877" spans="1:3">
+      <c r="C877" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="877" spans="1:3">
-      <c r="B877" t="s">
+    <row r="878" spans="1:3">
+      <c r="B878" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="878" spans="1:3">
-      <c r="C878" t="s">
+    <row r="879" spans="1:3">
+      <c r="C879" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="879" spans="1:3">
-      <c r="A879" s="1">
+    <row r="880" spans="1:3">
+      <c r="A880" s="1">
         <v>140</v>
       </c>
-      <c r="B879" t="s">
+      <c r="B880" t="s">
         <v>751</v>
-      </c>
-    </row>
-    <row r="880" spans="1:3">
-      <c r="C880" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="881" spans="1:3">
       <c r="C881" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3">
+      <c r="C882" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="882" spans="1:3">
-      <c r="C882" s="3" t="s">
+    <row r="883" spans="1:3">
+      <c r="C883" s="3" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="883" spans="1:3">
-      <c r="A883" s="1">
+    <row r="884" spans="1:3">
+      <c r="A884" s="1">
         <v>141</v>
       </c>
-      <c r="B883" t="s">
+      <c r="B884" t="s">
         <v>755</v>
-      </c>
-    </row>
-    <row r="884" spans="1:3">
-      <c r="C884" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="885" spans="1:3">
       <c r="C885" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3">
+      <c r="C886" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="886" spans="1:3">
-      <c r="B886" t="s">
+    <row r="887" spans="1:3">
+      <c r="B887" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="887" spans="1:3">
-      <c r="C887" t="s">
+    <row r="888" spans="1:3">
+      <c r="C888" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="894" spans="1:3">
-      <c r="A894" s="1">
+    <row r="895" spans="1:3">
+      <c r="A895" s="1">
         <v>142</v>
       </c>
-      <c r="B894" t="s">
+      <c r="B895" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="895" spans="1:3">
-      <c r="C895" t="s">
+    <row r="896" spans="1:3">
+      <c r="C896" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="896" spans="1:3">
-      <c r="B896" t="s">
+    <row r="897" spans="1:4">
+      <c r="B897" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="897" spans="1:4">
-      <c r="C897" t="s">
+    <row r="898" spans="1:4">
+      <c r="C898" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="898" spans="1:4">
-      <c r="B898" t="s">
+    <row r="899" spans="1:4">
+      <c r="B899" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="899" spans="1:4">
-      <c r="C899" t="s">
+    <row r="900" spans="1:4">
+      <c r="C900" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="900" spans="1:4">
-      <c r="A900" s="1">
+    <row r="901" spans="1:4">
+      <c r="A901" s="1">
         <v>143</v>
       </c>
-      <c r="B900" t="s">
+      <c r="B901" t="s">
         <v>766</v>
-      </c>
-    </row>
-    <row r="901" spans="1:4">
-      <c r="C901" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="902" spans="1:4">
       <c r="C902" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4">
+      <c r="C903" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="903" spans="1:4">
-      <c r="D903" t="s">
+    <row r="904" spans="1:4">
+      <c r="D904" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="904" spans="1:4">
-      <c r="A904" s="1">
+    <row r="905" spans="1:4">
+      <c r="A905" s="1">
         <v>144</v>
       </c>
-      <c r="B904" t="s">
+      <c r="B905" t="s">
         <v>770</v>
-      </c>
-    </row>
-    <row r="905" spans="1:4">
-      <c r="C905" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="906" spans="1:4">
       <c r="C906" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4">
+      <c r="C907" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="907" spans="1:4">
-      <c r="B907" t="s">
+    <row r="908" spans="1:4">
+      <c r="B908" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="908" spans="1:4">
-      <c r="C908" t="s">
+    <row r="909" spans="1:4">
+      <c r="C909" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="909" spans="1:4">
-      <c r="A909" s="1">
+    <row r="910" spans="1:4">
+      <c r="A910" s="1">
         <v>145</v>
       </c>
-      <c r="B909" t="s">
+      <c r="B910" t="s">
         <v>775</v>
-      </c>
-    </row>
-    <row r="910" spans="1:4">
-      <c r="C910" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="911" spans="1:4">
       <c r="C911" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4">
+      <c r="C912" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="912" spans="1:4">
-      <c r="B912" t="s">
+    <row r="913" spans="1:3">
+      <c r="B913" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="913" spans="1:3">
-      <c r="C913" t="s">
+    <row r="914" spans="1:3">
+      <c r="C914" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="914" spans="1:3">
-      <c r="A914" s="1">
+    <row r="915" spans="1:3">
+      <c r="A915" s="1">
         <v>146</v>
       </c>
-      <c r="B914" t="s">
+      <c r="B915" t="s">
         <v>784</v>
-      </c>
-    </row>
-    <row r="915" spans="1:3">
-      <c r="C915" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="916" spans="1:3">
       <c r="C916" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="917" spans="1:3">
       <c r="C917" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="918" spans="1:3">
       <c r="C918" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3">
+      <c r="C919" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="919" spans="1:3">
-      <c r="A919" s="1">
+    <row r="920" spans="1:3">
+      <c r="A920" s="1">
         <v>147</v>
       </c>
-      <c r="B919" t="s">
+      <c r="B920" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="920" spans="1:3">
-      <c r="C920" t="s">
+    <row r="921" spans="1:3">
+      <c r="C921" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="921" spans="1:3">
-      <c r="B921" t="s">
+    <row r="922" spans="1:3">
+      <c r="B922" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="922" spans="1:3">
-      <c r="C922" t="s">
+    <row r="923" spans="1:3">
+      <c r="C923" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="923" spans="1:3">
-      <c r="B923" t="s">
+    <row r="924" spans="1:3">
+      <c r="B924" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="924" spans="1:3">
-      <c r="C924" t="s">
+    <row r="925" spans="1:3">
+      <c r="C925" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="925" spans="1:3">
-      <c r="B925" t="s">
+    <row r="926" spans="1:3">
+      <c r="B926" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="926" spans="1:3">
-      <c r="C926" t="s">
+    <row r="927" spans="1:3">
+      <c r="C927" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="927" spans="1:3">
-      <c r="A927" s="1">
+    <row r="928" spans="1:3">
+      <c r="A928" s="1">
         <v>148</v>
       </c>
-      <c r="B927" t="s">
+      <c r="B928" t="s">
         <v>797</v>
-      </c>
-    </row>
-    <row r="928" spans="1:3">
-      <c r="C928" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="929" spans="1:3">
       <c r="C929" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3">
+      <c r="C930" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="930" spans="1:3">
-      <c r="A930" s="1">
+    <row r="931" spans="1:3">
+      <c r="A931" s="1">
         <v>149</v>
       </c>
-      <c r="B930" t="s">
+      <c r="B931" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="931" spans="1:3">
-      <c r="C931" t="s">
+    <row r="932" spans="1:3">
+      <c r="C932" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="932" spans="1:3">
-      <c r="A932" s="1">
+    <row r="933" spans="1:3">
+      <c r="A933" s="1">
         <v>150</v>
       </c>
-      <c r="B932" t="s">
+      <c r="B933" t="s">
         <v>802</v>
-      </c>
-    </row>
-    <row r="933" spans="1:3">
-      <c r="C933" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="934" spans="1:3">
       <c r="C934" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="935" spans="1:3">
       <c r="C935" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="936" spans="1:3">
       <c r="C936" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3">
+      <c r="C937" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="937" spans="1:3">
-      <c r="A937" s="1">
+    <row r="938" spans="1:3">
+      <c r="A938" s="1">
         <v>151</v>
       </c>
-      <c r="B937" t="s">
+      <c r="B938" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="938" spans="1:3">
-      <c r="C938" t="s">
+    <row r="939" spans="1:3">
+      <c r="C939" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="939" spans="1:3">
-      <c r="B939" t="s">
+    <row r="940" spans="1:3">
+      <c r="B940" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="940" spans="1:3">
-      <c r="C940" t="s">
+    <row r="941" spans="1:3">
+      <c r="C941" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="941" spans="1:3">
-      <c r="B941" t="s">
+    <row r="942" spans="1:3">
+      <c r="B942" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="942" spans="1:3">
-      <c r="C942" t="s">
+    <row r="943" spans="1:3">
+      <c r="C943" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="943" spans="1:3">
-      <c r="A943" s="1">
+    <row r="944" spans="1:3">
+      <c r="A944" s="1">
         <v>152</v>
       </c>
-      <c r="B943" t="s">
+      <c r="B944" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="944" spans="1:3">
-      <c r="C944" t="s">
+    <row r="945" spans="1:3">
+      <c r="C945" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="945" spans="3:3">
-      <c r="C945" t="s">
+    <row r="946" spans="1:3">
+      <c r="C946" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="946" spans="3:3">
-      <c r="C946" t="s">
+    <row r="947" spans="1:3">
+      <c r="C947" t="s">
         <v>821</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3">
+      <c r="A948" s="1">
+        <v>153</v>
+      </c>
+      <c r="B948" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3">
+      <c r="C949" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3">
+      <c r="C950" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3">
+      <c r="C951" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3">
+      <c r="A952" s="1">
+        <v>154</v>
+      </c>
+      <c r="B952" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c r="C953" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3">
+      <c r="C954" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3">
+      <c r="A955" s="1">
+        <v>155</v>
+      </c>
+      <c r="B955" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3">
+      <c r="C956" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3">
+      <c r="C957" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3">
+      <c r="B958" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3">
+      <c r="C959" s="3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3">
+      <c r="A960" s="1">
+        <v>156</v>
+      </c>
+      <c r="B960" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3">
+      <c r="C961" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3">
+      <c r="A962" s="1">
+        <v>157</v>
+      </c>
+      <c r="B962" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3">
+      <c r="C963" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3">
+      <c r="C964" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3">
+      <c r="B965" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3">
+      <c r="C966" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3">
+      <c r="B967" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3">
+      <c r="C968" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3">
+      <c r="B969" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3">
+      <c r="C970" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3">
+      <c r="A971" s="1">
+        <v>158</v>
+      </c>
+      <c r="B971" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3">
+      <c r="C972" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3">
+      <c r="B973" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3">
+      <c r="C974" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3">
+      <c r="B975" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3">
+      <c r="C976" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3">
+      <c r="B977" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3">
+      <c r="C978" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3">
+      <c r="A979" s="1">
+        <v>159</v>
+      </c>
+      <c r="B979" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3">
+      <c r="C980" s="15" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3">
+      <c r="C981" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3">
+      <c r="A982" s="1">
+        <v>160</v>
+      </c>
+      <c r="B982" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3">
+      <c r="C983" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3">
+      <c r="B984" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3">
+      <c r="C985" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3">
+      <c r="A986" s="1">
+        <v>161</v>
+      </c>
+      <c r="B986" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3">
+      <c r="C987" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3">
+      <c r="B988" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3">
+      <c r="C989" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3">
+      <c r="C990" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3">
+      <c r="B991" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3">
+      <c r="C992" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3">
+      <c r="B993" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3">
+      <c r="C994" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3">
+      <c r="B995" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3">
+      <c r="C996" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3">
+      <c r="A997" s="1">
+        <v>162</v>
+      </c>
+      <c r="B997" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3">
+      <c r="C998" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3">
+      <c r="B999" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3">
+      <c r="C1000" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3">
+      <c r="A1001" s="1">
+        <v>163</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3">
+      <c r="C1002" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3">
+      <c r="B1003" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3">
+      <c r="C1004" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3">
+      <c r="C1005" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3">
+      <c r="B1006" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3">
+      <c r="C1007" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3">
+      <c r="A1008" s="1">
+        <v>164</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1009" spans="3:3">
+      <c r="C1009" t="s">
+        <v>883</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E9DC0-4B3A-4CD0-BFD4-549FF4D8F983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DF97BB-1635-43AF-90D4-10BBCCEA577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,26 @@
     <sheet name="科目A" sheetId="1" r:id="rId1"/>
     <sheet name="科目B" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="914">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -5990,6 +5999,172 @@
   </si>
   <si>
     <t>アプリケーションプログラムからデータベースへの問合せによって得られた導入表を、表データを直接扱えない手続き型プログラム言語に渡す機能を実現するものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LANアナライザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>は、LAN上を通過する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>パケットを監視</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>したり記録するためのハードウェアまたはソフトウェアのことです。LANアナライザーが悪用されると盗聴などの被害をもたらす危険があるので慎重な管理が求められます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報セキュリティマネジメントシステムISMSの確立・運用における主な作業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. ISMS取得への準備～基本方針の定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2. リスクアセスメントの実施</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3. リスク対応の選択</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. 経営陣の承認を得る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5. 適用宣言書の作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IP電話</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インターネット回線を利用して通話する電話です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲートキーパ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、IP電話サービスにおいてIPアドレスと電話番号などの相互変換などの機能をもつ機器です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VoIPゲートウェイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VoIP(Voice over IP：ボイップ)は、音声データをIPネットワークで伝送する技術であり、VoIPゲートウェイは電話網とIPネットワーク間の中継を行う機器です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CRP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Continuous Replenishment Programの略。在庫管理の手法で、連続補充方式のことです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラス図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、UMLの1つで、クラス、属性、クラス間の関係からシステムの構造を記述する静的な構造図です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M&amp;A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>垂直統合型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生産を行う工場が「部品工場」や「営業会社」等のサプライチェーンの上流や下流にある工程を企業グループに統合することで市場競争力や資材の供給力を高める形のM&amp;A。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水平統合型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同業他社を買収する形のM&amp;A。市場シェアや事業規模を拡大する目的などで実施される。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>混合型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異業種との合併となるM&amp;A。新規分野・新規市場に進出する目的などで実施される。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受信メールサーバ側がメールの送信元ドメインを管理するDNSサーバに問い合わせ、返されたIPアドレスが送信元メールサーバのIPアドレスと一致するかどうかでなりすましを検知します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(Sender Policy Framework)は、メールを送信しようとしてきた</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>メールサーバのIPアドレス情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を検証することで、正規のサーバからのメール送信であるかどうか確認することができる技術です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNSBL(DNS Blacklist)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷惑メールの温床になっているオープンリレーサーバのIPアドレスや、スパム行為の発信元IPアドレスを一覧を公表したものです。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6392,14 +6567,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>51874</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>175071</xdr:rowOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>175070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6441,13 +6616,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>365</xdr:row>
+      <xdr:row>380</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>299205</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>198686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6539,14 +6714,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>560</xdr:row>
+      <xdr:row>575</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>299886</xdr:colOff>
-      <xdr:row>569</xdr:row>
-      <xdr:rowOff>104630</xdr:rowOff>
+      <xdr:row>584</xdr:row>
+      <xdr:rowOff>104631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6588,13 +6763,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>586</xdr:row>
+      <xdr:row>601</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371942</xdr:colOff>
-      <xdr:row>595</xdr:row>
+      <xdr:row>610</xdr:row>
       <xdr:rowOff>104629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6637,13 +6812,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>599</xdr:row>
+      <xdr:row>614</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>417666</xdr:colOff>
-      <xdr:row>609</xdr:row>
+      <xdr:row>624</xdr:row>
       <xdr:rowOff>168754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6686,14 +6861,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>620</xdr:row>
+      <xdr:row>635</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295344</xdr:colOff>
-      <xdr:row>637</xdr:row>
-      <xdr:rowOff>139290</xdr:rowOff>
+      <xdr:row>652</xdr:row>
+      <xdr:rowOff>139291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6735,13 +6910,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>667</xdr:row>
+      <xdr:row>682</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>308560</xdr:colOff>
-      <xdr:row>672</xdr:row>
+      <xdr:row>687</xdr:row>
       <xdr:rowOff>130100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6784,13 +6959,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>667</xdr:row>
+      <xdr:row>682</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>444414</xdr:colOff>
-      <xdr:row>670</xdr:row>
+      <xdr:row>685</xdr:row>
       <xdr:rowOff>55198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6833,13 +7008,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>688</xdr:row>
+      <xdr:row>703</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>283963</xdr:colOff>
-      <xdr:row>699</xdr:row>
+      <xdr:row>714</xdr:row>
       <xdr:rowOff>88084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6882,13 +7057,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>712</xdr:row>
+      <xdr:row>727</xdr:row>
       <xdr:rowOff>62754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>265134</xdr:colOff>
-      <xdr:row>720</xdr:row>
+      <xdr:row>735</xdr:row>
       <xdr:rowOff>95639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6931,14 +7106,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>723</xdr:row>
+      <xdr:row>738</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>265252</xdr:colOff>
-      <xdr:row>731</xdr:row>
-      <xdr:rowOff>25264</xdr:rowOff>
+      <xdr:row>746</xdr:row>
+      <xdr:rowOff>25265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6980,13 +7155,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>888</xdr:row>
+      <xdr:row>903</xdr:row>
       <xdr:rowOff>74544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>558285</xdr:colOff>
-      <xdr:row>893</xdr:row>
+      <xdr:row>908</xdr:row>
       <xdr:rowOff>65699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7029,13 +7204,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>573</xdr:row>
+      <xdr:row>588</xdr:row>
       <xdr:rowOff>74543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57422</xdr:colOff>
-      <xdr:row>582</xdr:row>
+      <xdr:row>597</xdr:row>
       <xdr:rowOff>37284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7061,6 +7236,104 @@
         <a:xfrm>
           <a:off x="695739" y="132033065"/>
           <a:ext cx="5060118" cy="2049958"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>1050</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47543</xdr:colOff>
+      <xdr:row>1073</xdr:row>
+      <xdr:rowOff>39550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8586CA3E-6FEC-920E-6DDD-2859116F7B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670891" y="240601500"/>
+          <a:ext cx="5745978" cy="5265876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>477073</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>76421</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECBC29B4-A484-B5B3-EAF5-4070FBA19763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076739" y="61299587"/>
+          <a:ext cx="3756986" cy="2552921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7340,10 +7613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X1009"/>
+  <dimension ref="A2:X1076"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A998" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1015" sqref="M1015"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A261" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P273" sqref="P272:P273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8613,3772 +8886,3940 @@
         <v>221</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="3:4">
       <c r="C257" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="3:4">
       <c r="D258" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="3:4">
       <c r="D259" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="3:4">
       <c r="D260" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="3:4">
       <c r="C261" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="3:4">
       <c r="D262" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="1">
+    <row r="263" spans="3:4">
+      <c r="C263" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4">
+      <c r="D264" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1">
         <v>41</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B278" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="C264" t="s">
+    <row r="279" spans="1:3">
+      <c r="C279" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="C265" t="s">
+    <row r="280" spans="1:3">
+      <c r="C280" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="1">
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>42</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B295" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="C281" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="C282" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="1">
-        <v>43</v>
-      </c>
-      <c r="B283" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="C284" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="D285" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="C286" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="D287" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="C288" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="D289" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="C290" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="D291" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="C292" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="D293" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="C294" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="D295" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="C296" t="s">
-        <v>457</v>
+        <v>229</v>
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="D297" t="s">
-        <v>458</v>
+      <c r="C297" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B298" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="C299" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="C300" t="s">
-        <v>245</v>
+      <c r="D300" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="C301" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="B302" t="s">
-        <v>247</v>
+      <c r="D302" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="C303" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="D304" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="C305" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="D306" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="C307" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="D308" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="C309" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="D310" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="C311" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="D312" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1">
+        <v>44</v>
+      </c>
+      <c r="B313" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="C314" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="C315" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="C316" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="B317" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="C318" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="B304" t="s">
+    <row r="319" spans="1:4">
+      <c r="B319" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="305" spans="1:24">
-      <c r="C305" t="s">
+    <row r="320" spans="1:4">
+      <c r="C320" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="306" spans="1:24">
-      <c r="B306" t="s">
+    <row r="321" spans="1:24">
+      <c r="B321" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="307" spans="1:24">
-      <c r="C307" t="s">
+    <row r="322" spans="1:24">
+      <c r="C322" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="308" spans="1:24">
-      <c r="A308" s="1">
+    <row r="323" spans="1:24">
+      <c r="A323" s="1">
         <v>45</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B323" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="309" spans="1:24">
-      <c r="C309" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="310" spans="1:24">
-      <c r="C310" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="311" spans="1:24">
-      <c r="C311" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="312" spans="1:24">
-      <c r="A312" s="1">
-        <v>46</v>
-      </c>
-      <c r="B312" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="313" spans="1:24">
-      <c r="C313" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D313" s="6"/>
-      <c r="E313" s="6"/>
-      <c r="F313" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G313" s="6"/>
-      <c r="H313" s="7"/>
-      <c r="I313" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="J313" s="6"/>
-      <c r="K313" s="7"/>
-      <c r="L313" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="M313" s="7"/>
-      <c r="N313" s="12"/>
-      <c r="O313" s="13"/>
-      <c r="P313" s="13"/>
-      <c r="Q313" s="13"/>
-      <c r="R313" s="13"/>
-      <c r="S313" s="13"/>
-      <c r="T313" s="13"/>
-      <c r="U313" s="13"/>
-      <c r="V313" s="13"/>
-      <c r="W313" s="13"/>
-      <c r="X313" s="14"/>
-    </row>
-    <row r="314" spans="1:24">
-      <c r="C314" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D314" s="6"/>
-      <c r="E314" s="6"/>
-      <c r="F314" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="G314" s="6"/>
-      <c r="H314" s="7"/>
-      <c r="I314" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J314" s="6"/>
-      <c r="K314" s="7"/>
-      <c r="L314" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="M314" s="7"/>
-      <c r="N314" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="O314" s="13"/>
-      <c r="P314" s="13"/>
-      <c r="Q314" s="13"/>
-      <c r="R314" s="13"/>
-      <c r="S314" s="13"/>
-      <c r="T314" s="13"/>
-      <c r="U314" s="13"/>
-      <c r="V314" s="13"/>
-      <c r="W314" s="13"/>
-      <c r="X314" s="14"/>
-    </row>
-    <row r="315" spans="1:24">
-      <c r="C315" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D315" s="13"/>
-      <c r="E315" s="14"/>
-      <c r="F315" s="8"/>
-      <c r="H315" s="1"/>
-      <c r="I315" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="K315" s="1"/>
-      <c r="L315" t="s">
-        <v>263</v>
-      </c>
-      <c r="M315" s="1"/>
-      <c r="N315" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="O315" s="13"/>
-      <c r="P315" s="13"/>
-      <c r="Q315" s="13"/>
-      <c r="R315" s="13"/>
-      <c r="S315" s="13"/>
-      <c r="T315" s="13"/>
-      <c r="U315" s="13"/>
-      <c r="V315" s="13"/>
-      <c r="W315" s="13"/>
-      <c r="X315" s="14"/>
-    </row>
-    <row r="316" spans="1:24">
-      <c r="C316" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F316" s="8"/>
-      <c r="H316" s="1"/>
-      <c r="I316" s="8"/>
-      <c r="K316" s="1"/>
-      <c r="M316" s="1"/>
-      <c r="N316" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="O316" s="6"/>
-      <c r="P316" s="6"/>
-      <c r="Q316" s="6"/>
-      <c r="R316" s="6"/>
-      <c r="S316" s="6"/>
-      <c r="T316" s="6"/>
-      <c r="U316" s="6"/>
-      <c r="V316" s="6"/>
-      <c r="W316" s="6"/>
-      <c r="X316" s="7"/>
-    </row>
-    <row r="317" spans="1:24">
-      <c r="C317" s="9"/>
-      <c r="D317" s="10"/>
-      <c r="E317" s="10"/>
-      <c r="F317" s="9"/>
-      <c r="G317" s="10"/>
-      <c r="H317" s="11"/>
-      <c r="I317" s="9"/>
-      <c r="J317" s="10"/>
-      <c r="K317" s="11"/>
-      <c r="L317" s="10"/>
-      <c r="M317" s="11"/>
-      <c r="N317" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="O317" s="10"/>
-      <c r="P317" s="10"/>
-      <c r="Q317" s="10"/>
-      <c r="R317" s="10"/>
-      <c r="S317" s="10"/>
-      <c r="T317" s="10"/>
-      <c r="U317" s="10"/>
-      <c r="V317" s="10"/>
-      <c r="W317" s="10"/>
-      <c r="X317" s="11"/>
-    </row>
-    <row r="318" spans="1:24">
-      <c r="C318" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D318" s="13"/>
-      <c r="E318" s="13"/>
-      <c r="F318" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G318" s="13"/>
-      <c r="H318" s="14"/>
-      <c r="I318" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="J318" s="13"/>
-      <c r="K318" s="14"/>
-      <c r="L318" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="M318" s="14"/>
-      <c r="N318" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="O318" s="13"/>
-      <c r="P318" s="13"/>
-      <c r="Q318" s="13"/>
-      <c r="R318" s="13"/>
-      <c r="S318" s="13"/>
-      <c r="T318" s="13"/>
-      <c r="U318" s="13"/>
-      <c r="V318" s="13"/>
-      <c r="W318" s="13"/>
-      <c r="X318" s="14"/>
-    </row>
-    <row r="319" spans="1:24">
-      <c r="C319" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="D319" s="13"/>
-      <c r="E319" s="13"/>
-      <c r="F319" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="G319" s="13"/>
-      <c r="H319" s="14"/>
-      <c r="I319" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="J319" s="13"/>
-      <c r="K319" s="14"/>
-      <c r="L319" s="13"/>
-      <c r="M319" s="14"/>
-      <c r="N319" s="12" t="s">
-        <v>815</v>
-      </c>
-      <c r="O319" s="13"/>
-      <c r="P319" s="13"/>
-      <c r="Q319" s="13"/>
-      <c r="R319" s="13"/>
-      <c r="S319" s="13"/>
-      <c r="T319" s="13"/>
-      <c r="U319" s="13"/>
-      <c r="V319" s="13"/>
-      <c r="W319" s="13"/>
-      <c r="X319" s="14"/>
-    </row>
-    <row r="320" spans="1:24">
-      <c r="C320" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F320" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="H320" s="1"/>
-      <c r="I320" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="K320" s="1"/>
-      <c r="L320" t="s">
-        <v>274</v>
-      </c>
-      <c r="M320" s="1"/>
-      <c r="N320" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="O320" s="13"/>
-      <c r="P320" s="13"/>
-      <c r="Q320" s="13"/>
-      <c r="R320" s="13"/>
-      <c r="S320" s="13"/>
-      <c r="T320" s="13"/>
-      <c r="U320" s="13"/>
-      <c r="V320" s="13"/>
-      <c r="W320" s="13"/>
-      <c r="X320" s="14"/>
-    </row>
-    <row r="321" spans="1:24">
-      <c r="C321" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D321" s="13"/>
-      <c r="E321" s="14"/>
-      <c r="F321" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G321" s="10"/>
-      <c r="H321" s="11"/>
-      <c r="I321" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="J321" s="10"/>
-      <c r="K321" s="11"/>
-      <c r="L321" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="M321" s="11"/>
-      <c r="N321" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="O321" s="13"/>
-      <c r="P321" s="13"/>
-      <c r="Q321" s="13"/>
-      <c r="R321" s="13"/>
-      <c r="S321" s="13"/>
-      <c r="T321" s="13"/>
-      <c r="U321" s="13"/>
-      <c r="V321" s="13"/>
-      <c r="W321" s="13"/>
-      <c r="X321" s="14"/>
-    </row>
-    <row r="322" spans="1:24">
-      <c r="A322" s="1">
-        <v>47</v>
-      </c>
-      <c r="B322" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="323" spans="1:24">
-      <c r="C323" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="324" spans="1:24">
       <c r="C324" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="325" spans="1:24">
       <c r="C325" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
     </row>
     <row r="326" spans="1:24">
-      <c r="A326" s="1">
-        <v>48</v>
-      </c>
-      <c r="B326" t="s">
-        <v>285</v>
+      <c r="C326" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="327" spans="1:24">
-      <c r="C327" t="s">
-        <v>286</v>
+      <c r="A327" s="1">
+        <v>46</v>
+      </c>
+      <c r="B327" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="328" spans="1:24">
-      <c r="C328" t="s">
-        <v>287</v>
-      </c>
+      <c r="C328" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D328" s="6"/>
+      <c r="E328" s="6"/>
+      <c r="F328" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G328" s="6"/>
+      <c r="H328" s="7"/>
+      <c r="I328" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J328" s="6"/>
+      <c r="K328" s="7"/>
+      <c r="L328" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="M328" s="7"/>
+      <c r="N328" s="12"/>
+      <c r="O328" s="13"/>
+      <c r="P328" s="13"/>
+      <c r="Q328" s="13"/>
+      <c r="R328" s="13"/>
+      <c r="S328" s="13"/>
+      <c r="T328" s="13"/>
+      <c r="U328" s="13"/>
+      <c r="V328" s="13"/>
+      <c r="W328" s="13"/>
+      <c r="X328" s="14"/>
     </row>
     <row r="329" spans="1:24">
-      <c r="A329" s="1">
-        <v>49</v>
-      </c>
-      <c r="B329" t="s">
-        <v>288</v>
-      </c>
+      <c r="C329" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D329" s="6"/>
+      <c r="E329" s="6"/>
+      <c r="F329" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G329" s="6"/>
+      <c r="H329" s="7"/>
+      <c r="I329" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J329" s="6"/>
+      <c r="K329" s="7"/>
+      <c r="L329" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M329" s="7"/>
+      <c r="N329" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="O329" s="13"/>
+      <c r="P329" s="13"/>
+      <c r="Q329" s="13"/>
+      <c r="R329" s="13"/>
+      <c r="S329" s="13"/>
+      <c r="T329" s="13"/>
+      <c r="U329" s="13"/>
+      <c r="V329" s="13"/>
+      <c r="W329" s="13"/>
+      <c r="X329" s="14"/>
     </row>
     <row r="330" spans="1:24">
-      <c r="C330" t="s">
-        <v>289</v>
-      </c>
+      <c r="C330" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D330" s="13"/>
+      <c r="E330" s="14"/>
+      <c r="F330" s="8"/>
+      <c r="H330" s="1"/>
+      <c r="I330" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="K330" s="1"/>
+      <c r="L330" t="s">
+        <v>263</v>
+      </c>
+      <c r="M330" s="1"/>
+      <c r="N330" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O330" s="13"/>
+      <c r="P330" s="13"/>
+      <c r="Q330" s="13"/>
+      <c r="R330" s="13"/>
+      <c r="S330" s="13"/>
+      <c r="T330" s="13"/>
+      <c r="U330" s="13"/>
+      <c r="V330" s="13"/>
+      <c r="W330" s="13"/>
+      <c r="X330" s="14"/>
     </row>
     <row r="331" spans="1:24">
-      <c r="C331" t="s">
-        <v>290</v>
-      </c>
+      <c r="C331" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F331" s="8"/>
+      <c r="H331" s="1"/>
+      <c r="I331" s="8"/>
+      <c r="K331" s="1"/>
+      <c r="M331" s="1"/>
+      <c r="N331" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="O331" s="6"/>
+      <c r="P331" s="6"/>
+      <c r="Q331" s="6"/>
+      <c r="R331" s="6"/>
+      <c r="S331" s="6"/>
+      <c r="T331" s="6"/>
+      <c r="U331" s="6"/>
+      <c r="V331" s="6"/>
+      <c r="W331" s="6"/>
+      <c r="X331" s="7"/>
     </row>
     <row r="332" spans="1:24">
-      <c r="C332" t="s">
-        <v>291</v>
-      </c>
+      <c r="C332" s="9"/>
+      <c r="D332" s="10"/>
+      <c r="E332" s="10"/>
+      <c r="F332" s="9"/>
+      <c r="G332" s="10"/>
+      <c r="H332" s="11"/>
+      <c r="I332" s="9"/>
+      <c r="J332" s="10"/>
+      <c r="K332" s="11"/>
+      <c r="L332" s="10"/>
+      <c r="M332" s="11"/>
+      <c r="N332" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="O332" s="10"/>
+      <c r="P332" s="10"/>
+      <c r="Q332" s="10"/>
+      <c r="R332" s="10"/>
+      <c r="S332" s="10"/>
+      <c r="T332" s="10"/>
+      <c r="U332" s="10"/>
+      <c r="V332" s="10"/>
+      <c r="W332" s="10"/>
+      <c r="X332" s="11"/>
     </row>
     <row r="333" spans="1:24">
-      <c r="C333" s="2" t="s">
-        <v>292</v>
-      </c>
+      <c r="C333" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="D333" s="13"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="G333" s="13"/>
+      <c r="H333" s="14"/>
+      <c r="I333" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="J333" s="13"/>
+      <c r="K333" s="14"/>
+      <c r="L333" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="M333" s="14"/>
+      <c r="N333" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O333" s="13"/>
+      <c r="P333" s="13"/>
+      <c r="Q333" s="13"/>
+      <c r="R333" s="13"/>
+      <c r="S333" s="13"/>
+      <c r="T333" s="13"/>
+      <c r="U333" s="13"/>
+      <c r="V333" s="13"/>
+      <c r="W333" s="13"/>
+      <c r="X333" s="14"/>
     </row>
     <row r="334" spans="1:24">
-      <c r="A334" s="1">
-        <v>50</v>
-      </c>
-      <c r="B334" t="s">
-        <v>293</v>
-      </c>
+      <c r="C334" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D334" s="13"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="G334" s="13"/>
+      <c r="H334" s="14"/>
+      <c r="I334" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J334" s="13"/>
+      <c r="K334" s="14"/>
+      <c r="L334" s="13"/>
+      <c r="M334" s="14"/>
+      <c r="N334" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="O334" s="13"/>
+      <c r="P334" s="13"/>
+      <c r="Q334" s="13"/>
+      <c r="R334" s="13"/>
+      <c r="S334" s="13"/>
+      <c r="T334" s="13"/>
+      <c r="U334" s="13"/>
+      <c r="V334" s="13"/>
+      <c r="W334" s="13"/>
+      <c r="X334" s="14"/>
     </row>
     <row r="335" spans="1:24">
-      <c r="C335" t="s">
-        <v>647</v>
-      </c>
+      <c r="C335" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F335" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H335" s="1"/>
+      <c r="I335" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="K335" s="1"/>
+      <c r="L335" t="s">
+        <v>274</v>
+      </c>
+      <c r="M335" s="1"/>
+      <c r="N335" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="O335" s="13"/>
+      <c r="P335" s="13"/>
+      <c r="Q335" s="13"/>
+      <c r="R335" s="13"/>
+      <c r="S335" s="13"/>
+      <c r="T335" s="13"/>
+      <c r="U335" s="13"/>
+      <c r="V335" s="13"/>
+      <c r="W335" s="13"/>
+      <c r="X335" s="14"/>
     </row>
     <row r="336" spans="1:24">
-      <c r="C336" t="s">
-        <v>648</v>
-      </c>
+      <c r="C336" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="D336" s="13"/>
+      <c r="E336" s="14"/>
+      <c r="F336" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G336" s="10"/>
+      <c r="H336" s="11"/>
+      <c r="I336" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J336" s="10"/>
+      <c r="K336" s="11"/>
+      <c r="L336" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="M336" s="11"/>
+      <c r="N336" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="O336" s="13"/>
+      <c r="P336" s="13"/>
+      <c r="Q336" s="13"/>
+      <c r="R336" s="13"/>
+      <c r="S336" s="13"/>
+      <c r="T336" s="13"/>
+      <c r="U336" s="13"/>
+      <c r="V336" s="13"/>
+      <c r="W336" s="13"/>
+      <c r="X336" s="14"/>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B337" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="C338" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="339" spans="1:3">
-      <c r="B339" t="s">
-        <v>296</v>
+      <c r="C339" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="C340" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B341" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="C342" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="343" spans="1:3">
-      <c r="A343" s="1">
-        <v>53</v>
-      </c>
-      <c r="B343" t="s">
-        <v>300</v>
+      <c r="C343" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="344" spans="1:3">
-      <c r="C344" t="s">
-        <v>301</v>
+      <c r="A344" s="1">
+        <v>49</v>
+      </c>
+      <c r="B344" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="345" spans="1:3">
-      <c r="B345" t="s">
-        <v>302</v>
+      <c r="C345" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="C346" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="B347" t="s">
-        <v>304</v>
+      <c r="C347" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="348" spans="1:3">
-      <c r="C348" t="s">
-        <v>305</v>
+      <c r="C348" s="2" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B349" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="C350" t="s">
-        <v>307</v>
+        <v>647</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="C351" t="s">
-        <v>308</v>
+        <v>648</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B352" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="C353" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="354" spans="1:3">
-      <c r="C354" t="s">
-        <v>311</v>
+      <c r="B354" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="C355" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="356" spans="1:3">
+      <c r="A356" s="1">
+        <v>52</v>
+      </c>
       <c r="B356" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="C357" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="358" spans="1:3">
+      <c r="A358" s="1">
+        <v>53</v>
+      </c>
       <c r="B358" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="C359" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="B360" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="C361" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="362" spans="1:3">
-      <c r="A362" s="1">
-        <v>56</v>
-      </c>
       <c r="B362" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="C363" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="364" spans="1:3">
+      <c r="A364" s="1">
+        <v>54</v>
+      </c>
       <c r="B364" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="C365" t="s">
-        <v>322</v>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="C366" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1">
+        <v>55</v>
+      </c>
+      <c r="B367" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="C368" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="C369" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="C370" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="B371" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="372" spans="1:3">
-      <c r="A372" s="1">
-        <v>57</v>
-      </c>
-      <c r="B372" t="s">
-        <v>323</v>
+      <c r="C372" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="373" spans="1:3">
-      <c r="C373" t="s">
-        <v>324</v>
+      <c r="B373" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="C374" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="375" spans="1:3">
-      <c r="A375" s="1">
-        <v>58</v>
-      </c>
       <c r="B375" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="C376" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="377" spans="1:3">
-      <c r="C377" t="s">
-        <v>328</v>
+      <c r="A377" s="1">
+        <v>56</v>
+      </c>
+      <c r="B377" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="378" spans="1:3">
-      <c r="B378" t="s">
-        <v>329</v>
+      <c r="C378" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="379" spans="1:3">
-      <c r="C379" t="s">
-        <v>330</v>
+      <c r="B379" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="380" spans="1:3">
-      <c r="A380" s="1">
-        <v>59</v>
-      </c>
-      <c r="B380" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="C381" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="C382" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="C383" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" s="1">
-        <v>60</v>
-      </c>
-      <c r="B384" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
-      <c r="C385" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="A386" s="1">
-        <v>61</v>
-      </c>
-      <c r="B386" t="s">
-        <v>337</v>
+      <c r="C380" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="387" spans="1:3">
-      <c r="C387" t="s">
-        <v>338</v>
+      <c r="A387" s="1">
+        <v>57</v>
+      </c>
+      <c r="B387" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="388" spans="1:3">
-      <c r="C388" s="2" t="s">
-        <v>339</v>
+      <c r="C388" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="389" spans="1:3">
-      <c r="A389" s="1">
-        <v>62</v>
-      </c>
-      <c r="B389" s="3" t="s">
-        <v>340</v>
+      <c r="C389" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="C390" t="s">
-        <v>341</v>
+      <c r="A390" s="1">
+        <v>58</v>
+      </c>
+      <c r="B390" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="C391" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="392" spans="1:3">
-      <c r="B392" t="s">
-        <v>343</v>
+      <c r="C392" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="393" spans="1:3">
-      <c r="C393" t="s">
-        <v>344</v>
+      <c r="B393" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="C394" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="395" spans="1:3">
+      <c r="A395" s="1">
+        <v>59</v>
+      </c>
       <c r="B395" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="C396" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="397" spans="1:3">
-      <c r="B397" t="s">
-        <v>348</v>
+      <c r="C397" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="398" spans="1:3">
-      <c r="C398" t="s">
-        <v>349</v>
+      <c r="C398" s="2" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="1">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B399" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="C400" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="401" spans="1:3">
-      <c r="C401" t="s">
-        <v>352</v>
+      <c r="A401" s="1">
+        <v>61</v>
+      </c>
+      <c r="B401" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" s="1">
-        <v>64</v>
-      </c>
-      <c r="B402" t="s">
-        <v>353</v>
+      <c r="C402" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="403" spans="1:3">
-      <c r="C403" t="s">
-        <v>354</v>
+      <c r="C403" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="1">
-        <v>65</v>
-      </c>
-      <c r="B404" t="s">
-        <v>355</v>
+        <v>62</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="C405" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="406" spans="1:3">
-      <c r="B406" t="s">
-        <v>394</v>
+      <c r="C406" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="407" spans="1:3">
-      <c r="C407" t="s">
-        <v>395</v>
+      <c r="B407" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="C408" t="s">
-        <v>396</v>
+        <v>344</v>
       </c>
     </row>
     <row r="409" spans="1:3">
-      <c r="A409" s="1">
-        <v>66</v>
-      </c>
-      <c r="B409" t="s">
-        <v>357</v>
+      <c r="C409" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="410" spans="1:3">
-      <c r="C410" t="s">
-        <v>358</v>
+      <c r="B410" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="C411" t="s">
-        <v>423</v>
+        <v>347</v>
       </c>
     </row>
     <row r="412" spans="1:3">
-      <c r="C412" t="s">
-        <v>424</v>
+      <c r="B412" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="C413" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1">
+        <v>63</v>
+      </c>
+      <c r="B414" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="C415" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="C416" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1">
+        <v>64</v>
+      </c>
+      <c r="B417" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="C418" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1">
+        <v>65</v>
+      </c>
+      <c r="B419" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="C420" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="B421" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="C422" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="C423" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1">
+        <v>66</v>
+      </c>
+      <c r="B424" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="C425" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="C426" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="C427" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="C428" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
-      <c r="C414" t="s">
+    <row r="429" spans="1:3">
+      <c r="C429" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="415" spans="1:3">
-      <c r="A415" s="1">
+    <row r="430" spans="1:3">
+      <c r="A430" s="1">
         <v>67</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B430" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="416" spans="1:3">
-      <c r="C416" s="3" t="s">
+    <row r="431" spans="1:3">
+      <c r="C431" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
-      <c r="C417" s="3" t="s">
+    <row r="432" spans="1:3">
+      <c r="C432" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="1">
+    <row r="433" spans="1:4">
+      <c r="A433" s="1">
         <v>68</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B433" t="s">
         <v>362</v>
       </c>
-      <c r="C418" s="3"/>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="C419" s="3" t="s">
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="C434" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
-      <c r="C420" s="3" t="s">
+    <row r="435" spans="1:4">
+      <c r="C435" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="C421" s="3" t="s">
+    <row r="436" spans="1:4">
+      <c r="C436" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="D422" t="s">
+    <row r="437" spans="1:4">
+      <c r="D437" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
-      <c r="C423" t="s">
+    <row r="438" spans="1:4">
+      <c r="C438" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
-      <c r="D424" t="s">
+    <row r="439" spans="1:4">
+      <c r="D439" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
-      <c r="C425" t="s">
+    <row r="440" spans="1:4">
+      <c r="C440" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="1">
+    <row r="441" spans="1:4">
+      <c r="A441" s="1">
         <v>69</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B441" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
-      <c r="C427" t="s">
+    <row r="442" spans="1:4">
+      <c r="C442" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="B428" t="s">
+    <row r="443" spans="1:4">
+      <c r="B443" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="C429" t="s">
+    <row r="444" spans="1:4">
+      <c r="C444" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="B430" t="s">
+    <row r="445" spans="1:4">
+      <c r="B445" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
-      <c r="C431" t="s">
+    <row r="446" spans="1:4">
+      <c r="C446" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="1">
+    <row r="447" spans="1:4">
+      <c r="A447" s="1">
         <v>70</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B447" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
-      <c r="C433" t="s">
+    <row r="448" spans="1:4">
+      <c r="C448" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3">
-      <c r="C434" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3">
-      <c r="B435" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
-      <c r="C436" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
-      <c r="B437" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
-      <c r="C438" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
-      <c r="A439" s="1">
-        <v>71</v>
-      </c>
-      <c r="B439" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
-      <c r="C440" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
-      <c r="C441" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
-      <c r="B442" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
-      <c r="C443" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3">
-      <c r="C444" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
-      <c r="C445" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
-      <c r="B446" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
-      <c r="C447" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3">
-      <c r="B448" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="C449" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="450" spans="1:3">
-      <c r="A450" s="1">
-        <v>72</v>
-      </c>
       <c r="B450" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="C451" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
     </row>
     <row r="452" spans="1:3">
-      <c r="A452" s="1">
-        <v>73</v>
-      </c>
       <c r="B452" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="C453" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="454" spans="1:3">
-      <c r="C454" t="s">
-        <v>401</v>
+      <c r="A454" s="1">
+        <v>71</v>
+      </c>
+      <c r="B454" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="455" spans="1:3">
-      <c r="B455" t="s">
-        <v>402</v>
+      <c r="C455" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="C456" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
     </row>
     <row r="457" spans="1:3">
-      <c r="C457" t="s">
-        <v>404</v>
+      <c r="B457" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="1">
-        <v>74</v>
-      </c>
-      <c r="B458" t="s">
-        <v>405</v>
+      <c r="C458" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="C459" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="C460" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="B461" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="C462" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="B463" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="C464" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B465" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="C466" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="467" spans="1:3">
+      <c r="A467" s="1">
+        <v>73</v>
+      </c>
       <c r="B467" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="C468" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="C469" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="470" spans="1:3">
-      <c r="A470" s="1">
-        <v>76</v>
-      </c>
       <c r="B470" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="C471" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="472" spans="1:3">
-      <c r="B472" t="s">
-        <v>419</v>
+      <c r="C472" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="473" spans="1:3">
-      <c r="C473" t="s">
-        <v>420</v>
+      <c r="A473" s="1">
+        <v>74</v>
+      </c>
+      <c r="B473" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="474" spans="1:3">
-      <c r="B474" t="s">
-        <v>421</v>
+      <c r="C474" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="C475" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="476" spans="1:3">
-      <c r="A476" s="1">
-        <v>77</v>
-      </c>
       <c r="B476" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="C477" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="478" spans="1:3">
-      <c r="C478" t="s">
-        <v>428</v>
+      <c r="B478" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="479" spans="1:3">
-      <c r="A479" s="1">
-        <v>78</v>
-      </c>
-      <c r="B479" t="s">
-        <v>430</v>
+      <c r="C479" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="480" spans="1:3">
-      <c r="C480" t="s">
-        <v>434</v>
+      <c r="A480" s="1">
+        <v>75</v>
+      </c>
+      <c r="B480" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="481" spans="1:3">
-      <c r="B481" t="s">
-        <v>431</v>
+      <c r="C481" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="482" spans="1:3">
-      <c r="C482" t="s">
-        <v>432</v>
+      <c r="B482" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="483" spans="1:3">
-      <c r="B483" t="s">
-        <v>433</v>
+      <c r="C483" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="C484" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" s="1">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B485" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
     </row>
     <row r="486" spans="1:3">
-      <c r="C486" s="2" t="s">
-        <v>437</v>
+      <c r="C486" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="487" spans="1:3">
-      <c r="A487" s="1">
-        <v>80</v>
-      </c>
       <c r="B487" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="C488" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
     </row>
     <row r="489" spans="1:3">
-      <c r="C489" t="s">
-        <v>439</v>
+      <c r="B489" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="C490" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
     </row>
     <row r="491" spans="1:3">
-      <c r="C491" t="s">
-        <v>440</v>
+      <c r="A491" s="1">
+        <v>77</v>
+      </c>
+      <c r="B491" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="492" spans="1:3">
-      <c r="B492" t="s">
-        <v>816</v>
+      <c r="C492" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="C493" t="s">
-        <v>817</v>
+        <v>428</v>
       </c>
     </row>
     <row r="494" spans="1:3">
+      <c r="A494" s="1">
+        <v>78</v>
+      </c>
       <c r="B494" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="C495" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="B496" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="C497" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="B498" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="C499" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B500" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="501" spans="1:3">
-      <c r="C501" t="s">
-        <v>450</v>
+      <c r="C501" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="502" spans="1:3">
-      <c r="C502" t="s">
-        <v>451</v>
+      <c r="A502" s="1">
+        <v>80</v>
+      </c>
+      <c r="B502" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="503" spans="1:3">
-      <c r="A503" s="1">
-        <v>82</v>
-      </c>
-      <c r="B503" t="s">
-        <v>452</v>
+      <c r="C503" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="C504" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="C505" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="C506" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="507" spans="1:3">
-      <c r="A507" s="1">
-        <v>83</v>
-      </c>
       <c r="B507" t="s">
-        <v>459</v>
+        <v>816</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="C508" t="s">
-        <v>465</v>
+        <v>817</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="B509" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="C510" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="B511" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="C512" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="B513" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="514" spans="1:3">
-      <c r="C514" s="3" t="s">
-        <v>469</v>
+      <c r="C514" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="515" spans="1:3">
-      <c r="C515" t="s">
-        <v>464</v>
+      <c r="A515" s="1">
+        <v>81</v>
+      </c>
+      <c r="B515" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="516" spans="1:3">
-      <c r="B516" t="s">
-        <v>467</v>
+      <c r="C516" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="C517" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B518" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="C519" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="C520" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="C521" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="522" spans="1:3">
+      <c r="A522" s="1">
+        <v>83</v>
+      </c>
       <c r="B522" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="C523" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="B524" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="C525" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="B526" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="C527" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="B528" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="C529" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="C530" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="B531" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="C532" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1">
+        <v>84</v>
+      </c>
+      <c r="B533" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="C534" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="C535" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="C536" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="B537" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="C538" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="B539" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="C540" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="B541" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="C542" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="528" spans="1:3">
-      <c r="A528" s="1">
+    <row r="543" spans="1:3">
+      <c r="A543" s="1">
         <v>85</v>
       </c>
-      <c r="B528" t="s">
+      <c r="B543" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
-      <c r="C529" t="s">
+    <row r="544" spans="1:3">
+      <c r="C544" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
-      <c r="A530" s="1">
+    <row r="545" spans="1:4">
+      <c r="A545" s="1">
         <v>86</v>
       </c>
-      <c r="B530" t="s">
+      <c r="B545" t="s">
         <v>483</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4">
-      <c r="C531" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4">
-      <c r="D532" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4">
-      <c r="C533" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="534" spans="1:4">
-      <c r="D534" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4">
-      <c r="C535" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="536" spans="1:4">
-      <c r="D536" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4">
-      <c r="C537" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4">
-      <c r="D538" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4">
-      <c r="A539" s="1">
-        <v>87</v>
-      </c>
-      <c r="B539" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="540" spans="1:4">
-      <c r="C540" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4">
-      <c r="C541" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="542" spans="1:4">
-      <c r="B542" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="543" spans="1:4">
-      <c r="C543" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="544" spans="1:4">
-      <c r="B544" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="545" spans="1:4">
-      <c r="C545" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="546" spans="1:4">
       <c r="C546" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="547" spans="1:4">
-      <c r="A547" s="1">
-        <v>88</v>
-      </c>
-      <c r="B547" t="s">
-        <v>500</v>
+      <c r="D547" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="C548" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="549" spans="1:4">
-      <c r="C549" t="s">
-        <v>502</v>
+      <c r="D549" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="550" spans="1:4">
-      <c r="A550" s="1">
-        <v>89</v>
-      </c>
-      <c r="B550" t="s">
-        <v>503</v>
+      <c r="C550" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="551" spans="1:4">
-      <c r="C551" t="s">
-        <v>504</v>
+      <c r="D551" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="C552" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="D553" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="554" spans="1:4">
-      <c r="C554" t="s">
-        <v>507</v>
+      <c r="A554" s="1">
+        <v>87</v>
+      </c>
+      <c r="B554" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="555" spans="1:4">
-      <c r="D555" t="s">
-        <v>508</v>
+      <c r="C555" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="C556" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
     <row r="557" spans="1:4">
-      <c r="D557" t="s">
-        <v>510</v>
+      <c r="B557" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="558" spans="1:4">
       <c r="C558" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="559" spans="1:4">
-      <c r="A559" s="1">
-        <v>90</v>
-      </c>
       <c r="B559" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="C560" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="C561" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="1">
+        <v>88</v>
+      </c>
+      <c r="B562" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="C563" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="C564" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="1">
+        <v>89</v>
+      </c>
+      <c r="B565" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="C566" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="C567" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="D568" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="C569" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="D570" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="C571" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="D572" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="C573" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="1">
+        <v>90</v>
+      </c>
+      <c r="B574" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="C575" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="571" spans="2:3">
-      <c r="B571" t="s">
+    <row r="586" spans="2:3">
+      <c r="B586" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="572" spans="2:3">
-      <c r="C572" t="s">
+    <row r="587" spans="2:3">
+      <c r="C587" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="573" spans="2:3">
-      <c r="C573" t="s">
+    <row r="588" spans="2:3">
+      <c r="C588" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="584" spans="1:3">
-      <c r="A584" s="1">
+    <row r="599" spans="1:3">
+      <c r="A599" s="1">
         <v>91</v>
       </c>
-      <c r="B584" t="s">
+      <c r="B599" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="585" spans="1:3">
-      <c r="C585" t="s">
+    <row r="600" spans="1:3">
+      <c r="C600" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="586" spans="1:3">
-      <c r="C586" t="s">
+    <row r="601" spans="1:3">
+      <c r="C601" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="597" spans="1:3">
-      <c r="A597" s="1">
+    <row r="612" spans="1:3">
+      <c r="A612" s="1">
         <v>92</v>
       </c>
-      <c r="B597" t="s">
+      <c r="B612" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3">
-      <c r="C598" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3">
-      <c r="C599" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3">
-      <c r="A611" s="1">
-        <v>93</v>
-      </c>
-      <c r="B611" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="612" spans="1:3">
-      <c r="C612" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="C613" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="C614" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="1">
+        <v>93</v>
+      </c>
+      <c r="B626" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="C627" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="C628" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="614" spans="1:3">
-      <c r="C614" s="4" t="s">
+    <row r="629" spans="1:3">
+      <c r="C629" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="615" spans="1:3">
-      <c r="A615" s="1">
+    <row r="630" spans="1:3">
+      <c r="A630" s="1">
         <v>94</v>
       </c>
-      <c r="B615" t="s">
+      <c r="B630" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="616" spans="1:3">
-      <c r="C616" t="s">
+    <row r="631" spans="1:3">
+      <c r="C631" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="617" spans="1:3">
-      <c r="C617" s="2" t="s">
+    <row r="632" spans="1:3">
+      <c r="C632" s="2" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="618" spans="1:3">
-      <c r="B618" t="s">
+    <row r="633" spans="1:3">
+      <c r="B633" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="619" spans="1:3">
-      <c r="C619" t="s">
+    <row r="634" spans="1:3">
+      <c r="C634" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="620" spans="1:3">
-      <c r="A620" s="1">
+    <row r="635" spans="1:3">
+      <c r="A635" s="1">
         <v>95</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B635" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="621" spans="1:3">
-      <c r="C621" t="s">
+    <row r="636" spans="1:3">
+      <c r="C636" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row r="639" spans="1:3">
-      <c r="A639" s="1">
-        <v>96</v>
-      </c>
-      <c r="B639" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="640" spans="1:3">
-      <c r="C640" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="641" spans="1:3">
-      <c r="B641" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="642" spans="1:3">
-      <c r="C642" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="643" spans="1:3">
-      <c r="C643" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="644" spans="1:3">
-      <c r="B644" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="645" spans="1:3">
-      <c r="C645" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="646" spans="1:3">
-      <c r="C646" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="647" spans="1:3">
-      <c r="B647" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="648" spans="1:3">
-      <c r="C648" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="649" spans="1:3">
-      <c r="A649" s="1">
-        <v>97</v>
-      </c>
-      <c r="B649" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="650" spans="1:3">
-      <c r="C650" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="651" spans="1:3">
-      <c r="C651" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="652" spans="1:3">
-      <c r="A652" s="1">
-        <v>98</v>
-      </c>
-      <c r="B652" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="653" spans="1:3">
-      <c r="C653" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="654" spans="1:3">
       <c r="A654" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B654" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="C655" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3">
+      <c r="B656" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3">
+      <c r="C657" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3">
+      <c r="C658" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="B659" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3">
+      <c r="C660" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3">
+      <c r="C661" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3">
+      <c r="B662" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3">
+      <c r="C663" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3">
+      <c r="A664" s="1">
+        <v>97</v>
+      </c>
+      <c r="B664" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3">
+      <c r="C665" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3">
+      <c r="C666" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3">
+      <c r="A667" s="1">
+        <v>98</v>
+      </c>
+      <c r="B667" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3">
+      <c r="C668" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3">
+      <c r="A669" s="1">
+        <v>99</v>
+      </c>
+      <c r="B669" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3">
+      <c r="C670" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="656" spans="1:3">
-      <c r="C656" t="s">
+    <row r="671" spans="1:3">
+      <c r="C671" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
-      <c r="B657" t="s">
+    <row r="672" spans="1:3">
+      <c r="B672" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
-      <c r="C658" t="s">
+    <row r="673" spans="1:4">
+      <c r="C673" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
-      <c r="B659" t="s">
+    <row r="674" spans="1:4">
+      <c r="B674" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
-      <c r="C660" t="s">
+    <row r="675" spans="1:4">
+      <c r="C675" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
-      <c r="C661" t="s">
+    <row r="676" spans="1:4">
+      <c r="C676" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
-      <c r="D662" t="s">
+    <row r="677" spans="1:4">
+      <c r="D677" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
-      <c r="C663" t="s">
+    <row r="678" spans="1:4">
+      <c r="C678" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
-      <c r="D664" t="s">
+    <row r="679" spans="1:4">
+      <c r="D679" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
-      <c r="B665" t="s">
+    <row r="680" spans="1:4">
+      <c r="B680" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
-      <c r="C666" t="s">
+    <row r="681" spans="1:4">
+      <c r="C681" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
-      <c r="A667" s="1">
+    <row r="682" spans="1:4">
+      <c r="A682" s="1">
         <v>100</v>
       </c>
-      <c r="B667" t="s">
+      <c r="B682" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="674" spans="1:3">
-      <c r="A674" s="1">
+    <row r="689" spans="1:3">
+      <c r="A689" s="1">
         <v>101</v>
       </c>
-      <c r="B674" t="s">
+      <c r="B689" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="675" spans="1:3">
-      <c r="C675" t="s">
+    <row r="690" spans="1:3">
+      <c r="C690" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="676" spans="1:3">
-      <c r="C676" t="s">
+    <row r="691" spans="1:3">
+      <c r="C691" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="677" spans="1:3">
-      <c r="B677" t="s">
+    <row r="692" spans="1:3">
+      <c r="B692" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="678" spans="1:3">
-      <c r="C678" t="s">
+    <row r="693" spans="1:3">
+      <c r="C693" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="679" spans="1:3">
-      <c r="B679" t="s">
+    <row r="694" spans="1:3">
+      <c r="B694" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="680" spans="1:3">
-      <c r="C680" t="s">
+    <row r="695" spans="1:3">
+      <c r="C695" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="681" spans="1:3">
-      <c r="A681" s="1">
+    <row r="696" spans="1:3">
+      <c r="A696" s="1">
         <v>102</v>
       </c>
-      <c r="B681" t="s">
+      <c r="B696" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="682" spans="1:3">
-      <c r="C682" t="s">
+    <row r="697" spans="1:3">
+      <c r="C697" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="683" spans="1:3">
-      <c r="A683" s="1">
+    <row r="698" spans="1:3">
+      <c r="A698" s="1">
         <v>103</v>
       </c>
-      <c r="B683" t="s">
+      <c r="B698" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="684" spans="1:3">
-      <c r="C684" t="s">
+    <row r="699" spans="1:3">
+      <c r="C699" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="685" spans="1:3">
-      <c r="A685" s="1">
+    <row r="700" spans="1:3">
+      <c r="A700" s="1">
         <v>104</v>
       </c>
-      <c r="B685" t="s">
+      <c r="B700" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="686" spans="1:3">
-      <c r="C686" t="s">
+    <row r="701" spans="1:3">
+      <c r="C701" t="s">
         <v>576</v>
-      </c>
-    </row>
-    <row r="687" spans="1:3">
-      <c r="C687" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="688" spans="1:3">
-      <c r="A688" s="1">
-        <v>105</v>
-      </c>
-      <c r="B688" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="701" spans="1:3">
-      <c r="A701" s="1">
-        <v>106</v>
-      </c>
-      <c r="B701" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="702" spans="1:3">
       <c r="C702" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3">
+      <c r="A703" s="1">
+        <v>105</v>
+      </c>
+      <c r="B703" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3">
+      <c r="A716" s="1">
+        <v>106</v>
+      </c>
+      <c r="B716" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3">
+      <c r="C717" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="703" spans="1:3">
-      <c r="C703" t="s">
+    <row r="718" spans="1:3">
+      <c r="C718" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="704" spans="1:3">
-      <c r="A704" s="1">
+    <row r="719" spans="1:3">
+      <c r="A719" s="1">
         <v>107</v>
       </c>
-      <c r="B704" t="s">
+      <c r="B719" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="705" spans="1:3">
-      <c r="C705" t="s">
+    <row r="720" spans="1:3">
+      <c r="C720" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="706" spans="1:3">
-      <c r="C706" t="s">
+    <row r="721" spans="1:3">
+      <c r="C721" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="707" spans="1:3">
-      <c r="A707" s="1">
+    <row r="722" spans="1:3">
+      <c r="A722" s="1">
         <v>108</v>
       </c>
-      <c r="B707" t="s">
+      <c r="B722" t="s">
         <v>590</v>
-      </c>
-    </row>
-    <row r="708" spans="1:3">
-      <c r="C708" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="709" spans="1:3">
-      <c r="C709" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="710" spans="1:3">
-      <c r="C710" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="711" spans="1:3">
-      <c r="A711" s="1">
-        <v>109</v>
-      </c>
-      <c r="B711" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="712" spans="1:3">
-      <c r="C712" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3">
-      <c r="B722" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="723" spans="1:3">
       <c r="C723" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3">
+      <c r="C724" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3">
+      <c r="C725" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="A726" s="1">
+        <v>109</v>
+      </c>
+      <c r="B726" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
+      <c r="C727" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="B737" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
+      <c r="C738" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
-      <c r="A733" s="1">
+    <row r="748" spans="1:3">
+      <c r="A748" s="1">
         <v>110</v>
       </c>
-      <c r="B733" t="s">
+      <c r="B748" t="s">
         <v>598</v>
-      </c>
-    </row>
-    <row r="734" spans="1:3">
-      <c r="C734" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="735" spans="1:3">
-      <c r="B735" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="736" spans="1:3">
-      <c r="C736" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="737" spans="1:3">
-      <c r="C737" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="738" spans="1:3">
-      <c r="B738" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="739" spans="1:3">
-      <c r="C739" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="740" spans="1:3">
-      <c r="A740" s="1">
-        <v>111</v>
-      </c>
-      <c r="B740" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="741" spans="1:3">
-      <c r="C741" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="742" spans="1:3">
-      <c r="C742" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="743" spans="1:3">
-      <c r="B743" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="744" spans="1:3">
-      <c r="C744" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="745" spans="1:3">
-      <c r="B745" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="746" spans="1:3">
-      <c r="C746" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="747" spans="1:3">
-      <c r="A747" s="1">
-        <v>112</v>
-      </c>
-      <c r="B747" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="748" spans="1:3">
-      <c r="C748" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="749" spans="1:3">
       <c r="C749" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
     </row>
     <row r="750" spans="1:3">
-      <c r="C750" t="s">
-        <v>615</v>
+      <c r="B750" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="751" spans="1:3">
-      <c r="C751" s="4" t="s">
-        <v>616</v>
+      <c r="C751" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="752" spans="1:3">
-      <c r="A752" s="1">
-        <v>113</v>
-      </c>
-      <c r="B752" t="s">
-        <v>617</v>
+      <c r="C752" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="753" spans="1:3">
-      <c r="C753" t="s">
-        <v>618</v>
+      <c r="B753" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="754" spans="1:3">
       <c r="C754" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="755" spans="1:3">
       <c r="A755" s="1">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B755" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
     </row>
     <row r="756" spans="1:3">
       <c r="C756" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="757" spans="1:3">
-      <c r="A757" s="1">
-        <v>115</v>
-      </c>
-      <c r="B757" t="s">
-        <v>622</v>
+      <c r="C757" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="758" spans="1:3">
-      <c r="C758" t="s">
-        <v>623</v>
+      <c r="B758" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="759" spans="1:3">
       <c r="C759" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
     </row>
     <row r="760" spans="1:3">
-      <c r="C760" s="4" t="s">
-        <v>625</v>
+      <c r="B760" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="761" spans="1:3">
-      <c r="A761" s="1">
-        <v>116</v>
-      </c>
-      <c r="B761" t="s">
-        <v>626</v>
+      <c r="C761" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="762" spans="1:3">
-      <c r="C762" t="s">
-        <v>627</v>
+      <c r="A762" s="1">
+        <v>112</v>
+      </c>
+      <c r="B762" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="763" spans="1:3">
       <c r="C763" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="764" spans="1:3">
-      <c r="A764" s="1">
-        <v>117</v>
-      </c>
-      <c r="B764" t="s">
-        <v>629</v>
+      <c r="C764" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="765" spans="1:3">
       <c r="C765" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="766" spans="1:3">
-      <c r="B766" t="s">
-        <v>631</v>
+      <c r="C766" s="4" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="767" spans="1:3">
-      <c r="C767" t="s">
-        <v>632</v>
+      <c r="A767" s="1">
+        <v>113</v>
+      </c>
+      <c r="B767" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="768" spans="1:3">
-      <c r="B768" t="s">
-        <v>634</v>
+      <c r="C768" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="769" spans="1:3">
       <c r="C769" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
     </row>
     <row r="770" spans="1:3">
       <c r="A770" s="1">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B770" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="771" spans="1:3">
       <c r="C771" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
     </row>
     <row r="772" spans="1:3">
-      <c r="C772" t="s">
-        <v>637</v>
+      <c r="A772" s="1">
+        <v>115</v>
+      </c>
+      <c r="B772" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="773" spans="1:3">
-      <c r="A773" s="1">
-        <v>119</v>
-      </c>
-      <c r="B773" t="s">
-        <v>638</v>
+      <c r="C773" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="774" spans="1:3">
       <c r="C774" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
     </row>
     <row r="775" spans="1:3">
-      <c r="C775" t="s">
-        <v>640</v>
+      <c r="C775" s="4" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="776" spans="1:3">
       <c r="A776" s="1">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B776" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
     </row>
     <row r="777" spans="1:3">
       <c r="C777" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
     </row>
     <row r="778" spans="1:3">
       <c r="C778" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="779" spans="1:3">
-      <c r="C779" t="s">
-        <v>642</v>
+      <c r="A779" s="1">
+        <v>117</v>
+      </c>
+      <c r="B779" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="780" spans="1:3">
-      <c r="A780" s="1">
-        <v>121</v>
-      </c>
-      <c r="B780" t="s">
-        <v>645</v>
+      <c r="C780" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="781" spans="1:3">
-      <c r="C781" t="s">
-        <v>646</v>
+      <c r="B781" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="782" spans="1:3">
-      <c r="B782" t="s">
-        <v>650</v>
+      <c r="C782" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="783" spans="1:3">
-      <c r="C783" t="s">
-        <v>649</v>
+      <c r="B783" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="784" spans="1:3">
-      <c r="B784" t="s">
-        <v>651</v>
+      <c r="C784" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="785" spans="1:3">
-      <c r="C785" t="s">
-        <v>652</v>
+      <c r="A785" s="1">
+        <v>118</v>
+      </c>
+      <c r="B785" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="786" spans="1:3">
-      <c r="A786" s="1">
-        <v>122</v>
-      </c>
-      <c r="B786" t="s">
-        <v>653</v>
+      <c r="C786" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="787" spans="1:3">
       <c r="C787" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
     </row>
     <row r="788" spans="1:3">
-      <c r="C788" t="s">
-        <v>655</v>
+      <c r="A788" s="1">
+        <v>119</v>
+      </c>
+      <c r="B788" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="789" spans="1:3">
-      <c r="A789" s="1">
-        <v>123</v>
-      </c>
-      <c r="B789" t="s">
-        <v>656</v>
+      <c r="C789" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="790" spans="1:3">
       <c r="C790" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
     </row>
     <row r="791" spans="1:3">
-      <c r="C791" s="2" t="s">
-        <v>659</v>
+      <c r="A791" s="1">
+        <v>120</v>
+      </c>
+      <c r="B791" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="792" spans="1:3">
-      <c r="B792" t="s">
-        <v>657</v>
+      <c r="C792" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="793" spans="1:3">
       <c r="C793" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
     </row>
     <row r="794" spans="1:3">
-      <c r="A794" s="1">
-        <v>124</v>
-      </c>
-      <c r="B794" t="s">
-        <v>661</v>
+      <c r="C794" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="795" spans="1:3">
-      <c r="C795" t="s">
-        <v>662</v>
+      <c r="A795" s="1">
+        <v>121</v>
+      </c>
+      <c r="B795" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="796" spans="1:3">
       <c r="C796" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
     </row>
     <row r="797" spans="1:3">
-      <c r="A797" s="1">
-        <v>125</v>
-      </c>
       <c r="B797" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
     </row>
     <row r="798" spans="1:3">
       <c r="C798" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
     </row>
     <row r="799" spans="1:3">
       <c r="B799" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="800" spans="1:3">
       <c r="C800" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="801" spans="1:3">
+      <c r="A801" s="1">
+        <v>122</v>
+      </c>
       <c r="B801" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="802" spans="1:3">
       <c r="C802" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
     </row>
     <row r="803" spans="1:3">
-      <c r="B803" t="s">
-        <v>671</v>
+      <c r="C803" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="804" spans="1:3">
-      <c r="C804" t="s">
-        <v>669</v>
+      <c r="A804" s="1">
+        <v>123</v>
+      </c>
+      <c r="B804" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="805" spans="1:3">
-      <c r="A805" s="1">
-        <v>126</v>
-      </c>
-      <c r="B805" t="s">
-        <v>673</v>
+      <c r="C805" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="806" spans="1:3">
       <c r="C806" s="2" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
     </row>
     <row r="807" spans="1:3">
-      <c r="C807" t="s">
-        <v>674</v>
+      <c r="B807" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="808" spans="1:3">
       <c r="C808" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
     </row>
     <row r="809" spans="1:3">
-      <c r="C809" t="s">
-        <v>676</v>
+      <c r="A809" s="1">
+        <v>124</v>
+      </c>
+      <c r="B809" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="810" spans="1:3">
       <c r="C810" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="811" spans="1:3">
-      <c r="B811" t="s">
-        <v>678</v>
+      <c r="C811" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="812" spans="1:3">
-      <c r="C812" s="3" t="s">
-        <v>680</v>
+      <c r="A812" s="1">
+        <v>125</v>
+      </c>
+      <c r="B812" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="813" spans="1:3">
       <c r="C813" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
     </row>
     <row r="814" spans="1:3">
-      <c r="A814" s="1">
-        <v>127</v>
-      </c>
       <c r="B814" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
     </row>
     <row r="815" spans="1:3">
       <c r="C815" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
     </row>
     <row r="816" spans="1:3">
-      <c r="C816" t="s">
-        <v>683</v>
+      <c r="B816" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="817" spans="1:3">
       <c r="C817" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
     </row>
     <row r="818" spans="1:3">
       <c r="B818" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
     </row>
     <row r="819" spans="1:3">
       <c r="C819" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
     </row>
     <row r="820" spans="1:3">
-      <c r="C820" t="s">
-        <v>687</v>
+      <c r="A820" s="1">
+        <v>126</v>
+      </c>
+      <c r="B820" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="821" spans="1:3">
-      <c r="C821" s="4" t="s">
-        <v>688</v>
+      <c r="C821" s="2" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="822" spans="1:3">
-      <c r="B822" t="s">
-        <v>689</v>
+      <c r="C822" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="823" spans="1:3">
       <c r="C823" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
     </row>
     <row r="824" spans="1:3">
-      <c r="A824" s="1">
-        <v>128</v>
-      </c>
-      <c r="B824" t="s">
-        <v>691</v>
+      <c r="C824" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="825" spans="1:3">
       <c r="C825" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
     </row>
     <row r="826" spans="1:3">
-      <c r="A826" s="1">
-        <v>129</v>
-      </c>
       <c r="B826" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
     </row>
     <row r="827" spans="1:3">
-      <c r="C827" t="s">
-        <v>698</v>
+      <c r="C827" s="3" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="828" spans="1:3">
-      <c r="A828" s="1">
-        <v>130</v>
-      </c>
-      <c r="B828" t="s">
-        <v>699</v>
+      <c r="C828" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="829" spans="1:3">
-      <c r="C829" t="s">
-        <v>700</v>
+      <c r="A829" s="1">
+        <v>127</v>
+      </c>
+      <c r="B829" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="830" spans="1:3">
-      <c r="A830" s="1">
-        <v>131</v>
-      </c>
-      <c r="B830" t="s">
-        <v>703</v>
+      <c r="C830" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="831" spans="1:3">
       <c r="C831" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
     </row>
     <row r="832" spans="1:3">
-      <c r="B832" t="s">
-        <v>701</v>
+      <c r="C832" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="833" spans="1:3">
-      <c r="C833" t="s">
-        <v>702</v>
+      <c r="B833" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="834" spans="1:3">
-      <c r="B834" t="s">
-        <v>706</v>
+      <c r="C834" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="835" spans="1:3">
       <c r="C835" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
     </row>
     <row r="836" spans="1:3">
-      <c r="A836" s="1">
-        <v>132</v>
-      </c>
-      <c r="B836" t="s">
-        <v>707</v>
+      <c r="C836" s="4" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="837" spans="1:3">
-      <c r="C837" t="s">
-        <v>708</v>
+      <c r="B837" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="838" spans="1:3">
-      <c r="B838" t="s">
-        <v>709</v>
+      <c r="C838" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="839" spans="1:3">
-      <c r="C839" t="s">
-        <v>710</v>
+      <c r="A839" s="1">
+        <v>128</v>
+      </c>
+      <c r="B839" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="840" spans="1:3">
-      <c r="B840" t="s">
-        <v>711</v>
+      <c r="C840" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="841" spans="1:3">
-      <c r="C841" t="s">
-        <v>712</v>
+      <c r="A841" s="1">
+        <v>129</v>
+      </c>
+      <c r="B841" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="842" spans="1:3">
-      <c r="B842" t="s">
-        <v>713</v>
+      <c r="C842" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="843" spans="1:3">
-      <c r="C843" t="s">
-        <v>714</v>
+      <c r="A843" s="1">
+        <v>130</v>
+      </c>
+      <c r="B843" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="844" spans="1:3">
-      <c r="A844" s="1">
-        <v>133</v>
-      </c>
-      <c r="B844" t="s">
-        <v>715</v>
+      <c r="C844" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="845" spans="1:3">
-      <c r="C845" t="s">
-        <v>716</v>
+      <c r="A845" s="1">
+        <v>131</v>
+      </c>
+      <c r="B845" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="846" spans="1:3">
-      <c r="A846" s="1">
-        <v>134</v>
-      </c>
-      <c r="B846" t="s">
-        <v>717</v>
+      <c r="C846" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="847" spans="1:3">
-      <c r="C847" t="s">
-        <v>718</v>
+      <c r="B847" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="848" spans="1:3">
       <c r="C848" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
     </row>
     <row r="849" spans="1:3">
       <c r="B849" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
     </row>
     <row r="850" spans="1:3">
       <c r="C850" t="s">
-        <v>721</v>
+        <v>705</v>
       </c>
     </row>
     <row r="851" spans="1:3">
-      <c r="C851" t="s">
-        <v>722</v>
+      <c r="A851" s="1">
+        <v>132</v>
+      </c>
+      <c r="B851" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="852" spans="1:3">
-      <c r="B852" t="s">
-        <v>723</v>
+      <c r="C852" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="853" spans="1:3">
-      <c r="C853" t="s">
-        <v>724</v>
+      <c r="B853" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="854" spans="1:3">
-      <c r="B854" t="s">
-        <v>725</v>
+      <c r="C854" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="855" spans="1:3">
-      <c r="C855" t="s">
-        <v>726</v>
+      <c r="B855" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="856" spans="1:3">
-      <c r="A856" s="1">
-        <v>135</v>
-      </c>
-      <c r="B856" t="s">
-        <v>727</v>
+      <c r="C856" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="857" spans="1:3">
-      <c r="C857" t="s">
-        <v>728</v>
+      <c r="B857" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="858" spans="1:3">
-      <c r="B858" t="s">
-        <v>730</v>
+      <c r="C858" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="859" spans="1:3">
-      <c r="C859" t="s">
-        <v>729</v>
+      <c r="A859" s="1">
+        <v>133</v>
+      </c>
+      <c r="B859" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="860" spans="1:3">
-      <c r="B860" t="s">
-        <v>732</v>
+      <c r="C860" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="861" spans="1:3">
-      <c r="C861" t="s">
-        <v>731</v>
+      <c r="A861" s="1">
+        <v>134</v>
+      </c>
+      <c r="B861" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="862" spans="1:3">
-      <c r="B862" t="s">
-        <v>733</v>
+      <c r="C862" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="863" spans="1:3">
       <c r="C863" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="864" spans="1:3">
-      <c r="A864" s="1">
-        <v>136</v>
-      </c>
       <c r="B864" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
     </row>
     <row r="865" spans="1:3">
       <c r="C865" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="866" spans="1:3">
       <c r="C866" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
     </row>
     <row r="867" spans="1:3">
-      <c r="C867" t="s">
-        <v>737</v>
+      <c r="B867" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="868" spans="1:3">
-      <c r="A868" s="1">
-        <v>137</v>
-      </c>
-      <c r="B868" t="s">
-        <v>739</v>
+      <c r="C868" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="869" spans="1:3">
-      <c r="C869" t="s">
-        <v>740</v>
+      <c r="B869" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="870" spans="1:3">
       <c r="C870" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
     </row>
     <row r="871" spans="1:3">
-      <c r="C871" t="s">
-        <v>742</v>
+      <c r="A871" s="1">
+        <v>135</v>
+      </c>
+      <c r="B871" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="872" spans="1:3">
-      <c r="A872" s="1">
-        <v>138</v>
-      </c>
-      <c r="B872" t="s">
-        <v>743</v>
+      <c r="C872" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="873" spans="1:3">
-      <c r="C873" t="s">
-        <v>744</v>
+      <c r="B873" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="874" spans="1:3">
-      <c r="A874" s="1">
-        <v>139</v>
-      </c>
-      <c r="B874" t="s">
-        <v>745</v>
+      <c r="C874" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="875" spans="1:3">
-      <c r="C875" t="s">
-        <v>746</v>
+      <c r="B875" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="876" spans="1:3">
       <c r="C876" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
     </row>
     <row r="877" spans="1:3">
-      <c r="C877" s="2" t="s">
-        <v>748</v>
+      <c r="B877" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="878" spans="1:3">
-      <c r="B878" t="s">
-        <v>749</v>
+      <c r="C878" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="879" spans="1:3">
-      <c r="C879" t="s">
-        <v>750</v>
+      <c r="A879" s="1">
+        <v>136</v>
+      </c>
+      <c r="B879" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="880" spans="1:3">
-      <c r="A880" s="1">
-        <v>140</v>
-      </c>
-      <c r="B880" t="s">
-        <v>751</v>
+      <c r="C880" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="881" spans="1:3">
       <c r="C881" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
     </row>
     <row r="882" spans="1:3">
       <c r="C882" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="883" spans="1:3">
-      <c r="C883" s="3" t="s">
-        <v>754</v>
+      <c r="A883" s="1">
+        <v>137</v>
+      </c>
+      <c r="B883" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="884" spans="1:3">
-      <c r="A884" s="1">
-        <v>141</v>
-      </c>
-      <c r="B884" t="s">
-        <v>755</v>
+      <c r="C884" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="885" spans="1:3">
       <c r="C885" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
     </row>
     <row r="886" spans="1:3">
       <c r="C886" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
     </row>
     <row r="887" spans="1:3">
+      <c r="A887" s="1">
+        <v>138</v>
+      </c>
       <c r="B887" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
     </row>
     <row r="888" spans="1:3">
       <c r="C888" t="s">
-        <v>759</v>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3">
+      <c r="A889" s="1">
+        <v>139</v>
+      </c>
+      <c r="B889" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3">
+      <c r="C890" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3">
+      <c r="C891" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3">
+      <c r="C892" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3">
+      <c r="B893" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3">
+      <c r="C894" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="895" spans="1:3">
       <c r="A895" s="1">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B895" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="896" spans="1:3">
       <c r="C896" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3">
+      <c r="C897" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3">
+      <c r="C898" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3">
+      <c r="A899" s="1">
+        <v>141</v>
+      </c>
+      <c r="B899" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3">
+      <c r="C900" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3">
+      <c r="C901" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3">
+      <c r="B902" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3">
+      <c r="C903" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3">
+      <c r="A910" s="1">
+        <v>142</v>
+      </c>
+      <c r="B910" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3">
+      <c r="C911" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="897" spans="1:4">
-      <c r="B897" t="s">
+    <row r="912" spans="1:3">
+      <c r="B912" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="898" spans="1:4">
-      <c r="C898" t="s">
+    <row r="913" spans="1:4">
+      <c r="C913" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="899" spans="1:4">
-      <c r="B899" t="s">
+    <row r="914" spans="1:4">
+      <c r="B914" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="900" spans="1:4">
-      <c r="C900" t="s">
+    <row r="915" spans="1:4">
+      <c r="C915" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="901" spans="1:4">
-      <c r="A901" s="1">
+    <row r="916" spans="1:4">
+      <c r="A916" s="1">
         <v>143</v>
       </c>
-      <c r="B901" t="s">
+      <c r="B916" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="902" spans="1:4">
-      <c r="C902" t="s">
+    <row r="917" spans="1:4">
+      <c r="C917" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="903" spans="1:4">
-      <c r="C903" t="s">
+    <row r="918" spans="1:4">
+      <c r="C918" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="904" spans="1:4">
-      <c r="D904" t="s">
+    <row r="919" spans="1:4">
+      <c r="D919" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="905" spans="1:4">
-      <c r="A905" s="1">
+    <row r="920" spans="1:4">
+      <c r="A920" s="1">
         <v>144</v>
       </c>
-      <c r="B905" t="s">
+      <c r="B920" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="906" spans="1:4">
-      <c r="C906" t="s">
+    <row r="921" spans="1:4">
+      <c r="C921" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="907" spans="1:4">
-      <c r="C907" t="s">
+    <row r="922" spans="1:4">
+      <c r="C922" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="908" spans="1:4">
-      <c r="B908" t="s">
+    <row r="923" spans="1:4">
+      <c r="B923" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="909" spans="1:4">
-      <c r="C909" t="s">
+    <row r="924" spans="1:4">
+      <c r="C924" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="910" spans="1:4">
-      <c r="A910" s="1">
+    <row r="925" spans="1:4">
+      <c r="A925" s="1">
         <v>145</v>
       </c>
-      <c r="B910" t="s">
+      <c r="B925" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="911" spans="1:4">
-      <c r="C911" t="s">
+    <row r="926" spans="1:4">
+      <c r="C926" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="912" spans="1:4">
-      <c r="C912" t="s">
+    <row r="927" spans="1:4">
+      <c r="C927" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="913" spans="1:3">
-      <c r="B913" t="s">
+    <row r="928" spans="1:4">
+      <c r="B928" t="s">
         <v>778</v>
-      </c>
-    </row>
-    <row r="914" spans="1:3">
-      <c r="C914" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="915" spans="1:3">
-      <c r="A915" s="1">
-        <v>146</v>
-      </c>
-      <c r="B915" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="916" spans="1:3">
-      <c r="C916" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="917" spans="1:3">
-      <c r="C917" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="918" spans="1:3">
-      <c r="C918" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="919" spans="1:3">
-      <c r="C919" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="920" spans="1:3">
-      <c r="A920" s="1">
-        <v>147</v>
-      </c>
-      <c r="B920" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="921" spans="1:3">
-      <c r="C921" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="922" spans="1:3">
-      <c r="B922" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="923" spans="1:3">
-      <c r="C923" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="924" spans="1:3">
-      <c r="B924" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="925" spans="1:3">
-      <c r="C925" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="926" spans="1:3">
-      <c r="B926" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="927" spans="1:3">
-      <c r="C927" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="928" spans="1:3">
-      <c r="A928" s="1">
-        <v>148</v>
-      </c>
-      <c r="B928" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="929" spans="1:3">
       <c r="C929" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
     </row>
     <row r="930" spans="1:3">
-      <c r="C930" t="s">
-        <v>799</v>
+      <c r="A930" s="1">
+        <v>146</v>
+      </c>
+      <c r="B930" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="931" spans="1:3">
-      <c r="A931" s="1">
-        <v>149</v>
-      </c>
-      <c r="B931" t="s">
-        <v>800</v>
+      <c r="C931" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="932" spans="1:3">
       <c r="C932" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
     </row>
     <row r="933" spans="1:3">
-      <c r="A933" s="1">
-        <v>150</v>
-      </c>
-      <c r="B933" t="s">
-        <v>802</v>
+      <c r="C933" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="934" spans="1:3">
       <c r="C934" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
     </row>
     <row r="935" spans="1:3">
-      <c r="C935" t="s">
-        <v>804</v>
+      <c r="A935" s="1">
+        <v>147</v>
+      </c>
+      <c r="B935" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="936" spans="1:3">
       <c r="C936" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
     </row>
     <row r="937" spans="1:3">
-      <c r="C937" t="s">
-        <v>806</v>
+      <c r="B937" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="938" spans="1:3">
-      <c r="A938" s="1">
-        <v>151</v>
-      </c>
-      <c r="B938" t="s">
-        <v>807</v>
+      <c r="C938" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="939" spans="1:3">
-      <c r="C939" t="s">
-        <v>808</v>
+      <c r="B939" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="940" spans="1:3">
-      <c r="B940" t="s">
-        <v>809</v>
+      <c r="C940" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="941" spans="1:3">
-      <c r="C941" t="s">
-        <v>810</v>
+      <c r="B941" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="942" spans="1:3">
-      <c r="B942" t="s">
-        <v>811</v>
+      <c r="C942" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="943" spans="1:3">
-      <c r="C943" t="s">
-        <v>812</v>
+      <c r="A943" s="1">
+        <v>148</v>
+      </c>
+      <c r="B943" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="944" spans="1:3">
-      <c r="A944" s="1">
-        <v>152</v>
-      </c>
-      <c r="B944" t="s">
-        <v>818</v>
+      <c r="C944" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="945" spans="1:3">
       <c r="C945" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
     </row>
     <row r="946" spans="1:3">
-      <c r="C946" t="s">
-        <v>820</v>
+      <c r="A946" s="1">
+        <v>149</v>
+      </c>
+      <c r="B946" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="947" spans="1:3">
       <c r="C947" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
     </row>
     <row r="948" spans="1:3">
       <c r="A948" s="1">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B948" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
     </row>
     <row r="949" spans="1:3">
       <c r="C949" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
     </row>
     <row r="950" spans="1:3">
       <c r="C950" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
     </row>
     <row r="951" spans="1:3">
       <c r="C951" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
     </row>
     <row r="952" spans="1:3">
-      <c r="A952" s="1">
-        <v>154</v>
-      </c>
-      <c r="B952" t="s">
-        <v>826</v>
+      <c r="C952" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="953" spans="1:3">
-      <c r="C953" s="3" t="s">
-        <v>827</v>
+      <c r="A953" s="1">
+        <v>151</v>
+      </c>
+      <c r="B953" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="954" spans="1:3">
       <c r="C954" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
     </row>
     <row r="955" spans="1:3">
-      <c r="A955" s="1">
-        <v>155</v>
-      </c>
       <c r="B955" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
     </row>
     <row r="956" spans="1:3">
       <c r="C956" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
     </row>
     <row r="957" spans="1:3">
-      <c r="C957" t="s">
-        <v>830</v>
+      <c r="B957" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="958" spans="1:3">
-      <c r="B958" t="s">
-        <v>832</v>
+      <c r="C958" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="959" spans="1:3">
-      <c r="C959" s="3" t="s">
-        <v>833</v>
+      <c r="A959" s="1">
+        <v>152</v>
+      </c>
+      <c r="B959" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="960" spans="1:3">
-      <c r="A960" s="1">
-        <v>156</v>
-      </c>
-      <c r="B960" t="s">
-        <v>834</v>
+      <c r="C960" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="961" spans="1:3">
       <c r="C961" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
     </row>
     <row r="962" spans="1:3">
-      <c r="A962" s="1">
-        <v>157</v>
-      </c>
-      <c r="B962" t="s">
-        <v>836</v>
+      <c r="C962" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="963" spans="1:3">
-      <c r="C963" t="s">
-        <v>837</v>
+      <c r="A963" s="1">
+        <v>153</v>
+      </c>
+      <c r="B963" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="964" spans="1:3">
       <c r="C964" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
     </row>
     <row r="965" spans="1:3">
-      <c r="B965" s="3" t="s">
-        <v>839</v>
+      <c r="C965" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="966" spans="1:3">
       <c r="C966" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="967" spans="1:3">
+      <c r="A967" s="1">
+        <v>154</v>
+      </c>
       <c r="B967" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
     </row>
     <row r="968" spans="1:3">
-      <c r="C968" t="s">
-        <v>842</v>
+      <c r="C968" s="3" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="969" spans="1:3">
-      <c r="B969" t="s">
-        <v>843</v>
+      <c r="C969" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="970" spans="1:3">
-      <c r="C970" t="s">
-        <v>844</v>
+      <c r="A970" s="1">
+        <v>155</v>
+      </c>
+      <c r="B970" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="971" spans="1:3">
-      <c r="A971" s="1">
-        <v>158</v>
-      </c>
-      <c r="B971" t="s">
-        <v>845</v>
+      <c r="C971" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="972" spans="1:3">
       <c r="C972" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
     </row>
     <row r="973" spans="1:3">
       <c r="B973" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
     </row>
     <row r="974" spans="1:3">
-      <c r="C974" t="s">
-        <v>848</v>
+      <c r="C974" s="3" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="975" spans="1:3">
+      <c r="A975" s="1">
+        <v>156</v>
+      </c>
       <c r="B975" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
     </row>
     <row r="976" spans="1:3">
       <c r="C976" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="977" spans="1:3">
+      <c r="A977" s="1">
+        <v>157</v>
+      </c>
       <c r="B977" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
     </row>
     <row r="978" spans="1:3">
       <c r="C978" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
     </row>
     <row r="979" spans="1:3">
-      <c r="A979" s="1">
-        <v>159</v>
-      </c>
-      <c r="B979" t="s">
-        <v>853</v>
+      <c r="C979" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="980" spans="1:3">
-      <c r="C980" s="15" t="s">
-        <v>854</v>
+      <c r="B980" s="3" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="981" spans="1:3">
       <c r="C981" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
     </row>
     <row r="982" spans="1:3">
-      <c r="A982" s="1">
-        <v>160</v>
-      </c>
       <c r="B982" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
     </row>
     <row r="983" spans="1:3">
       <c r="C983" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
     </row>
     <row r="984" spans="1:3">
       <c r="B984" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
     </row>
     <row r="985" spans="1:3">
       <c r="C985" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
     </row>
     <row r="986" spans="1:3">
       <c r="A986" s="1">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B986" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
     <row r="987" spans="1:3">
       <c r="C987" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
     </row>
     <row r="988" spans="1:3">
       <c r="B988" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
     </row>
     <row r="989" spans="1:3">
       <c r="C989" t="s">
-        <v>862</v>
+        <v>848</v>
       </c>
     </row>
     <row r="990" spans="1:3">
-      <c r="C990" t="s">
-        <v>863</v>
+      <c r="B990" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="991" spans="1:3">
-      <c r="B991" t="s">
-        <v>864</v>
+      <c r="C991" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="992" spans="1:3">
-      <c r="C992" t="s">
-        <v>865</v>
+      <c r="B992" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="993" spans="1:3">
-      <c r="B993" t="s">
-        <v>866</v>
+      <c r="C993" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="994" spans="1:3">
-      <c r="C994" t="s">
-        <v>867</v>
+      <c r="A994" s="1">
+        <v>159</v>
+      </c>
+      <c r="B994" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="995" spans="1:3">
-      <c r="B995" t="s">
-        <v>868</v>
+      <c r="C995" s="15" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="996" spans="1:3">
       <c r="C996" t="s">
-        <v>869</v>
+        <v>855</v>
       </c>
     </row>
     <row r="997" spans="1:3">
       <c r="A997" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B997" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
     </row>
     <row r="998" spans="1:3">
       <c r="C998" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
     </row>
     <row r="999" spans="1:3">
       <c r="B999" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
       <c r="C1000" t="s">
-        <v>873</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
       <c r="A1001" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1001" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
       <c r="C1002" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1003" spans="1:3">
       <c r="B1003" t="s">
-        <v>877</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
       <c r="C1004" t="s">
-        <v>878</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
       <c r="C1005" t="s">
-        <v>879</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
       <c r="B1006" t="s">
-        <v>880</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1007" spans="1:3">
       <c r="C1007" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3">
+      <c r="B1008" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3">
+      <c r="C1009" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3">
+      <c r="B1010" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3">
+      <c r="C1011" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3">
+      <c r="A1012" s="1">
+        <v>162</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3">
+      <c r="C1013" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3">
+      <c r="B1014" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3">
+      <c r="C1015" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3">
+      <c r="A1016" s="1">
+        <v>163</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3">
+      <c r="C1017" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3">
+      <c r="B1018" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3">
+      <c r="C1019" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3">
+      <c r="C1020" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3">
+      <c r="B1021" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3">
+      <c r="C1022" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="1008" spans="1:3">
-      <c r="A1008" s="1">
+    <row r="1023" spans="1:3">
+      <c r="A1023" s="1">
         <v>164</v>
       </c>
-      <c r="B1008" t="s">
+      <c r="B1023" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="1009" spans="3:3">
-      <c r="C1009" t="s">
+    <row r="1024" spans="1:3">
+      <c r="C1024" t="s">
         <v>883</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3">
+      <c r="A1025" s="1">
+        <v>165</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3">
+      <c r="C1026" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3">
+      <c r="A1027" s="1">
+        <v>166</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3">
+      <c r="C1028" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3">
+      <c r="C1029" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3">
+      <c r="C1030" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3">
+      <c r="C1031" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3">
+      <c r="C1032" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3">
+      <c r="A1033" s="1">
+        <v>167</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3">
+      <c r="C1034" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3">
+      <c r="B1035" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3">
+      <c r="C1036" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3">
+      <c r="B1037" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3">
+      <c r="C1038" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3">
+      <c r="A1039" s="1">
+        <v>168</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3">
+      <c r="C1040" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4">
+      <c r="A1041" s="1">
+        <v>169</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4">
+      <c r="C1042" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4">
+      <c r="D1043" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4">
+      <c r="C1044" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4">
+      <c r="D1045" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4">
+      <c r="C1046" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4">
+      <c r="D1047" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4">
+      <c r="A1048" s="1">
+        <v>170</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4">
+      <c r="C1049" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4">
+      <c r="C1050" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1075" spans="2:3">
+      <c r="B1075" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1076" spans="2:3">
+      <c r="C1076" t="s">
+        <v>913</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75DF97BB-1635-43AF-90D4-10BBCCEA577A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70DB5A4-D08F-4845-8976-5F1A4A6A49C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="927">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -2213,10 +2213,6 @@
   </si>
   <si>
     <t>(Backus-Naur Form，バッカス・ナウア記法)は、コンピュータ言語の構文などを記述するために使用される表記法で、プログラム言語ALGOL(アルゴル)の文法を表現するためにジョン・バッカスなどによって考案されました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「::＝」は等号「|」は論理和(OR)を表しているので、問題文のBNFは「&lt;S&gt;は、01または0&lt;S&gt;1である」と解釈します。また&lt;S&gt;は両辺に表れているので再帰的に定義されていることになります。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5922,10 +5918,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ドロップシッピング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>ドロップシッピングは、ネットショップ側で在庫を持たず、注文が入った時点で、商品をメーカーや卸売り業者から</t>
     </r>
@@ -6165,6 +6157,105 @@
   </si>
   <si>
     <t>迷惑メールの温床になっているオープンリレーサーバのIPアドレスや、スパム行為の発信元IPアドレスを一覧を公表したものです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「::＝」は等号、「|」は論理和(OR)を表しているので、問題文のBNFは「&lt;S&gt;は、01または0&lt;S&gt;1である」と解釈します。また&lt;S&gt;は両辺に表れているので再帰的に定義されていることになります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大規模なデータを複数のコンピューターで分散処理するオープンソースのフレームワークです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップシッピング Drop Shipping</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派遣と準委任の違い</t>
+    <rPh sb="0" eb="2">
+      <t>ハケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュンイニン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指揮命令者の違いです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準委任と請負契約の違い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請負契約では原則として成果物が求められます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランザクション遷移状態</t>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">アボート </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>トランザクションの途中で処理を強制的に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>してトランザクションをロールバックする処理</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランレングス符号化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とは、ある連続したデータを、そのデータ一つ分と連続した長さで表現することで圧縮する方法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例えば、「AAAAABBBBBBBBBAAA」は「A5B9A3」と表せます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データマイニング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Data Mining)は、データウェアハウスに蓄積されている大量の生データを統計学的手法で分析し、今まで知られていなかったデータの規則や因果関係を見つけ出す手法です。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7057,13 +7148,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>727</xdr:row>
+      <xdr:row>728</xdr:row>
       <xdr:rowOff>62754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>265134</xdr:colOff>
-      <xdr:row>735</xdr:row>
+      <xdr:row>736</xdr:row>
       <xdr:rowOff>95639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7106,13 +7197,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>738</xdr:row>
+      <xdr:row>739</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>265252</xdr:colOff>
-      <xdr:row>746</xdr:row>
+      <xdr:row>747</xdr:row>
       <xdr:rowOff>25265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7155,14 +7246,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>903</xdr:row>
+      <xdr:row>904</xdr:row>
       <xdr:rowOff>74544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>558285</xdr:colOff>
-      <xdr:row>908</xdr:row>
-      <xdr:rowOff>65699</xdr:rowOff>
+      <xdr:row>909</xdr:row>
+      <xdr:rowOff>65698</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7253,13 +7344,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>1050</xdr:row>
+      <xdr:row>1051</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47543</xdr:colOff>
-      <xdr:row>1073</xdr:row>
+      <xdr:row>1074</xdr:row>
       <xdr:rowOff>39550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7343,6 +7434,50 @@
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1085</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>632895</xdr:colOff>
+      <xdr:row>1092</xdr:row>
+      <xdr:rowOff>228429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C11B95-10A4-2C99-53B7-D1521341F17E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="646043" y="251625652"/>
+          <a:ext cx="5014395" cy="1851820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7613,10 +7748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X1076"/>
+  <dimension ref="A2:X1100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A261" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P273" sqref="P272:P273"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1082" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1102" sqref="C1102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7659,17 +7794,17 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7931,7 +8066,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="C64" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -8234,7 +8369,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="C136" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -8499,7 +8634,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="C187" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -8893,17 +9028,17 @@
     </row>
     <row r="258" spans="3:4">
       <c r="D258" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="259" spans="3:4">
       <c r="D259" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="260" spans="3:4">
       <c r="D260" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="261" spans="3:4">
@@ -8918,12 +9053,12 @@
     </row>
     <row r="263" spans="3:4">
       <c r="C263" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="264" spans="3:4">
       <c r="D264" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -8977,7 +9112,7 @@
     </row>
     <row r="300" spans="1:4">
       <c r="D300" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -9032,12 +9167,12 @@
     </row>
     <row r="311" spans="1:4">
       <c r="C311" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="D312" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -9177,7 +9312,7 @@
       </c>
       <c r="M329" s="7"/>
       <c r="N329" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O329" s="13"/>
       <c r="P329" s="13"/>
@@ -9207,7 +9342,7 @@
       </c>
       <c r="M330" s="1"/>
       <c r="N330" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O330" s="13"/>
       <c r="P330" s="13"/>
@@ -9230,7 +9365,7 @@
       <c r="K331" s="1"/>
       <c r="M331" s="1"/>
       <c r="N331" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O331" s="6"/>
       <c r="P331" s="6"/>
@@ -9256,7 +9391,7 @@
       <c r="L332" s="10"/>
       <c r="M332" s="11"/>
       <c r="N332" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O332" s="10"/>
       <c r="P332" s="10"/>
@@ -9281,7 +9416,7 @@
       <c r="G333" s="13"/>
       <c r="H333" s="14"/>
       <c r="I333" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J333" s="13"/>
       <c r="K333" s="14"/>
@@ -9290,7 +9425,7 @@
       </c>
       <c r="M333" s="14"/>
       <c r="N333" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O333" s="13"/>
       <c r="P333" s="13"/>
@@ -9322,7 +9457,7 @@
       <c r="L334" s="13"/>
       <c r="M334" s="14"/>
       <c r="N334" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O334" s="13"/>
       <c r="P334" s="13"/>
@@ -9344,7 +9479,7 @@
       </c>
       <c r="H335" s="1"/>
       <c r="I335" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K335" s="1"/>
       <c r="L335" t="s">
@@ -9352,7 +9487,7 @@
       </c>
       <c r="M335" s="1"/>
       <c r="N335" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O335" s="13"/>
       <c r="P335" s="13"/>
@@ -9386,7 +9521,7 @@
       </c>
       <c r="M336" s="11"/>
       <c r="N336" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="O336" s="13"/>
       <c r="P336" s="13"/>
@@ -9478,12 +9613,12 @@
     </row>
     <row r="350" spans="1:3">
       <c r="C350" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="C351" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -9817,7 +9952,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="C416" t="s">
-        <v>352</v>
+        <v>912</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -9825,12 +9960,12 @@
         <v>64</v>
       </c>
       <c r="B417" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="C418" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -9838,27 +9973,27 @@
         <v>65</v>
       </c>
       <c r="B419" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="C420" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="B421" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="C422" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="C423" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -9866,32 +10001,32 @@
         <v>66</v>
       </c>
       <c r="B424" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="C425" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="C426" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="C427" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="C428" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="C429" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -9899,17 +10034,17 @@
         <v>67</v>
       </c>
       <c r="B430" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="C431" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="C432" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9917,43 +10052,43 @@
         <v>68</v>
       </c>
       <c r="B433" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C433" s="3"/>
     </row>
     <row r="434" spans="1:4">
       <c r="C434" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="C435" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="C436" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="D437" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="C438" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="D439" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="C440" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -9961,32 +10096,32 @@
         <v>69</v>
       </c>
       <c r="B441" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="C442" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="B443" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="C444" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="B445" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="C446" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -9994,37 +10129,37 @@
         <v>70</v>
       </c>
       <c r="B447" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="C448" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="C449" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="B450" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="C451" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="B452" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="C453" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -10032,57 +10167,57 @@
         <v>71</v>
       </c>
       <c r="B454" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="C455" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="C456" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="B457" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="C458" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="C459" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="C460" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="B461" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="C462" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="B463" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="C464" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -10090,12 +10225,12 @@
         <v>72</v>
       </c>
       <c r="B465" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="C466" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -10103,32 +10238,32 @@
         <v>73</v>
       </c>
       <c r="B467" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="C468" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="C469" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="B470" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="C471" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="C472" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -10136,37 +10271,37 @@
         <v>74</v>
       </c>
       <c r="B473" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="C474" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="C475" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="B476" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="C477" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="B478" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="C479" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -10174,27 +10309,27 @@
         <v>75</v>
       </c>
       <c r="B480" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="C481" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="B482" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="C483" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="C484" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -10202,32 +10337,32 @@
         <v>76</v>
       </c>
       <c r="B485" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="C486" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="B487" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="C488" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="B489" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="C490" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -10235,17 +10370,17 @@
         <v>77</v>
       </c>
       <c r="B491" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="C492" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="C493" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -10253,32 +10388,32 @@
         <v>78</v>
       </c>
       <c r="B494" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="C495" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="B496" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="C497" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="B498" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="C499" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -10286,12 +10421,12 @@
         <v>79</v>
       </c>
       <c r="B500" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="C501" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -10299,67 +10434,67 @@
         <v>80</v>
       </c>
       <c r="B502" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="C503" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="C504" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="C505" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="C506" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="B507" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="C508" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="B509" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="C510" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="B511" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="C512" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="B513" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="C514" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -10367,17 +10502,17 @@
         <v>81</v>
       </c>
       <c r="B515" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="C516" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="C517" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -10385,22 +10520,22 @@
         <v>82</v>
       </c>
       <c r="B518" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="C519" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="C520" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="C521" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -10408,57 +10543,57 @@
         <v>83</v>
       </c>
       <c r="B522" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="C523" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="524" spans="1:3">
       <c r="B524" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="C525" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="B526" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="C527" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="B528" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="529" spans="1:3">
       <c r="C529" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="530" spans="1:3">
       <c r="C530" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="531" spans="1:3">
       <c r="B531" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="532" spans="1:3">
       <c r="C532" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -10466,52 +10601,52 @@
         <v>84</v>
       </c>
       <c r="B533" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="C534" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="535" spans="1:3">
       <c r="C535" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="C536" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="537" spans="1:3">
       <c r="B537" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="C538" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="539" spans="1:3">
       <c r="B539" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="C540" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="B541" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="C542" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -10519,12 +10654,12 @@
         <v>85</v>
       </c>
       <c r="B543" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="C544" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10532,47 +10667,47 @@
         <v>86</v>
       </c>
       <c r="B545" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="546" spans="1:4">
       <c r="C546" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="547" spans="1:4">
       <c r="D547" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="C548" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="549" spans="1:4">
       <c r="D549" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="550" spans="1:4">
       <c r="C550" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="D551" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="C552" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="D553" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10580,42 +10715,42 @@
         <v>87</v>
       </c>
       <c r="B554" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="555" spans="1:4">
       <c r="C555" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="C556" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="557" spans="1:4">
       <c r="B557" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="558" spans="1:4">
       <c r="C558" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="559" spans="1:4">
       <c r="B559" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="C560" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="561" spans="1:4">
       <c r="C561" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -10623,17 +10758,17 @@
         <v>88</v>
       </c>
       <c r="B562" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="563" spans="1:4">
       <c r="C563" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="C564" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="565" spans="1:4">
@@ -10641,47 +10776,47 @@
         <v>89</v>
       </c>
       <c r="B565" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="566" spans="1:4">
       <c r="C566" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="C567" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="568" spans="1:4">
       <c r="D568" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="569" spans="1:4">
       <c r="C569" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="570" spans="1:4">
       <c r="D570" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="C571" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="572" spans="1:4">
       <c r="D572" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="C573" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="574" spans="1:4">
@@ -10689,27 +10824,27 @@
         <v>90</v>
       </c>
       <c r="B574" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="C575" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="586" spans="2:3">
       <c r="B586" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="587" spans="2:3">
       <c r="C587" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="588" spans="2:3">
       <c r="C588" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -10717,17 +10852,17 @@
         <v>91</v>
       </c>
       <c r="B599" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="600" spans="1:3">
       <c r="C600" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="601" spans="1:3">
       <c r="C601" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -10735,17 +10870,17 @@
         <v>92</v>
       </c>
       <c r="B612" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="613" spans="1:3">
       <c r="C613" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="614" spans="1:3">
       <c r="C614" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -10753,22 +10888,22 @@
         <v>93</v>
       </c>
       <c r="B626" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="627" spans="1:3">
       <c r="C627" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="628" spans="1:3">
       <c r="C628" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="629" spans="1:3">
       <c r="C629" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="630" spans="1:3">
@@ -10776,27 +10911,27 @@
         <v>94</v>
       </c>
       <c r="B630" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="C631" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="632" spans="1:3">
       <c r="C632" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="633" spans="1:3">
       <c r="B633" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="634" spans="1:3">
       <c r="C634" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="635" spans="1:3">
@@ -10804,12 +10939,12 @@
         <v>95</v>
       </c>
       <c r="B635" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="636" spans="1:3">
       <c r="C636" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="654" spans="1:3">
@@ -10817,52 +10952,52 @@
         <v>96</v>
       </c>
       <c r="B654" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="655" spans="1:3">
       <c r="C655" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="656" spans="1:3">
       <c r="B656" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="657" spans="1:3">
       <c r="C657" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="658" spans="1:3">
       <c r="C658" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="659" spans="1:3">
       <c r="B659" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="660" spans="1:3">
       <c r="C660" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="C661" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="662" spans="1:3">
       <c r="B662" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="663" spans="1:3">
       <c r="C663" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="664" spans="1:3">
@@ -10870,17 +11005,17 @@
         <v>97</v>
       </c>
       <c r="B664" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="665" spans="1:3">
       <c r="C665" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="666" spans="1:3">
       <c r="C666" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="667" spans="1:3">
@@ -10888,12 +11023,12 @@
         <v>98</v>
       </c>
       <c r="B667" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="668" spans="1:3">
       <c r="C668" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="669" spans="1:3">
@@ -10901,67 +11036,67 @@
         <v>99</v>
       </c>
       <c r="B669" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="670" spans="1:3">
       <c r="C670" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="671" spans="1:3">
       <c r="C671" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="672" spans="1:3">
       <c r="B672" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="673" spans="1:4">
       <c r="C673" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="674" spans="1:4">
       <c r="B674" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="675" spans="1:4">
       <c r="C675" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="676" spans="1:4">
       <c r="C676" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="677" spans="1:4">
       <c r="D677" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="678" spans="1:4">
       <c r="C678" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="679" spans="1:4">
       <c r="D679" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="680" spans="1:4">
       <c r="B680" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="681" spans="1:4">
       <c r="C681" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="682" spans="1:4">
@@ -10969,7 +11104,7 @@
         <v>100</v>
       </c>
       <c r="B682" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="689" spans="1:3">
@@ -10977,37 +11112,37 @@
         <v>101</v>
       </c>
       <c r="B689" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="690" spans="1:3">
       <c r="C690" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="691" spans="1:3">
       <c r="C691" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="692" spans="1:3">
       <c r="B692" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="693" spans="1:3">
       <c r="C693" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="694" spans="1:3">
       <c r="B694" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="695" spans="1:3">
       <c r="C695" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="696" spans="1:3">
@@ -11015,12 +11150,12 @@
         <v>102</v>
       </c>
       <c r="B696" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="697" spans="1:3">
       <c r="C697" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="698" spans="1:3">
@@ -11028,12 +11163,12 @@
         <v>103</v>
       </c>
       <c r="B698" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="699" spans="1:3">
       <c r="C699" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="700" spans="1:3">
@@ -11041,17 +11176,17 @@
         <v>104</v>
       </c>
       <c r="B700" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="701" spans="1:3">
       <c r="C701" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="702" spans="1:3">
       <c r="C702" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="703" spans="1:3">
@@ -11059,7 +11194,7 @@
         <v>105</v>
       </c>
       <c r="B703" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="716" spans="1:3">
@@ -11067,17 +11202,17 @@
         <v>106</v>
       </c>
       <c r="B716" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="717" spans="1:3">
       <c r="C717" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="718" spans="1:3">
       <c r="C718" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="719" spans="1:3">
@@ -11085,17 +11220,17 @@
         <v>107</v>
       </c>
       <c r="B719" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="720" spans="1:3">
       <c r="C720" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="721" spans="1:3">
       <c r="C721" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="722" spans="1:3">
@@ -11103,796 +11238,796 @@
         <v>108</v>
       </c>
       <c r="B722" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="723" spans="1:3">
       <c r="C723" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="724" spans="1:3">
       <c r="C724" t="s">
-        <v>592</v>
+        <v>913</v>
       </c>
     </row>
     <row r="725" spans="1:3">
       <c r="C725" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="C726" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3">
+      <c r="A727" s="1">
+        <v>109</v>
+      </c>
+      <c r="B727" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="726" spans="1:3">
-      <c r="A726" s="1">
-        <v>109</v>
-      </c>
-      <c r="B726" t="s">
+    <row r="728" spans="1:3">
+      <c r="C728" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="727" spans="1:3">
-      <c r="C727" t="s">
+    <row r="738" spans="1:3">
+      <c r="B738" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
-      <c r="B737" t="s">
+    <row r="739" spans="1:3">
+      <c r="C739" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="738" spans="1:3">
-      <c r="C738" t="s">
+    <row r="749" spans="1:3">
+      <c r="A749" s="1">
+        <v>110</v>
+      </c>
+      <c r="B749" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="748" spans="1:3">
-      <c r="A748" s="1">
-        <v>110</v>
-      </c>
-      <c r="B748" t="s">
+    <row r="750" spans="1:3">
+      <c r="C750" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="749" spans="1:3">
-      <c r="C749" t="s">
+    <row r="751" spans="1:3">
+      <c r="B751" t="s">
         <v>599</v>
-      </c>
-    </row>
-    <row r="750" spans="1:3">
-      <c r="B750" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="751" spans="1:3">
-      <c r="C751" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="752" spans="1:3">
       <c r="C752" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3">
+      <c r="C753" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3">
+      <c r="B754" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="753" spans="1:3">
-      <c r="B753" t="s">
+    <row r="755" spans="1:3">
+      <c r="C755" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="754" spans="1:3">
-      <c r="C754" t="s">
+    <row r="756" spans="1:3">
+      <c r="A756" s="1">
+        <v>111</v>
+      </c>
+      <c r="B756" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="755" spans="1:3">
-      <c r="A755" s="1">
-        <v>111</v>
-      </c>
-      <c r="B755" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="756" spans="1:3">
-      <c r="C756" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="757" spans="1:3">
       <c r="C757" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3">
+      <c r="C758" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3">
+      <c r="B759" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3">
+      <c r="C760" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="758" spans="1:3">
-      <c r="B758" t="s">
+    <row r="761" spans="1:3">
+      <c r="B761" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3">
+      <c r="C762" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="759" spans="1:3">
-      <c r="C759" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="760" spans="1:3">
-      <c r="B760" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="761" spans="1:3">
-      <c r="C761" t="s">
+    <row r="763" spans="1:3">
+      <c r="A763" s="1">
+        <v>112</v>
+      </c>
+      <c r="B763" t="s">
         <v>611</v>
-      </c>
-    </row>
-    <row r="762" spans="1:3">
-      <c r="A762" s="1">
-        <v>112</v>
-      </c>
-      <c r="B762" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="763" spans="1:3">
-      <c r="C763" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="764" spans="1:3">
       <c r="C764" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="765" spans="1:3">
       <c r="C765" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3">
+      <c r="C766" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3">
+      <c r="C767" s="4" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="766" spans="1:3">
-      <c r="C766" s="4" t="s">
+    <row r="768" spans="1:3">
+      <c r="A768" s="1">
+        <v>113</v>
+      </c>
+      <c r="B768" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="767" spans="1:3">
-      <c r="A767" s="1">
-        <v>113</v>
-      </c>
-      <c r="B767" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="768" spans="1:3">
-      <c r="C768" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="769" spans="1:3">
       <c r="C769" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3">
+      <c r="C770" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3">
+      <c r="A771" s="1">
+        <v>114</v>
+      </c>
+      <c r="B771" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="770" spans="1:3">
-      <c r="A770" s="1">
-        <v>114</v>
-      </c>
-      <c r="B770" t="s">
+    <row r="772" spans="1:3">
+      <c r="C772" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="771" spans="1:3">
-      <c r="C771" t="s">
+    <row r="773" spans="1:3">
+      <c r="A773" s="1">
+        <v>115</v>
+      </c>
+      <c r="B773" t="s">
         <v>621</v>
-      </c>
-    </row>
-    <row r="772" spans="1:3">
-      <c r="A772" s="1">
-        <v>115</v>
-      </c>
-      <c r="B772" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="773" spans="1:3">
-      <c r="C773" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="774" spans="1:3">
       <c r="C774" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3">
+      <c r="C775" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3">
+      <c r="C776" s="4" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="775" spans="1:3">
-      <c r="C775" s="4" t="s">
+    <row r="777" spans="1:3">
+      <c r="A777" s="1">
+        <v>116</v>
+      </c>
+      <c r="B777" t="s">
         <v>625</v>
-      </c>
-    </row>
-    <row r="776" spans="1:3">
-      <c r="A776" s="1">
-        <v>116</v>
-      </c>
-      <c r="B776" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="777" spans="1:3">
-      <c r="C777" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="778" spans="1:3">
       <c r="C778" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3">
+      <c r="C779" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3">
+      <c r="A780" s="1">
+        <v>117</v>
+      </c>
+      <c r="B780" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="779" spans="1:3">
-      <c r="A779" s="1">
-        <v>117</v>
-      </c>
-      <c r="B779" t="s">
+    <row r="781" spans="1:3">
+      <c r="C781" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="780" spans="1:3">
-      <c r="C780" t="s">
+    <row r="782" spans="1:3">
+      <c r="B782" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="781" spans="1:3">
-      <c r="B781" t="s">
+    <row r="783" spans="1:3">
+      <c r="C783" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="782" spans="1:3">
-      <c r="C782" t="s">
+    <row r="784" spans="1:3">
+      <c r="B784" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3">
+      <c r="C785" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="783" spans="1:3">
-      <c r="B783" t="s">
+    <row r="786" spans="1:3">
+      <c r="A786" s="1">
+        <v>118</v>
+      </c>
+      <c r="B786" t="s">
         <v>634</v>
-      </c>
-    </row>
-    <row r="784" spans="1:3">
-      <c r="C784" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="785" spans="1:3">
-      <c r="A785" s="1">
-        <v>118</v>
-      </c>
-      <c r="B785" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="786" spans="1:3">
-      <c r="C786" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="787" spans="1:3">
       <c r="C787" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3">
+      <c r="C788" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3">
+      <c r="A789" s="1">
+        <v>119</v>
+      </c>
+      <c r="B789" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="788" spans="1:3">
-      <c r="A788" s="1">
-        <v>119</v>
-      </c>
-      <c r="B788" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="789" spans="1:3">
-      <c r="C789" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="790" spans="1:3">
       <c r="C790" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="791" spans="1:3">
-      <c r="A791" s="1">
+      <c r="C791" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3">
+      <c r="A792" s="1">
         <v>120</v>
       </c>
-      <c r="B791" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="792" spans="1:3">
-      <c r="C792" t="s">
-        <v>644</v>
+      <c r="B792" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="793" spans="1:3">
       <c r="C793" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="794" spans="1:3">
       <c r="C794" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="795" spans="1:3">
-      <c r="A795" s="1">
+      <c r="C795" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3">
+      <c r="A796" s="1">
         <v>121</v>
       </c>
-      <c r="B795" t="s">
+      <c r="B796" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3">
+      <c r="C797" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="796" spans="1:3">
-      <c r="C796" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="797" spans="1:3">
-      <c r="B797" t="s">
+    <row r="798" spans="1:3">
+      <c r="B798" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3">
+      <c r="C799" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3">
+      <c r="B800" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="798" spans="1:3">
-      <c r="C798" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="799" spans="1:3">
-      <c r="B799" t="s">
+    <row r="801" spans="1:3">
+      <c r="C801" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="800" spans="1:3">
-      <c r="C800" t="s">
+    <row r="802" spans="1:3">
+      <c r="A802" s="1">
+        <v>122</v>
+      </c>
+      <c r="B802" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="801" spans="1:3">
-      <c r="A801" s="1">
-        <v>122</v>
-      </c>
-      <c r="B801" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="802" spans="1:3">
-      <c r="C802" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="803" spans="1:3">
       <c r="C803" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3">
+      <c r="C804" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3">
+      <c r="A805" s="1">
+        <v>123</v>
+      </c>
+      <c r="B805" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="804" spans="1:3">
-      <c r="A804" s="1">
-        <v>123</v>
-      </c>
-      <c r="B804" t="s">
+    <row r="806" spans="1:3">
+      <c r="C806" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3">
+      <c r="C807" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3">
+      <c r="B808" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="805" spans="1:3">
-      <c r="C805" t="s">
+    <row r="809" spans="1:3">
+      <c r="C809" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3">
+      <c r="A810" s="1">
+        <v>124</v>
+      </c>
+      <c r="B810" t="s">
         <v>660</v>
-      </c>
-    </row>
-    <row r="806" spans="1:3">
-      <c r="C806" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="807" spans="1:3">
-      <c r="B807" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="808" spans="1:3">
-      <c r="C808" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="809" spans="1:3">
-      <c r="A809" s="1">
-        <v>124</v>
-      </c>
-      <c r="B809" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="810" spans="1:3">
-      <c r="C810" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="811" spans="1:3">
       <c r="C811" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3">
+      <c r="C812" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3">
+      <c r="A813" s="1">
+        <v>125</v>
+      </c>
+      <c r="B813" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="812" spans="1:3">
-      <c r="A812" s="1">
-        <v>125</v>
-      </c>
-      <c r="B812" t="s">
+    <row r="814" spans="1:3">
+      <c r="C814" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="813" spans="1:3">
-      <c r="C813" t="s">
+    <row r="815" spans="1:3">
+      <c r="B815" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="814" spans="1:3">
-      <c r="B814" t="s">
+    <row r="816" spans="1:3">
+      <c r="C816" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="815" spans="1:3">
-      <c r="C815" t="s">
+    <row r="817" spans="1:3">
+      <c r="B817" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="816" spans="1:3">
-      <c r="B816" t="s">
+    <row r="818" spans="1:3">
+      <c r="C818" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3">
+      <c r="B819" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3">
+      <c r="C820" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="817" spans="1:3">
-      <c r="C817" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="818" spans="1:3">
-      <c r="B818" t="s">
+    <row r="821" spans="1:3">
+      <c r="A821" s="1">
+        <v>126</v>
+      </c>
+      <c r="B821" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3">
+      <c r="C822" s="2" t="s">
         <v>671</v>
-      </c>
-    </row>
-    <row r="819" spans="1:3">
-      <c r="C819" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="820" spans="1:3">
-      <c r="A820" s="1">
-        <v>126</v>
-      </c>
-      <c r="B820" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="821" spans="1:3">
-      <c r="C821" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="822" spans="1:3">
-      <c r="C822" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="823" spans="1:3">
       <c r="C823" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="824" spans="1:3">
       <c r="C824" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="825" spans="1:3">
       <c r="C825" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3">
+      <c r="C826" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3">
+      <c r="B827" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="826" spans="1:3">
-      <c r="B826" t="s">
+    <row r="828" spans="1:3">
+      <c r="C828" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3">
+      <c r="C829" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="827" spans="1:3">
-      <c r="C827" s="3" t="s">
+    <row r="830" spans="1:3">
+      <c r="A830" s="1">
+        <v>127</v>
+      </c>
+      <c r="B830" t="s">
         <v>680</v>
-      </c>
-    </row>
-    <row r="828" spans="1:3">
-      <c r="C828" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="829" spans="1:3">
-      <c r="A829" s="1">
-        <v>127</v>
-      </c>
-      <c r="B829" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="830" spans="1:3">
-      <c r="C830" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="831" spans="1:3">
       <c r="C831" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="832" spans="1:3">
       <c r="C832" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3">
+      <c r="C833" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3">
+      <c r="B834" t="s">
         <v>684</v>
-      </c>
-    </row>
-    <row r="833" spans="1:3">
-      <c r="B833" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="834" spans="1:3">
-      <c r="C834" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="835" spans="1:3">
       <c r="C835" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3">
+      <c r="C836" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3">
+      <c r="C837" s="4" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="836" spans="1:3">
-      <c r="C836" s="4" t="s">
+    <row r="838" spans="1:3">
+      <c r="B838" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="837" spans="1:3">
-      <c r="B837" t="s">
+    <row r="839" spans="1:3">
+      <c r="C839" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="838" spans="1:3">
-      <c r="C838" t="s">
+    <row r="840" spans="1:3">
+      <c r="A840" s="1">
+        <v>128</v>
+      </c>
+      <c r="B840" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="839" spans="1:3">
-      <c r="A839" s="1">
-        <v>128</v>
-      </c>
-      <c r="B839" t="s">
+    <row r="841" spans="1:3">
+      <c r="C841" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="840" spans="1:3">
-      <c r="C840" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="841" spans="1:3">
-      <c r="A841" s="1">
+    <row r="842" spans="1:3">
+      <c r="A842" s="1">
         <v>129</v>
       </c>
-      <c r="B841" t="s">
+      <c r="B842" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3">
+      <c r="C843" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="842" spans="1:3">
-      <c r="C842" t="s">
+    <row r="844" spans="1:3">
+      <c r="A844" s="1">
+        <v>130</v>
+      </c>
+      <c r="B844" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="843" spans="1:3">
-      <c r="A843" s="1">
-        <v>130</v>
-      </c>
-      <c r="B843" t="s">
+    <row r="845" spans="1:3">
+      <c r="C845" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="844" spans="1:3">
-      <c r="C844" t="s">
+    <row r="846" spans="1:3">
+      <c r="A846" s="1">
+        <v>131</v>
+      </c>
+      <c r="B846" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3">
+      <c r="C847" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3">
+      <c r="B848" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="845" spans="1:3">
-      <c r="A845" s="1">
-        <v>131</v>
-      </c>
-      <c r="B845" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="846" spans="1:3">
-      <c r="C846" t="s">
+    <row r="849" spans="1:3">
+      <c r="C849" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3">
+      <c r="B850" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3">
+      <c r="C851" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="847" spans="1:3">
-      <c r="B847" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="848" spans="1:3">
-      <c r="C848" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="849" spans="1:3">
-      <c r="B849" t="s">
+    <row r="852" spans="1:3">
+      <c r="A852" s="1">
+        <v>132</v>
+      </c>
+      <c r="B852" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="850" spans="1:3">
-      <c r="C850" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="851" spans="1:3">
-      <c r="A851" s="1">
-        <v>132</v>
-      </c>
-      <c r="B851" t="s">
+    <row r="853" spans="1:3">
+      <c r="C853" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="852" spans="1:3">
-      <c r="C852" t="s">
+    <row r="854" spans="1:3">
+      <c r="B854" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="853" spans="1:3">
-      <c r="B853" t="s">
+    <row r="855" spans="1:3">
+      <c r="C855" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="854" spans="1:3">
-      <c r="C854" t="s">
+    <row r="856" spans="1:3">
+      <c r="B856" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="855" spans="1:3">
-      <c r="B855" t="s">
+    <row r="857" spans="1:3">
+      <c r="C857" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="856" spans="1:3">
-      <c r="C856" t="s">
+    <row r="858" spans="1:3">
+      <c r="B858" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="857" spans="1:3">
-      <c r="B857" t="s">
+    <row r="859" spans="1:3">
+      <c r="C859" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="858" spans="1:3">
-      <c r="C858" t="s">
+    <row r="860" spans="1:3">
+      <c r="A860" s="1">
+        <v>133</v>
+      </c>
+      <c r="B860" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="859" spans="1:3">
-      <c r="A859" s="1">
-        <v>133</v>
-      </c>
-      <c r="B859" t="s">
+    <row r="861" spans="1:3">
+      <c r="C861" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="860" spans="1:3">
-      <c r="C860" t="s">
+    <row r="862" spans="1:3">
+      <c r="A862" s="1">
+        <v>134</v>
+      </c>
+      <c r="B862" t="s">
         <v>716</v>
-      </c>
-    </row>
-    <row r="861" spans="1:3">
-      <c r="A861" s="1">
-        <v>134</v>
-      </c>
-      <c r="B861" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="862" spans="1:3">
-      <c r="C862" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="863" spans="1:3">
       <c r="C863" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3">
+      <c r="C864" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3">
+      <c r="B865" t="s">
         <v>719</v>
-      </c>
-    </row>
-    <row r="864" spans="1:3">
-      <c r="B864" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="865" spans="1:3">
-      <c r="C865" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="866" spans="1:3">
       <c r="C866" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3">
+      <c r="C867" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3">
+      <c r="B868" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="867" spans="1:3">
-      <c r="B867" t="s">
+    <row r="869" spans="1:3">
+      <c r="C869" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="868" spans="1:3">
-      <c r="C868" t="s">
+    <row r="870" spans="1:3">
+      <c r="B870" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="869" spans="1:3">
-      <c r="B869" t="s">
+    <row r="871" spans="1:3">
+      <c r="C871" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="870" spans="1:3">
-      <c r="C870" t="s">
+    <row r="872" spans="1:3">
+      <c r="A872" s="1">
+        <v>135</v>
+      </c>
+      <c r="B872" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="871" spans="1:3">
-      <c r="A871" s="1">
-        <v>135</v>
-      </c>
-      <c r="B871" t="s">
+    <row r="873" spans="1:3">
+      <c r="C873" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="872" spans="1:3">
-      <c r="C872" t="s">
+    <row r="874" spans="1:3">
+      <c r="B874" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3">
+      <c r="C875" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="873" spans="1:3">
-      <c r="B873" t="s">
+    <row r="876" spans="1:3">
+      <c r="B876" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3">
+      <c r="C877" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="874" spans="1:3">
-      <c r="C874" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="875" spans="1:3">
-      <c r="B875" t="s">
+    <row r="878" spans="1:3">
+      <c r="B878" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="876" spans="1:3">
-      <c r="C876" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="877" spans="1:3">
-      <c r="B877" t="s">
+    <row r="879" spans="1:3">
+      <c r="C879" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="878" spans="1:3">
-      <c r="C878" t="s">
+    <row r="880" spans="1:3">
+      <c r="A880" s="1">
+        <v>136</v>
+      </c>
+      <c r="B880" t="s">
         <v>734</v>
-      </c>
-    </row>
-    <row r="879" spans="1:3">
-      <c r="A879" s="1">
-        <v>136</v>
-      </c>
-      <c r="B879" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="880" spans="1:3">
-      <c r="C880" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="881" spans="1:3">
       <c r="C881" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="882" spans="1:3">
@@ -11901,192 +12036,192 @@
       </c>
     </row>
     <row r="883" spans="1:3">
-      <c r="A883" s="1">
+      <c r="C883" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3">
+      <c r="A884" s="1">
         <v>137</v>
       </c>
-      <c r="B883" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="884" spans="1:3">
-      <c r="C884" t="s">
-        <v>740</v>
+      <c r="B884" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="885" spans="1:3">
       <c r="C885" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="886" spans="1:3">
       <c r="C886" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3">
+      <c r="C887" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3">
+      <c r="A888" s="1">
+        <v>138</v>
+      </c>
+      <c r="B888" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="887" spans="1:3">
-      <c r="A887" s="1">
-        <v>138</v>
-      </c>
-      <c r="B887" t="s">
+    <row r="889" spans="1:3">
+      <c r="C889" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="888" spans="1:3">
-      <c r="C888" t="s">
+    <row r="890" spans="1:3">
+      <c r="A890" s="1">
+        <v>139</v>
+      </c>
+      <c r="B890" t="s">
         <v>744</v>
-      </c>
-    </row>
-    <row r="889" spans="1:3">
-      <c r="A889" s="1">
-        <v>139</v>
-      </c>
-      <c r="B889" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="890" spans="1:3">
-      <c r="C890" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="891" spans="1:3">
       <c r="C891" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3">
+      <c r="C892" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3">
+      <c r="C893" s="2" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="892" spans="1:3">
-      <c r="C892" s="2" t="s">
+    <row r="894" spans="1:3">
+      <c r="B894" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="893" spans="1:3">
-      <c r="B893" t="s">
+    <row r="895" spans="1:3">
+      <c r="C895" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="894" spans="1:3">
-      <c r="C894" t="s">
+    <row r="896" spans="1:3">
+      <c r="A896" s="1">
+        <v>140</v>
+      </c>
+      <c r="B896" t="s">
         <v>750</v>
-      </c>
-    </row>
-    <row r="895" spans="1:3">
-      <c r="A895" s="1">
-        <v>140</v>
-      </c>
-      <c r="B895" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="896" spans="1:3">
-      <c r="C896" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="897" spans="1:3">
       <c r="C897" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3">
+      <c r="C898" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3">
+      <c r="C899" s="3" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="898" spans="1:3">
-      <c r="C898" s="3" t="s">
+    <row r="900" spans="1:3">
+      <c r="A900" s="1">
+        <v>141</v>
+      </c>
+      <c r="B900" t="s">
         <v>754</v>
-      </c>
-    </row>
-    <row r="899" spans="1:3">
-      <c r="A899" s="1">
-        <v>141</v>
-      </c>
-      <c r="B899" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="900" spans="1:3">
-      <c r="C900" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="901" spans="1:3">
       <c r="C901" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3">
+      <c r="C902" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3">
+      <c r="B903" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="902" spans="1:3">
-      <c r="B902" t="s">
+    <row r="904" spans="1:3">
+      <c r="C904" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="903" spans="1:3">
-      <c r="C903" t="s">
+    <row r="911" spans="1:3">
+      <c r="A911" s="1">
+        <v>142</v>
+      </c>
+      <c r="B911" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="910" spans="1:3">
-      <c r="A910" s="1">
-        <v>142</v>
-      </c>
-      <c r="B910" t="s">
+    <row r="912" spans="1:3">
+      <c r="C912" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="911" spans="1:3">
-      <c r="C911" t="s">
+    <row r="913" spans="1:4">
+      <c r="B913" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4">
+      <c r="C914" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="912" spans="1:3">
-      <c r="B912" t="s">
+    <row r="915" spans="1:4">
+      <c r="B915" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="913" spans="1:4">
-      <c r="C913" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="914" spans="1:4">
-      <c r="B914" t="s">
+    <row r="916" spans="1:4">
+      <c r="C916" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="915" spans="1:4">
-      <c r="C915" t="s">
+    <row r="917" spans="1:4">
+      <c r="A917" s="1">
+        <v>143</v>
+      </c>
+      <c r="B917" t="s">
         <v>765</v>
-      </c>
-    </row>
-    <row r="916" spans="1:4">
-      <c r="A916" s="1">
-        <v>143</v>
-      </c>
-      <c r="B916" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="917" spans="1:4">
-      <c r="C917" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="918" spans="1:4">
       <c r="C918" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4">
+      <c r="C919" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4">
+      <c r="D920" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="919" spans="1:4">
-      <c r="D919" t="s">
+    <row r="921" spans="1:4">
+      <c r="A921" s="1">
+        <v>144</v>
+      </c>
+      <c r="B921" t="s">
         <v>769</v>
-      </c>
-    </row>
-    <row r="920" spans="1:4">
-      <c r="A920" s="1">
-        <v>144</v>
-      </c>
-      <c r="B920" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="921" spans="1:4">
-      <c r="C921" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="922" spans="1:4">
@@ -12095,281 +12230,281 @@
       </c>
     </row>
     <row r="923" spans="1:4">
-      <c r="B923" t="s">
+      <c r="C923" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4">
+      <c r="B924" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4">
+      <c r="C925" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="924" spans="1:4">
-      <c r="C924" t="s">
+    <row r="926" spans="1:4">
+      <c r="A926" s="1">
+        <v>145</v>
+      </c>
+      <c r="B926" t="s">
         <v>774</v>
-      </c>
-    </row>
-    <row r="925" spans="1:4">
-      <c r="A925" s="1">
-        <v>145</v>
-      </c>
-      <c r="B925" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="926" spans="1:4">
-      <c r="C926" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="927" spans="1:4">
       <c r="C927" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4">
+      <c r="C928" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3">
+      <c r="B929" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="928" spans="1:4">
-      <c r="B928" t="s">
+    <row r="930" spans="1:3">
+      <c r="C930" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="929" spans="1:3">
-      <c r="C929" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="930" spans="1:3">
-      <c r="A930" s="1">
+    <row r="931" spans="1:3">
+      <c r="A931" s="1">
         <v>146</v>
       </c>
-      <c r="B930" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="931" spans="1:3">
-      <c r="C931" t="s">
-        <v>785</v>
+      <c r="B931" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="932" spans="1:3">
       <c r="C932" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="933" spans="1:3">
       <c r="C933" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="934" spans="1:3">
       <c r="C934" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3">
+      <c r="C935" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3">
+      <c r="A936" s="1">
+        <v>147</v>
+      </c>
+      <c r="B936" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="935" spans="1:3">
-      <c r="A935" s="1">
-        <v>147</v>
-      </c>
-      <c r="B935" t="s">
+    <row r="937" spans="1:3">
+      <c r="C937" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="936" spans="1:3">
-      <c r="C936" t="s">
+    <row r="938" spans="1:3">
+      <c r="B938" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3">
+      <c r="C939" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="937" spans="1:3">
-      <c r="B937" t="s">
+    <row r="940" spans="1:3">
+      <c r="B940" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="938" spans="1:3">
-      <c r="C938" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="939" spans="1:3">
-      <c r="B939" t="s">
+    <row r="941" spans="1:3">
+      <c r="C941" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="940" spans="1:3">
-      <c r="C940" t="s">
+    <row r="942" spans="1:3">
+      <c r="B942" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="941" spans="1:3">
-      <c r="B941" t="s">
+    <row r="943" spans="1:3">
+      <c r="C943" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="942" spans="1:3">
-      <c r="C942" t="s">
+    <row r="944" spans="1:3">
+      <c r="A944" s="1">
+        <v>148</v>
+      </c>
+      <c r="B944" t="s">
         <v>796</v>
-      </c>
-    </row>
-    <row r="943" spans="1:3">
-      <c r="A943" s="1">
-        <v>148</v>
-      </c>
-      <c r="B943" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="944" spans="1:3">
-      <c r="C944" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="945" spans="1:3">
       <c r="C945" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3">
+      <c r="C946" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3">
+      <c r="A947" s="1">
+        <v>149</v>
+      </c>
+      <c r="B947" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="946" spans="1:3">
-      <c r="A946" s="1">
-        <v>149</v>
-      </c>
-      <c r="B946" t="s">
+    <row r="948" spans="1:3">
+      <c r="C948" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="947" spans="1:3">
-      <c r="C947" t="s">
+    <row r="949" spans="1:3">
+      <c r="A949" s="1">
+        <v>150</v>
+      </c>
+      <c r="B949" t="s">
         <v>801</v>
-      </c>
-    </row>
-    <row r="948" spans="1:3">
-      <c r="A948" s="1">
-        <v>150</v>
-      </c>
-      <c r="B948" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="949" spans="1:3">
-      <c r="C949" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="950" spans="1:3">
       <c r="C950" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="951" spans="1:3">
       <c r="C951" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="952" spans="1:3">
       <c r="C952" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c r="C953" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3">
+      <c r="A954" s="1">
+        <v>151</v>
+      </c>
+      <c r="B954" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="953" spans="1:3">
-      <c r="A953" s="1">
-        <v>151</v>
-      </c>
-      <c r="B953" t="s">
+    <row r="955" spans="1:3">
+      <c r="C955" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="954" spans="1:3">
-      <c r="C954" t="s">
+    <row r="956" spans="1:3">
+      <c r="B956" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="955" spans="1:3">
-      <c r="B955" t="s">
+    <row r="957" spans="1:3">
+      <c r="C957" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="956" spans="1:3">
-      <c r="C956" t="s">
+    <row r="958" spans="1:3">
+      <c r="B958" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="957" spans="1:3">
-      <c r="B957" t="s">
+    <row r="959" spans="1:3">
+      <c r="C959" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="958" spans="1:3">
-      <c r="C958" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="959" spans="1:3">
-      <c r="A959" s="1">
+    <row r="960" spans="1:3">
+      <c r="A960" s="1">
         <v>152</v>
       </c>
-      <c r="B959" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="960" spans="1:3">
-      <c r="C960" t="s">
-        <v>819</v>
+      <c r="B960" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="961" spans="1:3">
       <c r="C961" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="962" spans="1:3">
       <c r="C962" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3">
+      <c r="C963" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3">
+      <c r="A964" s="1">
+        <v>153</v>
+      </c>
+      <c r="B964" t="s">
         <v>821</v>
-      </c>
-    </row>
-    <row r="963" spans="1:3">
-      <c r="A963" s="1">
-        <v>153</v>
-      </c>
-      <c r="B963" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="964" spans="1:3">
-      <c r="C964" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="965" spans="1:3">
       <c r="C965" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="966" spans="1:3">
       <c r="C966" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3">
+      <c r="C967" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3">
+      <c r="A968" s="1">
+        <v>154</v>
+      </c>
+      <c r="B968" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="967" spans="1:3">
-      <c r="A967" s="1">
-        <v>154</v>
-      </c>
-      <c r="B967" t="s">
+    <row r="969" spans="1:3">
+      <c r="C969" s="3" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="968" spans="1:3">
-      <c r="C968" s="3" t="s">
+    <row r="970" spans="1:3">
+      <c r="C970" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="969" spans="1:3">
-      <c r="C969" t="s">
+    <row r="971" spans="1:3">
+      <c r="A971" s="1">
+        <v>155</v>
+      </c>
+      <c r="B971" t="s">
         <v>828</v>
-      </c>
-    </row>
-    <row r="970" spans="1:3">
-      <c r="A970" s="1">
-        <v>155</v>
-      </c>
-      <c r="B970" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="971" spans="1:3">
-      <c r="C971" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="972" spans="1:3">
@@ -12378,448 +12513,525 @@
       </c>
     </row>
     <row r="973" spans="1:3">
-      <c r="B973" t="s">
+      <c r="C973" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3">
+      <c r="B974" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3">
+      <c r="C975" s="3" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="974" spans="1:3">
-      <c r="C974" s="3" t="s">
+    <row r="976" spans="1:3">
+      <c r="A976" s="1">
+        <v>156</v>
+      </c>
+      <c r="B976" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="975" spans="1:3">
-      <c r="A975" s="1">
-        <v>156</v>
-      </c>
-      <c r="B975" t="s">
+    <row r="977" spans="1:3">
+      <c r="C977" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="976" spans="1:3">
-      <c r="C976" t="s">
+    <row r="978" spans="1:3">
+      <c r="A978" s="1">
+        <v>157</v>
+      </c>
+      <c r="B978" t="s">
         <v>835</v>
-      </c>
-    </row>
-    <row r="977" spans="1:3">
-      <c r="A977" s="1">
-        <v>157</v>
-      </c>
-      <c r="B977" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="978" spans="1:3">
-      <c r="C978" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="979" spans="1:3">
       <c r="C979" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3">
+      <c r="C980" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3">
+      <c r="B981" s="3" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="980" spans="1:3">
-      <c r="B980" s="3" t="s">
+    <row r="982" spans="1:3">
+      <c r="C982" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="981" spans="1:3">
-      <c r="C981" t="s">
+    <row r="983" spans="1:3">
+      <c r="B983" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="982" spans="1:3">
-      <c r="B982" t="s">
+    <row r="984" spans="1:3">
+      <c r="C984" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="983" spans="1:3">
-      <c r="C983" t="s">
+    <row r="985" spans="1:3">
+      <c r="B985" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="984" spans="1:3">
-      <c r="B984" t="s">
+    <row r="986" spans="1:3">
+      <c r="C986" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="985" spans="1:3">
-      <c r="C985" t="s">
+    <row r="987" spans="1:3">
+      <c r="A987" s="1">
+        <v>158</v>
+      </c>
+      <c r="B987" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="986" spans="1:3">
-      <c r="A986" s="1">
-        <v>158</v>
-      </c>
-      <c r="B986" t="s">
+    <row r="988" spans="1:3">
+      <c r="C988" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="987" spans="1:3">
-      <c r="C987" t="s">
+    <row r="989" spans="1:3">
+      <c r="B989" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="988" spans="1:3">
-      <c r="B988" t="s">
+    <row r="990" spans="1:3">
+      <c r="C990" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="989" spans="1:3">
-      <c r="C989" t="s">
+    <row r="991" spans="1:3">
+      <c r="B991" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="990" spans="1:3">
-      <c r="B990" t="s">
+    <row r="992" spans="1:3">
+      <c r="C992" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="991" spans="1:3">
-      <c r="C991" t="s">
+    <row r="993" spans="1:3">
+      <c r="B993" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="992" spans="1:3">
-      <c r="B992" t="s">
+    <row r="994" spans="1:3">
+      <c r="C994" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="993" spans="1:3">
-      <c r="C993" t="s">
+    <row r="995" spans="1:3">
+      <c r="A995" s="1">
+        <v>159</v>
+      </c>
+      <c r="B995" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="994" spans="1:3">
-      <c r="A994" s="1">
-        <v>159</v>
-      </c>
-      <c r="B994" t="s">
+    <row r="996" spans="1:3">
+      <c r="C996" s="15" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="995" spans="1:3">
-      <c r="C995" s="15" t="s">
+    <row r="997" spans="1:3">
+      <c r="C997" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="996" spans="1:3">
-      <c r="C996" t="s">
+    <row r="998" spans="1:3">
+      <c r="A998" s="1">
+        <v>160</v>
+      </c>
+      <c r="B998" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="997" spans="1:3">
-      <c r="A997" s="1">
-        <v>160</v>
-      </c>
-      <c r="B997" t="s">
+    <row r="999" spans="1:3">
+      <c r="C999" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3">
+      <c r="B1000" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="998" spans="1:3">
-      <c r="C998" t="s">
+    <row r="1001" spans="1:3">
+      <c r="C1001" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="999" spans="1:3">
-      <c r="B999" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:3">
-      <c r="C1000" t="s">
+    <row r="1002" spans="1:3">
+      <c r="A1002" s="1">
+        <v>161</v>
+      </c>
+      <c r="B1002" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="1001" spans="1:3">
-      <c r="A1001" s="1">
-        <v>161</v>
-      </c>
-      <c r="B1001" t="s">
+    <row r="1003" spans="1:3">
+      <c r="C1003" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="1002" spans="1:3">
-      <c r="C1002" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:3">
-      <c r="B1003" t="s">
-        <v>843</v>
-      </c>
-    </row>
     <row r="1004" spans="1:3">
-      <c r="C1004" t="s">
-        <v>862</v>
+      <c r="B1004" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
       <c r="C1005" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3">
+      <c r="C1006" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3">
+      <c r="B1007" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="1006" spans="1:3">
-      <c r="B1006" t="s">
+    <row r="1008" spans="1:3">
+      <c r="C1008" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="1007" spans="1:3">
-      <c r="C1007" t="s">
+    <row r="1009" spans="1:3">
+      <c r="B1009" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="1008" spans="1:3">
-      <c r="B1008" t="s">
+    <row r="1010" spans="1:3">
+      <c r="C1010" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="1009" spans="1:3">
-      <c r="C1009" t="s">
+    <row r="1011" spans="1:3">
+      <c r="B1011" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="1010" spans="1:3">
-      <c r="B1010" t="s">
+    <row r="1012" spans="1:3">
+      <c r="C1012" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="1011" spans="1:3">
-      <c r="C1011" t="s">
+    <row r="1013" spans="1:3">
+      <c r="A1013" s="1">
+        <v>162</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3">
+      <c r="C1014" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="1012" spans="1:3">
-      <c r="A1012" s="1">
-        <v>162</v>
-      </c>
-      <c r="B1012" t="s">
+    <row r="1015" spans="1:3">
+      <c r="B1015" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="1013" spans="1:3">
-      <c r="C1013" t="s">
+    <row r="1016" spans="1:3">
+      <c r="C1016" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="1014" spans="1:3">
-      <c r="B1014" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:3">
-      <c r="C1015" t="s">
+    <row r="1017" spans="1:3">
+      <c r="A1017" s="1">
+        <v>163</v>
+      </c>
+      <c r="B1017" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="1016" spans="1:3">
-      <c r="A1016" s="1">
-        <v>163</v>
-      </c>
-      <c r="B1016" t="s">
+    <row r="1018" spans="1:3">
+      <c r="C1018" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3">
+      <c r="B1019" t="s">
         <v>875</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:3">
-      <c r="C1017" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:3">
-      <c r="B1018" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:3">
-      <c r="C1019" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
       <c r="C1020" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3">
+      <c r="C1021" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3">
+      <c r="B1022" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3">
+      <c r="C1023" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="1021" spans="1:3">
-      <c r="B1021" t="s">
+    <row r="1024" spans="1:3">
+      <c r="A1024" s="1">
+        <v>164</v>
+      </c>
+      <c r="B1024" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="1022" spans="1:3">
-      <c r="C1022" t="s">
+    <row r="1025" spans="1:3">
+      <c r="C1025" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="1023" spans="1:3">
-      <c r="A1023" s="1">
-        <v>164</v>
-      </c>
-      <c r="B1023" t="s">
+    <row r="1026" spans="1:3">
+      <c r="A1026" s="1">
+        <v>165</v>
+      </c>
+      <c r="B1026" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="1024" spans="1:3">
-      <c r="C1024" t="s">
+    <row r="1027" spans="1:3">
+      <c r="C1027" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="1025" spans="1:3">
-      <c r="A1025" s="1">
-        <v>165</v>
-      </c>
-      <c r="B1025" t="s">
+    <row r="1028" spans="1:3">
+      <c r="A1028" s="1">
+        <v>166</v>
+      </c>
+      <c r="B1028" t="s">
         <v>884</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:3">
-      <c r="C1026" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:3">
-      <c r="A1027" s="1">
-        <v>166</v>
-      </c>
-      <c r="B1027" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:3">
-      <c r="C1028" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
       <c r="C1029" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
       <c r="C1030" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
       <c r="C1031" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
       <c r="C1032" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3">
+      <c r="C1033" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3">
+      <c r="A1034" s="1">
+        <v>167</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3">
+      <c r="C1035" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="1033" spans="1:3">
-      <c r="A1033" s="1">
-        <v>167</v>
-      </c>
-      <c r="B1033" t="s">
+    <row r="1036" spans="1:3">
+      <c r="B1036" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="1034" spans="1:3">
-      <c r="C1034" t="s">
+    <row r="1037" spans="1:3">
+      <c r="C1037" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="1035" spans="1:3">
-      <c r="B1035" t="s">
+    <row r="1038" spans="1:3">
+      <c r="B1038" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="1036" spans="1:3">
-      <c r="C1036" t="s">
+    <row r="1039" spans="1:3">
+      <c r="C1039" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="1037" spans="1:3">
-      <c r="B1037" t="s">
+    <row r="1040" spans="1:3">
+      <c r="A1040" s="1">
+        <v>168</v>
+      </c>
+      <c r="B1040" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="1038" spans="1:3">
-      <c r="C1038" t="s">
+    <row r="1041" spans="1:4">
+      <c r="C1041" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="1039" spans="1:3">
-      <c r="A1039" s="1">
-        <v>168</v>
-      </c>
-      <c r="B1039" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:3">
-      <c r="C1040" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:4">
-      <c r="A1041" s="1">
+    <row r="1042" spans="1:4">
+      <c r="A1042" s="1">
         <v>169</v>
       </c>
-      <c r="B1041" t="s">
+      <c r="B1042" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4">
+      <c r="C1043" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4">
+      <c r="D1044" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="1042" spans="1:4">
-      <c r="C1042" t="s">
+    <row r="1045" spans="1:4">
+      <c r="C1045" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="1043" spans="1:4">
-      <c r="D1043" t="s">
+    <row r="1046" spans="1:4">
+      <c r="D1046" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="1044" spans="1:4">
-      <c r="C1044" t="s">
+    <row r="1047" spans="1:4">
+      <c r="C1047" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="1045" spans="1:4">
-      <c r="D1045" t="s">
+    <row r="1048" spans="1:4">
+      <c r="D1048" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="1046" spans="1:4">
-      <c r="C1046" t="s">
+    <row r="1049" spans="1:4">
+      <c r="A1049" s="1">
+        <v>170</v>
+      </c>
+      <c r="B1049" t="s">
         <v>907</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:4">
-      <c r="D1047" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:4">
-      <c r="A1048" s="1">
-        <v>170</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:4">
-      <c r="C1049" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="1050" spans="1:4">
       <c r="C1050" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4">
+      <c r="C1051" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4">
+      <c r="B1076" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="1075" spans="2:3">
-      <c r="B1075" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="1076" spans="2:3">
-      <c r="C1076" t="s">
-        <v>913</v>
+    <row r="1077" spans="1:4">
+      <c r="C1077" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4">
+      <c r="A1079" s="1">
+        <v>171</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4">
+      <c r="C1080" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4">
+      <c r="B1081" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4">
+      <c r="C1082" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4">
+      <c r="A1083" s="1">
+        <v>172</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4">
+      <c r="C1084" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4">
+      <c r="D1085" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3">
+      <c r="A1095" s="1">
+        <v>173</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3">
+      <c r="C1096" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3">
+      <c r="C1097" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3">
+      <c r="A1099" s="1">
+        <v>174</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3">
+      <c r="C1100" t="s">
+        <v>926</v>
       </c>
     </row>
   </sheetData>

--- a/IPA_基本情報.xlsx
+++ b/IPA_基本情報.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_space\Learning_record\LearningSite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70DB5A4-D08F-4845-8976-5F1A4A6A49C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A52D220-B8E0-4C13-B7A5-0E1998F666CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="1033">
   <si>
     <t>ファジング</t>
     <phoneticPr fontId="1"/>
@@ -301,10 +301,6 @@
   </si>
   <si>
     <t>クロック周波数</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1秒間に何回のクロックが発振されるかを表す数値でプロセッサの性能指標として使われます。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6256,6 +6252,691 @@
   </si>
   <si>
     <t>(Data Mining)は、データウェアハウスに蓄積されている大量の生データを統計学的手法で分析し、今まで知られていなかったデータの規則や因果関係を見つけ出す手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェルのリダイレクト機能</t>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とは、この標準入力／出力を変更する機能で、キーボードからのコマンドの代わりにファイルを入力元にしたり、出力先をファイルにする、または出力をしないなどの変更が可能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力先を切り替える「&gt;」，出力先のファイルに追加する「&gt;&gt;」，入力元を切り替える「&lt;」，複数行の入力を行える「&lt;&lt;」があり、これらを組み合わせることでリダイレクトの指定を行います。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Electronics Manufacturing Service)は、電子機器の受託生産を行うサービスや企業のことです。製造企業が個別の製品ごとにラインを設置するのは効率が悪いため外部の専門業者に委託（アウトソーシング）するようになり、その結果として発達してきた業務形態です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とは、技術移転機関の略称です。大学や高等専門学校等における研究成果を特許化し、それを民間事業者に技術移転する法人のことです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学等における技術に関する研究成果の民間事業者への移転の促進に関する法律(通称、TLO法)に基づいて、承認・運用が行われており、2019年現在34機関が承認されています。</t>
+  </si>
+  <si>
+    <t>TLO    Technology Licensing Organization</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TCO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(Total Cost of Ownership)は、ある設備・システムなどを取得してから</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>廃棄に至るまでのライフサイクル全体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で発生するコストの総額を表します。総所有コストとも呼ばれます。TCOは、イニシャルコストとランニングコストで構成されます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイプライン制御</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、CPUが実行する命令を、命令読出し(フェッチ)、解読(デコード)、アドレス計算、オペランド呼出し、実行 というような複数のステージに分け、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各ステージを少しずつずらしつつ独立した処理機構で並列に実行することで、処理時間全体を短縮させるCPUの高速化技法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイプラインの処理時間を求める公式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(I＋D－1)×P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I：命令数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D：パイプラインの深さ（命令の分割数）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P：パイプラインのピッチ（各ステージの実行時間）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第１正規化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>繰り返し項目をなくす（全ての属性値を単一値にする）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第２正規化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キーの一部によって一意に決まる項目を別表に移す（部分関数従属をなくす）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第３正規化</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主キー以外の項目によって一意に決まる項目を別表に移す（推移的関数従属をなくす）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジネス・アーキテクチャ　政策・業務体系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ・アーキテクチャ　データ体系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーション・アーキテクチャ　処理体系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクノロジー・アーキテクチャ　技術体系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成要素…業務説明書、機能構成図、機能情報関連図、業務フローなど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成要素…情報体系クラス図、エンティティ・リレーション図、データ定義表など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>構成要素…情報システム関連図や情報システム機能構成図など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EDI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Electronic Data Interchange)は、電子データ交換と訳され、異なる組織に設置されている端末間で、通信回線を介して取引のためのメッセージ(データ)を交換すること、またはその仕組みです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワークシェアリング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、仕事(work)と共有(sharing)を組み合わせた言葉で、人々の間で雇用を分かち合うことを意味します。1人当たりの労働時間を短縮したり仕事の配分を見直したりすることによって、労働の負荷を減らすとともに新たな雇用を生み出す取組みです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雇用維持型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一時的な業績悪化、あるいは中高年等の余剰人員の発生に対処するため、1人あたりの労働時間を少なくすることで雇用を維持しようとするもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雇用創出型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1人のフルタイム従業員が行っていた仕事を、複数人のパートタイム等の短時間雇用で賄うことで、多くの人々に雇用機会を与えるもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム監査の実施体制</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>監査報告書の提出と開示 について「実施した監査の目的に応じた適切な形式の監査報告書を作成し、遅滞なく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>監査の依頼者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に提出しなければならない</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監査依頼者が監査報告に基づく改善指示を行えるように，システム監査人は監査結果を監査依頼者に報告する。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特許法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特許の要件や権利の取り扱いなどについて定められています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>は、発明(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自然法則を利用した技術的思想の創作のうち高度のもの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)の保護や利用を図ることによって発明を奨励し、産業の発達に寄与することを目的とした法律です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>著作権法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>思想又は感情を創作的に表現したもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実用新案法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物品の形状，構造又は組合せに係る考案</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意匠法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物品の形状，模様又は色彩など，視覚を通じて美感を起こさせるもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報落ち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とは、浮動小数点演算において，絶対値の大きな数と絶対値の小さな数の加減算を行ったとき，絶対値の小さな数の有効けたの一部又は全部が結果に反映されないことが原因で生じる計算誤差です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホームディレクトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、マルチユーザー環境であるUNIXのコンピュータにおいて、ユーザーが自由にファイルやサブディレクトリを作成したり、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー自身の作成したプログラムや書類、ユーザー独自の設定ファイルなどを保存することができるディレクトリです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIX / Linux では、一般ユーザーがログインした際のカレントディレクトリは、ホームディレクトリとなっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルートディレクトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルートディレクトリは、木構造で構成されるコンピュータのファイルシステムのうち、最上階層にあるディレクトリのことです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーポレートガバナンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(corporate governance)は「企業統治」とも訳され、企</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>業の経営について利害関係者が監視・規律</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>すること。目的は主に2つあり「企業の収益力の強化」と「企業の不祥事を防ぐ」ことです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステークホルダーアナリシス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステークホルダアナリシスは、システム開発で上流工程における要求分析の精度と質を向上させるために行われるステークホルダに対する分析手法です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>ステークホルダー分析とは、プロジェクトや組織に関わる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利害関係者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を分析し、そのニーズや影響度を把握する手法です。計画や政策の立案、紛争解決、プロジェクトマネジメントなどに活用されます</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提供するシステムを利用する人だけでなく開発者などシステムに関わる幅広い人を対象とし、分析結果から顧客の生の声(VoC…Voice of Customers)の中で優先度の高いものを判断します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADSL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、一般家庭に普及しているアナログ電話回線をそのまま利用し、それまでに使用されていなかった周波数帯域を利用することでデジタル通信を行う伝送方式です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音声信号とデータ信号に異なる周波帯域を割り当てることで、1つの回線で電話とデータ通信の同時使用が可能になっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリッタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>は、公衆電話回線網から受信したデータを、電話が扱う音声信号とPCなどが扱うデータ信号に分離(送信の時は合成)する機器です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソースプログラムそのもの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルゴリズムは著作権法の保護対象外です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPパケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPアドレスによってネットワーク層の通信を行うIPヘッダーを付加したパケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イーサネットフレーム(MACフレーム)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MACアドレスによってデータリンク層の通信を行うために、IPパケットにMACヘッダーを付加したパケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IPS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Intrusion Prevention System，侵入防御システム)は、ネットワークの異常を検知し管理者に通知するNIDS(Network IDS)を発展させた形態で、従来のNIDSが備えている検知・通知機能に加えて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>、不正アクセスの遮断などの防御機能をもつシステムです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1秒あたりに実行可能な命令数 (回）= CPUのクロック周波数（khz)/この平均クロック数</t>
+    <rPh sb="16" eb="17">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1秒間に何回のクロック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が発振されるかを表す数値でプロセッサの性能指標として使われます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACID特性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原子性（Atomicity）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランザクション内の処理がすべて実行されるか、または全く実行されないことを保証する特性。トランザクションはコミットまたはロールバックのいずれかで終了することで確保する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一貫性（Consistency）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランザクションによりデータの矛盾が生じないこと。常にデータベースの整合性が保たれていることを保証する特性。データ型や制約によって確保する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独立性（Isolation）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のトランザクションを並列に実行した場合と、順番に実行した場合の結果が等しくなることを保証する特性。ロックやスケジューリングによって確保する。隔離性と呼ばれることもある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永続性（Durability）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常終了したトランザクションの結果は、それ以後システムに障害が発生しても失われないことを保証する特性。トランザクションログによって確保する。耐久性と呼ばれることもある</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブルートフォース攻撃は、特定の文字数および文字種で設定される可能性のある組合せ全てを試すことで不正ログインを試みるパスワードクラック手法です。総当り攻撃とも呼ばれます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リバースブルートフォース攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定できるパスワード種が(数字4桁などのように)非常に少ないシステムに対しては、通常のブルートフォースよりも効率的に認証を突破できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よく使用される安易なパスワード(1234・qwer・adminなど)を使用していると、この攻撃の被害を受けやすくなります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>リバースブルートフォース攻撃は、ブルートフォースとは逆に、パスワードを1つに固定し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>利用者IDを総当りで試していく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ことで不正ログインを試みるパスワードクラック手法です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レインボー攻撃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>。通常パスワードは漏えい対策のためにハッシュ化された状態でサーバに記録されていますが、レインボー攻撃はこのハッシュ化されたパスワードから本来のパスワードを推測することを目的としています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>レインボー攻撃は、想定され得るパスワードとそのハッシュ値との対のリストを用いて、入手した</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ハッシュ値からパスワード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を効率的に解析する攻撃です</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DTD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DTDには、記述可能な要素名、属性名や発生順序・発生回数など文書作成のルールを定義でき、XML文書側では文書型宣言"&lt;!DOCTYPE …&gt;"で使用するDTDを指定できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成された文書がDTDに適合するかどうかを検証することで、処理の正確性や安全性を高められます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(Document Type Definition)とは、XMLなどのマークアップ言語において</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文書構造を定義</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>するスキーマ言語の一つです。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ASP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>。サービス利用側は、インターネット上のWebサービスベースのソフトウェアを利用する形になるので、自社内にソフトウェアを導入したり、ソフトウェアのメンテナンスを行ったりする必要がなく、購入や新規開発よりもコストを抑えられることがメリットです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>(Application Service Provider)は、インターネットを通じて、主に業務用の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ソフトウェアやアプリケーションの利用環境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を顧客に提供する事業者です。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>汎用的なアプリケーションシステムの機能をネットワーク経由で複数の顧客に提供するサービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>今でいうSaaS(Software as a Service)ですが、SaaSがクラウドコンピューティングの一形態を表すの対して、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ASPはSaaSを提供する事業者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>という違いがあります</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6471,7 +7152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6488,6 +7169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -6560,14 +7242,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>543747</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>128041</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>128042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6609,14 +7291,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>146156</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>112800</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>112801</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6658,13 +7340,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>280</xdr:row>
+      <xdr:row>281</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>51874</xdr:colOff>
-      <xdr:row>292</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>175070</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6707,13 +7389,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>380</xdr:row>
+      <xdr:row>381</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>299205</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>386</xdr:row>
       <xdr:rowOff>198686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6756,13 +7438,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>131550</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>131405</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6805,14 +7487,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>575</xdr:row>
+      <xdr:row>579</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>299886</xdr:colOff>
-      <xdr:row>584</xdr:row>
-      <xdr:rowOff>104631</xdr:rowOff>
+      <xdr:row>588</xdr:row>
+      <xdr:rowOff>104630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6854,13 +7536,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>601</xdr:row>
+      <xdr:row>605</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>371942</xdr:colOff>
-      <xdr:row>610</xdr:row>
+      <xdr:row>614</xdr:row>
       <xdr:rowOff>104629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6903,13 +7585,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>614</xdr:row>
+      <xdr:row>618</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>417666</xdr:colOff>
-      <xdr:row>624</xdr:row>
+      <xdr:row>628</xdr:row>
       <xdr:rowOff>168754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6952,14 +7634,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>8965</xdr:colOff>
-      <xdr:row>635</xdr:row>
+      <xdr:row>639</xdr:row>
       <xdr:rowOff>215153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295344</xdr:colOff>
-      <xdr:row>652</xdr:row>
-      <xdr:rowOff>139291</xdr:rowOff>
+      <xdr:row>656</xdr:row>
+      <xdr:rowOff>139290</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7001,13 +7683,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>682</xdr:row>
+      <xdr:row>692</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>308560</xdr:colOff>
-      <xdr:row>687</xdr:row>
+      <xdr:row>697</xdr:row>
       <xdr:rowOff>130100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7050,13 +7732,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>682</xdr:row>
+      <xdr:row>692</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>444414</xdr:colOff>
-      <xdr:row>685</xdr:row>
+      <xdr:row>695</xdr:row>
       <xdr:rowOff>55198</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7099,13 +7781,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>703</xdr:row>
+      <xdr:row>713</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>283963</xdr:colOff>
-      <xdr:row>714</xdr:row>
+      <xdr:row>724</xdr:row>
       <xdr:rowOff>88084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7148,13 +7830,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>728</xdr:row>
+      <xdr:row>738</xdr:row>
       <xdr:rowOff>62754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>265134</xdr:colOff>
-      <xdr:row>736</xdr:row>
+      <xdr:row>746</xdr:row>
       <xdr:rowOff>95639</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7197,13 +7879,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>739</xdr:row>
+      <xdr:row>749</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>265252</xdr:colOff>
-      <xdr:row>747</xdr:row>
+      <xdr:row>757</xdr:row>
       <xdr:rowOff>25265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7246,14 +7928,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>904</xdr:row>
+      <xdr:row>921</xdr:row>
       <xdr:rowOff>74544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>558285</xdr:colOff>
-      <xdr:row>909</xdr:row>
-      <xdr:rowOff>65698</xdr:rowOff>
+      <xdr:row>926</xdr:row>
+      <xdr:rowOff>65699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7295,13 +7977,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>49696</xdr:colOff>
-      <xdr:row>588</xdr:row>
+      <xdr:row>592</xdr:row>
       <xdr:rowOff>74543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57422</xdr:colOff>
-      <xdr:row>597</xdr:row>
+      <xdr:row>601</xdr:row>
       <xdr:rowOff>37284</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7344,13 +8026,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>1051</xdr:row>
+      <xdr:row>1068</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>47543</xdr:colOff>
-      <xdr:row>1074</xdr:row>
+      <xdr:row>1091</xdr:row>
       <xdr:rowOff>39550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7393,14 +8075,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>74543</xdr:colOff>
-      <xdr:row>264</xdr:row>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>74544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>477073</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>76421</xdr:rowOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>76422</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7442,13 +8124,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1085</xdr:row>
+      <xdr:row>1102</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>632895</xdr:colOff>
-      <xdr:row>1092</xdr:row>
+      <xdr:row>1109</xdr:row>
       <xdr:rowOff>228429</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7478,6 +8160,104 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99448</xdr:colOff>
+      <xdr:row>1140</xdr:row>
+      <xdr:rowOff>207635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2A60A1-F1CB-2211-A266-10B7ED93980F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="646043" y="257887304"/>
+          <a:ext cx="4480948" cy="2758679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1188</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>481027</xdr:colOff>
+      <xdr:row>1195</xdr:row>
+      <xdr:rowOff>228429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4785997F-61C7-0EC2-E99C-C5A3CE172394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="646043" y="275280783"/>
+          <a:ext cx="3520745" cy="1851820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7748,10 +8528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X1100"/>
+  <dimension ref="A2:X1226"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1082" zoomScale="92" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1102" sqref="C1102"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A1210" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N1224" sqref="N1224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7794,17 +8574,17 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8055,74 +8835,74 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="C62" t="s">
-        <v>49</v>
+      <c r="C62" s="3" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="C63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="C64" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
+      <c r="C65" s="16" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
         <v>12</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="C67" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="C66" t="s">
+    <row r="68" spans="1:3">
+      <c r="B68" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="B67" t="s">
+    <row r="69" spans="1:3">
+      <c r="C69" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="C68" t="s">
+    <row r="70" spans="1:3">
+      <c r="B70" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="B69" t="s">
+    <row r="71" spans="1:3">
+      <c r="C71" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="C70" t="s">
+    <row r="72" spans="1:3">
+      <c r="B72" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="B71" t="s">
+    <row r="73" spans="1:3">
+      <c r="C73" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="C72" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>13</v>
+      </c>
+      <c r="B74" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="C74" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -8132,45 +8912,45 @@
     </row>
     <row r="76" spans="1:3">
       <c r="C76" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="C77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="C78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="B79" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="B78" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="C79" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="C80" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="1">
-        <v>14</v>
-      </c>
-      <c r="B96" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="C97" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="C98" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -8180,1140 +8960,1111 @@
     </row>
     <row r="100" spans="1:3">
       <c r="C100" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="C101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="B102" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="B101" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="C102" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="C103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="C104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>15</v>
+      </c>
+      <c r="B105" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>15</v>
-      </c>
-      <c r="B104" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="C105" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="C106" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="C107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="B108" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="B107" t="s">
+    <row r="109" spans="1:3">
+      <c r="C109" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="C108" t="s">
+    <row r="110" spans="1:3">
+      <c r="B110" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="B109" t="s">
+    <row r="111" spans="1:3">
+      <c r="C111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="C110" t="s">
+    <row r="112" spans="1:3">
+      <c r="B112" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="B111" t="s">
+    <row r="113" spans="1:4">
+      <c r="C113" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="C112" t="s">
+    <row r="114" spans="1:4">
+      <c r="B114" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="C115" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="B116" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="C117" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="B113" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="C114" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="B115" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="C116" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1">
-        <v>16</v>
-      </c>
-      <c r="B117" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="C118" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="C119" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="C120" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="C121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="C122" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="D123" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="D122" t="s">
+    <row r="124" spans="1:4">
+      <c r="C124" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="C123" t="s">
+    <row r="125" spans="1:4">
+      <c r="D125" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="D124" t="s">
+    <row r="126" spans="1:4">
+      <c r="C126" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="C125" t="s">
+    <row r="127" spans="1:4">
+      <c r="D127" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="D126" t="s">
+    <row r="128" spans="1:4">
+      <c r="C128" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="C127" t="s">
+    <row r="129" spans="1:4">
+      <c r="D129" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="D128" t="s">
+    <row r="130" spans="1:4">
+      <c r="C130" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="C129" t="s">
+    <row r="131" spans="1:4">
+      <c r="D131" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="D130" t="s">
+    <row r="132" spans="1:4">
+      <c r="C132" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="C131" t="s">
+    <row r="133" spans="1:4">
+      <c r="D133" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="D132" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="1">
-        <v>17</v>
-      </c>
-      <c r="B133" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="C134" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="C135" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="C136" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="C137" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>18</v>
       </c>
-      <c r="B141" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="C142" t="s">
-        <v>104</v>
+      <c r="B142" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="C143" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="1">
-        <v>19</v>
-      </c>
-      <c r="B144" t="s">
-        <v>106</v>
+      <c r="C144" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
         <v>20</v>
       </c>
-      <c r="B145" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="C146" t="s">
-        <v>108</v>
+      <c r="B146" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="C147" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="C148" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="C149" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="C150" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>21</v>
+      </c>
+      <c r="B151" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="1">
-        <v>21</v>
-      </c>
-      <c r="B150" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="C151" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="C152" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="C153" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="C154" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>22</v>
+      </c>
+      <c r="B155" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="1">
-        <v>22</v>
-      </c>
-      <c r="B154" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="C155" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="C156" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="C157" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="B158" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
-      <c r="B157" t="s">
+    <row r="159" spans="1:3">
+      <c r="C159" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="C158" t="s">
+    <row r="160" spans="1:3">
+      <c r="B160" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="B159" t="s">
+    <row r="161" spans="1:3">
+      <c r="C161" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="C160" t="s">
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>23</v>
+      </c>
+      <c r="B162" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="1">
-        <v>23</v>
-      </c>
-      <c r="B161" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="C162" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="C163" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="C164" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="C165" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>24</v>
+      </c>
+      <c r="B166" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="1">
-        <v>24</v>
-      </c>
-      <c r="B165" t="s">
+    <row r="167" spans="1:3">
+      <c r="C167" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
-      <c r="C166" t="s">
+    <row r="168" spans="1:3">
+      <c r="B168" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="C169" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
-      <c r="B167" t="s">
+    <row r="170" spans="1:3">
+      <c r="B170" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
-      <c r="C168" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="B169" t="s">
+    <row r="171" spans="1:3">
+      <c r="C171" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
-      <c r="C170" t="s">
+    <row r="172" spans="1:3">
+      <c r="B172" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
-      <c r="B171" t="s">
+    <row r="173" spans="1:3">
+      <c r="C173" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="C172" t="s">
+    <row r="174" spans="1:3">
+      <c r="B174" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="B173" t="s">
+    <row r="175" spans="1:3">
+      <c r="C175" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
-      <c r="C174" t="s">
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>25</v>
+      </c>
+      <c r="B176" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="1">
-        <v>25</v>
-      </c>
-      <c r="B175" t="s">
+    <row r="177" spans="1:3">
+      <c r="C177" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
-      <c r="C176" t="s">
+    <row r="178" spans="1:3">
+      <c r="B178" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="B177" t="s">
+    <row r="179" spans="1:3">
+      <c r="C179" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="C178" t="s">
+    <row r="180" spans="1:3">
+      <c r="B180" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
-      <c r="B179" t="s">
+    <row r="181" spans="1:3">
+      <c r="C181" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
-      <c r="C180" t="s">
+    <row r="182" spans="1:3">
+      <c r="B182" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
-      <c r="B181" t="s">
+    <row r="183" spans="1:3">
+      <c r="C183" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
-      <c r="C182" t="s">
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>26</v>
+      </c>
+      <c r="B184" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="1">
-        <v>26</v>
-      </c>
-      <c r="B183" t="s">
+    <row r="185" spans="1:3">
+      <c r="C185" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="C184" t="s">
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>27</v>
+      </c>
+      <c r="B186" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="1">
-        <v>27</v>
-      </c>
-      <c r="B185" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="C186" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="C187" t="s">
-        <v>782</v>
+        <v>147</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="1">
+      <c r="C188" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
         <v>28</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="C190" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="C189" t="s">
+    <row r="191" spans="1:3">
+      <c r="B191" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="B190" t="s">
+    <row r="192" spans="1:3">
+      <c r="C192" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="C191" t="s">
+    <row r="193" spans="1:3">
+      <c r="B193" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
-      <c r="B192" t="s">
+    <row r="194" spans="1:3">
+      <c r="C194" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="C195" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="B196" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
-      <c r="C193" t="s">
+    <row r="197" spans="1:3">
+      <c r="C197" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="C198" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
-      <c r="C194" s="2" t="s">
+    <row r="199" spans="1:3">
+      <c r="A199" s="1">
+        <v>29</v>
+      </c>
+      <c r="B199" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="B195" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="C196" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="C197" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="1">
-        <v>29</v>
-      </c>
-      <c r="B198" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="C199" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="C200" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="C201" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="B202" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="B201" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="C202" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="C203" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="C204" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="C205" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="C204" s="3" t="s">
+    <row r="206" spans="1:3">
+      <c r="A206" s="1">
+        <v>30</v>
+      </c>
+      <c r="B206" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="1">
-        <v>30</v>
-      </c>
-      <c r="B205" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="C206" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="C207" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="C208" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="B209" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
-      <c r="B208" t="s">
+    <row r="210" spans="1:3">
+      <c r="C210" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
-      <c r="C209" t="s">
+    <row r="211" spans="1:3">
+      <c r="A211" s="1">
+        <v>31</v>
+      </c>
+      <c r="B211" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="1">
-        <v>31</v>
-      </c>
-      <c r="B210" t="s">
+    <row r="212" spans="1:3">
+      <c r="C212" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
-      <c r="C211" t="s">
+    <row r="213" spans="1:3">
+      <c r="A213" s="1">
+        <v>32</v>
+      </c>
+      <c r="B213" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="1">
-        <v>32</v>
-      </c>
-      <c r="B212" t="s">
+    <row r="214" spans="1:3">
+      <c r="C214" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="C213" t="s">
+    <row r="215" spans="1:3">
+      <c r="A215" s="1">
+        <v>33</v>
+      </c>
+      <c r="B215" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="1">
-        <v>33</v>
-      </c>
-      <c r="B214" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="C215" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="C216" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="C217" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1">
+        <v>34</v>
+      </c>
+      <c r="B218" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="1">
-        <v>34</v>
-      </c>
-      <c r="B217" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="C218" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="C219" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="C220" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="B221" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="B220" t="s">
+    <row r="222" spans="1:3">
+      <c r="C222" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="C221" t="s">
+    <row r="223" spans="1:3">
+      <c r="A223" s="1">
+        <v>35</v>
+      </c>
+      <c r="B223" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="1">
-        <v>35</v>
-      </c>
-      <c r="B222" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="C223" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="C224" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="C225" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="C226" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
+        <v>36</v>
+      </c>
+      <c r="B227" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="1">
-        <v>36</v>
-      </c>
-      <c r="B226" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4">
-      <c r="C227" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="C228" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="C229" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="D230" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="D229" t="s">
+    <row r="231" spans="1:4">
+      <c r="C231" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="C230" t="s">
+    <row r="232" spans="1:4">
+      <c r="D232" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="D231" t="s">
+    <row r="233" spans="1:4">
+      <c r="C233" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="C232" t="s">
+    <row r="234" spans="1:4">
+      <c r="D234" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="D233" t="s">
+    <row r="235" spans="1:4">
+      <c r="C235" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="C234" t="s">
+    <row r="236" spans="1:4">
+      <c r="D236" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="D235" t="s">
+    <row r="237" spans="1:4">
+      <c r="C237" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="C236" t="s">
+    <row r="238" spans="1:4">
+      <c r="D238" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="D237" t="s">
+    <row r="239" spans="1:4">
+      <c r="C239" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="C238" t="s">
+    <row r="240" spans="1:4">
+      <c r="D240" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="D239" t="s">
+    <row r="241" spans="1:4">
+      <c r="C241" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="C240" t="s">
+    <row r="242" spans="1:4">
+      <c r="D242" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="D241" t="s">
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
+        <v>37</v>
+      </c>
+      <c r="B243" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="1">
-        <v>37</v>
-      </c>
-      <c r="B242" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="C243" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="C244" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="C245" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="1">
+      <c r="C246" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>38</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="C248" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="C247" t="s">
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
+        <v>39</v>
+      </c>
+      <c r="B249" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="1">
-        <v>39</v>
-      </c>
-      <c r="B248" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4">
-      <c r="C249" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="C250" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="C251" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
+        <v>40</v>
+      </c>
+      <c r="B252" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="1">
-        <v>40</v>
-      </c>
-      <c r="B251" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4">
-      <c r="C252" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="C253" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="C254" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="D255" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="D254" t="s">
+    <row r="256" spans="1:4">
+      <c r="C256" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="C255" t="s">
+    <row r="257" spans="3:4">
+      <c r="D257" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="D256" t="s">
+    <row r="258" spans="3:4">
+      <c r="C258" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="257" spans="3:4">
-      <c r="C257" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="258" spans="3:4">
-      <c r="D258" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="259" spans="3:4">
       <c r="D259" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="260" spans="3:4">
       <c r="D260" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="261" spans="3:4">
-      <c r="C261" t="s">
+      <c r="D261" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4">
+      <c r="C262" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="263" spans="3:4">
+      <c r="D263" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4">
+      <c r="C264" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="265" spans="3:4">
+      <c r="D265" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1">
+        <v>41</v>
+      </c>
+      <c r="B279" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="262" spans="3:4">
-      <c r="D262" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="263" spans="3:4">
-      <c r="C263" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="264" spans="3:4">
-      <c r="D264" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="1">
-        <v>41</v>
-      </c>
-      <c r="B278" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="C279" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="C280" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="C281" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
+        <v>42</v>
+      </c>
+      <c r="B296" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="1">
-        <v>42</v>
-      </c>
-      <c r="B295" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="C296" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="C297" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="C298" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
+        <v>43</v>
+      </c>
+      <c r="B299" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="1">
-        <v>43</v>
-      </c>
-      <c r="B298" t="s">
+    <row r="300" spans="1:4">
+      <c r="C300" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="C299" t="s">
+    <row r="301" spans="1:4">
+      <c r="D301" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="C302" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="D300" t="s">
+    <row r="303" spans="1:4">
+      <c r="D303" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="C304" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="D305" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="C306" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="D307" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="C308" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="D309" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="C310" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="D311" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="C312" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="C301" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="D302" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="C303" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="D304" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4">
-      <c r="C305" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4">
-      <c r="D306" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4">
-      <c r="C307" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4">
-      <c r="D308" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="C309" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="D310" t="s">
+    <row r="313" spans="1:4">
+      <c r="D313" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1">
+        <v>44</v>
+      </c>
+      <c r="B314" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4">
-      <c r="C311" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4">
-      <c r="D312" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="1">
-        <v>44</v>
-      </c>
-      <c r="B313" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="C314" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="C315" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="C316" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="C317" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="B318" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="B317" t="s">
+    <row r="319" spans="1:4">
+      <c r="C319" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="C318" t="s">
+    <row r="320" spans="1:4">
+      <c r="B320" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="B319" t="s">
+    <row r="321" spans="1:24">
+      <c r="C321" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="C320" t="s">
+    <row r="322" spans="1:24">
+      <c r="B322" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24">
+      <c r="C323" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="321" spans="1:24">
-      <c r="B321" t="s">
+    <row r="324" spans="1:24">
+      <c r="A324" s="1">
+        <v>45</v>
+      </c>
+      <c r="B324" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="322" spans="1:24">
-      <c r="C322" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="323" spans="1:24">
-      <c r="A323" s="1">
-        <v>45</v>
-      </c>
-      <c r="B323" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="324" spans="1:24">
-      <c r="C324" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="325" spans="1:24">
       <c r="C325" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="326" spans="1:24">
+      <c r="C326" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="327" spans="1:24">
+      <c r="C327" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="326" spans="1:24">
-      <c r="C326" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="327" spans="1:24">
-      <c r="A327" s="1">
+    <row r="328" spans="1:24">
+      <c r="A328" s="1">
         <v>46</v>
       </c>
-      <c r="B327" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="328" spans="1:24">
-      <c r="C328" s="5" t="s">
+      <c r="B328" t="s">
         <v>257</v>
       </c>
-      <c r="D328" s="6"/>
-      <c r="E328" s="6"/>
-      <c r="F328" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G328" s="6"/>
-      <c r="H328" s="7"/>
-      <c r="I328" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="J328" s="6"/>
-      <c r="K328" s="7"/>
-      <c r="L328" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="M328" s="7"/>
-      <c r="N328" s="12"/>
-      <c r="O328" s="13"/>
-      <c r="P328" s="13"/>
-      <c r="Q328" s="13"/>
-      <c r="R328" s="13"/>
-      <c r="S328" s="13"/>
-      <c r="T328" s="13"/>
-      <c r="U328" s="13"/>
-      <c r="V328" s="13"/>
-      <c r="W328" s="13"/>
-      <c r="X328" s="14"/>
     </row>
     <row r="329" spans="1:24">
       <c r="C329" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G329" s="6"/>
       <c r="H329" s="7"/>
       <c r="I329" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J329" s="6"/>
       <c r="K329" s="7"/>
       <c r="L329" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M329" s="7"/>
-      <c r="N329" s="12" t="s">
-        <v>515</v>
-      </c>
+      <c r="N329" s="12"/>
       <c r="O329" s="13"/>
       <c r="P329" s="13"/>
       <c r="Q329" s="13"/>
@@ -9326,21 +10077,25 @@
       <c r="X329" s="14"/>
     </row>
     <row r="330" spans="1:24">
-      <c r="C330" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="D330" s="13"/>
-      <c r="E330" s="14"/>
-      <c r="F330" s="8"/>
-      <c r="H330" s="1"/>
-      <c r="I330" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="K330" s="1"/>
-      <c r="L330" t="s">
-        <v>263</v>
-      </c>
-      <c r="M330" s="1"/>
+      <c r="C330" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D330" s="6"/>
+      <c r="E330" s="6"/>
+      <c r="F330" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G330" s="6"/>
+      <c r="H330" s="7"/>
+      <c r="I330" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J330" s="6"/>
+      <c r="K330" s="7"/>
+      <c r="L330" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M330" s="7"/>
       <c r="N330" s="12" t="s">
         <v>514</v>
       </c>
@@ -9356,108 +10111,106 @@
       <c r="X330" s="14"/>
     </row>
     <row r="331" spans="1:24">
-      <c r="C331" s="8" t="s">
-        <v>265</v>
-      </c>
+      <c r="C331" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D331" s="13"/>
+      <c r="E331" s="14"/>
       <c r="F331" s="8"/>
       <c r="H331" s="1"/>
-      <c r="I331" s="8"/>
+      <c r="I331" s="8" t="s">
+        <v>277</v>
+      </c>
       <c r="K331" s="1"/>
+      <c r="L331" t="s">
+        <v>262</v>
+      </c>
       <c r="M331" s="1"/>
-      <c r="N331" s="5" t="s">
+      <c r="N331" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="O331" s="13"/>
+      <c r="P331" s="13"/>
+      <c r="Q331" s="13"/>
+      <c r="R331" s="13"/>
+      <c r="S331" s="13"/>
+      <c r="T331" s="13"/>
+      <c r="U331" s="13"/>
+      <c r="V331" s="13"/>
+      <c r="W331" s="13"/>
+      <c r="X331" s="14"/>
+    </row>
+    <row r="332" spans="1:24">
+      <c r="C332" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F332" s="8"/>
+      <c r="H332" s="1"/>
+      <c r="I332" s="8"/>
+      <c r="K332" s="1"/>
+      <c r="M332" s="1"/>
+      <c r="N332" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="O332" s="6"/>
+      <c r="P332" s="6"/>
+      <c r="Q332" s="6"/>
+      <c r="R332" s="6"/>
+      <c r="S332" s="6"/>
+      <c r="T332" s="6"/>
+      <c r="U332" s="6"/>
+      <c r="V332" s="6"/>
+      <c r="W332" s="6"/>
+      <c r="X332" s="7"/>
+    </row>
+    <row r="333" spans="1:24">
+      <c r="C333" s="9"/>
+      <c r="D333" s="10"/>
+      <c r="E333" s="10"/>
+      <c r="F333" s="9"/>
+      <c r="G333" s="10"/>
+      <c r="H333" s="11"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="10"/>
+      <c r="K333" s="11"/>
+      <c r="L333" s="10"/>
+      <c r="M333" s="11"/>
+      <c r="N333" s="9" t="s">
         <v>812</v>
       </c>
-      <c r="O331" s="6"/>
-      <c r="P331" s="6"/>
-      <c r="Q331" s="6"/>
-      <c r="R331" s="6"/>
-      <c r="S331" s="6"/>
-      <c r="T331" s="6"/>
-      <c r="U331" s="6"/>
-      <c r="V331" s="6"/>
-      <c r="W331" s="6"/>
-      <c r="X331" s="7"/>
-    </row>
-    <row r="332" spans="1:24">
-      <c r="C332" s="9"/>
-      <c r="D332" s="10"/>
-      <c r="E332" s="10"/>
-      <c r="F332" s="9"/>
-      <c r="G332" s="10"/>
-      <c r="H332" s="11"/>
-      <c r="I332" s="9"/>
-      <c r="J332" s="10"/>
-      <c r="K332" s="11"/>
-      <c r="L332" s="10"/>
-      <c r="M332" s="11"/>
-      <c r="N332" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="O332" s="10"/>
-      <c r="P332" s="10"/>
-      <c r="Q332" s="10"/>
-      <c r="R332" s="10"/>
-      <c r="S332" s="10"/>
-      <c r="T332" s="10"/>
-      <c r="U332" s="10"/>
-      <c r="V332" s="10"/>
-      <c r="W332" s="10"/>
-      <c r="X332" s="11"/>
-    </row>
-    <row r="333" spans="1:24">
-      <c r="C333" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D333" s="13"/>
-      <c r="E333" s="13"/>
-      <c r="F333" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G333" s="13"/>
-      <c r="H333" s="14"/>
-      <c r="I333" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="J333" s="13"/>
-      <c r="K333" s="14"/>
-      <c r="L333" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="M333" s="14"/>
-      <c r="N333" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="O333" s="13"/>
-      <c r="P333" s="13"/>
-      <c r="Q333" s="13"/>
-      <c r="R333" s="13"/>
-      <c r="S333" s="13"/>
-      <c r="T333" s="13"/>
-      <c r="U333" s="13"/>
-      <c r="V333" s="13"/>
-      <c r="W333" s="13"/>
-      <c r="X333" s="14"/>
+      <c r="O333" s="10"/>
+      <c r="P333" s="10"/>
+      <c r="Q333" s="10"/>
+      <c r="R333" s="10"/>
+      <c r="S333" s="10"/>
+      <c r="T333" s="10"/>
+      <c r="U333" s="10"/>
+      <c r="V333" s="10"/>
+      <c r="W333" s="10"/>
+      <c r="X333" s="11"/>
     </row>
     <row r="334" spans="1:24">
       <c r="C334" s="12" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D334" s="13"/>
       <c r="E334" s="13"/>
       <c r="F334" s="12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G334" s="13"/>
       <c r="H334" s="14"/>
       <c r="I334" s="12" t="s">
-        <v>279</v>
+        <v>534</v>
       </c>
       <c r="J334" s="13"/>
       <c r="K334" s="14"/>
-      <c r="L334" s="13"/>
+      <c r="L334" s="13" t="s">
+        <v>266</v>
+      </c>
       <c r="M334" s="14"/>
       <c r="N334" s="12" t="s">
-        <v>814</v>
+        <v>512</v>
       </c>
       <c r="O334" s="13"/>
       <c r="P334" s="13"/>
@@ -9471,23 +10224,25 @@
       <c r="X334" s="14"/>
     </row>
     <row r="335" spans="1:24">
-      <c r="C335" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F335" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="H335" s="1"/>
-      <c r="I335" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="K335" s="1"/>
-      <c r="L335" t="s">
-        <v>274</v>
-      </c>
-      <c r="M335" s="1"/>
+      <c r="C335" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D335" s="13"/>
+      <c r="E335" s="13"/>
+      <c r="F335" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="G335" s="13"/>
+      <c r="H335" s="14"/>
+      <c r="I335" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="J335" s="13"/>
+      <c r="K335" s="14"/>
+      <c r="L335" s="13"/>
+      <c r="M335" s="14"/>
       <c r="N335" s="12" t="s">
-        <v>511</v>
+        <v>813</v>
       </c>
       <c r="O335" s="13"/>
       <c r="P335" s="13"/>
@@ -9501,27 +10256,23 @@
       <c r="X335" s="14"/>
     </row>
     <row r="336" spans="1:24">
-      <c r="C336" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D336" s="13"/>
-      <c r="E336" s="14"/>
-      <c r="F336" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="G336" s="10"/>
-      <c r="H336" s="11"/>
-      <c r="I336" s="9" t="s">
+      <c r="C336" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="F336" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H336" s="1"/>
+      <c r="I336" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="K336" s="1"/>
+      <c r="L336" t="s">
         <v>273</v>
       </c>
-      <c r="J336" s="10"/>
-      <c r="K336" s="11"/>
-      <c r="L336" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="M336" s="11"/>
+      <c r="M336" s="1"/>
       <c r="N336" s="12" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O336" s="13"/>
       <c r="P336" s="13"/>
@@ -9534,645 +10285,674 @@
       <c r="W336" s="13"/>
       <c r="X336" s="14"/>
     </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="1">
+    <row r="337" spans="1:24">
+      <c r="C337" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D337" s="13"/>
+      <c r="E337" s="14"/>
+      <c r="F337" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G337" s="10"/>
+      <c r="H337" s="11"/>
+      <c r="I337" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J337" s="10"/>
+      <c r="K337" s="11"/>
+      <c r="L337" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="M337" s="11"/>
+      <c r="N337" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="O337" s="13"/>
+      <c r="P337" s="13"/>
+      <c r="Q337" s="13"/>
+      <c r="R337" s="13"/>
+      <c r="S337" s="13"/>
+      <c r="T337" s="13"/>
+      <c r="U337" s="13"/>
+      <c r="V337" s="13"/>
+      <c r="W337" s="13"/>
+      <c r="X337" s="14"/>
+    </row>
+    <row r="338" spans="1:24">
+      <c r="A338" s="1">
         <v>47</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B338" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="339" spans="1:24">
+      <c r="C339" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
-      <c r="C338" t="s">
+    <row r="340" spans="1:24">
+      <c r="C340" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
-      <c r="C339" t="s">
+    <row r="341" spans="1:24">
+      <c r="C341" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
-      <c r="C340" t="s">
+    <row r="342" spans="1:24">
+      <c r="A342" s="1">
+        <v>48</v>
+      </c>
+      <c r="B342" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="1">
-        <v>48</v>
-      </c>
-      <c r="B341" t="s">
+    <row r="343" spans="1:24">
+      <c r="C343" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="342" spans="1:3">
-      <c r="C342" t="s">
+    <row r="344" spans="1:24">
+      <c r="C344" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
-      <c r="C343" t="s">
+    <row r="345" spans="1:24">
+      <c r="A345" s="1">
+        <v>49</v>
+      </c>
+      <c r="B345" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="1">
-        <v>49</v>
-      </c>
-      <c r="B344" t="s">
+    <row r="346" spans="1:24">
+      <c r="C346" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
-      <c r="C345" t="s">
+    <row r="347" spans="1:24">
+      <c r="C347" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="346" spans="1:3">
-      <c r="C346" t="s">
+    <row r="348" spans="1:24">
+      <c r="C348" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
-      <c r="C347" t="s">
+    <row r="349" spans="1:24">
+      <c r="C349" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="348" spans="1:3">
-      <c r="C348" s="2" t="s">
+    <row r="350" spans="1:24">
+      <c r="A350" s="1">
+        <v>50</v>
+      </c>
+      <c r="B350" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="1">
-        <v>50</v>
-      </c>
-      <c r="B349" t="s">
+    <row r="351" spans="1:24">
+      <c r="C351" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="352" spans="1:24">
+      <c r="C352" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1">
+        <v>51</v>
+      </c>
+      <c r="B353" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="350" spans="1:3">
-      <c r="C350" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="C351" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="1">
-        <v>51</v>
-      </c>
-      <c r="B352" t="s">
+    <row r="354" spans="1:3">
+      <c r="C354" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="353" spans="1:3">
-      <c r="C353" t="s">
+    <row r="355" spans="1:3">
+      <c r="B355" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="354" spans="1:3">
-      <c r="B354" t="s">
+    <row r="356" spans="1:3">
+      <c r="C356" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="355" spans="1:3">
-      <c r="C355" t="s">
+    <row r="357" spans="1:3">
+      <c r="A357" s="1">
+        <v>52</v>
+      </c>
+      <c r="B357" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="356" spans="1:3">
-      <c r="A356" s="1">
-        <v>52</v>
-      </c>
-      <c r="B356" t="s">
+    <row r="358" spans="1:3">
+      <c r="C358" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
-      <c r="C357" t="s">
+    <row r="359" spans="1:3">
+      <c r="A359" s="1">
+        <v>53</v>
+      </c>
+      <c r="B359" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="1">
-        <v>53</v>
-      </c>
-      <c r="B358" t="s">
+    <row r="360" spans="1:3">
+      <c r="C360" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="359" spans="1:3">
-      <c r="C359" t="s">
+    <row r="361" spans="1:3">
+      <c r="B361" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="360" spans="1:3">
-      <c r="B360" t="s">
+    <row r="362" spans="1:3">
+      <c r="C362" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="361" spans="1:3">
-      <c r="C361" t="s">
+    <row r="363" spans="1:3">
+      <c r="B363" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="362" spans="1:3">
-      <c r="B362" t="s">
+    <row r="364" spans="1:3">
+      <c r="C364" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="363" spans="1:3">
-      <c r="C363" t="s">
+    <row r="365" spans="1:3">
+      <c r="A365" s="1">
+        <v>54</v>
+      </c>
+      <c r="B365" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" s="1">
-        <v>54</v>
-      </c>
-      <c r="B364" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="C365" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="C366" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="C367" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1">
+        <v>55</v>
+      </c>
+      <c r="B368" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="A367" s="1">
-        <v>55</v>
-      </c>
-      <c r="B367" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
-      <c r="C368" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="C369" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="C370" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="C371" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="B372" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
-      <c r="B371" t="s">
+    <row r="373" spans="1:3">
+      <c r="C373" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
-      <c r="C372" t="s">
+    <row r="374" spans="1:3">
+      <c r="B374" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
-      <c r="B373" t="s">
+    <row r="375" spans="1:3">
+      <c r="C375" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
-      <c r="C374" t="s">
+    <row r="376" spans="1:3">
+      <c r="B376" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="375" spans="1:3">
-      <c r="B375" t="s">
+    <row r="377" spans="1:3">
+      <c r="C377" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="376" spans="1:3">
-      <c r="C376" t="s">
+    <row r="378" spans="1:3">
+      <c r="A378" s="1">
+        <v>56</v>
+      </c>
+      <c r="B378" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="377" spans="1:3">
-      <c r="A377" s="1">
-        <v>56</v>
-      </c>
-      <c r="B377" t="s">
+    <row r="379" spans="1:3">
+      <c r="C379" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="378" spans="1:3">
-      <c r="C378" t="s">
+    <row r="380" spans="1:3">
+      <c r="B380" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
-      <c r="B379" t="s">
+    <row r="381" spans="1:3">
+      <c r="C381" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="380" spans="1:3">
-      <c r="C380" t="s">
+    <row r="388" spans="1:3">
+      <c r="A388" s="1">
+        <v>57</v>
+      </c>
+      <c r="B388" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
-      <c r="A387" s="1">
-        <v>57</v>
-      </c>
-      <c r="B387" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
-      <c r="C388" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="C389" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="390" spans="1:3">
-      <c r="A390" s="1">
+      <c r="C390" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1">
         <v>58</v>
       </c>
-      <c r="B390" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
-      <c r="C391" t="s">
+      <c r="B391" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="C392" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="C393" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="B394" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="393" spans="1:3">
-      <c r="B393" t="s">
+    <row r="395" spans="1:3">
+      <c r="C395" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="394" spans="1:3">
-      <c r="C394" t="s">
+    <row r="396" spans="1:3">
+      <c r="A396" s="1">
+        <v>59</v>
+      </c>
+      <c r="B396" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
-      <c r="A395" s="1">
-        <v>59</v>
-      </c>
-      <c r="B395" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
-      <c r="C396" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="C397" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="C398" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="C399" s="2" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="398" spans="1:3">
-      <c r="C398" s="2" t="s">
+    <row r="400" spans="1:3">
+      <c r="A400" s="1">
+        <v>60</v>
+      </c>
+      <c r="B400" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="399" spans="1:3">
-      <c r="A399" s="1">
-        <v>60</v>
-      </c>
-      <c r="B399" t="s">
+    <row r="401" spans="1:3">
+      <c r="C401" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="400" spans="1:3">
-      <c r="C400" t="s">
+    <row r="402" spans="1:3">
+      <c r="A402" s="1">
+        <v>61</v>
+      </c>
+      <c r="B402" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="401" spans="1:3">
-      <c r="A401" s="1">
-        <v>61</v>
-      </c>
-      <c r="B401" t="s">
+    <row r="403" spans="1:3">
+      <c r="C403" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="402" spans="1:3">
-      <c r="C402" t="s">
+    <row r="404" spans="1:3">
+      <c r="C404" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="403" spans="1:3">
-      <c r="C403" s="2" t="s">
+    <row r="405" spans="1:3">
+      <c r="A405" s="1">
+        <v>62</v>
+      </c>
+      <c r="B405" s="3" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3">
-      <c r="A404" s="1">
-        <v>62</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
-      <c r="C405" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="C406" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="C407" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="B408" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3">
-      <c r="B407" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
-      <c r="C408" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="C409" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="C410" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="B411" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
-      <c r="B410" t="s">
+    <row r="412" spans="1:3">
+      <c r="C412" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="411" spans="1:3">
-      <c r="C411" t="s">
+    <row r="413" spans="1:3">
+      <c r="B413" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
-      <c r="B412" t="s">
+    <row r="414" spans="1:3">
+      <c r="C414" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="413" spans="1:3">
-      <c r="C413" t="s">
+    <row r="415" spans="1:3">
+      <c r="A415" s="1">
+        <v>63</v>
+      </c>
+      <c r="B415" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
-      <c r="A414" s="1">
-        <v>63</v>
-      </c>
-      <c r="B414" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
-      <c r="C415" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="C416" t="s">
-        <v>912</v>
+        <v>350</v>
       </c>
     </row>
     <row r="417" spans="1:3">
-      <c r="A417" s="1">
+      <c r="C417" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1">
         <v>64</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B418" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="C419" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="418" spans="1:3">
-      <c r="C418" t="s">
+    <row r="420" spans="1:3">
+      <c r="A420" s="1">
+        <v>65</v>
+      </c>
+      <c r="B420" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="419" spans="1:3">
-      <c r="A419" s="1">
-        <v>65</v>
-      </c>
-      <c r="B419" t="s">
+    <row r="421" spans="1:3">
+      <c r="C421" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="420" spans="1:3">
-      <c r="C420" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
-      <c r="B421" t="s">
-        <v>393</v>
-      </c>
-    </row>
     <row r="422" spans="1:3">
-      <c r="C422" t="s">
-        <v>394</v>
+      <c r="B422" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="C423" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="424" spans="1:3">
-      <c r="A424" s="1">
+      <c r="C424" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1">
         <v>66</v>
       </c>
-      <c r="B424" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
-      <c r="C425" t="s">
-        <v>357</v>
+      <c r="B425" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="C426" t="s">
-        <v>422</v>
+        <v>356</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="C427" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="C428" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="C429" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="430" spans="1:3">
-      <c r="A430" s="1">
+      <c r="C430" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1">
         <v>67</v>
       </c>
-      <c r="B430" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3">
-      <c r="C431" s="3" t="s">
-        <v>359</v>
+      <c r="B431" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="C432" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="C433" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1">
+        <v>68</v>
+      </c>
+      <c r="B434" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="1">
-        <v>68</v>
-      </c>
-      <c r="B433" t="s">
-        <v>361</v>
-      </c>
-      <c r="C433" s="3"/>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="C434" s="3" t="s">
-        <v>362</v>
-      </c>
+      <c r="C434" s="3"/>
     </row>
     <row r="435" spans="1:4">
       <c r="C435" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="C436" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="C437" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="D438" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="D437" t="s">
+    <row r="439" spans="1:4">
+      <c r="C439" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="C438" t="s">
+    <row r="440" spans="1:4">
+      <c r="D440" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
-      <c r="D439" t="s">
+    <row r="441" spans="1:4">
+      <c r="C441" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="C440" t="s">
+    <row r="442" spans="1:4">
+      <c r="A442" s="1">
+        <v>69</v>
+      </c>
+      <c r="B442" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="1">
-        <v>69</v>
-      </c>
-      <c r="B441" t="s">
+    <row r="443" spans="1:4">
+      <c r="C443" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="C442" t="s">
+    <row r="444" spans="1:4">
+      <c r="B444" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="B443" t="s">
+    <row r="445" spans="1:4">
+      <c r="C445" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="C444" t="s">
+    <row r="446" spans="1:4">
+      <c r="B446" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="B445" t="s">
+    <row r="447" spans="1:4">
+      <c r="C447" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
-      <c r="C446" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="1">
+    <row r="448" spans="1:4">
+      <c r="A448" s="1">
         <v>70</v>
       </c>
-      <c r="B447" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
-      <c r="C448" t="s">
+      <c r="B448" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="C449" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="C450" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="B451" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="450" spans="1:3">
-      <c r="B450" t="s">
+    <row r="452" spans="1:3">
+      <c r="C452" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="451" spans="1:3">
-      <c r="C451" t="s">
+    <row r="453" spans="1:3">
+      <c r="B453" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="452" spans="1:3">
-      <c r="B452" t="s">
+    <row r="454" spans="1:3">
+      <c r="C454" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="453" spans="1:3">
-      <c r="C453" t="s">
+    <row r="455" spans="1:3">
+      <c r="A455" s="1">
+        <v>71</v>
+      </c>
+      <c r="B455" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3">
-      <c r="A454" s="1">
-        <v>71</v>
-      </c>
-      <c r="B454" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
-      <c r="C455" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -10181,201 +10961,201 @@
       </c>
     </row>
     <row r="457" spans="1:3">
-      <c r="B457" t="s">
-        <v>385</v>
+      <c r="C457" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="C458" t="s">
-        <v>388</v>
+      <c r="B458" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="C459" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="C460" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="461" spans="1:3">
-      <c r="B461" t="s">
+      <c r="C461" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="B462" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="C463" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="462" spans="1:3">
-      <c r="C462" t="s">
+    <row r="464" spans="1:3">
+      <c r="B464" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="463" spans="1:3">
-      <c r="B463" t="s">
+    <row r="465" spans="1:3">
+      <c r="C465" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
-      <c r="C464" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
-      <c r="A465" s="1">
+    <row r="466" spans="1:3">
+      <c r="A466" s="1">
         <v>72</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B466" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="C467" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="466" spans="1:3">
-      <c r="C466" t="s">
+    <row r="468" spans="1:3">
+      <c r="A468" s="1">
+        <v>73</v>
+      </c>
+      <c r="B468" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="A467" s="1">
-        <v>73</v>
-      </c>
-      <c r="B467" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
-      <c r="C468" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="C469" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="C470" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="B471" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
-      <c r="B470" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
-      <c r="C471" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="C472" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="C473" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1">
+        <v>74</v>
+      </c>
+      <c r="B474" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
-      <c r="A473" s="1">
-        <v>74</v>
-      </c>
-      <c r="B473" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
-      <c r="C474" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="C475" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="C476" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="B477" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="C478" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="476" spans="1:3">
-      <c r="B476" t="s">
+    <row r="479" spans="1:3">
+      <c r="B479" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="477" spans="1:3">
-      <c r="C477" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3">
-      <c r="B478" t="s">
+    <row r="480" spans="1:3">
+      <c r="C480" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="479" spans="1:3">
-      <c r="C479" t="s">
+    <row r="481" spans="1:3">
+      <c r="A481" s="1">
+        <v>75</v>
+      </c>
+      <c r="B481" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="1">
-        <v>75</v>
-      </c>
-      <c r="B480" t="s">
+    <row r="482" spans="1:3">
+      <c r="C482" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
-      <c r="C481" t="s">
+    <row r="483" spans="1:3">
+      <c r="B483" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
-      <c r="B482" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
-      <c r="C483" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="C484" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="C485" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1">
+        <v>76</v>
+      </c>
+      <c r="B486" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="485" spans="1:3">
-      <c r="A485" s="1">
-        <v>76</v>
-      </c>
-      <c r="B485" t="s">
+    <row r="487" spans="1:3">
+      <c r="C487" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="486" spans="1:3">
-      <c r="C486" t="s">
+    <row r="488" spans="1:3">
+      <c r="B488" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
-      <c r="B487" t="s">
+    <row r="489" spans="1:3">
+      <c r="C489" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="488" spans="1:3">
-      <c r="C488" t="s">
+    <row r="490" spans="1:3">
+      <c r="B490" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="489" spans="1:3">
-      <c r="B489" t="s">
+    <row r="491" spans="1:3">
+      <c r="C491" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="490" spans="1:3">
-      <c r="C490" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
-      <c r="A491" s="1">
+    <row r="492" spans="1:3">
+      <c r="A492" s="1">
         <v>77</v>
       </c>
-      <c r="B491" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3">
-      <c r="C492" t="s">
-        <v>428</v>
+      <c r="B492" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -10384,2654 +11164,3246 @@
       </c>
     </row>
     <row r="494" spans="1:3">
-      <c r="A494" s="1">
+      <c r="C494" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1">
         <v>78</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B495" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="C496" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="B497" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="495" spans="1:3">
-      <c r="C495" t="s">
+    <row r="498" spans="1:3">
+      <c r="C498" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="B499" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="C500" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="496" spans="1:3">
-      <c r="B496" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="497" spans="1:3">
-      <c r="C497" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="498" spans="1:3">
-      <c r="B498" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="499" spans="1:3">
-      <c r="C499" t="s">
+    <row r="501" spans="1:3">
+      <c r="A501" s="1">
+        <v>79</v>
+      </c>
+      <c r="B501" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
-      <c r="A500" s="1">
-        <v>79</v>
-      </c>
-      <c r="B500" t="s">
+    <row r="502" spans="1:3">
+      <c r="C502" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="501" spans="1:3">
-      <c r="C501" s="2" t="s">
+    <row r="503" spans="1:3">
+      <c r="A503" s="1">
+        <v>80</v>
+      </c>
+      <c r="B503" t="s">
         <v>436</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
-      <c r="A502" s="1">
-        <v>80</v>
-      </c>
-      <c r="B502" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
-      <c r="C503" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="C504" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="C505" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="C506" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="507" spans="1:3">
-      <c r="B507" t="s">
+      <c r="C507" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="B508" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="C509" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="508" spans="1:3">
-      <c r="C508" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="509" spans="1:3">
-      <c r="B509" t="s">
+    <row r="510" spans="1:3">
+      <c r="B510" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="C511" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="510" spans="1:3">
-      <c r="C510" t="s">
+    <row r="512" spans="1:3">
+      <c r="B512" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="511" spans="1:3">
-      <c r="B511" t="s">
+    <row r="513" spans="1:3">
+      <c r="C513" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="512" spans="1:3">
-      <c r="C512" t="s">
+    <row r="514" spans="1:3">
+      <c r="B514" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="C515" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="513" spans="1:3">
-      <c r="B513" t="s">
+    <row r="516" spans="1:3">
+      <c r="A516" s="1">
+        <v>81</v>
+      </c>
+      <c r="B516" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
-      <c r="C514" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
-      <c r="A515" s="1">
-        <v>81</v>
-      </c>
-      <c r="B515" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
-      <c r="C516" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="C517" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="518" spans="1:3">
-      <c r="A518" s="1">
-        <v>82</v>
-      </c>
-      <c r="B518" t="s">
-        <v>451</v>
+      <c r="C518" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="519" spans="1:3">
-      <c r="C519" t="s">
-        <v>452</v>
+      <c r="B519" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="C520" t="s">
-        <v>453</v>
+        <v>966</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="C521" t="s">
-        <v>454</v>
+        <v>967</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B522" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="523" spans="1:3">
       <c r="C523" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="524" spans="1:3">
-      <c r="B524" t="s">
-        <v>459</v>
+      <c r="C524" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="525" spans="1:3">
       <c r="C525" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="526" spans="1:3">
+      <c r="A526" s="1">
+        <v>83</v>
+      </c>
       <c r="B526" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="527" spans="1:3">
       <c r="C527" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="528" spans="1:3">
       <c r="B528" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="529" spans="1:3">
-      <c r="C529" s="3" t="s">
-        <v>468</v>
+      <c r="C529" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="530" spans="1:3">
-      <c r="C530" t="s">
-        <v>463</v>
+      <c r="B530" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="531" spans="1:3">
-      <c r="B531" t="s">
-        <v>466</v>
+      <c r="C531" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="532" spans="1:3">
-      <c r="C532" t="s">
+      <c r="B532" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="C533" s="3" t="s">
         <v>467</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3">
-      <c r="A533" s="1">
-        <v>84</v>
-      </c>
-      <c r="B533" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="534" spans="1:3">
       <c r="C534" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="535" spans="1:3">
-      <c r="C535" t="s">
-        <v>471</v>
+      <c r="B535" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="536" spans="1:3">
       <c r="C536" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="537" spans="1:3">
+      <c r="A537" s="1">
+        <v>84</v>
+      </c>
       <c r="B537" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="538" spans="1:3">
       <c r="C538" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="539" spans="1:3">
-      <c r="B539" t="s">
-        <v>475</v>
+      <c r="C539" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="540" spans="1:3">
       <c r="C540" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="541" spans="1:3">
       <c r="B541" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="542" spans="1:3">
       <c r="C542" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="543" spans="1:3">
-      <c r="A543" s="1">
-        <v>85</v>
-      </c>
       <c r="B543" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="544" spans="1:3">
       <c r="C544" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="545" spans="1:4">
-      <c r="A545" s="1">
-        <v>86</v>
-      </c>
       <c r="B545" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="546" spans="1:4">
       <c r="C546" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="547" spans="1:4">
-      <c r="D547" t="s">
-        <v>484</v>
+      <c r="A547" s="1">
+        <v>85</v>
+      </c>
+      <c r="B547" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="548" spans="1:4">
       <c r="C548" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="549" spans="1:4">
-      <c r="D549" t="s">
-        <v>486</v>
+      <c r="A549" s="1">
+        <v>86</v>
+      </c>
+      <c r="B549" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="550" spans="1:4">
       <c r="C550" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="551" spans="1:4">
       <c r="D551" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="552" spans="1:4">
       <c r="C552" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="553" spans="1:4">
       <c r="D553" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="554" spans="1:4">
-      <c r="A554" s="1">
-        <v>87</v>
-      </c>
-      <c r="B554" t="s">
-        <v>491</v>
+      <c r="C554" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="555" spans="1:4">
-      <c r="C555" t="s">
-        <v>492</v>
+      <c r="D555" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="556" spans="1:4">
       <c r="C556" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="557" spans="1:4">
-      <c r="B557" t="s">
-        <v>494</v>
+      <c r="D557" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="558" spans="1:4">
-      <c r="C558" t="s">
-        <v>495</v>
+      <c r="A558" s="1">
+        <v>87</v>
+      </c>
+      <c r="B558" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="559" spans="1:4">
-      <c r="B559" t="s">
-        <v>496</v>
+      <c r="C559" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="560" spans="1:4">
       <c r="C560" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="561" spans="1:4">
-      <c r="C561" t="s">
-        <v>498</v>
+      <c r="B561" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="562" spans="1:4">
-      <c r="A562" s="1">
-        <v>88</v>
-      </c>
-      <c r="B562" t="s">
-        <v>499</v>
+      <c r="C562" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="563" spans="1:4">
-      <c r="C563" t="s">
-        <v>500</v>
+      <c r="B563" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="564" spans="1:4">
       <c r="C564" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="565" spans="1:4">
-      <c r="A565" s="1">
-        <v>89</v>
-      </c>
-      <c r="B565" t="s">
-        <v>502</v>
+      <c r="C565" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="566" spans="1:4">
-      <c r="C566" t="s">
-        <v>503</v>
+      <c r="A566" s="1">
+        <v>88</v>
+      </c>
+      <c r="B566" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="567" spans="1:4">
       <c r="C567" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="568" spans="1:4">
-      <c r="D568" t="s">
-        <v>505</v>
+      <c r="C568" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="569" spans="1:4">
-      <c r="C569" t="s">
-        <v>506</v>
+      <c r="A569" s="1">
+        <v>89</v>
+      </c>
+      <c r="B569" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="570" spans="1:4">
-      <c r="D570" t="s">
-        <v>507</v>
+      <c r="C570" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="571" spans="1:4">
       <c r="C571" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="572" spans="1:4">
       <c r="D572" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="C573" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="574" spans="1:4">
-      <c r="A574" s="1">
-        <v>90</v>
-      </c>
-      <c r="B574" t="s">
-        <v>516</v>
+      <c r="D574" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="C575" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="D576" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="C577" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="1">
+        <v>90</v>
+      </c>
+      <c r="B578" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="C579" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="B590" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="C591" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="C592" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="1">
+        <v>91</v>
+      </c>
+      <c r="B603" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="586" spans="2:3">
-      <c r="B586" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="587" spans="2:3">
-      <c r="C587" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="588" spans="2:3">
-      <c r="C588" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="599" spans="1:3">
-      <c r="A599" s="1">
-        <v>91</v>
-      </c>
-      <c r="B599" t="s">
+    <row r="604" spans="1:3">
+      <c r="C604" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="600" spans="1:3">
-      <c r="C600" t="s">
+    <row r="605" spans="1:3">
+      <c r="C605" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="601" spans="1:3">
-      <c r="C601" t="s">
+    <row r="616" spans="1:3">
+      <c r="A616" s="1">
+        <v>92</v>
+      </c>
+      <c r="B616" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="612" spans="1:3">
-      <c r="A612" s="1">
-        <v>92</v>
-      </c>
-      <c r="B612" t="s">
+    <row r="617" spans="1:3">
+      <c r="C617" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
-      <c r="C613" t="s">
+    <row r="618" spans="1:3">
+      <c r="C618" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3">
-      <c r="C614" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="626" spans="1:3">
-      <c r="A626" s="1">
-        <v>93</v>
-      </c>
-      <c r="B626" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="627" spans="1:3">
-      <c r="C627" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="628" spans="1:3">
-      <c r="C628" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="629" spans="1:3">
-      <c r="C629" s="4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="630" spans="1:3">
       <c r="A630" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B630" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="631" spans="1:3">
       <c r="C631" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="C632" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="C633" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634" s="1">
+        <v>94</v>
+      </c>
+      <c r="B634" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="C635" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="C636" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="B637" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="C638" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="632" spans="1:3">
-      <c r="C632" s="2" t="s">
+    <row r="639" spans="1:3">
+      <c r="A639" s="1">
+        <v>95</v>
+      </c>
+      <c r="B639" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="633" spans="1:3">
-      <c r="B633" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="634" spans="1:3">
-      <c r="C634" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="635" spans="1:3">
-      <c r="A635" s="1">
-        <v>95</v>
-      </c>
-      <c r="B635" t="s">
+    <row r="640" spans="1:3">
+      <c r="C640" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="636" spans="1:3">
-      <c r="C636" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="654" spans="1:3">
-      <c r="A654" s="1">
+    <row r="658" spans="1:3">
+      <c r="A658" s="1">
         <v>96</v>
       </c>
-      <c r="B654" t="s">
+      <c r="B658" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3">
+      <c r="C659" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="655" spans="1:3">
-      <c r="C655" t="s">
+    <row r="660" spans="1:3">
+      <c r="B660" t="s">
         <v>538</v>
-      </c>
-    </row>
-    <row r="656" spans="1:3">
-      <c r="B656" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="657" spans="1:3">
-      <c r="C657" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="658" spans="1:3">
-      <c r="C658" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="659" spans="1:3">
-      <c r="B659" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="660" spans="1:3">
-      <c r="C660" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="661" spans="1:3">
       <c r="C661" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="662" spans="1:3">
-      <c r="B662" t="s">
-        <v>545</v>
+      <c r="C662" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="663" spans="1:3">
-      <c r="C663" t="s">
-        <v>546</v>
+      <c r="B663" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="664" spans="1:3">
-      <c r="A664" s="1">
-        <v>97</v>
-      </c>
-      <c r="B664" t="s">
-        <v>547</v>
+      <c r="C664" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="665" spans="1:3">
       <c r="C665" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="666" spans="1:3">
-      <c r="C666" t="s">
-        <v>549</v>
+      <c r="B666" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="667" spans="1:3">
-      <c r="A667" s="1">
-        <v>98</v>
-      </c>
-      <c r="B667" t="s">
-        <v>550</v>
+      <c r="C667" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="668" spans="1:3">
-      <c r="C668" t="s">
-        <v>551</v>
+      <c r="A668" s="1">
+        <v>97</v>
+      </c>
+      <c r="B668" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="669" spans="1:3">
-      <c r="A669" s="1">
-        <v>99</v>
-      </c>
-      <c r="B669" t="s">
-        <v>552</v>
+      <c r="C669" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="670" spans="1:3">
       <c r="C670" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="671" spans="1:3">
-      <c r="C671" t="s">
-        <v>554</v>
+      <c r="A671" s="1">
+        <v>98</v>
+      </c>
+      <c r="B671" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="672" spans="1:3">
-      <c r="B672" t="s">
-        <v>555</v>
+      <c r="C672" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="673" spans="1:4">
       <c r="C673" t="s">
-        <v>556</v>
+        <v>944</v>
       </c>
     </row>
     <row r="674" spans="1:4">
-      <c r="B674" t="s">
-        <v>557</v>
+      <c r="D674" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="675" spans="1:4">
       <c r="C675" t="s">
-        <v>558</v>
+        <v>946</v>
       </c>
     </row>
     <row r="676" spans="1:4">
-      <c r="C676" t="s">
-        <v>694</v>
+      <c r="D676" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="677" spans="1:4">
-      <c r="D677" t="s">
-        <v>692</v>
+      <c r="C677" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="678" spans="1:4">
-      <c r="C678" t="s">
-        <v>695</v>
+      <c r="D678" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="679" spans="1:4">
-      <c r="D679" t="s">
-        <v>693</v>
+      <c r="A679" s="1">
+        <v>99</v>
+      </c>
+      <c r="B679" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="680" spans="1:4">
-      <c r="B680" t="s">
-        <v>559</v>
+      <c r="C680" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="681" spans="1:4">
       <c r="C681" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4">
+      <c r="B682" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4">
+      <c r="C683" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4">
+      <c r="B684" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4">
+      <c r="C685" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4">
+      <c r="C686" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4">
+      <c r="D687" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4">
+      <c r="C688" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
+      <c r="D689" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4">
+      <c r="B690" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4">
+      <c r="C691" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4">
+      <c r="A692" s="1">
+        <v>100</v>
+      </c>
+      <c r="B692" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
-      <c r="A682" s="1">
-        <v>100</v>
-      </c>
-      <c r="B682" t="s">
+    <row r="699" spans="1:4">
+      <c r="A699" s="1">
+        <v>101</v>
+      </c>
+      <c r="B699" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="689" spans="1:3">
-      <c r="A689" s="1">
-        <v>101</v>
-      </c>
-      <c r="B689" t="s">
+    <row r="700" spans="1:4">
+      <c r="C700" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4">
+      <c r="C701" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="690" spans="1:3">
-      <c r="C690" t="s">
+    <row r="702" spans="1:4">
+      <c r="B702" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="691" spans="1:3">
-      <c r="C691" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="692" spans="1:3">
-      <c r="B692" t="s">
+    <row r="703" spans="1:4">
+      <c r="C703" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="693" spans="1:3">
-      <c r="C693" t="s">
+    <row r="704" spans="1:4">
+      <c r="B704" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="694" spans="1:3">
-      <c r="B694" t="s">
+    <row r="705" spans="1:3">
+      <c r="C705" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="695" spans="1:3">
-      <c r="C695" t="s">
+    <row r="706" spans="1:3">
+      <c r="A706" s="1">
+        <v>102</v>
+      </c>
+      <c r="B706" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="696" spans="1:3">
-      <c r="A696" s="1">
-        <v>102</v>
-      </c>
-      <c r="B696" t="s">
+    <row r="707" spans="1:3">
+      <c r="C707" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="697" spans="1:3">
-      <c r="C697" t="s">
+    <row r="708" spans="1:3">
+      <c r="A708" s="1">
+        <v>103</v>
+      </c>
+      <c r="B708" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="698" spans="1:3">
-      <c r="A698" s="1">
-        <v>103</v>
-      </c>
-      <c r="B698" t="s">
+    <row r="709" spans="1:3">
+      <c r="C709" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="699" spans="1:3">
-      <c r="C699" t="s">
+    <row r="710" spans="1:3">
+      <c r="A710" s="1">
+        <v>104</v>
+      </c>
+      <c r="B710" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="700" spans="1:3">
-      <c r="A700" s="1">
-        <v>104</v>
-      </c>
-      <c r="B700" t="s">
+    <row r="711" spans="1:3">
+      <c r="C711" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3">
+      <c r="C712" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="701" spans="1:3">
-      <c r="C701" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="702" spans="1:3">
-      <c r="C702" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="703" spans="1:3">
-      <c r="A703" s="1">
+    <row r="713" spans="1:3">
+      <c r="A713" s="1">
         <v>105</v>
       </c>
-      <c r="B703" t="s">
+      <c r="B713" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3">
+      <c r="A726" s="1">
+        <v>106</v>
+      </c>
+      <c r="B726" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="716" spans="1:3">
-      <c r="A716" s="1">
-        <v>106</v>
-      </c>
-      <c r="B716" t="s">
+    <row r="727" spans="1:3">
+      <c r="C727" t="s">
         <v>580</v>
-      </c>
-    </row>
-    <row r="717" spans="1:3">
-      <c r="C717" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="718" spans="1:3">
-      <c r="C718" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="719" spans="1:3">
-      <c r="A719" s="1">
-        <v>107</v>
-      </c>
-      <c r="B719" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="720" spans="1:3">
-      <c r="C720" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="721" spans="1:3">
-      <c r="C721" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="722" spans="1:3">
-      <c r="A722" s="1">
-        <v>108</v>
-      </c>
-      <c r="B722" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="723" spans="1:3">
-      <c r="C723" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="724" spans="1:3">
-      <c r="C724" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="725" spans="1:3">
-      <c r="C725" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="726" spans="1:3">
-      <c r="C726" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="727" spans="1:3">
-      <c r="A727" s="1">
-        <v>109</v>
-      </c>
-      <c r="B727" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="728" spans="1:3">
       <c r="C728" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3">
+      <c r="A729" s="1">
+        <v>107</v>
+      </c>
+      <c r="B729" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3">
+      <c r="C730" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3">
+      <c r="C731" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3">
+      <c r="A732" s="1">
+        <v>108</v>
+      </c>
+      <c r="B732" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3">
+      <c r="C733" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3">
+      <c r="C734" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3">
+      <c r="C735" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3">
+      <c r="C736" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3">
+      <c r="A737" s="1">
+        <v>109</v>
+      </c>
+      <c r="B737" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3">
+      <c r="C738" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3">
+      <c r="B748" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="738" spans="1:3">
-      <c r="B738" t="s">
+    <row r="749" spans="1:3">
+      <c r="C749" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="739" spans="1:3">
-      <c r="C739" t="s">
+    <row r="759" spans="1:3">
+      <c r="A759" s="1">
+        <v>110</v>
+      </c>
+      <c r="B759" t="s">
         <v>596</v>
-      </c>
-    </row>
-    <row r="749" spans="1:3">
-      <c r="A749" s="1">
-        <v>110</v>
-      </c>
-      <c r="B749" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="750" spans="1:3">
-      <c r="C750" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="751" spans="1:3">
-      <c r="B751" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="752" spans="1:3">
-      <c r="C752" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="753" spans="1:3">
-      <c r="C753" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="754" spans="1:3">
-      <c r="B754" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="755" spans="1:3">
-      <c r="C755" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="756" spans="1:3">
-      <c r="A756" s="1">
-        <v>111</v>
-      </c>
-      <c r="B756" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="757" spans="1:3">
-      <c r="C757" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="758" spans="1:3">
-      <c r="C758" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="759" spans="1:3">
-      <c r="B759" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="760" spans="1:3">
       <c r="C760" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="761" spans="1:3">
       <c r="B761" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="762" spans="1:3">
       <c r="C762" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
     </row>
     <row r="763" spans="1:3">
-      <c r="A763" s="1">
-        <v>112</v>
-      </c>
-      <c r="B763" t="s">
-        <v>611</v>
+      <c r="C763" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="764" spans="1:3">
-      <c r="C764" t="s">
-        <v>612</v>
+      <c r="B764" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="765" spans="1:3">
       <c r="C765" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="766" spans="1:3">
-      <c r="C766" t="s">
-        <v>614</v>
+      <c r="A766" s="1">
+        <v>111</v>
+      </c>
+      <c r="B766" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="767" spans="1:3">
-      <c r="C767" s="4" t="s">
-        <v>615</v>
+      <c r="C767" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="768" spans="1:3">
-      <c r="A768" s="1">
-        <v>113</v>
-      </c>
-      <c r="B768" t="s">
-        <v>616</v>
+      <c r="C768" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="769" spans="1:3">
-      <c r="C769" t="s">
-        <v>617</v>
+      <c r="B769" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="770" spans="1:3">
       <c r="C770" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="771" spans="1:3">
-      <c r="A771" s="1">
-        <v>114</v>
-      </c>
       <c r="B771" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="772" spans="1:3">
       <c r="C772" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
     </row>
     <row r="773" spans="1:3">
       <c r="A773" s="1">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B773" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="774" spans="1:3">
       <c r="C774" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
     </row>
     <row r="775" spans="1:3">
       <c r="C775" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="776" spans="1:3">
-      <c r="C776" s="4" t="s">
-        <v>624</v>
+      <c r="C776" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="777" spans="1:3">
-      <c r="A777" s="1">
-        <v>116</v>
-      </c>
-      <c r="B777" t="s">
-        <v>625</v>
+      <c r="C777" s="4" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="778" spans="1:3">
-      <c r="C778" t="s">
-        <v>626</v>
+      <c r="A778" s="1">
+        <v>113</v>
+      </c>
+      <c r="B778" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="779" spans="1:3">
       <c r="C779" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3">
+      <c r="C780" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3">
+      <c r="A781" s="1">
+        <v>114</v>
+      </c>
+      <c r="B781" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3">
+      <c r="C782" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3">
+      <c r="A783" s="1">
+        <v>115</v>
+      </c>
+      <c r="B783" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3">
+      <c r="C784" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4">
+      <c r="C785" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4">
+      <c r="C786" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4">
+      <c r="C787" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4">
+      <c r="C788" s="4"/>
+      <c r="D788" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4">
+      <c r="C789" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4">
+      <c r="C790" s="4"/>
+      <c r="D790" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4">
+      <c r="C791" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4">
+      <c r="C792" s="4"/>
+      <c r="D792" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4">
+      <c r="C793" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4">
+      <c r="A794" s="1">
+        <v>116</v>
+      </c>
+      <c r="B794" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4">
+      <c r="C795" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4">
+      <c r="C796" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4">
+      <c r="A797" s="1">
+        <v>117</v>
+      </c>
+      <c r="B797" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="780" spans="1:3">
-      <c r="A780" s="1">
-        <v>117</v>
-      </c>
-      <c r="B780" t="s">
+    <row r="798" spans="1:4">
+      <c r="C798" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="781" spans="1:3">
-      <c r="C781" t="s">
+    <row r="799" spans="1:4">
+      <c r="B799" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="782" spans="1:3">
-      <c r="B782" t="s">
+    <row r="800" spans="1:4">
+      <c r="C800" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="783" spans="1:3">
-      <c r="C783" t="s">
+    <row r="801" spans="1:3">
+      <c r="B801" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3">
+      <c r="C802" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="784" spans="1:3">
-      <c r="B784" t="s">
+    <row r="803" spans="1:3">
+      <c r="A803" s="1">
+        <v>118</v>
+      </c>
+      <c r="B803" t="s">
         <v>633</v>
-      </c>
-    </row>
-    <row r="785" spans="1:3">
-      <c r="C785" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="786" spans="1:3">
-      <c r="A786" s="1">
-        <v>118</v>
-      </c>
-      <c r="B786" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="787" spans="1:3">
-      <c r="C787" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="788" spans="1:3">
-      <c r="C788" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="789" spans="1:3">
-      <c r="A789" s="1">
-        <v>119</v>
-      </c>
-      <c r="B789" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="790" spans="1:3">
-      <c r="C790" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="791" spans="1:3">
-      <c r="C791" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="792" spans="1:3">
-      <c r="A792" s="1">
-        <v>120</v>
-      </c>
-      <c r="B792" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="793" spans="1:3">
-      <c r="C793" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="794" spans="1:3">
-      <c r="C794" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="795" spans="1:3">
-      <c r="C795" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="796" spans="1:3">
-      <c r="A796" s="1">
-        <v>121</v>
-      </c>
-      <c r="B796" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="797" spans="1:3">
-      <c r="C797" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="798" spans="1:3">
-      <c r="B798" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="799" spans="1:3">
-      <c r="C799" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="800" spans="1:3">
-      <c r="B800" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="801" spans="1:3">
-      <c r="C801" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="802" spans="1:3">
-      <c r="A802" s="1">
-        <v>122</v>
-      </c>
-      <c r="B802" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="803" spans="1:3">
-      <c r="C803" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="804" spans="1:3">
       <c r="C804" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
     </row>
     <row r="805" spans="1:3">
-      <c r="A805" s="1">
-        <v>123</v>
-      </c>
-      <c r="B805" t="s">
-        <v>655</v>
+      <c r="C805" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="806" spans="1:3">
-      <c r="C806" t="s">
-        <v>659</v>
+      <c r="A806" s="1">
+        <v>119</v>
+      </c>
+      <c r="B806" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="807" spans="1:3">
-      <c r="C807" s="2" t="s">
-        <v>658</v>
+      <c r="C807" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="808" spans="1:3">
-      <c r="B808" t="s">
-        <v>656</v>
+      <c r="C808" s="2" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="809" spans="1:3">
-      <c r="C809" t="s">
-        <v>657</v>
+      <c r="A809" s="1">
+        <v>120</v>
+      </c>
+      <c r="B809" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="810" spans="1:3">
-      <c r="A810" s="1">
-        <v>124</v>
-      </c>
-      <c r="B810" t="s">
-        <v>660</v>
+      <c r="C810" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="811" spans="1:3">
       <c r="C811" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
     </row>
     <row r="812" spans="1:3">
       <c r="C812" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
     </row>
     <row r="813" spans="1:3">
       <c r="A813" s="1">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B813" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
     </row>
     <row r="814" spans="1:3">
       <c r="C814" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
     </row>
     <row r="815" spans="1:3">
       <c r="B815" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
     </row>
     <row r="816" spans="1:3">
       <c r="C816" t="s">
-        <v>666</v>
+        <v>647</v>
       </c>
     </row>
     <row r="817" spans="1:3">
       <c r="B817" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
     </row>
     <row r="818" spans="1:3">
       <c r="C818" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
     </row>
     <row r="819" spans="1:3">
+      <c r="A819" s="1">
+        <v>122</v>
+      </c>
       <c r="B819" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
     </row>
     <row r="820" spans="1:3">
       <c r="C820" t="s">
-        <v>668</v>
+        <v>652</v>
       </c>
     </row>
     <row r="821" spans="1:3">
-      <c r="A821" s="1">
-        <v>126</v>
-      </c>
-      <c r="B821" t="s">
-        <v>672</v>
+      <c r="C821" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="822" spans="1:3">
-      <c r="C822" s="2" t="s">
-        <v>671</v>
+      <c r="A822" s="1">
+        <v>123</v>
+      </c>
+      <c r="B822" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="823" spans="1:3">
       <c r="C823" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="824" spans="1:3">
-      <c r="C824" t="s">
-        <v>674</v>
+      <c r="C824" s="2" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="825" spans="1:3">
-      <c r="C825" t="s">
-        <v>675</v>
+      <c r="B825" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="826" spans="1:3">
       <c r="C826" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
     </row>
     <row r="827" spans="1:3">
+      <c r="A827" s="1">
+        <v>124</v>
+      </c>
       <c r="B827" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
     </row>
     <row r="828" spans="1:3">
-      <c r="C828" s="3" t="s">
-        <v>679</v>
+      <c r="C828" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="829" spans="1:3">
       <c r="C829" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
     </row>
     <row r="830" spans="1:3">
       <c r="A830" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B830" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
     </row>
     <row r="831" spans="1:3">
       <c r="C831" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
     </row>
     <row r="832" spans="1:3">
-      <c r="C832" t="s">
-        <v>682</v>
+      <c r="B832" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="833" spans="1:3">
       <c r="C833" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="834" spans="1:3">
       <c r="B834" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
     </row>
     <row r="835" spans="1:3">
       <c r="C835" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
     </row>
     <row r="836" spans="1:3">
-      <c r="C836" t="s">
-        <v>686</v>
+      <c r="B836" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="837" spans="1:3">
-      <c r="C837" s="4" t="s">
-        <v>687</v>
+      <c r="C837" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="838" spans="1:3">
+      <c r="A838" s="1">
+        <v>126</v>
+      </c>
       <c r="B838" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
     </row>
     <row r="839" spans="1:3">
-      <c r="C839" t="s">
-        <v>689</v>
+      <c r="C839" s="2" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="840" spans="1:3">
-      <c r="A840" s="1">
-        <v>128</v>
-      </c>
-      <c r="B840" t="s">
-        <v>690</v>
+      <c r="C840" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="841" spans="1:3">
       <c r="C841" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
     </row>
     <row r="842" spans="1:3">
-      <c r="A842" s="1">
-        <v>129</v>
-      </c>
-      <c r="B842" t="s">
-        <v>696</v>
+      <c r="C842" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="843" spans="1:3">
       <c r="C843" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="844" spans="1:3">
-      <c r="A844" s="1">
-        <v>130</v>
-      </c>
       <c r="B844" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
     </row>
     <row r="845" spans="1:3">
-      <c r="C845" t="s">
-        <v>699</v>
+      <c r="C845" s="3" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="846" spans="1:3">
-      <c r="A846" s="1">
-        <v>131</v>
-      </c>
-      <c r="B846" t="s">
-        <v>702</v>
+      <c r="C846" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="847" spans="1:3">
-      <c r="C847" t="s">
-        <v>703</v>
+      <c r="A847" s="1">
+        <v>127</v>
+      </c>
+      <c r="B847" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="848" spans="1:3">
-      <c r="B848" t="s">
-        <v>700</v>
+      <c r="C848" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="849" spans="1:3">
       <c r="C849" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
     </row>
     <row r="850" spans="1:3">
-      <c r="B850" t="s">
-        <v>705</v>
+      <c r="C850" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="851" spans="1:3">
-      <c r="C851" t="s">
-        <v>704</v>
+      <c r="B851" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="852" spans="1:3">
-      <c r="A852" s="1">
-        <v>132</v>
-      </c>
-      <c r="B852" t="s">
-        <v>706</v>
+      <c r="C852" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="853" spans="1:3">
       <c r="C853" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
     </row>
     <row r="854" spans="1:3">
-      <c r="B854" t="s">
-        <v>708</v>
+      <c r="C854" s="4" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="855" spans="1:3">
-      <c r="C855" t="s">
-        <v>709</v>
+      <c r="B855" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="856" spans="1:3">
-      <c r="B856" t="s">
-        <v>710</v>
+      <c r="C856" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="857" spans="1:3">
-      <c r="C857" t="s">
-        <v>711</v>
+      <c r="A857" s="1">
+        <v>128</v>
+      </c>
+      <c r="B857" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="858" spans="1:3">
-      <c r="B858" t="s">
-        <v>712</v>
+      <c r="C858" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="859" spans="1:3">
-      <c r="C859" t="s">
-        <v>713</v>
+      <c r="A859" s="1">
+        <v>129</v>
+      </c>
+      <c r="B859" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="860" spans="1:3">
-      <c r="A860" s="1">
-        <v>133</v>
-      </c>
-      <c r="B860" t="s">
-        <v>714</v>
+      <c r="C860" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="861" spans="1:3">
-      <c r="C861" t="s">
-        <v>715</v>
+      <c r="A861" s="1">
+        <v>130</v>
+      </c>
+      <c r="B861" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="862" spans="1:3">
-      <c r="A862" s="1">
-        <v>134</v>
-      </c>
-      <c r="B862" t="s">
-        <v>716</v>
+      <c r="C862" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="863" spans="1:3">
-      <c r="C863" t="s">
-        <v>717</v>
+      <c r="A863" s="1">
+        <v>131</v>
+      </c>
+      <c r="B863" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="864" spans="1:3">
       <c r="C864" t="s">
-        <v>718</v>
+        <v>702</v>
       </c>
     </row>
     <row r="865" spans="1:3">
       <c r="B865" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
     </row>
     <row r="866" spans="1:3">
       <c r="C866" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
     </row>
     <row r="867" spans="1:3">
-      <c r="C867" t="s">
-        <v>721</v>
+      <c r="B867" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="868" spans="1:3">
-      <c r="B868" t="s">
-        <v>722</v>
+      <c r="C868" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="869" spans="1:3">
-      <c r="C869" t="s">
-        <v>723</v>
+      <c r="A869" s="1">
+        <v>132</v>
+      </c>
+      <c r="B869" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="870" spans="1:3">
-      <c r="B870" t="s">
-        <v>724</v>
+      <c r="C870" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="871" spans="1:3">
-      <c r="C871" t="s">
-        <v>725</v>
+      <c r="B871" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="872" spans="1:3">
-      <c r="A872" s="1">
-        <v>135</v>
-      </c>
-      <c r="B872" t="s">
-        <v>726</v>
+      <c r="C872" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="873" spans="1:3">
-      <c r="C873" t="s">
-        <v>727</v>
+      <c r="B873" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="874" spans="1:3">
-      <c r="B874" t="s">
-        <v>729</v>
+      <c r="C874" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="875" spans="1:3">
-      <c r="C875" t="s">
-        <v>728</v>
+      <c r="B875" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="876" spans="1:3">
-      <c r="B876" t="s">
-        <v>731</v>
+      <c r="C876" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="877" spans="1:3">
-      <c r="C877" t="s">
-        <v>730</v>
+      <c r="A877" s="1">
+        <v>133</v>
+      </c>
+      <c r="B877" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="878" spans="1:3">
-      <c r="B878" t="s">
-        <v>732</v>
+      <c r="C878" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="879" spans="1:3">
-      <c r="C879" t="s">
-        <v>733</v>
+      <c r="A879" s="1">
+        <v>134</v>
+      </c>
+      <c r="B879" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="880" spans="1:3">
-      <c r="A880" s="1">
-        <v>136</v>
-      </c>
-      <c r="B880" t="s">
-        <v>734</v>
+      <c r="C880" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="881" spans="1:3">
       <c r="C881" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
     </row>
     <row r="882" spans="1:3">
-      <c r="C882" t="s">
-        <v>737</v>
+      <c r="B882" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="883" spans="1:3">
       <c r="C883" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
     </row>
     <row r="884" spans="1:3">
-      <c r="A884" s="1">
-        <v>137</v>
-      </c>
-      <c r="B884" t="s">
-        <v>738</v>
+      <c r="C884" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="885" spans="1:3">
-      <c r="C885" t="s">
-        <v>739</v>
+      <c r="B885" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="886" spans="1:3">
       <c r="C886" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
     </row>
     <row r="887" spans="1:3">
-      <c r="C887" t="s">
-        <v>741</v>
+      <c r="B887" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="888" spans="1:3">
-      <c r="A888" s="1">
-        <v>138</v>
-      </c>
-      <c r="B888" t="s">
-        <v>742</v>
+      <c r="C888" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="889" spans="1:3">
-      <c r="C889" t="s">
-        <v>743</v>
+      <c r="A889" s="1">
+        <v>135</v>
+      </c>
+      <c r="B889" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="890" spans="1:3">
-      <c r="A890" s="1">
-        <v>139</v>
-      </c>
-      <c r="B890" t="s">
-        <v>744</v>
+      <c r="C890" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="891" spans="1:3">
-      <c r="C891" t="s">
-        <v>745</v>
+      <c r="B891" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="892" spans="1:3">
       <c r="C892" t="s">
-        <v>746</v>
+        <v>727</v>
       </c>
     </row>
     <row r="893" spans="1:3">
-      <c r="C893" s="2" t="s">
-        <v>747</v>
+      <c r="B893" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="894" spans="1:3">
-      <c r="B894" t="s">
-        <v>748</v>
+      <c r="C894" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="895" spans="1:3">
-      <c r="C895" t="s">
-        <v>749</v>
+      <c r="B895" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="896" spans="1:3">
-      <c r="A896" s="1">
-        <v>140</v>
-      </c>
-      <c r="B896" t="s">
-        <v>750</v>
+      <c r="C896" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="897" spans="1:3">
-      <c r="C897" t="s">
-        <v>751</v>
+      <c r="A897" s="1">
+        <v>136</v>
+      </c>
+      <c r="B897" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="898" spans="1:3">
       <c r="C898" t="s">
-        <v>752</v>
+        <v>734</v>
       </c>
     </row>
     <row r="899" spans="1:3">
-      <c r="C899" s="3" t="s">
-        <v>753</v>
+      <c r="C899" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="900" spans="1:3">
-      <c r="A900" s="1">
-        <v>141</v>
-      </c>
-      <c r="B900" t="s">
-        <v>754</v>
+      <c r="C900" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="901" spans="1:3">
-      <c r="C901" t="s">
-        <v>755</v>
+      <c r="A901" s="1">
+        <v>137</v>
+      </c>
+      <c r="B901" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="902" spans="1:3">
       <c r="C902" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
     </row>
     <row r="903" spans="1:3">
-      <c r="B903" t="s">
-        <v>757</v>
+      <c r="C903" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="904" spans="1:3">
       <c r="C904" t="s">
-        <v>758</v>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3">
+      <c r="A905" s="1">
+        <v>138</v>
+      </c>
+      <c r="B905" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3">
+      <c r="C906" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3">
+      <c r="A907" s="1">
+        <v>139</v>
+      </c>
+      <c r="B907" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3">
+      <c r="C908" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3">
+      <c r="C909" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3">
+      <c r="C910" s="2" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="911" spans="1:3">
-      <c r="A911" s="1">
-        <v>142</v>
-      </c>
       <c r="B911" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
     </row>
     <row r="912" spans="1:3">
       <c r="C912" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3">
+      <c r="A913" s="1">
+        <v>140</v>
+      </c>
+      <c r="B913" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3">
+      <c r="C914" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3">
+      <c r="C915" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3">
+      <c r="C916" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3">
+      <c r="A917" s="1">
+        <v>141</v>
+      </c>
+      <c r="B917" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3">
+      <c r="C918" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3">
+      <c r="C919" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3">
+      <c r="B920" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3">
+      <c r="C921" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3">
+      <c r="A928" s="1">
+        <v>142</v>
+      </c>
+      <c r="B928" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4">
+      <c r="C929" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4">
+      <c r="B930" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4">
+      <c r="C931" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="913" spans="1:4">
-      <c r="B913" t="s">
+    <row r="932" spans="1:4">
+      <c r="B932" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="914" spans="1:4">
-      <c r="C914" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="915" spans="1:4">
-      <c r="B915" t="s">
+    <row r="933" spans="1:4">
+      <c r="C933" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="916" spans="1:4">
-      <c r="C916" t="s">
+    <row r="934" spans="1:4">
+      <c r="A934" s="1">
+        <v>143</v>
+      </c>
+      <c r="B934" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="917" spans="1:4">
-      <c r="A917" s="1">
-        <v>143</v>
-      </c>
-      <c r="B917" t="s">
+    <row r="935" spans="1:4">
+      <c r="C935" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="918" spans="1:4">
-      <c r="C918" t="s">
+    <row r="936" spans="1:4">
+      <c r="C936" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="919" spans="1:4">
-      <c r="C919" t="s">
+    <row r="937" spans="1:4">
+      <c r="D937" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="920" spans="1:4">
-      <c r="D920" t="s">
+    <row r="938" spans="1:4">
+      <c r="A938" s="1">
+        <v>144</v>
+      </c>
+      <c r="B938" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="921" spans="1:4">
-      <c r="A921" s="1">
-        <v>144</v>
-      </c>
-      <c r="B921" t="s">
+    <row r="939" spans="1:4">
+      <c r="C939" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="940" spans="1:4">
+      <c r="C940" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="922" spans="1:4">
-      <c r="C922" t="s">
+    <row r="941" spans="1:4">
+      <c r="B941" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="923" spans="1:4">
-      <c r="C923" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="924" spans="1:4">
-      <c r="B924" t="s">
+    <row r="942" spans="1:4">
+      <c r="C942" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="925" spans="1:4">
-      <c r="C925" t="s">
+    <row r="943" spans="1:4">
+      <c r="A943" s="1">
+        <v>145</v>
+      </c>
+      <c r="B943" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="926" spans="1:4">
-      <c r="A926" s="1">
-        <v>145</v>
-      </c>
-      <c r="B926" t="s">
+    <row r="944" spans="1:4">
+      <c r="C944" t="s">
         <v>774</v>
-      </c>
-    </row>
-    <row r="927" spans="1:4">
-      <c r="C927" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="928" spans="1:4">
-      <c r="C928" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="929" spans="1:3">
-      <c r="B929" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="930" spans="1:3">
-      <c r="C930" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="931" spans="1:3">
-      <c r="A931" s="1">
-        <v>146</v>
-      </c>
-      <c r="B931" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="932" spans="1:3">
-      <c r="C932" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="933" spans="1:3">
-      <c r="C933" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="934" spans="1:3">
-      <c r="C934" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="935" spans="1:3">
-      <c r="C935" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="936" spans="1:3">
-      <c r="A936" s="1">
-        <v>147</v>
-      </c>
-      <c r="B936" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="937" spans="1:3">
-      <c r="C937" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="938" spans="1:3">
-      <c r="B938" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="939" spans="1:3">
-      <c r="C939" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="940" spans="1:3">
-      <c r="B940" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="941" spans="1:3">
-      <c r="C941" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="942" spans="1:3">
-      <c r="B942" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="943" spans="1:3">
-      <c r="C943" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="944" spans="1:3">
-      <c r="A944" s="1">
-        <v>148</v>
-      </c>
-      <c r="B944" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="945" spans="1:3">
       <c r="C945" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
     </row>
     <row r="946" spans="1:3">
-      <c r="C946" t="s">
-        <v>798</v>
+      <c r="B946" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="947" spans="1:3">
-      <c r="A947" s="1">
-        <v>149</v>
-      </c>
-      <c r="B947" t="s">
-        <v>799</v>
+      <c r="C947" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="948" spans="1:3">
-      <c r="C948" t="s">
-        <v>800</v>
+      <c r="A948" s="1">
+        <v>146</v>
+      </c>
+      <c r="B948" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="949" spans="1:3">
-      <c r="A949" s="1">
-        <v>150</v>
-      </c>
-      <c r="B949" t="s">
-        <v>801</v>
+      <c r="C949" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="950" spans="1:3">
       <c r="C950" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
     </row>
     <row r="951" spans="1:3">
       <c r="C951" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
     </row>
     <row r="952" spans="1:3">
       <c r="C952" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
     </row>
     <row r="953" spans="1:3">
-      <c r="C953" t="s">
-        <v>805</v>
+      <c r="A953" s="1">
+        <v>147</v>
+      </c>
+      <c r="B953" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="954" spans="1:3">
-      <c r="A954" s="1">
-        <v>151</v>
-      </c>
-      <c r="B954" t="s">
-        <v>806</v>
+      <c r="C954" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="955" spans="1:3">
-      <c r="C955" t="s">
-        <v>807</v>
+      <c r="B955" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="956" spans="1:3">
-      <c r="B956" t="s">
-        <v>808</v>
+      <c r="C956" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="957" spans="1:3">
-      <c r="C957" t="s">
-        <v>809</v>
+      <c r="B957" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="958" spans="1:3">
-      <c r="B958" t="s">
-        <v>810</v>
+      <c r="C958" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="959" spans="1:3">
-      <c r="C959" t="s">
-        <v>811</v>
+      <c r="B959" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="960" spans="1:3">
-      <c r="A960" s="1">
-        <v>152</v>
-      </c>
-      <c r="B960" t="s">
-        <v>817</v>
+      <c r="C960" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="961" spans="1:3">
-      <c r="C961" t="s">
-        <v>818</v>
+      <c r="A961" s="1">
+        <v>148</v>
+      </c>
+      <c r="B961" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="962" spans="1:3">
       <c r="C962" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
     </row>
     <row r="963" spans="1:3">
       <c r="C963" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
     </row>
     <row r="964" spans="1:3">
       <c r="A964" s="1">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B964" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
     </row>
     <row r="965" spans="1:3">
       <c r="C965" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="966" spans="1:3">
-      <c r="C966" t="s">
-        <v>823</v>
+      <c r="A966" s="1">
+        <v>150</v>
+      </c>
+      <c r="B966" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="967" spans="1:3">
       <c r="C967" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
     </row>
     <row r="968" spans="1:3">
-      <c r="A968" s="1">
-        <v>154</v>
-      </c>
-      <c r="B968" t="s">
-        <v>825</v>
+      <c r="C968" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="969" spans="1:3">
-      <c r="C969" s="3" t="s">
-        <v>826</v>
+      <c r="C969" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="970" spans="1:3">
       <c r="C970" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
     </row>
     <row r="971" spans="1:3">
       <c r="A971" s="1">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B971" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
     </row>
     <row r="972" spans="1:3">
       <c r="C972" t="s">
-        <v>830</v>
+        <v>806</v>
       </c>
     </row>
     <row r="973" spans="1:3">
-      <c r="C973" t="s">
-        <v>829</v>
+      <c r="B973" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="974" spans="1:3">
-      <c r="B974" t="s">
-        <v>831</v>
+      <c r="C974" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="975" spans="1:3">
-      <c r="C975" s="3" t="s">
-        <v>832</v>
+      <c r="B975" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="976" spans="1:3">
-      <c r="A976" s="1">
-        <v>156</v>
-      </c>
-      <c r="B976" t="s">
-        <v>833</v>
+      <c r="C976" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="977" spans="1:3">
-      <c r="C977" t="s">
-        <v>834</v>
+      <c r="A977" s="1">
+        <v>152</v>
+      </c>
+      <c r="B977" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="978" spans="1:3">
-      <c r="A978" s="1">
-        <v>157</v>
-      </c>
-      <c r="B978" t="s">
-        <v>835</v>
+      <c r="C978" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="979" spans="1:3">
       <c r="C979" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
     </row>
     <row r="980" spans="1:3">
       <c r="C980" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
     </row>
     <row r="981" spans="1:3">
-      <c r="B981" s="3" t="s">
-        <v>838</v>
+      <c r="A981" s="1">
+        <v>153</v>
+      </c>
+      <c r="B981" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="982" spans="1:3">
       <c r="C982" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
     </row>
     <row r="983" spans="1:3">
-      <c r="B983" t="s">
-        <v>840</v>
+      <c r="C983" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="984" spans="1:3">
       <c r="C984" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
     </row>
     <row r="985" spans="1:3">
+      <c r="A985" s="1">
+        <v>154</v>
+      </c>
       <c r="B985" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
     </row>
     <row r="986" spans="1:3">
-      <c r="C986" t="s">
-        <v>843</v>
+      <c r="C986" s="3" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="987" spans="1:3">
-      <c r="A987" s="1">
-        <v>158</v>
-      </c>
-      <c r="B987" t="s">
-        <v>844</v>
+      <c r="C987" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="988" spans="1:3">
-      <c r="C988" t="s">
-        <v>845</v>
+      <c r="A988" s="1">
+        <v>155</v>
+      </c>
+      <c r="B988" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="989" spans="1:3">
-      <c r="B989" t="s">
-        <v>846</v>
+      <c r="C989" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="990" spans="1:3">
       <c r="C990" t="s">
-        <v>847</v>
+        <v>828</v>
       </c>
     </row>
     <row r="991" spans="1:3">
       <c r="B991" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
     </row>
     <row r="992" spans="1:3">
-      <c r="C992" t="s">
-        <v>849</v>
+      <c r="C992" s="3" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="993" spans="1:3">
+      <c r="A993" s="1">
+        <v>156</v>
+      </c>
       <c r="B993" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
     </row>
     <row r="994" spans="1:3">
       <c r="C994" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
     </row>
     <row r="995" spans="1:3">
       <c r="A995" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B995" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
     </row>
     <row r="996" spans="1:3">
-      <c r="C996" s="15" t="s">
-        <v>853</v>
+      <c r="C996" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="997" spans="1:3">
       <c r="C997" t="s">
-        <v>854</v>
+        <v>836</v>
       </c>
     </row>
     <row r="998" spans="1:3">
-      <c r="A998" s="1">
-        <v>160</v>
-      </c>
-      <c r="B998" t="s">
-        <v>855</v>
+      <c r="B998" s="3" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="999" spans="1:3">
       <c r="C999" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1000" spans="1:3">
       <c r="B1000" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
     </row>
     <row r="1001" spans="1:3">
       <c r="C1001" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1002" spans="1:3">
-      <c r="A1002" s="1">
-        <v>161</v>
-      </c>
       <c r="B1002" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1003" spans="1:3">
       <c r="C1003" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1004" spans="1:3">
+      <c r="A1004" s="1">
+        <v>158</v>
+      </c>
       <c r="B1004" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="1005" spans="1:3">
       <c r="C1005" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
     </row>
     <row r="1006" spans="1:3">
-      <c r="C1006" t="s">
-        <v>862</v>
+      <c r="B1006" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="1007" spans="1:3">
-      <c r="B1007" t="s">
-        <v>863</v>
+      <c r="C1007" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="1008" spans="1:3">
-      <c r="C1008" t="s">
-        <v>864</v>
+      <c r="B1008" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="1009" spans="1:3">
-      <c r="B1009" t="s">
-        <v>865</v>
+      <c r="C1009" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="1010" spans="1:3">
-      <c r="C1010" t="s">
-        <v>866</v>
+      <c r="B1010" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="1011" spans="1:3">
-      <c r="B1011" t="s">
-        <v>867</v>
+      <c r="C1011" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="1012" spans="1:3">
-      <c r="C1012" t="s">
-        <v>868</v>
+      <c r="A1012" s="1">
+        <v>159</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="1013" spans="1:3">
-      <c r="A1013" s="1">
-        <v>162</v>
-      </c>
-      <c r="B1013" t="s">
-        <v>914</v>
+      <c r="C1013" s="15" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="1014" spans="1:3">
       <c r="C1014" t="s">
-        <v>869</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1015" spans="1:3">
+      <c r="A1015" s="1">
+        <v>160</v>
+      </c>
       <c r="B1015" t="s">
-        <v>870</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1016" spans="1:3">
       <c r="C1016" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1017" spans="1:3">
-      <c r="A1017" s="1">
-        <v>163</v>
-      </c>
       <c r="B1017" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1018" spans="1:3">
       <c r="C1018" t="s">
-        <v>874</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1019" spans="1:3">
+      <c r="A1019" s="1">
+        <v>161</v>
+      </c>
       <c r="B1019" t="s">
-        <v>875</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1020" spans="1:3">
       <c r="C1020" t="s">
-        <v>876</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1021" spans="1:3">
-      <c r="C1021" t="s">
-        <v>877</v>
+      <c r="B1021" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="1022" spans="1:3">
-      <c r="B1022" t="s">
-        <v>878</v>
+      <c r="C1022" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="1023" spans="1:3">
       <c r="C1023" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1024" spans="1:3">
-      <c r="A1024" s="1">
-        <v>164</v>
-      </c>
       <c r="B1024" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
     </row>
     <row r="1025" spans="1:3">
       <c r="C1025" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
     </row>
     <row r="1026" spans="1:3">
-      <c r="A1026" s="1">
-        <v>165</v>
-      </c>
       <c r="B1026" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1027" spans="1:3">
       <c r="C1027" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
     </row>
     <row r="1028" spans="1:3">
-      <c r="A1028" s="1">
-        <v>166</v>
-      </c>
       <c r="B1028" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
     </row>
     <row r="1029" spans="1:3">
       <c r="C1029" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
     </row>
     <row r="1030" spans="1:3">
-      <c r="C1030" t="s">
-        <v>886</v>
+      <c r="A1030" s="1">
+        <v>162</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="1031" spans="1:3">
       <c r="C1031" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1032" spans="1:3">
-      <c r="C1032" t="s">
-        <v>888</v>
+      <c r="B1032" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="1033" spans="1:3">
       <c r="C1033" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1034" spans="1:3">
       <c r="A1034" s="1">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B1034" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
     </row>
     <row r="1035" spans="1:3">
       <c r="C1035" t="s">
-        <v>891</v>
+        <v>873</v>
       </c>
     </row>
     <row r="1036" spans="1:3">
       <c r="B1036" t="s">
-        <v>892</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1037" spans="1:3">
       <c r="C1037" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3">
+      <c r="C1038" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3">
+      <c r="B1039" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3">
+      <c r="C1040" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3">
+      <c r="A1041" s="1">
+        <v>164</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3">
+      <c r="C1042" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3">
+      <c r="A1043" s="1">
+        <v>165</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3">
+      <c r="C1044" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3">
+      <c r="A1045" s="1">
+        <v>166</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3">
+      <c r="C1046" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3">
+      <c r="C1047" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3">
+      <c r="C1048" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3">
+      <c r="C1049" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3">
+      <c r="C1050" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3">
+      <c r="A1051" s="1">
+        <v>167</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3">
+      <c r="C1052" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3">
+      <c r="B1053" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3">
+      <c r="C1054" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3">
+      <c r="B1055" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="1038" spans="1:3">
-      <c r="B1038" t="s">
+    <row r="1056" spans="1:3">
+      <c r="C1056" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="1039" spans="1:3">
-      <c r="C1039" t="s">
+    <row r="1057" spans="1:4">
+      <c r="A1057" s="1">
+        <v>168</v>
+      </c>
+      <c r="B1057" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="1040" spans="1:3">
-      <c r="A1040" s="1">
-        <v>168</v>
-      </c>
-      <c r="B1040" t="s">
+    <row r="1058" spans="1:4">
+      <c r="C1058" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="1041" spans="1:4">
-      <c r="C1041" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:4">
-      <c r="A1042" s="1">
+    <row r="1059" spans="1:4">
+      <c r="A1059" s="1">
         <v>169</v>
       </c>
-      <c r="B1042" t="s">
+      <c r="B1059" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4">
+      <c r="C1060" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="1043" spans="1:4">
-      <c r="C1043" t="s">
+    <row r="1061" spans="1:4">
+      <c r="D1061" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="1044" spans="1:4">
-      <c r="D1044" t="s">
+    <row r="1062" spans="1:4">
+      <c r="C1062" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="1045" spans="1:4">
-      <c r="C1045" t="s">
+    <row r="1063" spans="1:4">
+      <c r="D1063" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="1046" spans="1:4">
-      <c r="D1046" t="s">
+    <row r="1064" spans="1:4">
+      <c r="C1064" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="1047" spans="1:4">
-      <c r="C1047" t="s">
+    <row r="1065" spans="1:4">
+      <c r="D1065" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="1048" spans="1:4">
-      <c r="D1048" t="s">
+    <row r="1066" spans="1:4">
+      <c r="A1066" s="1">
+        <v>170</v>
+      </c>
+      <c r="B1066" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="1049" spans="1:4">
-      <c r="A1049" s="1">
-        <v>170</v>
-      </c>
-      <c r="B1049" t="s">
+    <row r="1067" spans="1:4">
+      <c r="C1067" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4">
+      <c r="C1068" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="1050" spans="1:4">
-      <c r="C1050" t="s">
+    <row r="1093" spans="1:4">
+      <c r="B1093" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="1051" spans="1:4">
-      <c r="C1051" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:4">
-      <c r="B1076" t="s">
+    <row r="1094" spans="1:4">
+      <c r="C1094" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="1077" spans="1:4">
-      <c r="C1077" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:4">
-      <c r="A1079" s="1">
+    <row r="1096" spans="1:4">
+      <c r="A1096" s="1">
         <v>171</v>
       </c>
-      <c r="B1079" t="s">
+      <c r="B1096" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4">
+      <c r="C1097" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="1080" spans="1:4">
-      <c r="C1080" t="s">
+    <row r="1098" spans="1:4">
+      <c r="B1098" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="1081" spans="1:4">
-      <c r="B1081" t="s">
+    <row r="1099" spans="1:4">
+      <c r="C1099" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="1082" spans="1:4">
-      <c r="C1082" t="s">
+    <row r="1100" spans="1:4">
+      <c r="A1100" s="1">
+        <v>172</v>
+      </c>
+      <c r="B1100" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="1083" spans="1:4">
-      <c r="A1083" s="1">
-        <v>172</v>
-      </c>
-      <c r="B1083" t="s">
+    <row r="1101" spans="1:4">
+      <c r="C1101" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="1084" spans="1:4">
-      <c r="C1084" t="s">
+    <row r="1102" spans="1:4">
+      <c r="D1102" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="1085" spans="1:4">
-      <c r="D1085" t="s">
+    <row r="1112" spans="1:3">
+      <c r="A1112" s="1">
+        <v>173</v>
+      </c>
+      <c r="B1112" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="1095" spans="1:3">
-      <c r="A1095" s="1">
-        <v>173</v>
-      </c>
-      <c r="B1095" t="s">
+    <row r="1113" spans="1:3">
+      <c r="C1113" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="1096" spans="1:3">
-      <c r="C1096" t="s">
+    <row r="1114" spans="1:3">
+      <c r="C1114" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="1097" spans="1:3">
-      <c r="C1097" t="s">
+    <row r="1115" spans="1:3">
+      <c r="A1115" s="1">
+        <v>174</v>
+      </c>
+      <c r="B1115" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="1099" spans="1:3">
-      <c r="A1099" s="1">
-        <v>174</v>
-      </c>
-      <c r="B1099" t="s">
+    <row r="1116" spans="1:3">
+      <c r="C1116" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="1100" spans="1:3">
-      <c r="C1100" t="s">
+    <row r="1117" spans="1:3">
+      <c r="A1117" s="1">
+        <v>175</v>
+      </c>
+      <c r="B1117" t="s">
         <v>926</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3">
+      <c r="C1118" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3">
+      <c r="C1119" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3">
+      <c r="A1120" s="1">
+        <v>176</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3">
+      <c r="C1121" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3">
+      <c r="A1122" s="1">
+        <v>177</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3">
+      <c r="C1123" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3">
+      <c r="C1124" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3">
+      <c r="A1125" s="1">
+        <v>178</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3">
+      <c r="C1126" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3">
+      <c r="A1127" s="1">
+        <v>179</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3">
+      <c r="C1128" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3">
+      <c r="C1129" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4">
+      <c r="B1142" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4">
+      <c r="C1143" s="15" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4">
+      <c r="D1144" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4">
+      <c r="D1145" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4">
+      <c r="D1146" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4">
+      <c r="A1147" s="1">
+        <v>180</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4">
+      <c r="C1148" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4">
+      <c r="A1149" s="1">
+        <v>181</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4">
+      <c r="C1150" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4">
+      <c r="C1151" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4">
+      <c r="D1152" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4">
+      <c r="C1153" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4">
+      <c r="D1154" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4">
+      <c r="A1155" s="1">
+        <v>182</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4">
+      <c r="C1156" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4">
+      <c r="C1157" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4">
+      <c r="B1158" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4">
+      <c r="C1159" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4">
+      <c r="C1160" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4">
+      <c r="C1161" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4">
+      <c r="B1162" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4">
+      <c r="C1163" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4">
+      <c r="B1164" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4">
+      <c r="C1165" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4">
+      <c r="A1166" s="1">
+        <v>183</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4">
+      <c r="C1167" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4">
+      <c r="A1168" s="1">
+        <v>184</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3">
+      <c r="C1169" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3">
+      <c r="C1170" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3">
+      <c r="C1171" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3">
+      <c r="B1172" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3">
+      <c r="C1173" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3">
+      <c r="A1174" s="1">
+        <v>185</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3">
+      <c r="C1175" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3">
+      <c r="B1176" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3">
+      <c r="C1177" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3">
+      <c r="C1178" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3">
+      <c r="C1179" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3">
+      <c r="A1180" s="1">
+        <v>186</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3">
+      <c r="C1181" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3">
+      <c r="C1182" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3">
+      <c r="B1183" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3">
+      <c r="C1184" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3">
+      <c r="A1185" s="1">
+        <v>187</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3">
+      <c r="C1186" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3">
+      <c r="B1187" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3">
+      <c r="C1188" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3">
+      <c r="A1197" s="1">
+        <v>188</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3">
+      <c r="C1198" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3">
+      <c r="C1199" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3">
+      <c r="A1200" s="1">
+        <v>189</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4">
+      <c r="C1201" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4">
+      <c r="D1202" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4">
+      <c r="C1203" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4">
+      <c r="D1204" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4">
+      <c r="C1205" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4">
+      <c r="D1206" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4">
+      <c r="C1207" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4">
+      <c r="D1208" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4">
+      <c r="A1209" s="1">
+        <v>190</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4">
+      <c r="C1210" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4">
+      <c r="B1211" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4">
+      <c r="C1212" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4">
+      <c r="C1213" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4">
+      <c r="C1214" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4">
+      <c r="B1215" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4">
+      <c r="C1216" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3">
+      <c r="C1217" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3">
+      <c r="A1218" s="1">
+        <v>191</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3">
+      <c r="C1219" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3">
+      <c r="C1220" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3">
+      <c r="C1221" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3">
+      <c r="A1222" s="1">
+        <v>192</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3">
+      <c r="C1223" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3">
+      <c r="C1224" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3">
+      <c r="C1225" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3">
+      <c r="C1226" t="s">
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
